--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5ADDA-47A0-4021-9E7C-591D1057BCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A2C7F-5C9A-48E8-B594-FA64B568A147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$53</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -688,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A2C7F-5C9A-48E8-B594-FA64B568A147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DB38A0-D7B0-4886-86D6-330D7A02A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,23 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
   <si>
     <t>Контракт</t>
   </si>
@@ -148,6 +142,30 @@
   </si>
   <si>
     <t>проверять список рассылки!!!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>проверять рассылку!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / отгрузка на месте</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -157,12 +175,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -308,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -317,7 +343,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -326,16 +352,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,10 +376,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -371,41 +400,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,14 +716,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <pane ySplit="8" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,22 +740,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -747,12 +776,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -769,10 +798,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -789,10 +818,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -803,14 +832,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -827,10 +856,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -847,7 +876,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -875,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -899,7 +928,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -923,7 +952,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -947,7 +976,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -969,7 +998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -987,19 +1016,19 @@
       <c r="G13" s="8"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1029,7 +1058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -1057,7 +1086,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -1085,7 +1114,7 @@
       </c>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -1114,7 +1143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -1140,19 +1169,19 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -1180,7 +1209,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -1208,7 +1237,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>13</v>
       </c>
@@ -1236,7 +1265,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>14</v>
       </c>
@@ -1266,7 +1295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>15</v>
       </c>
@@ -1292,19 +1321,19 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>MAX(A15:A26)+1</f>
         <v>16</v>
@@ -1335,7 +1364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" ref="A28:A32" si="17">MAX(A16:A27)+1</f>
         <v>17</v>
@@ -1364,7 +1393,7 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -1393,7 +1422,7 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="17"/>
         <v>19</v>
@@ -1423,7 +1452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="17"/>
         <v>20</v>
@@ -1450,7 +1479,7 @@
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="17"/>
         <v>21</v>
@@ -1477,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>MAX(A20:A32)+1</f>
         <v>22</v>
@@ -1502,19 +1531,19 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" ref="A35:A40" si="24">MAX(A22:A34)+1</f>
         <v>23</v>
@@ -1545,7 +1574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="24"/>
         <v>24</v>
@@ -1574,7 +1603,7 @@
       </c>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
@@ -1603,7 +1632,7 @@
       </c>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="24"/>
         <v>26</v>
@@ -1634,7 +1663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="24"/>
         <v>27</v>
@@ -1665,7 +1694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="24"/>
         <v>28</v>
@@ -1696,19 +1725,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>MAX(A29:A41)+1</f>
         <v>29</v>
@@ -1739,7 +1768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>MAX(A30:A42)+1</f>
         <v>30</v>
@@ -1768,7 +1797,7 @@
       </c>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f>MAX(A31:A43)+1</f>
         <v>31</v>
@@ -1797,7 +1826,7 @@
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" ref="A45:A48" si="42">MAX(A33:A44)+1</f>
         <v>32</v>
@@ -1828,7 +1857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="42"/>
         <v>33</v>
@@ -1855,7 +1884,7 @@
       </c>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="42"/>
         <v>34</v>
@@ -1882,7 +1911,7 @@
       </c>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f t="shared" si="42"/>
         <v>35</v>
@@ -1907,17 +1936,17 @@
       </c>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2032,14 +2061,14 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2188,14 +2217,14 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2310,100 +2339,187 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <f t="shared" si="52"/>
-        <v>50</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="15"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" si="52"/>
-        <v>51</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="8">
+        <f>IFERROR(IF(C55,C55+14,""),"")</f>
+        <v>45789</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" ref="D67:G67" si="59">IFERROR(IF(D55,D55+14,""),"")</f>
+        <v>45790</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2785</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="59"/>
+        <v>45796</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="59"/>
+        <v>45796</v>
+      </c>
       <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="52"/>
-        <v>52</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" ref="C68:G68" si="60">IFERROR(IF(C56,C56+14,""),"")</f>
+        <v>45789</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="60"/>
+        <v>45790</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1975</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" si="60"/>
+        <v>45797</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="60"/>
+        <v>45797</v>
+      </c>
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="52"/>
-        <v>53</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" ref="C69:D69" si="61">IFERROR(IF(C57,C57+14,""),"")</f>
+        <v>45792</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="61"/>
+        <v>45793</v>
+      </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="F69" s="8">
+        <v>45798</v>
+      </c>
+      <c r="G69" s="8">
+        <v>45799</v>
+      </c>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="52"/>
-        <v>54</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" ref="C70:G70" si="62">IFERROR(IF(C58,C58+14,""),"")</f>
+        <v>45789</v>
+      </c>
+      <c r="D70" s="8">
+        <f t="shared" si="62"/>
+        <v>45792</v>
+      </c>
+      <c r="E70" s="5">
+        <v>165</v>
+      </c>
+      <c r="F70" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="G70" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="52"/>
-        <v>55</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" ref="C71:G71" si="63">IFERROR(IF(C59,C59+14,""),"")</f>
+        <v>45792</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="63"/>
+        <v>45793</v>
+      </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="8" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="G71" s="8" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="52"/>
-        <v>56</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="8">
+        <v>45792</v>
+      </c>
+      <c r="D72" s="8">
+        <v>45793</v>
+      </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="15"/>
+      <c r="F72" s="8">
+        <f t="shared" ref="F72:G72" si="64">IFERROR(IF(F60,F60+14,""),"")</f>
+        <v>45803</v>
+      </c>
+      <c r="G72" s="8">
+        <f t="shared" si="64"/>
+        <v>45803</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" si="52"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="8"/>
@@ -2416,7 +2532,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="52"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="8"/>
@@ -2429,7 +2545,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" si="52"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="8"/>
@@ -2440,29 +2556,21 @@
       <c r="H75" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H53" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="36"/>
-        <filter val="37"/>
-        <filter val="38"/>
-        <filter val="39"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="12">
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
+  <autoFilter ref="A8:H53" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}"/>
+  <mergeCells count="13">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DB38A0-D7B0-4886-86D6-330D7A02A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCEF3D-1C77-4025-A6FA-194EA2C7BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>Контракт</t>
   </si>
@@ -166,6 +166,9 @@
       </rPr>
       <t xml:space="preserve"> / отгрузка на месте</t>
     </r>
+  </si>
+  <si>
+    <t>дозаказ не приняли</t>
   </si>
 </sst>
 </file>
@@ -391,50 +394,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,22 +743,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -776,12 +779,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -798,10 +801,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -818,10 +821,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -832,14 +835,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -856,10 +859,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -876,7 +879,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1026,7 +1029,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1176,10 +1179,10 @@
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="25"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1328,10 +1331,10 @@
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1538,10 +1541,10 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1732,10 +1735,10 @@
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1943,10 +1946,10 @@
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="25"/>
+      <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2068,7 +2071,7 @@
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2224,7 +2227,7 @@
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
+      <c r="H61" s="37"/>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2346,7 +2349,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2404,7 +2407,9 @@
         <f t="shared" si="60"/>
         <v>45797</v>
       </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -2422,7 +2427,9 @@
         <f t="shared" si="61"/>
         <v>45793</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5">
+        <v>4300</v>
+      </c>
       <c r="F69" s="8">
         <v>45798</v>
       </c>
@@ -2503,14 +2510,14 @@
       <c r="D72" s="8">
         <v>45793</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5">
+        <v>3105</v>
+      </c>
       <c r="F72" s="8">
-        <f t="shared" ref="F72:G72" si="64">IFERROR(IF(F60,F60+14,""),"")</f>
-        <v>45803</v>
+        <v>45798</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" si="64"/>
-        <v>45803</v>
+        <v>45798</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>37</v>
@@ -2558,6 +2565,11 @@
   </sheetData>
   <autoFilter ref="A8:H53" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}"/>
   <mergeCells count="13">
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -2566,11 +2578,6 @@
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCEF3D-1C77-4025-A6FA-194EA2C7BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5BCB1-AFD6-4878-ADD5-65FF9E76C202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,25 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$65</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>Контракт</t>
   </si>
@@ -394,6 +400,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,9 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,14 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="8" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,22 +749,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -779,12 +785,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -801,10 +807,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -821,10 +827,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -835,14 +841,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -859,10 +865,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -907,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -931,7 +937,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -955,7 +961,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -979,7 +985,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -1019,7 +1025,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
@@ -1029,9 +1035,9 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -1089,7 +1095,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -1117,7 +1123,7 @@
       </c>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -1172,19 +1178,19 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>11</v>
       </c>
@@ -1212,7 +1218,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -1240,7 +1246,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>13</v>
       </c>
@@ -1268,7 +1274,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>14</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>15</v>
       </c>
@@ -1324,19 +1330,19 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>MAX(A15:A26)+1</f>
         <v>16</v>
@@ -1367,7 +1373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" ref="A28:A32" si="17">MAX(A16:A27)+1</f>
         <v>17</v>
@@ -1396,7 +1402,7 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="17"/>
         <v>19</v>
@@ -1455,7 +1461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="17"/>
         <v>20</v>
@@ -1482,7 +1488,7 @@
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="17"/>
         <v>21</v>
@@ -1509,7 +1515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>MAX(A20:A32)+1</f>
         <v>22</v>
@@ -1534,19 +1540,19 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" ref="A35:A40" si="24">MAX(A22:A34)+1</f>
         <v>23</v>
@@ -1577,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="24"/>
         <v>24</v>
@@ -1606,7 +1612,7 @@
       </c>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
@@ -1635,7 +1641,7 @@
       </c>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="24"/>
         <v>26</v>
@@ -1666,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="24"/>
         <v>27</v>
@@ -1697,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="24"/>
         <v>28</v>
@@ -1728,19 +1734,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>MAX(A29:A41)+1</f>
         <v>29</v>
@@ -1771,7 +1777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>MAX(A30:A42)+1</f>
         <v>30</v>
@@ -1800,7 +1806,7 @@
       </c>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f>MAX(A31:A43)+1</f>
         <v>31</v>
@@ -1829,7 +1835,7 @@
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" ref="A45:A48" si="42">MAX(A33:A44)+1</f>
         <v>32</v>
@@ -1860,7 +1866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="42"/>
         <v>33</v>
@@ -1887,7 +1893,7 @@
       </c>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="42"/>
         <v>34</v>
@@ -1914,7 +1920,7 @@
       </c>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f t="shared" si="42"/>
         <v>35</v>
@@ -1939,19 +1945,19 @@
       </c>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="24"/>
-    </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f>MAX(A37:A49)+1</f>
         <v>36</v>
@@ -1980,7 +1986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f>MAX(A38:A50)+1</f>
         <v>37</v>
@@ -2009,7 +2015,7 @@
       </c>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f>MAX(A39:A51)+1</f>
         <v>38</v>
@@ -2036,7 +2042,7 @@
       </c>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f>MAX(A40:A52)+1</f>
         <v>39</v>
@@ -2063,17 +2069,19 @@
       </c>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f t="shared" ref="A55:A60" si="51">MAX(A42:A54)+1</f>
         <v>40</v>
@@ -2100,7 +2108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f t="shared" si="51"/>
         <v>41</v>
@@ -2125,7 +2133,7 @@
       </c>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f t="shared" si="51"/>
         <v>42</v>
@@ -2150,7 +2158,7 @@
       </c>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f t="shared" si="51"/>
         <v>43</v>
@@ -2173,7 +2181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f t="shared" si="51"/>
         <v>44</v>
@@ -2192,7 +2200,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <f t="shared" si="51"/>
         <v>45</v>
@@ -2219,19 +2227,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="37"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A75" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A92" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2349,7 +2359,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2524,52 +2534,331 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <f t="shared" si="52"/>
         <v>56</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <f t="shared" si="52"/>
-        <v>57</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="B74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="8">
+        <f>IFERROR(IF(C62,C62+14,""),"")</f>
+        <v>45796</v>
+      </c>
+      <c r="D74" s="8">
+        <f>IFERROR(IF(D62,D62+14,""),"")</f>
+        <v>45797</v>
+      </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="15"/>
+      <c r="F74" s="8" t="str">
+        <f t="shared" ref="F74:G74" si="64">IFERROR(IF(F62,F62+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G74" s="8" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" si="52"/>
+        <v>57</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" ref="C75:D75" si="65">IFERROR(IF(C63,C63+14,""),"")</f>
+        <v>45796</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="65"/>
+        <v>45797</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="8">
+        <f t="shared" ref="F75:G75" si="66">IFERROR(IF(F63,F63+14,""),"")</f>
+        <v>45804</v>
+      </c>
+      <c r="G75" s="8">
+        <f t="shared" si="66"/>
+        <v>45804</v>
+      </c>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <f t="shared" si="52"/>
         <v>58</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="15"/>
+      <c r="B76" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="8">
+        <f>IFERROR(IF(C64,C64+14,""),"")</f>
+        <v>45799</v>
+      </c>
+      <c r="D76" s="8">
+        <f t="shared" ref="C76:D76" si="67">IFERROR(IF(D64,D64+14,""),"")</f>
+        <v>45800</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="8">
+        <v>45791</v>
+      </c>
+      <c r="G76" s="8">
+        <v>45792</v>
+      </c>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <f t="shared" si="52"/>
+        <v>59</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" ref="C77:D77" si="68">IFERROR(IF(C65,C65+14,""),"")</f>
+        <v>45799</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="68"/>
+        <v>45800</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="8" t="str">
+        <f t="shared" ref="F77:G77" si="69">IFERROR(IF(F65,F65+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G77" s="8" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <f t="shared" si="52"/>
+        <v>60</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <f t="shared" si="52"/>
+        <v>61</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <f t="shared" si="52"/>
+        <v>62</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <f t="shared" si="52"/>
+        <v>63</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <f t="shared" si="52"/>
+        <v>64</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <f t="shared" si="52"/>
+        <v>65</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <f t="shared" si="52"/>
+        <v>66</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <f t="shared" si="52"/>
+        <v>67</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <f t="shared" si="52"/>
+        <v>68</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <f t="shared" si="52"/>
+        <v>69</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <f t="shared" si="52"/>
+        <v>71</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <f t="shared" si="52"/>
+        <v>72</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <f t="shared" si="52"/>
+        <v>73</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <f t="shared" si="52"/>
+        <v>74</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H53" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}"/>
-  <mergeCells count="13">
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
+  <autoFilter ref="A8:H65" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="46"/>
+        <filter val="47"/>
+        <filter val="48"/>
+        <filter val="49"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="14">
+    <mergeCell ref="A73:H73"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -2578,8 +2867,13 @@
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5BCB1-AFD6-4878-ADD5-65FF9E76C202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1846F04-0950-4252-9A87-1F2C0562862C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2559,9 @@
         <f>IFERROR(IF(D62,D62+14,""),"")</f>
         <v>45797</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5">
+        <v>359</v>
+      </c>
       <c r="F74" s="8" t="str">
         <f t="shared" ref="F74:G74" si="64">IFERROR(IF(F62,F62+14,""),"")</f>
         <v/>
@@ -2588,7 +2590,9 @@
         <f t="shared" si="65"/>
         <v>45797</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5">
+        <v>2344</v>
+      </c>
       <c r="F75" s="8">
         <f t="shared" ref="F75:G75" si="66">IFERROR(IF(F63,F63+14,""),"")</f>
         <v>45804</v>
@@ -2612,7 +2616,7 @@
         <v>45799</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" ref="C76:D76" si="67">IFERROR(IF(D64,D64+14,""),"")</f>
+        <f t="shared" ref="D76" si="67">IFERROR(IF(D64,D64+14,""),"")</f>
         <v>45800</v>
       </c>
       <c r="E76" s="5"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1846F04-0950-4252-9A87-1F2C0562862C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658A69F-A9F0-41E3-8FCD-320AB53BA160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,8 +731,8 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,15 +2616,19 @@
         <v>45799</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" ref="D76" si="67">IFERROR(IF(D64,D64+14,""),"")</f>
+        <f t="shared" ref="D76:G76" si="67">IFERROR(IF(D64,D64+14,""),"")</f>
         <v>45800</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5">
+        <v>6480</v>
+      </c>
       <c r="F76" s="8">
-        <v>45791</v>
+        <f t="shared" si="67"/>
+        <v>45805</v>
       </c>
       <c r="G76" s="8">
-        <v>45792</v>
+        <f t="shared" si="67"/>
+        <v>45806</v>
       </c>
       <c r="H76" s="15"/>
     </row>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658A69F-A9F0-41E3-8FCD-320AB53BA160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963CC2A-602B-4706-8E7A-C797A7435DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$72</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="41">
   <si>
     <t>Контракт</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>дозаказ не приняли</t>
+  </si>
+  <si>
+    <t>09.06.025</t>
   </si>
 </sst>
 </file>
@@ -394,6 +397,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,36 +447,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,22 +752,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -785,12 +788,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -807,10 +810,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -827,10 +830,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -841,14 +844,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -865,10 +868,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -885,7 +888,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1026,16 +1029,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1179,16 +1182,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1331,16 +1334,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="25"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1541,16 +1544,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="25"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1735,16 +1738,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="25"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1946,16 +1949,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="25"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2070,16 +2073,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="25"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2228,18 +2231,18 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
-    </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <f t="shared" ref="A62:A92" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
@@ -2268,7 +2271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <f t="shared" si="52"/>
         <v>47</v>
@@ -2297,7 +2300,7 @@
       </c>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <f t="shared" si="52"/>
         <v>48</v>
@@ -2324,7 +2327,7 @@
       </c>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <f t="shared" si="52"/>
         <v>49</v>
@@ -2351,15 +2354,17 @@
       </c>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2534,14 +2539,14 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2660,100 +2665,186 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <f t="shared" si="52"/>
-        <v>60</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="15"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <f t="shared" si="52"/>
-        <v>61</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="8">
+        <f>IFERROR(IF(C67,C67+14,""),"")</f>
+        <v>45803</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" ref="D79" si="70">IFERROR(IF(D67,D67+14,""),"")</f>
+        <v>45804</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1795</v>
+      </c>
+      <c r="F79" s="8">
+        <f t="shared" ref="F79:G79" si="71">IFERROR(IF(F67,F67+14,""),"")</f>
+        <v>45810</v>
+      </c>
+      <c r="G79" s="8">
+        <f t="shared" si="71"/>
+        <v>45810</v>
+      </c>
       <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" si="52"/>
-        <v>62</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="8">
+        <f t="shared" ref="C80:D80" si="72">IFERROR(IF(C68,C68+14,""),"")</f>
+        <v>45803</v>
+      </c>
+      <c r="D80" s="8">
+        <f t="shared" si="72"/>
+        <v>45804</v>
+      </c>
+      <c r="E80" s="5">
+        <v>2212</v>
+      </c>
+      <c r="F80" s="8">
+        <f t="shared" ref="F80:G81" si="73">IFERROR(IF(F68,F68+14,""),"")</f>
+        <v>45811</v>
+      </c>
+      <c r="G80" s="8">
+        <f t="shared" si="73"/>
+        <v>45811</v>
+      </c>
       <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <f t="shared" si="52"/>
-        <v>63</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="8">
+        <f t="shared" ref="C81:D81" si="74">IFERROR(IF(C69,C69+14,""),"")</f>
+        <v>45806</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="74"/>
+        <v>45807</v>
+      </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="F81" s="8">
+        <f t="shared" si="73"/>
+        <v>45812</v>
+      </c>
+      <c r="G81" s="8">
+        <f t="shared" si="73"/>
+        <v>45813</v>
+      </c>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <f t="shared" si="52"/>
-        <v>64</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="8">
+        <f t="shared" ref="C82" si="75">IFERROR(IF(C70,C70+14,""),"")</f>
+        <v>45803</v>
+      </c>
+      <c r="D82" s="8">
+        <v>45804</v>
+      </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="15"/>
+      <c r="F82" s="8" t="str">
+        <f t="shared" ref="F82:G82" si="76">IFERROR(IF(F70,F70+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="8" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <f t="shared" si="52"/>
-        <v>65</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="8">
+        <f t="shared" ref="C83:D84" si="77">IFERROR(IF(C71,C71+14,""),"")</f>
+        <v>45806</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="77"/>
+        <v>45807</v>
+      </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+      <c r="F83" s="8" t="str">
+        <f t="shared" ref="F83:G83" si="78">IFERROR(IF(F71,F71+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G83" s="8" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <f t="shared" si="52"/>
-        <v>66</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="8">
+        <f t="shared" si="77"/>
+        <v>45806</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" si="77"/>
+        <v>45807</v>
+      </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="15"/>
+      <c r="F84" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <f t="shared" si="52"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="8"/>
@@ -2766,7 +2857,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <f t="shared" si="52"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="8"/>
@@ -2779,7 +2870,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <f t="shared" si="52"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="8"/>
@@ -2792,7 +2883,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <f t="shared" si="52"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="8"/>
@@ -2805,7 +2896,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <f t="shared" si="52"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="8"/>
@@ -2818,7 +2909,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <f t="shared" si="52"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="8"/>
@@ -2831,7 +2922,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <f t="shared" si="52"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="8"/>
@@ -2844,7 +2935,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <f t="shared" si="52"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="8"/>
@@ -2855,31 +2946,34 @@
       <c r="H92" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H65" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H72" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="46"/>
-        <filter val="47"/>
-        <filter val="48"/>
-        <filter val="49"/>
+        <filter val="50"/>
+        <filter val="51"/>
+        <filter val="52"/>
+        <filter val="53"/>
+        <filter val="54"/>
+        <filter val="55"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A78:H78"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963CC2A-602B-4706-8E7A-C797A7435DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D334DC3E-D309-4E21-91A6-CFAEE92693AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="40">
   <si>
     <t>Контракт</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>дозаказ не приняли</t>
-  </si>
-  <si>
-    <t>09.06.025</t>
   </si>
 </sst>
 </file>
@@ -397,6 +394,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,27 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,11 +728,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,23 +748,20 @@
     <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -788,12 +782,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -810,10 +804,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -830,10 +824,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -844,14 +838,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -868,10 +862,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -888,9 +882,9 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -916,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -940,7 +934,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -964,7 +958,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -988,7 +982,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -1028,19 +1022,19 @@
       <c r="G13" s="8"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1070,7 +1064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -1182,16 +1176,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="35"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1334,16 +1328,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="35"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1544,16 +1538,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1738,16 +1732,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="35"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1949,16 +1943,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="35"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2073,16 +2067,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2231,20 +2225,20 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A92" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A120" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2355,16 +2349,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2539,14 +2533,14 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="33"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2665,14 +2659,14 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="33"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2831,119 +2825,885 @@
         <v>45807</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>40</v>
+      <c r="F84" s="8">
+        <v>45817</v>
+      </c>
+      <c r="G84" s="8">
+        <v>45817</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <f t="shared" si="52"/>
-        <v>66</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="15"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <f t="shared" si="52"/>
-        <v>67</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="8">
+        <f>IFERROR(IF(C74,C74+14,""),"")</f>
+        <v>45810</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" ref="D86:D89" si="79">IFERROR(IF(D74,D74+14,""),"")</f>
+        <v>45811</v>
+      </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="15"/>
+      <c r="F86" s="8" t="str">
+        <f t="shared" ref="F86:G86" si="80">IFERROR(IF(F74,F74+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G86" s="8" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="H86" s="20"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <f t="shared" si="52"/>
-        <v>68</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="8">
+        <f t="shared" ref="C87:D87" si="81">IFERROR(IF(C75,C75+14,""),"")</f>
+        <v>45810</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="79"/>
+        <v>45811</v>
+      </c>
       <c r="E87" s="5"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="F87" s="8">
+        <f t="shared" ref="F87:G87" si="82">IFERROR(IF(F75,F75+14,""),"")</f>
+        <v>45818</v>
+      </c>
+      <c r="G87" s="8">
+        <f t="shared" si="82"/>
+        <v>45818</v>
+      </c>
       <c r="H87" s="15"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <f t="shared" si="52"/>
-        <v>69</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="8">
+        <f t="shared" ref="C88:D88" si="83">IFERROR(IF(C76,C76+14,""),"")</f>
+        <v>45813</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="79"/>
+        <v>45814</v>
+      </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="8">
+        <f t="shared" ref="F88:G88" si="84">IFERROR(IF(F76,F76+14,""),"")</f>
+        <v>45819</v>
+      </c>
+      <c r="G88" s="8">
+        <f t="shared" si="84"/>
+        <v>45820</v>
+      </c>
       <c r="H88" s="15"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <f t="shared" si="52"/>
-        <v>70</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="8">
+        <f t="shared" ref="C89:D89" si="85">IFERROR(IF(C77,C77+14,""),"")</f>
+        <v>45813</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="79"/>
+        <v>45814</v>
+      </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="F89" s="8" t="str">
+        <f t="shared" ref="F89:G89" si="86">IFERROR(IF(F77,F77+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G89" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <f t="shared" si="52"/>
-        <v>71</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="15"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <f t="shared" si="52"/>
-        <v>72</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="8">
+        <f>IFERROR(IF(C79,C79+14,""),"")</f>
+        <v>45817</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" ref="D91:D96" si="87">IFERROR(IF(D79,D79+14,""),"")</f>
+        <v>45818</v>
+      </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="F91" s="8">
+        <f t="shared" ref="F91:G91" si="88">IFERROR(IF(F79,F79+14,""),"")</f>
+        <v>45824</v>
+      </c>
+      <c r="G91" s="8">
+        <f t="shared" si="88"/>
+        <v>45824</v>
+      </c>
       <c r="H91" s="15"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <f t="shared" si="52"/>
+        <v>71</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="8">
+        <f t="shared" ref="C92:D92" si="89">IFERROR(IF(C80,C80+14,""),"")</f>
+        <v>45817</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="87"/>
+        <v>45818</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="8">
+        <f t="shared" ref="F92:G92" si="90">IFERROR(IF(F80,F80+14,""),"")</f>
+        <v>45825</v>
+      </c>
+      <c r="G92" s="8">
+        <f t="shared" si="90"/>
+        <v>45825</v>
+      </c>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <f t="shared" si="52"/>
+        <v>72</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="8">
+        <f t="shared" ref="C93:D93" si="91">IFERROR(IF(C81,C81+14,""),"")</f>
+        <v>45820</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="87"/>
+        <v>45821</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="8">
+        <f t="shared" ref="F93:G93" si="92">IFERROR(IF(F81,F81+14,""),"")</f>
+        <v>45826</v>
+      </c>
+      <c r="G93" s="8">
+        <f t="shared" si="92"/>
+        <v>45827</v>
+      </c>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <f t="shared" si="52"/>
         <v>73</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="15"/>
+      <c r="B94" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="8">
+        <f t="shared" ref="C94:D94" si="93">IFERROR(IF(C82,C82+14,""),"")</f>
+        <v>45817</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="87"/>
+        <v>45818</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="8" t="str">
+        <f t="shared" ref="F94:G94" si="94">IFERROR(IF(F82,F82+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G94" s="8" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <f t="shared" si="52"/>
+        <v>74</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="8">
+        <f t="shared" ref="C95:D95" si="95">IFERROR(IF(C83,C83+14,""),"")</f>
+        <v>45820</v>
+      </c>
+      <c r="D95" s="8">
+        <f t="shared" si="87"/>
+        <v>45821</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="8" t="str">
+        <f t="shared" ref="F95:G95" si="96">IFERROR(IF(F83,F83+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G95" s="8" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <f t="shared" si="52"/>
+        <v>75</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="8">
+        <f t="shared" ref="C96:D96" si="97">IFERROR(IF(C84,C84+14,""),"")</f>
+        <v>45820</v>
+      </c>
+      <c r="D96" s="8">
+        <f t="shared" si="87"/>
+        <v>45821</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="8">
+        <f>IFERROR(IF(F84,F84+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="G96" s="8">
+        <f t="shared" ref="F96:G96" si="98">IFERROR(IF(G84,G84+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="H96" s="19"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <f t="shared" si="52"/>
+        <v>76</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="8">
+        <f>IFERROR(IF(C86,C86+14,""),"")</f>
+        <v>45824</v>
+      </c>
+      <c r="D98" s="8">
+        <f t="shared" ref="D98:D101" si="99">IFERROR(IF(D86,D86+14,""),"")</f>
+        <v>45825</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="8" t="str">
+        <f t="shared" ref="F98:G98" si="100">IFERROR(IF(F86,F86+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="8" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <f t="shared" si="52"/>
+        <v>77</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="8">
+        <f t="shared" ref="C99:D99" si="101">IFERROR(IF(C87,C87+14,""),"")</f>
+        <v>45824</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" si="99"/>
+        <v>45825</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="8">
+        <f t="shared" ref="F99:G99" si="102">IFERROR(IF(F87,F87+14,""),"")</f>
+        <v>45832</v>
+      </c>
+      <c r="G99" s="8">
+        <f t="shared" si="102"/>
+        <v>45832</v>
+      </c>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <f t="shared" si="52"/>
+        <v>78</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="8">
+        <f t="shared" ref="C100:D100" si="103">IFERROR(IF(C88,C88+14,""),"")</f>
+        <v>45827</v>
+      </c>
+      <c r="D100" s="8">
+        <f t="shared" si="99"/>
+        <v>45828</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="8">
+        <f t="shared" ref="F100:G100" si="104">IFERROR(IF(F88,F88+14,""),"")</f>
+        <v>45833</v>
+      </c>
+      <c r="G100" s="8">
+        <f t="shared" si="104"/>
+        <v>45834</v>
+      </c>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <f t="shared" si="52"/>
+        <v>79</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="8">
+        <f t="shared" ref="C101:D101" si="105">IFERROR(IF(C89,C89+14,""),"")</f>
+        <v>45827</v>
+      </c>
+      <c r="D101" s="8">
+        <f t="shared" si="99"/>
+        <v>45828</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="8" t="str">
+        <f t="shared" ref="F101:G101" si="106">IFERROR(IF(F89,F89+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G101" s="8" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <f t="shared" si="52"/>
+        <v>80</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="8">
+        <f>IFERROR(IF(C91,C91+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="D103" s="8">
+        <f t="shared" ref="D103:D108" si="107">IFERROR(IF(D91,D91+14,""),"")</f>
+        <v>45832</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="8">
+        <f t="shared" ref="F103:G103" si="108">IFERROR(IF(F91,F91+14,""),"")</f>
+        <v>45838</v>
+      </c>
+      <c r="G103" s="8">
+        <f t="shared" si="108"/>
+        <v>45838</v>
+      </c>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <f t="shared" si="52"/>
+        <v>81</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="8">
+        <f t="shared" ref="C104:D104" si="109">IFERROR(IF(C92,C92+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="D104" s="8">
+        <f t="shared" si="107"/>
+        <v>45832</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="8">
+        <f t="shared" ref="F104:G104" si="110">IFERROR(IF(F92,F92+14,""),"")</f>
+        <v>45839</v>
+      </c>
+      <c r="G104" s="8">
+        <f t="shared" si="110"/>
+        <v>45839</v>
+      </c>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <f t="shared" si="52"/>
+        <v>82</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="8">
+        <f t="shared" ref="C105:D105" si="111">IFERROR(IF(C93,C93+14,""),"")</f>
+        <v>45834</v>
+      </c>
+      <c r="D105" s="8">
+        <f t="shared" si="107"/>
+        <v>45835</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="8">
+        <f t="shared" ref="F105:G105" si="112">IFERROR(IF(F93,F93+14,""),"")</f>
+        <v>45840</v>
+      </c>
+      <c r="G105" s="8">
+        <f t="shared" si="112"/>
+        <v>45841</v>
+      </c>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <f t="shared" si="52"/>
+        <v>83</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="8">
+        <f t="shared" ref="C106:D106" si="113">IFERROR(IF(C94,C94+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="D106" s="8">
+        <f t="shared" si="107"/>
+        <v>45832</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="8" t="str">
+        <f t="shared" ref="F106:G106" si="114">IFERROR(IF(F94,F94+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G106" s="8" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <f t="shared" si="52"/>
+        <v>84</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="8">
+        <f t="shared" ref="C107:D107" si="115">IFERROR(IF(C95,C95+14,""),"")</f>
+        <v>45834</v>
+      </c>
+      <c r="D107" s="8">
+        <f t="shared" si="107"/>
+        <v>45835</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="8" t="str">
+        <f t="shared" ref="F107:G107" si="116">IFERROR(IF(F95,F95+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G107" s="8" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <f t="shared" si="52"/>
+        <v>85</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="8">
+        <f t="shared" ref="C108:D108" si="117">IFERROR(IF(C96,C96+14,""),"")</f>
+        <v>45834</v>
+      </c>
+      <c r="D108" s="8">
+        <f t="shared" si="107"/>
+        <v>45835</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="8">
+        <f>IFERROR(IF(F96,F96+14,""),"")</f>
+        <v>45845</v>
+      </c>
+      <c r="G108" s="8">
+        <f t="shared" ref="G108:H108" si="118">IFERROR(IF(G96,G96+14,""),"")</f>
+        <v>45845</v>
+      </c>
+      <c r="H108" s="19"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="23"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <f t="shared" si="52"/>
+        <v>86</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="8">
+        <f>IFERROR(IF(C98,C98+14,""),"")</f>
+        <v>45838</v>
+      </c>
+      <c r="D110" s="8">
+        <f t="shared" ref="D110:D113" si="119">IFERROR(IF(D98,D98+14,""),"")</f>
+        <v>45839</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="8" t="str">
+        <f t="shared" ref="F110:G110" si="120">IFERROR(IF(F98,F98+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G110" s="8" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <f t="shared" si="52"/>
+        <v>87</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="8">
+        <f t="shared" ref="C111:D111" si="121">IFERROR(IF(C99,C99+14,""),"")</f>
+        <v>45838</v>
+      </c>
+      <c r="D111" s="8">
+        <f t="shared" si="119"/>
+        <v>45839</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="8">
+        <f t="shared" ref="F111:G111" si="122">IFERROR(IF(F99,F99+14,""),"")</f>
+        <v>45846</v>
+      </c>
+      <c r="G111" s="8">
+        <f t="shared" si="122"/>
+        <v>45846</v>
+      </c>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <f t="shared" si="52"/>
+        <v>88</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="8">
+        <f t="shared" ref="C112:D112" si="123">IFERROR(IF(C100,C100+14,""),"")</f>
+        <v>45841</v>
+      </c>
+      <c r="D112" s="8">
+        <f t="shared" si="119"/>
+        <v>45842</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="8">
+        <f t="shared" ref="F112:G112" si="124">IFERROR(IF(F100,F100+14,""),"")</f>
+        <v>45847</v>
+      </c>
+      <c r="G112" s="8">
+        <f t="shared" si="124"/>
+        <v>45848</v>
+      </c>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <f t="shared" si="52"/>
+        <v>89</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="8">
+        <f t="shared" ref="C113:D113" si="125">IFERROR(IF(C101,C101+14,""),"")</f>
+        <v>45841</v>
+      </c>
+      <c r="D113" s="8">
+        <f t="shared" si="119"/>
+        <v>45842</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="8" t="str">
+        <f t="shared" ref="F113:G113" si="126">IFERROR(IF(F101,F101+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G113" s="8" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="23"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <f t="shared" si="52"/>
+        <v>90</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="8">
+        <f>IFERROR(IF(C103,C103+14,""),"")</f>
+        <v>45845</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" ref="D115:D120" si="127">IFERROR(IF(D103,D103+14,""),"")</f>
+        <v>45846</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="8">
+        <f t="shared" ref="F115:G115" si="128">IFERROR(IF(F103,F103+14,""),"")</f>
+        <v>45852</v>
+      </c>
+      <c r="G115" s="8">
+        <f t="shared" si="128"/>
+        <v>45852</v>
+      </c>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <f t="shared" si="52"/>
+        <v>91</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="8">
+        <f t="shared" ref="C116:D116" si="129">IFERROR(IF(C104,C104+14,""),"")</f>
+        <v>45845</v>
+      </c>
+      <c r="D116" s="8">
+        <f t="shared" si="127"/>
+        <v>45846</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="8">
+        <f t="shared" ref="F116:G116" si="130">IFERROR(IF(F104,F104+14,""),"")</f>
+        <v>45853</v>
+      </c>
+      <c r="G116" s="8">
+        <f t="shared" si="130"/>
+        <v>45853</v>
+      </c>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <f t="shared" si="52"/>
+        <v>92</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="8">
+        <f t="shared" ref="C117:D117" si="131">IFERROR(IF(C105,C105+14,""),"")</f>
+        <v>45848</v>
+      </c>
+      <c r="D117" s="8">
+        <f t="shared" si="127"/>
+        <v>45849</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="8">
+        <f t="shared" ref="F117:G117" si="132">IFERROR(IF(F105,F105+14,""),"")</f>
+        <v>45854</v>
+      </c>
+      <c r="G117" s="8">
+        <f t="shared" si="132"/>
+        <v>45855</v>
+      </c>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <f t="shared" si="52"/>
+        <v>93</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="8">
+        <f t="shared" ref="C118:D118" si="133">IFERROR(IF(C106,C106+14,""),"")</f>
+        <v>45845</v>
+      </c>
+      <c r="D118" s="8">
+        <f t="shared" si="127"/>
+        <v>45846</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="8" t="str">
+        <f t="shared" ref="F118:G118" si="134">IFERROR(IF(F106,F106+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G118" s="8" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <f t="shared" si="52"/>
+        <v>94</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="8">
+        <f t="shared" ref="C119:D119" si="135">IFERROR(IF(C107,C107+14,""),"")</f>
+        <v>45848</v>
+      </c>
+      <c r="D119" s="8">
+        <f t="shared" si="127"/>
+        <v>45849</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="8" t="str">
+        <f t="shared" ref="F119:G119" si="136">IFERROR(IF(F107,F107+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G119" s="8" t="str">
+        <f t="shared" si="136"/>
+        <v/>
+      </c>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <f t="shared" si="52"/>
+        <v>95</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="8">
+        <f t="shared" ref="C120:D120" si="137">IFERROR(IF(C108,C108+14,""),"")</f>
+        <v>45848</v>
+      </c>
+      <c r="D120" s="8">
+        <f t="shared" si="127"/>
+        <v>45849</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="8">
+        <f>IFERROR(IF(F108,F108+14,""),"")</f>
+        <v>45859</v>
+      </c>
+      <c r="G120" s="8">
+        <f t="shared" ref="G120:H120" si="138">IFERROR(IF(G108,G108+14,""),"")</f>
+        <v>45859</v>
+      </c>
+      <c r="H120" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H72" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -2958,7 +3718,18 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A26:H26"/>
@@ -2969,11 +3740,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D334DC3E-D309-4E21-91A6-CFAEE92693AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AB91E-D116-4D15-ABB9-CA36D2F958C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,18 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,6 +432,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +731,8 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
+      <pane ySplit="8" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,19 +749,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -782,12 +782,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -804,10 +804,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -824,10 +824,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -838,14 +838,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -862,10 +862,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1182,10 +1182,10 @@
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="25"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1334,10 +1334,10 @@
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1544,10 +1544,10 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1738,10 +1738,10 @@
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1949,10 +1949,10 @@
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="25"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2073,10 +2073,10 @@
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="24"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="25"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2768,7 +2768,9 @@
       <c r="D82" s="8">
         <v>45804</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
       <c r="F82" s="8" t="str">
         <f t="shared" ref="F82:G82" si="76">IFERROR(IF(F70,F70+14,""),"")</f>
         <v/>
@@ -2881,7 +2883,7 @@
         <v>17</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" ref="C87:D87" si="81">IFERROR(IF(C75,C75+14,""),"")</f>
+        <f t="shared" ref="C87" si="81">IFERROR(IF(C75,C75+14,""),"")</f>
         <v>45810</v>
       </c>
       <c r="D87" s="8">
@@ -2908,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="8">
-        <f t="shared" ref="C88:D88" si="83">IFERROR(IF(C76,C76+14,""),"")</f>
+        <f t="shared" ref="C88" si="83">IFERROR(IF(C76,C76+14,""),"")</f>
         <v>45813</v>
       </c>
       <c r="D88" s="8">
@@ -2935,7 +2937,7 @@
         <v>20</v>
       </c>
       <c r="C89" s="8">
-        <f t="shared" ref="C89:D89" si="85">IFERROR(IF(C77,C77+14,""),"")</f>
+        <f t="shared" ref="C89" si="85">IFERROR(IF(C77,C77+14,""),"")</f>
         <v>45813</v>
       </c>
       <c r="D89" s="8">
@@ -2999,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="C92" s="8">
-        <f t="shared" ref="C92:D92" si="89">IFERROR(IF(C80,C80+14,""),"")</f>
+        <f t="shared" ref="C92" si="89">IFERROR(IF(C80,C80+14,""),"")</f>
         <v>45817</v>
       </c>
       <c r="D92" s="8">
@@ -3026,7 +3028,7 @@
         <v>18</v>
       </c>
       <c r="C93" s="8">
-        <f t="shared" ref="C93:D93" si="91">IFERROR(IF(C81,C81+14,""),"")</f>
+        <f t="shared" ref="C93" si="91">IFERROR(IF(C81,C81+14,""),"")</f>
         <v>45820</v>
       </c>
       <c r="D93" s="8">
@@ -3053,7 +3055,7 @@
         <v>19</v>
       </c>
       <c r="C94" s="8">
-        <f t="shared" ref="C94:D94" si="93">IFERROR(IF(C82,C82+14,""),"")</f>
+        <f t="shared" ref="C94" si="93">IFERROR(IF(C82,C82+14,""),"")</f>
         <v>45817</v>
       </c>
       <c r="D94" s="8">
@@ -3080,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="8">
-        <f t="shared" ref="C95:D95" si="95">IFERROR(IF(C83,C83+14,""),"")</f>
+        <f t="shared" ref="C95" si="95">IFERROR(IF(C83,C83+14,""),"")</f>
         <v>45820</v>
       </c>
       <c r="D95" s="8">
@@ -3107,7 +3109,7 @@
         <v>26</v>
       </c>
       <c r="C96" s="8">
-        <f t="shared" ref="C96:D96" si="97">IFERROR(IF(C84,C84+14,""),"")</f>
+        <f t="shared" ref="C96" si="97">IFERROR(IF(C84,C84+14,""),"")</f>
         <v>45820</v>
       </c>
       <c r="D96" s="8">
@@ -3120,7 +3122,7 @@
         <v>45831</v>
       </c>
       <c r="G96" s="8">
-        <f t="shared" ref="F96:G96" si="98">IFERROR(IF(G84,G84+14,""),"")</f>
+        <f t="shared" ref="G96" si="98">IFERROR(IF(G84,G84+14,""),"")</f>
         <v>45831</v>
       </c>
       <c r="H96" s="19"/>
@@ -3171,7 +3173,7 @@
         <v>17</v>
       </c>
       <c r="C99" s="8">
-        <f t="shared" ref="C99:D99" si="101">IFERROR(IF(C87,C87+14,""),"")</f>
+        <f t="shared" ref="C99" si="101">IFERROR(IF(C87,C87+14,""),"")</f>
         <v>45824</v>
       </c>
       <c r="D99" s="8">
@@ -3198,7 +3200,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="8">
-        <f t="shared" ref="C100:D100" si="103">IFERROR(IF(C88,C88+14,""),"")</f>
+        <f t="shared" ref="C100" si="103">IFERROR(IF(C88,C88+14,""),"")</f>
         <v>45827</v>
       </c>
       <c r="D100" s="8">
@@ -3225,7 +3227,7 @@
         <v>20</v>
       </c>
       <c r="C101" s="8">
-        <f t="shared" ref="C101:D101" si="105">IFERROR(IF(C89,C89+14,""),"")</f>
+        <f t="shared" ref="C101" si="105">IFERROR(IF(C89,C89+14,""),"")</f>
         <v>45827</v>
       </c>
       <c r="D101" s="8">
@@ -3289,7 +3291,7 @@
         <v>17</v>
       </c>
       <c r="C104" s="8">
-        <f t="shared" ref="C104:D104" si="109">IFERROR(IF(C92,C92+14,""),"")</f>
+        <f t="shared" ref="C104" si="109">IFERROR(IF(C92,C92+14,""),"")</f>
         <v>45831</v>
       </c>
       <c r="D104" s="8">
@@ -3316,7 +3318,7 @@
         <v>18</v>
       </c>
       <c r="C105" s="8">
-        <f t="shared" ref="C105:D105" si="111">IFERROR(IF(C93,C93+14,""),"")</f>
+        <f t="shared" ref="C105" si="111">IFERROR(IF(C93,C93+14,""),"")</f>
         <v>45834</v>
       </c>
       <c r="D105" s="8">
@@ -3343,7 +3345,7 @@
         <v>19</v>
       </c>
       <c r="C106" s="8">
-        <f t="shared" ref="C106:D106" si="113">IFERROR(IF(C94,C94+14,""),"")</f>
+        <f t="shared" ref="C106" si="113">IFERROR(IF(C94,C94+14,""),"")</f>
         <v>45831</v>
       </c>
       <c r="D106" s="8">
@@ -3370,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="C107" s="8">
-        <f t="shared" ref="C107:D107" si="115">IFERROR(IF(C95,C95+14,""),"")</f>
+        <f t="shared" ref="C107" si="115">IFERROR(IF(C95,C95+14,""),"")</f>
         <v>45834</v>
       </c>
       <c r="D107" s="8">
@@ -3397,7 +3399,7 @@
         <v>26</v>
       </c>
       <c r="C108" s="8">
-        <f t="shared" ref="C108:D108" si="117">IFERROR(IF(C96,C96+14,""),"")</f>
+        <f t="shared" ref="C108" si="117">IFERROR(IF(C96,C96+14,""),"")</f>
         <v>45834</v>
       </c>
       <c r="D108" s="8">
@@ -3410,7 +3412,7 @@
         <v>45845</v>
       </c>
       <c r="G108" s="8">
-        <f t="shared" ref="G108:H108" si="118">IFERROR(IF(G96,G96+14,""),"")</f>
+        <f t="shared" ref="G108" si="118">IFERROR(IF(G96,G96+14,""),"")</f>
         <v>45845</v>
       </c>
       <c r="H108" s="19"/>
@@ -3461,7 +3463,7 @@
         <v>17</v>
       </c>
       <c r="C111" s="8">
-        <f t="shared" ref="C111:D111" si="121">IFERROR(IF(C99,C99+14,""),"")</f>
+        <f t="shared" ref="C111" si="121">IFERROR(IF(C99,C99+14,""),"")</f>
         <v>45838</v>
       </c>
       <c r="D111" s="8">
@@ -3488,7 +3490,7 @@
         <v>18</v>
       </c>
       <c r="C112" s="8">
-        <f t="shared" ref="C112:D112" si="123">IFERROR(IF(C100,C100+14,""),"")</f>
+        <f t="shared" ref="C112" si="123">IFERROR(IF(C100,C100+14,""),"")</f>
         <v>45841</v>
       </c>
       <c r="D112" s="8">
@@ -3515,7 +3517,7 @@
         <v>20</v>
       </c>
       <c r="C113" s="8">
-        <f t="shared" ref="C113:D113" si="125">IFERROR(IF(C101,C101+14,""),"")</f>
+        <f t="shared" ref="C113" si="125">IFERROR(IF(C101,C101+14,""),"")</f>
         <v>45841</v>
       </c>
       <c r="D113" s="8">
@@ -3579,7 +3581,7 @@
         <v>17</v>
       </c>
       <c r="C116" s="8">
-        <f t="shared" ref="C116:D116" si="129">IFERROR(IF(C104,C104+14,""),"")</f>
+        <f t="shared" ref="C116" si="129">IFERROR(IF(C104,C104+14,""),"")</f>
         <v>45845</v>
       </c>
       <c r="D116" s="8">
@@ -3606,7 +3608,7 @@
         <v>18</v>
       </c>
       <c r="C117" s="8">
-        <f t="shared" ref="C117:D117" si="131">IFERROR(IF(C105,C105+14,""),"")</f>
+        <f t="shared" ref="C117" si="131">IFERROR(IF(C105,C105+14,""),"")</f>
         <v>45848</v>
       </c>
       <c r="D117" s="8">
@@ -3633,7 +3635,7 @@
         <v>19</v>
       </c>
       <c r="C118" s="8">
-        <f t="shared" ref="C118:D118" si="133">IFERROR(IF(C106,C106+14,""),"")</f>
+        <f t="shared" ref="C118" si="133">IFERROR(IF(C106,C106+14,""),"")</f>
         <v>45845</v>
       </c>
       <c r="D118" s="8">
@@ -3660,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="C119" s="8">
-        <f t="shared" ref="C119:D119" si="135">IFERROR(IF(C107,C107+14,""),"")</f>
+        <f t="shared" ref="C119" si="135">IFERROR(IF(C107,C107+14,""),"")</f>
         <v>45848</v>
       </c>
       <c r="D119" s="8">
@@ -3687,7 +3689,7 @@
         <v>26</v>
       </c>
       <c r="C120" s="8">
-        <f t="shared" ref="C120:D120" si="137">IFERROR(IF(C108,C108+14,""),"")</f>
+        <f t="shared" ref="C120" si="137">IFERROR(IF(C108,C108+14,""),"")</f>
         <v>45848</v>
       </c>
       <c r="D120" s="8">
@@ -3700,7 +3702,7 @@
         <v>45859</v>
       </c>
       <c r="G120" s="8">
-        <f t="shared" ref="G120:H120" si="138">IFERROR(IF(G108,G108+14,""),"")</f>
+        <f t="shared" ref="G120" si="138">IFERROR(IF(G108,G108+14,""),"")</f>
         <v>45859</v>
       </c>
       <c r="H120" s="19"/>
@@ -3719,17 +3721,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A26:H26"/>
@@ -3740,6 +3731,17 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AB91E-D116-4D15-ABB9-CA36D2F958C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B9B5E-514F-474E-8D42-18F3ECA4AE94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>Контракт</t>
   </si>
@@ -219,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -403,6 +409,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,16 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,11 +737,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O80" sqref="O80"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,19 +758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -782,12 +791,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -804,10 +813,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -824,10 +833,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -838,14 +847,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="32"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -862,10 +871,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -882,7 +891,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1182,10 +1191,10 @@
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="35"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1334,10 +1343,10 @@
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="35"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1544,10 +1553,10 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1738,10 +1747,10 @@
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="34"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="35"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1949,10 +1958,10 @@
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="34"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="35"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2073,10 +2082,10 @@
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="35"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2238,7 +2247,7 @@
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A120" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A89" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2822,9 +2831,8 @@
         <f t="shared" si="77"/>
         <v>45806</v>
       </c>
-      <c r="D84" s="8">
-        <f t="shared" si="77"/>
-        <v>45807</v>
+      <c r="D84" s="38">
+        <v>45811</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="8">
@@ -2954,758 +2962,6 @@
         <v/>
       </c>
       <c r="H89" s="15"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <f t="shared" si="52"/>
-        <v>70</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="8">
-        <f>IFERROR(IF(C79,C79+14,""),"")</f>
-        <v>45817</v>
-      </c>
-      <c r="D91" s="8">
-        <f t="shared" ref="D91:D96" si="87">IFERROR(IF(D79,D79+14,""),"")</f>
-        <v>45818</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="8">
-        <f t="shared" ref="F91:G91" si="88">IFERROR(IF(F79,F79+14,""),"")</f>
-        <v>45824</v>
-      </c>
-      <c r="G91" s="8">
-        <f t="shared" si="88"/>
-        <v>45824</v>
-      </c>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <f t="shared" si="52"/>
-        <v>71</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="8">
-        <f t="shared" ref="C92" si="89">IFERROR(IF(C80,C80+14,""),"")</f>
-        <v>45817</v>
-      </c>
-      <c r="D92" s="8">
-        <f t="shared" si="87"/>
-        <v>45818</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="8">
-        <f t="shared" ref="F92:G92" si="90">IFERROR(IF(F80,F80+14,""),"")</f>
-        <v>45825</v>
-      </c>
-      <c r="G92" s="8">
-        <f t="shared" si="90"/>
-        <v>45825</v>
-      </c>
-      <c r="H92" s="15"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <f t="shared" si="52"/>
-        <v>72</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="8">
-        <f t="shared" ref="C93" si="91">IFERROR(IF(C81,C81+14,""),"")</f>
-        <v>45820</v>
-      </c>
-      <c r="D93" s="8">
-        <f t="shared" si="87"/>
-        <v>45821</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="8">
-        <f t="shared" ref="F93:G93" si="92">IFERROR(IF(F81,F81+14,""),"")</f>
-        <v>45826</v>
-      </c>
-      <c r="G93" s="8">
-        <f t="shared" si="92"/>
-        <v>45827</v>
-      </c>
-      <c r="H93" s="15"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <f t="shared" si="52"/>
-        <v>73</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="8">
-        <f t="shared" ref="C94" si="93">IFERROR(IF(C82,C82+14,""),"")</f>
-        <v>45817</v>
-      </c>
-      <c r="D94" s="8">
-        <f t="shared" si="87"/>
-        <v>45818</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="8" t="str">
-        <f t="shared" ref="F94:G94" si="94">IFERROR(IF(F82,F82+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G94" s="8" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <f t="shared" si="52"/>
-        <v>74</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="8">
-        <f t="shared" ref="C95" si="95">IFERROR(IF(C83,C83+14,""),"")</f>
-        <v>45820</v>
-      </c>
-      <c r="D95" s="8">
-        <f t="shared" si="87"/>
-        <v>45821</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="8" t="str">
-        <f t="shared" ref="F95:G95" si="96">IFERROR(IF(F83,F83+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G95" s="8" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="H95" s="15"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <f t="shared" si="52"/>
-        <v>75</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="8">
-        <f t="shared" ref="C96" si="97">IFERROR(IF(C84,C84+14,""),"")</f>
-        <v>45820</v>
-      </c>
-      <c r="D96" s="8">
-        <f t="shared" si="87"/>
-        <v>45821</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="8">
-        <f>IFERROR(IF(F84,F84+14,""),"")</f>
-        <v>45831</v>
-      </c>
-      <c r="G96" s="8">
-        <f t="shared" ref="G96" si="98">IFERROR(IF(G84,G84+14,""),"")</f>
-        <v>45831</v>
-      </c>
-      <c r="H96" s="19"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="23"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <f t="shared" si="52"/>
-        <v>76</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="8">
-        <f>IFERROR(IF(C86,C86+14,""),"")</f>
-        <v>45824</v>
-      </c>
-      <c r="D98" s="8">
-        <f t="shared" ref="D98:D101" si="99">IFERROR(IF(D86,D86+14,""),"")</f>
-        <v>45825</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="8" t="str">
-        <f t="shared" ref="F98:G98" si="100">IFERROR(IF(F86,F86+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G98" s="8" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="H98" s="20"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <f t="shared" si="52"/>
-        <v>77</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="8">
-        <f t="shared" ref="C99" si="101">IFERROR(IF(C87,C87+14,""),"")</f>
-        <v>45824</v>
-      </c>
-      <c r="D99" s="8">
-        <f t="shared" si="99"/>
-        <v>45825</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="8">
-        <f t="shared" ref="F99:G99" si="102">IFERROR(IF(F87,F87+14,""),"")</f>
-        <v>45832</v>
-      </c>
-      <c r="G99" s="8">
-        <f t="shared" si="102"/>
-        <v>45832</v>
-      </c>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <f t="shared" si="52"/>
-        <v>78</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="8">
-        <f t="shared" ref="C100" si="103">IFERROR(IF(C88,C88+14,""),"")</f>
-        <v>45827</v>
-      </c>
-      <c r="D100" s="8">
-        <f t="shared" si="99"/>
-        <v>45828</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="8">
-        <f t="shared" ref="F100:G100" si="104">IFERROR(IF(F88,F88+14,""),"")</f>
-        <v>45833</v>
-      </c>
-      <c r="G100" s="8">
-        <f t="shared" si="104"/>
-        <v>45834</v>
-      </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <f t="shared" si="52"/>
-        <v>79</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="8">
-        <f t="shared" ref="C101" si="105">IFERROR(IF(C89,C89+14,""),"")</f>
-        <v>45827</v>
-      </c>
-      <c r="D101" s="8">
-        <f t="shared" si="99"/>
-        <v>45828</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="8" t="str">
-        <f t="shared" ref="F101:G101" si="106">IFERROR(IF(F89,F89+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G101" s="8" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="23"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <f t="shared" si="52"/>
-        <v>80</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="8">
-        <f>IFERROR(IF(C91,C91+14,""),"")</f>
-        <v>45831</v>
-      </c>
-      <c r="D103" s="8">
-        <f t="shared" ref="D103:D108" si="107">IFERROR(IF(D91,D91+14,""),"")</f>
-        <v>45832</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="8">
-        <f t="shared" ref="F103:G103" si="108">IFERROR(IF(F91,F91+14,""),"")</f>
-        <v>45838</v>
-      </c>
-      <c r="G103" s="8">
-        <f t="shared" si="108"/>
-        <v>45838</v>
-      </c>
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <f t="shared" si="52"/>
-        <v>81</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="8">
-        <f t="shared" ref="C104" si="109">IFERROR(IF(C92,C92+14,""),"")</f>
-        <v>45831</v>
-      </c>
-      <c r="D104" s="8">
-        <f t="shared" si="107"/>
-        <v>45832</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="8">
-        <f t="shared" ref="F104:G104" si="110">IFERROR(IF(F92,F92+14,""),"")</f>
-        <v>45839</v>
-      </c>
-      <c r="G104" s="8">
-        <f t="shared" si="110"/>
-        <v>45839</v>
-      </c>
-      <c r="H104" s="15"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <f t="shared" si="52"/>
-        <v>82</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="8">
-        <f t="shared" ref="C105" si="111">IFERROR(IF(C93,C93+14,""),"")</f>
-        <v>45834</v>
-      </c>
-      <c r="D105" s="8">
-        <f t="shared" si="107"/>
-        <v>45835</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="8">
-        <f t="shared" ref="F105:G105" si="112">IFERROR(IF(F93,F93+14,""),"")</f>
-        <v>45840</v>
-      </c>
-      <c r="G105" s="8">
-        <f t="shared" si="112"/>
-        <v>45841</v>
-      </c>
-      <c r="H105" s="15"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <f t="shared" si="52"/>
-        <v>83</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="8">
-        <f t="shared" ref="C106" si="113">IFERROR(IF(C94,C94+14,""),"")</f>
-        <v>45831</v>
-      </c>
-      <c r="D106" s="8">
-        <f t="shared" si="107"/>
-        <v>45832</v>
-      </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="8" t="str">
-        <f t="shared" ref="F106:G106" si="114">IFERROR(IF(F94,F94+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G106" s="8" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="H106" s="20"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <f t="shared" si="52"/>
-        <v>84</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" s="8">
-        <f t="shared" ref="C107" si="115">IFERROR(IF(C95,C95+14,""),"")</f>
-        <v>45834</v>
-      </c>
-      <c r="D107" s="8">
-        <f t="shared" si="107"/>
-        <v>45835</v>
-      </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="8" t="str">
-        <f t="shared" ref="F107:G107" si="116">IFERROR(IF(F95,F95+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G107" s="8" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="H107" s="15"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <f t="shared" si="52"/>
-        <v>85</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="8">
-        <f t="shared" ref="C108" si="117">IFERROR(IF(C96,C96+14,""),"")</f>
-        <v>45834</v>
-      </c>
-      <c r="D108" s="8">
-        <f t="shared" si="107"/>
-        <v>45835</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="8">
-        <f>IFERROR(IF(F96,F96+14,""),"")</f>
-        <v>45845</v>
-      </c>
-      <c r="G108" s="8">
-        <f t="shared" ref="G108" si="118">IFERROR(IF(G96,G96+14,""),"")</f>
-        <v>45845</v>
-      </c>
-      <c r="H108" s="19"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="23"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <f t="shared" si="52"/>
-        <v>86</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="8">
-        <f>IFERROR(IF(C98,C98+14,""),"")</f>
-        <v>45838</v>
-      </c>
-      <c r="D110" s="8">
-        <f t="shared" ref="D110:D113" si="119">IFERROR(IF(D98,D98+14,""),"")</f>
-        <v>45839</v>
-      </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="8" t="str">
-        <f t="shared" ref="F110:G110" si="120">IFERROR(IF(F98,F98+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G110" s="8" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="H110" s="20"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <f t="shared" si="52"/>
-        <v>87</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="8">
-        <f t="shared" ref="C111" si="121">IFERROR(IF(C99,C99+14,""),"")</f>
-        <v>45838</v>
-      </c>
-      <c r="D111" s="8">
-        <f t="shared" si="119"/>
-        <v>45839</v>
-      </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="8">
-        <f t="shared" ref="F111:G111" si="122">IFERROR(IF(F99,F99+14,""),"")</f>
-        <v>45846</v>
-      </c>
-      <c r="G111" s="8">
-        <f t="shared" si="122"/>
-        <v>45846</v>
-      </c>
-      <c r="H111" s="15"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <f t="shared" si="52"/>
-        <v>88</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="8">
-        <f t="shared" ref="C112" si="123">IFERROR(IF(C100,C100+14,""),"")</f>
-        <v>45841</v>
-      </c>
-      <c r="D112" s="8">
-        <f t="shared" si="119"/>
-        <v>45842</v>
-      </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="8">
-        <f t="shared" ref="F112:G112" si="124">IFERROR(IF(F100,F100+14,""),"")</f>
-        <v>45847</v>
-      </c>
-      <c r="G112" s="8">
-        <f t="shared" si="124"/>
-        <v>45848</v>
-      </c>
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <f t="shared" si="52"/>
-        <v>89</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="8">
-        <f t="shared" ref="C113" si="125">IFERROR(IF(C101,C101+14,""),"")</f>
-        <v>45841</v>
-      </c>
-      <c r="D113" s="8">
-        <f t="shared" si="119"/>
-        <v>45842</v>
-      </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="8" t="str">
-        <f t="shared" ref="F113:G113" si="126">IFERROR(IF(F101,F101+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G113" s="8" t="str">
-        <f t="shared" si="126"/>
-        <v/>
-      </c>
-      <c r="H113" s="15"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="23"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <f t="shared" si="52"/>
-        <v>90</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="8">
-        <f>IFERROR(IF(C103,C103+14,""),"")</f>
-        <v>45845</v>
-      </c>
-      <c r="D115" s="8">
-        <f t="shared" ref="D115:D120" si="127">IFERROR(IF(D103,D103+14,""),"")</f>
-        <v>45846</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="8">
-        <f t="shared" ref="F115:G115" si="128">IFERROR(IF(F103,F103+14,""),"")</f>
-        <v>45852</v>
-      </c>
-      <c r="G115" s="8">
-        <f t="shared" si="128"/>
-        <v>45852</v>
-      </c>
-      <c r="H115" s="15"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <f t="shared" si="52"/>
-        <v>91</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="8">
-        <f t="shared" ref="C116" si="129">IFERROR(IF(C104,C104+14,""),"")</f>
-        <v>45845</v>
-      </c>
-      <c r="D116" s="8">
-        <f t="shared" si="127"/>
-        <v>45846</v>
-      </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="8">
-        <f t="shared" ref="F116:G116" si="130">IFERROR(IF(F104,F104+14,""),"")</f>
-        <v>45853</v>
-      </c>
-      <c r="G116" s="8">
-        <f t="shared" si="130"/>
-        <v>45853</v>
-      </c>
-      <c r="H116" s="15"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <f t="shared" si="52"/>
-        <v>92</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="8">
-        <f t="shared" ref="C117" si="131">IFERROR(IF(C105,C105+14,""),"")</f>
-        <v>45848</v>
-      </c>
-      <c r="D117" s="8">
-        <f t="shared" si="127"/>
-        <v>45849</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="8">
-        <f t="shared" ref="F117:G117" si="132">IFERROR(IF(F105,F105+14,""),"")</f>
-        <v>45854</v>
-      </c>
-      <c r="G117" s="8">
-        <f t="shared" si="132"/>
-        <v>45855</v>
-      </c>
-      <c r="H117" s="15"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <f t="shared" si="52"/>
-        <v>93</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="8">
-        <f t="shared" ref="C118" si="133">IFERROR(IF(C106,C106+14,""),"")</f>
-        <v>45845</v>
-      </c>
-      <c r="D118" s="8">
-        <f t="shared" si="127"/>
-        <v>45846</v>
-      </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="8" t="str">
-        <f t="shared" ref="F118:G118" si="134">IFERROR(IF(F106,F106+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G118" s="8" t="str">
-        <f t="shared" si="134"/>
-        <v/>
-      </c>
-      <c r="H118" s="20"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <f t="shared" si="52"/>
-        <v>94</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="8">
-        <f t="shared" ref="C119" si="135">IFERROR(IF(C107,C107+14,""),"")</f>
-        <v>45848</v>
-      </c>
-      <c r="D119" s="8">
-        <f t="shared" si="127"/>
-        <v>45849</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="8" t="str">
-        <f t="shared" ref="F119:G119" si="136">IFERROR(IF(F107,F107+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G119" s="8" t="str">
-        <f t="shared" si="136"/>
-        <v/>
-      </c>
-      <c r="H119" s="15"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <f t="shared" si="52"/>
-        <v>95</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C120" s="8">
-        <f t="shared" ref="C120" si="137">IFERROR(IF(C108,C108+14,""),"")</f>
-        <v>45848</v>
-      </c>
-      <c r="D120" s="8">
-        <f t="shared" si="127"/>
-        <v>45849</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="8">
-        <f>IFERROR(IF(F108,F108+14,""),"")</f>
-        <v>45859</v>
-      </c>
-      <c r="G120" s="8">
-        <f t="shared" ref="G120" si="138">IFERROR(IF(G108,G108+14,""),"")</f>
-        <v>45859</v>
-      </c>
-      <c r="H120" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H72" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -3720,7 +2976,13 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="21">
+  <mergeCells count="16">
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A26:H26"/>
@@ -3731,17 +2993,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B9B5E-514F-474E-8D42-18F3ECA4AE94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2659F1-5EE1-40BA-8DBA-38CF63D21D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$77</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
   <si>
     <t>Контракт</t>
   </si>
@@ -400,6 +400,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,6 +412,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,39 +452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
+      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,19 +758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -791,12 +791,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -813,10 +813,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -833,10 +833,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -847,14 +847,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -871,10 +871,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1032,16 +1032,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1185,16 +1185,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1337,16 +1337,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1547,16 +1547,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1741,16 +1741,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1952,16 +1952,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="25"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2076,16 +2076,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="25"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2234,16 +2234,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2358,18 +2358,18 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" si="52"/>
         <v>50</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="52"/>
         <v>51</v>
@@ -2429,7 +2429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="52"/>
         <v>52</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="52"/>
         <v>53</v>
@@ -2487,7 +2487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="52"/>
         <v>54</v>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="52"/>
         <v>55</v>
@@ -2541,15 +2541,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2668,14 +2670,14 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="23"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2751,7 +2753,9 @@
         <f t="shared" si="74"/>
         <v>45807</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5">
+        <v>5400</v>
+      </c>
       <c r="F81" s="8">
         <f t="shared" si="73"/>
         <v>45812</v>
@@ -2831,29 +2835,29 @@
         <f t="shared" si="77"/>
         <v>45806</v>
       </c>
-      <c r="D84" s="38">
+      <c r="D84" s="21">
         <v>45811</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="8">
-        <v>45817</v>
-      </c>
-      <c r="G84" s="8">
-        <v>45817</v>
+      <c r="F84" s="21">
+        <v>45816</v>
+      </c>
+      <c r="G84" s="21">
+        <v>45816</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="23"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="24"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -2964,15 +2968,13 @@
       <c r="H89" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H72" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H77" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="50"/>
-        <filter val="51"/>
-        <filter val="52"/>
-        <filter val="53"/>
-        <filter val="54"/>
-        <filter val="55"/>
+        <filter val="56"/>
+        <filter val="57"/>
+        <filter val="58"/>
+        <filter val="59"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2995,6 +2997,6 @@
     <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2659F1-5EE1-40BA-8DBA-38CF63D21D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D5FF82-3694-41AD-A82D-E8F33C95B1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2838,9 @@
       <c r="D84" s="21">
         <v>45811</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5">
+        <v>1297</v>
+      </c>
       <c r="F84" s="21">
         <v>45816</v>
       </c>
@@ -2902,7 +2904,9 @@
         <f t="shared" si="79"/>
         <v>45811</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5">
+        <v>2262</v>
+      </c>
       <c r="F87" s="8">
         <f t="shared" ref="F87:G87" si="82">IFERROR(IF(F75,F75+14,""),"")</f>
         <v>45818</v>
@@ -2930,12 +2934,11 @@
         <v>45814</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="8">
-        <f t="shared" ref="F88:G88" si="84">IFERROR(IF(F76,F76+14,""),"")</f>
-        <v>45819</v>
+      <c r="F88" s="21">
+        <v>45817</v>
       </c>
       <c r="G88" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="G88" si="84">IFERROR(IF(G76,G76+14,""),"")</f>
         <v>45820</v>
       </c>
       <c r="H88" s="15"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D5FF82-3694-41AD-A82D-E8F33C95B1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFCCAF5-72C3-4273-87A7-0380D8E36774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$84</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
   <si>
     <t>Контракт</t>
   </si>
@@ -737,11 +737,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A89" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A96" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2553,7 +2553,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="24"/>
     </row>
-    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="52"/>
         <v>56</v>
@@ -2584,7 +2584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" si="52"/>
         <v>57</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <f t="shared" si="52"/>
         <v>58</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <f t="shared" si="52"/>
         <v>59</v>
@@ -2669,8 +2669,10 @@
       </c>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -2877,7 +2879,9 @@
         <f t="shared" ref="D86:D89" si="79">IFERROR(IF(D74,D74+14,""),"")</f>
         <v>45811</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
       <c r="F86" s="8" t="str">
         <f t="shared" ref="F86:G86" si="80">IFERROR(IF(F74,F74+14,""),"")</f>
         <v/>
@@ -2933,7 +2937,9 @@
         <f t="shared" si="79"/>
         <v>45814</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5">
+        <v>10050</v>
+      </c>
       <c r="F88" s="21">
         <v>45817</v>
       </c>
@@ -2970,18 +2976,193 @@
       </c>
       <c r="H89" s="15"/>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="8">
+        <f>IFERROR(IF(C79,C79+14,""),"")</f>
+        <v>45817</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" ref="D91" si="87">IFERROR(IF(D79,D79+14,""),"")</f>
+        <v>45818</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="8">
+        <f t="shared" ref="F91:G91" si="88">IFERROR(IF(F79,F79+14,""),"")</f>
+        <v>45824</v>
+      </c>
+      <c r="G91" s="8">
+        <f t="shared" si="88"/>
+        <v>45824</v>
+      </c>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <f t="shared" si="52"/>
+        <v>71</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="8">
+        <f t="shared" ref="C92:D92" si="89">IFERROR(IF(C80,C80+14,""),"")</f>
+        <v>45817</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="89"/>
+        <v>45818</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="8">
+        <f t="shared" ref="F92:G92" si="90">IFERROR(IF(F80,F80+14,""),"")</f>
+        <v>45825</v>
+      </c>
+      <c r="G92" s="8">
+        <f t="shared" si="90"/>
+        <v>45825</v>
+      </c>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <f t="shared" si="52"/>
+        <v>72</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="8">
+        <f t="shared" ref="C93:D94" si="91">IFERROR(IF(C81,C81+14,""),"")</f>
+        <v>45820</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="91"/>
+        <v>45821</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="8">
+        <f t="shared" ref="F93:G93" si="92">IFERROR(IF(F81,F81+14,""),"")</f>
+        <v>45826</v>
+      </c>
+      <c r="G93" s="8">
+        <f t="shared" si="92"/>
+        <v>45827</v>
+      </c>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <f t="shared" si="52"/>
+        <v>73</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="8">
+        <f t="shared" si="91"/>
+        <v>45817</v>
+      </c>
+      <c r="D94" s="8">
+        <v>45804</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="8" t="str">
+        <f t="shared" ref="F94:G94" si="93">IFERROR(IF(F82,F82+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G94" s="8" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <f t="shared" si="52"/>
+        <v>74</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="8">
+        <f t="shared" ref="C95:D95" si="94">IFERROR(IF(C83,C83+14,""),"")</f>
+        <v>45820</v>
+      </c>
+      <c r="D95" s="8">
+        <f t="shared" si="94"/>
+        <v>45821</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="8" t="str">
+        <f t="shared" ref="F95:G95" si="95">IFERROR(IF(F83,F83+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G95" s="8" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <f t="shared" si="52"/>
+        <v>75</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="21">
+        <v>45818</v>
+      </c>
+      <c r="D96" s="21">
+        <v>45819</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="8">
+        <v>45831</v>
+      </c>
+      <c r="G96" s="8">
+        <v>45831</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H77" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H84" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="56"/>
-        <filter val="57"/>
-        <filter val="58"/>
-        <filter val="59"/>
+        <filter val="60"/>
+        <filter val="61"/>
+        <filter val="62"/>
+        <filter val="63"/>
+        <filter val="64"/>
+        <filter val="65"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A85:H85"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
@@ -2997,7 +3178,6 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFCCAF5-72C3-4273-87A7-0380D8E36774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BB891-A77F-4C70-B3B8-23D35A2D3A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,6 +409,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,12 +446,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,19 +758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -791,12 +791,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -813,10 +813,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -833,10 +833,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -851,10 +851,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="38"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -871,10 +871,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1041,7 +1041,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1191,10 +1191,10 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="35"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="36"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1343,10 +1343,10 @@
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="35"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="36"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1553,10 +1553,10 @@
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="35"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="36"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1747,10 +1747,10 @@
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="35"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="36"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1958,10 +1958,10 @@
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
-      <c r="E49" s="35"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="36"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2082,10 +2082,10 @@
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
-      <c r="E54" s="35"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="36"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2243,7 +2243,7 @@
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2367,7 +2367,7 @@
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
+      <c r="H66" s="26"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2551,7 +2551,7 @@
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2679,7 +2679,7 @@
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="24"/>
+      <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2861,7 +2861,7 @@
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="24"/>
+      <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -2984,7 +2984,7 @@
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3002,7 +3002,9 @@
         <f t="shared" ref="D91" si="87">IFERROR(IF(D79,D79+14,""),"")</f>
         <v>45818</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5">
+        <v>1618</v>
+      </c>
       <c r="F91" s="8">
         <f t="shared" ref="F91:G91" si="88">IFERROR(IF(F79,F79+14,""),"")</f>
         <v>45824</v>
@@ -3029,7 +3031,9 @@
         <f t="shared" si="89"/>
         <v>45818</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5">
+        <v>1850</v>
+      </c>
       <c r="F92" s="8">
         <f t="shared" ref="F92:G92" si="90">IFERROR(IF(F80,F80+14,""),"")</f>
         <v>45825</v>
@@ -3080,7 +3084,7 @@
         <v>45817</v>
       </c>
       <c r="D94" s="8">
-        <v>45804</v>
+        <v>45818</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="8" t="str">
@@ -3161,6 +3165,8 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A85:H85"/>
@@ -3176,8 +3182,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BB891-A77F-4C70-B3B8-23D35A2D3A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF144F3-0F60-4ED6-9837-FDDEB4AAAE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,7 +3140,9 @@
       <c r="D96" s="21">
         <v>45819</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="5">
+        <v>900</v>
+      </c>
       <c r="F96" s="8">
         <v>45831</v>
       </c>
@@ -3165,23 +3167,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF144F3-0F60-4ED6-9837-FDDEB4AAAE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E529443-8FB4-48EF-AE8C-886EAEA8CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$84</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -415,6 +409,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,12 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,19 +752,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -791,12 +785,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -813,10 +807,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -833,10 +827,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -847,14 +841,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -871,10 +865,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -891,7 +885,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1041,7 +1035,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="26"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2243,7 +2237,7 @@
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="26"/>
+      <c r="H61" s="28"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2367,7 +2361,7 @@
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="26"/>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2551,7 +2545,7 @@
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="26"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2679,7 +2673,7 @@
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="26"/>
+      <c r="H78" s="28"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2861,7 +2855,7 @@
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="28"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -2984,7 +2978,7 @@
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="26"/>
+      <c r="H90" s="28"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3083,10 +3077,12 @@
         <f t="shared" si="91"/>
         <v>45817</v>
       </c>
-      <c r="D94" s="8">
-        <v>45818</v>
-      </c>
-      <c r="E94" s="5"/>
+      <c r="D94" s="21">
+        <v>45820</v>
+      </c>
+      <c r="E94" s="5">
+        <v>489</v>
+      </c>
       <c r="F94" s="8" t="str">
         <f t="shared" ref="F94:G94" si="93">IFERROR(IF(F82,F82+14,""),"")</f>
         <v/>
@@ -3167,23 +3163,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A73:H73"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E529443-8FB4-48EF-AE8C-886EAEA8CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8691C2F-97A8-4AEB-93DA-826CECA37685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$84</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t>Контракт</t>
   </si>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,44 +409,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
+      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,19 +755,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -785,12 +788,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -807,10 +810,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -827,10 +830,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -841,14 +844,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -865,10 +868,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -885,7 +888,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1035,7 +1038,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2237,7 +2240,7 @@
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="28"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2361,7 +2364,7 @@
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="28"/>
+      <c r="H66" s="26"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2545,7 +2548,7 @@
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="28"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2673,7 +2676,7 @@
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="28"/>
+      <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2855,7 +2858,7 @@
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="28"/>
+      <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -2978,7 +2981,7 @@
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="28"/>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3054,7 +3057,9 @@
         <f t="shared" si="91"/>
         <v>45821</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="5">
+        <v>6260</v>
+      </c>
       <c r="F93" s="8">
         <f t="shared" ref="F93:G93" si="92">IFERROR(IF(F81,F81+14,""),"")</f>
         <v>45826</v>
@@ -3065,7 +3070,7 @@
       </c>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <f t="shared" si="52"/>
         <v>73</v>
@@ -3091,8 +3096,8 @@
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="H94" s="20" t="s">
-        <v>38</v>
+      <c r="H94" s="39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,7 +3127,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="52"/>
         <v>75</v>
@@ -3145,9 +3150,7 @@
       <c r="G96" s="8">
         <v>45831</v>
       </c>
-      <c r="H96" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="H96" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H84" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -3163,15 +3166,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -3179,7 +3173,16 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A73:H73"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8691C2F-97A8-4AEB-93DA-826CECA37685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F0352-40BC-4381-A52D-DF7E2FD9F779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,25 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$89</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
   <si>
     <t>Контракт</t>
   </si>
@@ -170,6 +176,12 @@
   <si>
     <t>дозаказ не приняли</t>
   </si>
+  <si>
+    <t>первый заказ 11,06,25 / корректировка 16,06,25</t>
+  </si>
+  <si>
+    <t>16,06,25</t>
+  </si>
 </sst>
 </file>
 
@@ -178,12 +190,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +227,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -334,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -343,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -352,7 +379,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -361,16 +388,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,70 +412,76 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,11 +767,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1029,15 +1062,15 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1182,16 +1215,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1334,16 +1367,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1544,16 +1577,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1738,16 +1771,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1949,16 +1982,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2073,16 +2106,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2231,20 +2264,20 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A96" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A101" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2355,15 +2388,15 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="26"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2539,15 +2572,15 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2667,18 +2700,18 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="26"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <f t="shared" si="52"/>
         <v>60</v>
@@ -2707,7 +2740,7 @@
       </c>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" si="52"/>
         <v>61</v>
@@ -2736,7 +2769,7 @@
       </c>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <f t="shared" si="52"/>
         <v>62</v>
@@ -2765,7 +2798,7 @@
       </c>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <f t="shared" si="52"/>
         <v>63</v>
@@ -2791,11 +2824,11 @@
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="H82" s="20" t="s">
+      <c r="H82" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <f t="shared" si="52"/>
         <v>64</v>
@@ -2822,7 +2855,7 @@
       </c>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <f t="shared" si="52"/>
         <v>65</v>
@@ -2850,14 +2883,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,7 +2922,9 @@
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="H86" s="20"/>
+      <c r="H86" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -2974,13 +3011,13 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3096,7 +3133,7 @@
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="H94" s="39" t="s">
+      <c r="H94" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3127,7 +3164,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="52"/>
         <v>75</v>
@@ -3138,11 +3175,11 @@
       <c r="C96" s="21">
         <v>45818</v>
       </c>
-      <c r="D96" s="21">
-        <v>45819</v>
+      <c r="D96" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="E96" s="5">
-        <v>900</v>
+        <v>1058</v>
       </c>
       <c r="F96" s="8">
         <v>45831</v>
@@ -3150,22 +3187,141 @@
       <c r="G96" s="8">
         <v>45831</v>
       </c>
-      <c r="H96" s="19"/>
+      <c r="H96" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <f t="shared" si="52"/>
+        <v>76</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="8">
+        <f>IFERROR(IF(C86,C86+14,""),"")</f>
+        <v>45824</v>
+      </c>
+      <c r="D98" s="8">
+        <f t="shared" ref="D98:D101" si="96">IFERROR(IF(D86,D86+14,""),"")</f>
+        <v>45825</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="8" t="str">
+        <f t="shared" ref="F98:G98" si="97">IFERROR(IF(F86,F86+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="8" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <f t="shared" si="52"/>
+        <v>77</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="8">
+        <f t="shared" ref="C99:C101" si="98">IFERROR(IF(C87,C87+14,""),"")</f>
+        <v>45824</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" si="96"/>
+        <v>45825</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="8">
+        <f t="shared" ref="F99:G100" si="99">IFERROR(IF(F87,F87+14,""),"")</f>
+        <v>45832</v>
+      </c>
+      <c r="G99" s="8">
+        <f t="shared" si="99"/>
+        <v>45832</v>
+      </c>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <f t="shared" si="52"/>
+        <v>78</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="8">
+        <f t="shared" si="98"/>
+        <v>45827</v>
+      </c>
+      <c r="D100" s="8">
+        <f t="shared" si="96"/>
+        <v>45828</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="8">
+        <v>45833</v>
+      </c>
+      <c r="G100" s="8">
+        <f t="shared" si="99"/>
+        <v>45834</v>
+      </c>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <f t="shared" si="52"/>
+        <v>79</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="8">
+        <f t="shared" si="98"/>
+        <v>45827</v>
+      </c>
+      <c r="D101" s="8">
+        <f t="shared" si="96"/>
+        <v>45828</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="8" t="str">
+        <f t="shared" ref="F101:G101" si="100">IFERROR(IF(F89,F89+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G101" s="8" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="H101" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H84" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H89" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="60"/>
-        <filter val="61"/>
-        <filter val="62"/>
-        <filter val="63"/>
-        <filter val="64"/>
-        <filter val="65"/>
+        <filter val="66"/>
+        <filter val="67"/>
+        <filter val="68"/>
+        <filter val="69"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -3173,16 +3329,17 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A85:H85"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F0352-40BC-4381-A52D-DF7E2FD9F779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B2A7D-59D9-4B4C-BCF0-A941A3AEFE4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$96</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
   <si>
     <t>Контракт</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>16,06,25</t>
+  </si>
+  <si>
+    <t>добавить Шувалову в рассылку, при отправке на завод</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -430,6 +439,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,9 +495,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,11 +779,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,19 +800,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -821,12 +833,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -843,10 +855,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -863,10 +875,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -877,14 +889,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -901,10 +913,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -921,7 +933,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1062,16 +1074,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1215,16 +1227,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="38"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1367,16 +1379,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="38"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1577,16 +1589,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1771,16 +1783,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1982,16 +1994,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="38"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2106,16 +2118,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="38"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2264,20 +2276,20 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A101" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A108" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2388,16 +2400,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2572,16 +2584,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2700,16 +2712,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2884,18 +2896,18 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="28"/>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <f t="shared" si="52"/>
         <v>66</v>
@@ -2926,7 +2938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <f t="shared" si="52"/>
         <v>67</v>
@@ -2955,7 +2967,7 @@
       </c>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <f t="shared" si="52"/>
         <v>68</v>
@@ -2983,7 +2995,7 @@
       </c>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <f t="shared" si="52"/>
         <v>69</v>
@@ -3010,15 +3022,17 @@
       </c>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="26"/>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3187,19 +3201,19 @@
       <c r="G96" s="8">
         <v>45831</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="H96" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="28"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3246,7 +3260,9 @@
         <f t="shared" si="96"/>
         <v>45825</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5">
+        <v>2220</v>
+      </c>
       <c r="F99" s="8">
         <f t="shared" ref="F99:G100" si="99">IFERROR(IF(F87,F87+14,""),"")</f>
         <v>45832</v>
@@ -3273,7 +3289,9 @@
         <f t="shared" si="96"/>
         <v>45828</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="5">
+        <v>4200</v>
+      </c>
       <c r="F100" s="8">
         <v>45833</v>
       </c>
@@ -3310,18 +3328,221 @@
       </c>
       <c r="H101" s="15"/>
     </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="26"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="28"/>
+    </row>
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <f t="shared" si="52"/>
+        <v>80</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="8">
+        <f>IFERROR(IF(C91,C91+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="D103" s="8">
+        <f t="shared" ref="D103" si="101">IFERROR(IF(D91,D91+14,""),"")</f>
+        <v>45832</v>
+      </c>
+      <c r="E103" s="5">
+        <v>599</v>
+      </c>
+      <c r="F103" s="8">
+        <f t="shared" ref="F103:G103" si="102">IFERROR(IF(F91,F91+14,""),"")</f>
+        <v>45838</v>
+      </c>
+      <c r="G103" s="8">
+        <f t="shared" si="102"/>
+        <v>45838</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <f t="shared" si="52"/>
+        <v>81</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="8">
+        <f t="shared" ref="C104:D104" si="103">IFERROR(IF(C92,C92+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="D104" s="8">
+        <f t="shared" si="103"/>
+        <v>45832</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1709</v>
+      </c>
+      <c r="F104" s="8">
+        <f t="shared" ref="F104:G104" si="104">IFERROR(IF(F92,F92+14,""),"")</f>
+        <v>45839</v>
+      </c>
+      <c r="G104" s="8">
+        <f t="shared" si="104"/>
+        <v>45839</v>
+      </c>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <f t="shared" si="52"/>
+        <v>82</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="8">
+        <f t="shared" ref="C105:D105" si="105">IFERROR(IF(C93,C93+14,""),"")</f>
+        <v>45834</v>
+      </c>
+      <c r="D105" s="8">
+        <f t="shared" si="105"/>
+        <v>45835</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="8">
+        <f t="shared" ref="F105:G105" si="106">IFERROR(IF(F93,F93+14,""),"")</f>
+        <v>45840</v>
+      </c>
+      <c r="G105" s="8">
+        <f t="shared" si="106"/>
+        <v>45841</v>
+      </c>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <f t="shared" si="52"/>
+        <v>83</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="8">
+        <f t="shared" ref="C106" si="107">IFERROR(IF(C94,C94+14,""),"")</f>
+        <v>45831</v>
+      </c>
+      <c r="D106" s="25">
+        <v>45832</v>
+      </c>
+      <c r="E106" s="5">
+        <v>167</v>
+      </c>
+      <c r="F106" s="8" t="str">
+        <f t="shared" ref="F106:G106" si="108">IFERROR(IF(F94,F94+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G106" s="8" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <f t="shared" si="52"/>
+        <v>84</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="8">
+        <f t="shared" ref="C107:D107" si="109">IFERROR(IF(C95,C95+14,""),"")</f>
+        <v>45834</v>
+      </c>
+      <c r="D107" s="8">
+        <f t="shared" si="109"/>
+        <v>45835</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="8" t="str">
+        <f t="shared" ref="F107:G108" si="110">IFERROR(IF(F95,F95+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G107" s="8" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <f t="shared" si="52"/>
+        <v>85</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="25">
+        <v>45834</v>
+      </c>
+      <c r="D108" s="25">
+        <v>45835</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="8">
+        <f t="shared" si="110"/>
+        <v>45845</v>
+      </c>
+      <c r="G108" s="8">
+        <f t="shared" si="110"/>
+        <v>45845</v>
+      </c>
+      <c r="H108" s="24"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="26"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="28"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H89" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H96" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="66"/>
-        <filter val="67"/>
-        <filter val="68"/>
-        <filter val="69"/>
+        <filter val="70"/>
+        <filter val="71"/>
+        <filter val="72"/>
+        <filter val="73"/>
+        <filter val="74"/>
+        <filter val="75"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -3330,16 +3551,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B2A7D-59D9-4B4C-BCF0-A941A3AEFE4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EBEB4F-7C30-4DA6-8137-3D795DB65AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
   <si>
     <t>Контракт</t>
   </si>
@@ -183,7 +183,31 @@
     <t>16,06,25</t>
   </si>
   <si>
-    <t>добавить Шувалову в рассылку, при отправке на завод</t>
+    <t>Отмена (1709кг)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">смещение заказа с 30,06,25 на 07,07,25 + сделать дозаказ 01,07,25 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>добавить Шувалову в рассылку, при отправке на завод</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -783,7 +807,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+      <selection pane="bottomLeft" activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,7 +3362,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="28"/>
     </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <f t="shared" si="52"/>
         <v>80</v>
@@ -3357,16 +3381,14 @@
       <c r="E103" s="5">
         <v>599</v>
       </c>
-      <c r="F103" s="8">
-        <f t="shared" ref="F103:G103" si="102">IFERROR(IF(F91,F91+14,""),"")</f>
-        <v>45838</v>
-      </c>
-      <c r="G103" s="8">
-        <f t="shared" si="102"/>
-        <v>45838</v>
+      <c r="F103" s="21">
+        <v>45845</v>
+      </c>
+      <c r="G103" s="21">
+        <v>45845</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3378,25 +3400,27 @@
         <v>17</v>
       </c>
       <c r="C104" s="8">
-        <f t="shared" ref="C104:D104" si="103">IFERROR(IF(C92,C92+14,""),"")</f>
+        <f t="shared" ref="C104:D104" si="102">IFERROR(IF(C92,C92+14,""),"")</f>
         <v>45831</v>
       </c>
       <c r="D104" s="8">
+        <f t="shared" si="102"/>
+        <v>45832</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="8">
+        <f t="shared" ref="F104:G104" si="103">IFERROR(IF(F92,F92+14,""),"")</f>
+        <v>45839</v>
+      </c>
+      <c r="G104" s="8">
         <f t="shared" si="103"/>
-        <v>45832</v>
-      </c>
-      <c r="E104" s="5">
-        <v>1709</v>
-      </c>
-      <c r="F104" s="8">
-        <f t="shared" ref="F104:G104" si="104">IFERROR(IF(F92,F92+14,""),"")</f>
         <v>45839</v>
       </c>
-      <c r="G104" s="8">
-        <f t="shared" si="104"/>
-        <v>45839</v>
-      </c>
-      <c r="H104" s="15"/>
+      <c r="H104" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -3407,23 +3431,27 @@
         <v>18</v>
       </c>
       <c r="C105" s="8">
-        <f t="shared" ref="C105:D105" si="105">IFERROR(IF(C93,C93+14,""),"")</f>
+        <f t="shared" ref="C105:D105" si="104">IFERROR(IF(C93,C93+14,""),"")</f>
         <v>45834</v>
       </c>
       <c r="D105" s="8">
+        <f t="shared" si="104"/>
+        <v>45835</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
+        <f t="shared" ref="F105:G105" si="105">IFERROR(IF(F93,F93+14,""),"")</f>
+        <v>45840</v>
+      </c>
+      <c r="G105" s="8">
         <f t="shared" si="105"/>
-        <v>45835</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="8">
-        <f t="shared" ref="F105:G105" si="106">IFERROR(IF(F93,F93+14,""),"")</f>
-        <v>45840</v>
-      </c>
-      <c r="G105" s="8">
-        <f t="shared" si="106"/>
         <v>45841</v>
       </c>
-      <c r="H105" s="15"/>
+      <c r="H105" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -3434,21 +3462,21 @@
         <v>19</v>
       </c>
       <c r="C106" s="8">
-        <f t="shared" ref="C106" si="107">IFERROR(IF(C94,C94+14,""),"")</f>
+        <f t="shared" ref="C106" si="106">IFERROR(IF(C94,C94+14,""),"")</f>
         <v>45831</v>
       </c>
       <c r="D106" s="25">
         <v>45832</v>
       </c>
       <c r="E106" s="5">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F106" s="8" t="str">
-        <f t="shared" ref="F106:G106" si="108">IFERROR(IF(F94,F94+14,""),"")</f>
+        <f t="shared" ref="F106:G106" si="107">IFERROR(IF(F94,F94+14,""),"")</f>
         <v/>
       </c>
       <c r="G106" s="8" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="H106" s="22" t="s">
@@ -3464,20 +3492,20 @@
         <v>20</v>
       </c>
       <c r="C107" s="8">
-        <f t="shared" ref="C107:D107" si="109">IFERROR(IF(C95,C95+14,""),"")</f>
+        <f t="shared" ref="C107:D107" si="108">IFERROR(IF(C95,C95+14,""),"")</f>
         <v>45834</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>45835</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="8" t="str">
-        <f t="shared" ref="F107:G108" si="110">IFERROR(IF(F95,F95+14,""),"")</f>
+        <f t="shared" ref="F107:G108" si="109">IFERROR(IF(F95,F95+14,""),"")</f>
         <v/>
       </c>
       <c r="G107" s="8" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="H107" s="15"/>
@@ -3498,11 +3526,11 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>45845</v>
       </c>
       <c r="G108" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>45845</v>
       </c>
       <c r="H108" s="24"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EBEB4F-7C30-4DA6-8137-3D795DB65AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8C452-E544-4DEF-A4A0-7558FBA41A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
   <si>
     <t>Контракт</t>
   </si>
@@ -803,11 +803,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N103" sqref="N103"/>
+      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A108" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A114" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -3058,7 +3058,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="28"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <f t="shared" si="52"/>
         <v>70</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <f t="shared" si="52"/>
         <v>71</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <f t="shared" si="52"/>
         <v>72</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <f t="shared" si="52"/>
         <v>73</v>
@@ -3175,7 +3175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <f t="shared" si="52"/>
         <v>74</v>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="52"/>
         <v>75</v>
@@ -3229,8 +3229,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
@@ -3521,8 +3523,8 @@
       <c r="C108" s="25">
         <v>45834</v>
       </c>
-      <c r="D108" s="25">
-        <v>45835</v>
+      <c r="D108" s="21">
+        <v>45838</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="8">
@@ -3545,25 +3547,166 @@
       <c r="G109" s="27"/>
       <c r="H109" s="28"/>
     </row>
+    <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <f t="shared" si="52"/>
+        <v>86</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="8">
+        <f>IFERROR(IF(C103,C103+7,""),"")</f>
+        <v>45838</v>
+      </c>
+      <c r="D110" s="8">
+        <f>IFERROR(IF(D103,D103+7,""),"")</f>
+        <v>45839</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="21">
+        <v>45845</v>
+      </c>
+      <c r="G110" s="21">
+        <v>45845</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <f t="shared" si="52"/>
+        <v>87</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="8">
+        <f t="shared" ref="C111:D111" si="110">IFERROR(IF(C104,C104+7,""),"")</f>
+        <v>45838</v>
+      </c>
+      <c r="D111" s="8">
+        <f t="shared" si="110"/>
+        <v>45839</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="8">
+        <f t="shared" ref="F111:G111" si="111">IFERROR(IF(F99,F99+14,""),"")</f>
+        <v>45846</v>
+      </c>
+      <c r="G111" s="8">
+        <f t="shared" si="111"/>
+        <v>45846</v>
+      </c>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <f t="shared" si="52"/>
+        <v>88</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="8">
+        <f t="shared" ref="C112:D112" si="112">IFERROR(IF(C105,C105+7,""),"")</f>
+        <v>45841</v>
+      </c>
+      <c r="D112" s="8">
+        <f t="shared" si="112"/>
+        <v>45842</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="8">
+        <f t="shared" ref="F112:G112" si="113">IFERROR(IF(F100,F100+14,""),"")</f>
+        <v>45847</v>
+      </c>
+      <c r="G112" s="8">
+        <f t="shared" si="113"/>
+        <v>45848</v>
+      </c>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <f t="shared" si="52"/>
+        <v>89</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="8">
+        <f t="shared" ref="C113:D113" si="114">IFERROR(IF(C106,C106+7,""),"")</f>
+        <v>45838</v>
+      </c>
+      <c r="D113" s="8">
+        <f t="shared" si="114"/>
+        <v>45839</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="8" t="str">
+        <f t="shared" ref="F113:G113" si="115">IFERROR(IF(F101,F101+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G113" s="8" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <f t="shared" si="52"/>
+        <v>90</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="8">
+        <f t="shared" ref="C114:D114" si="116">IFERROR(IF(C107,C107+7,""),"")</f>
+        <v>45841</v>
+      </c>
+      <c r="D114" s="8">
+        <f t="shared" si="116"/>
+        <v>45842</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="8" t="str">
+        <f t="shared" ref="F114:G114" si="117">IFERROR(IF(F102,F102+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G114" s="8" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="28"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H96" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H101" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="70"/>
-        <filter val="71"/>
-        <filter val="72"/>
-        <filter val="73"/>
-        <filter val="74"/>
-        <filter val="75"/>
+        <filter val="76"/>
+        <filter val="77"/>
+        <filter val="78"/>
+        <filter val="79"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="20">
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
+  <mergeCells count="21">
+    <mergeCell ref="A115:H115"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A1:H1"/>
@@ -3579,8 +3722,13 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A78:H78"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8C452-E544-4DEF-A4A0-7558FBA41A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36B0C4A-CC2F-41F1-9639-D429A3EB904B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
+      <selection pane="bottomLeft" activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,9 +3524,11 @@
         <v>45834</v>
       </c>
       <c r="D108" s="21">
-        <v>45838</v>
-      </c>
-      <c r="E108" s="5"/>
+        <v>45839</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1399</v>
+      </c>
       <c r="F108" s="8">
         <f t="shared" si="109"/>
         <v>45845</v>
@@ -3559,7 +3561,7 @@
         <f>IFERROR(IF(C103,C103+7,""),"")</f>
         <v>45838</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="21">
         <f>IFERROR(IF(D103,D103+7,""),"")</f>
         <v>45839</v>
       </c>
@@ -3706,6 +3708,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A78:H78"/>
     <mergeCell ref="A115:H115"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
@@ -3722,11 +3729,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36B0C4A-CC2F-41F1-9639-D429A3EB904B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0688CF1-F00D-420E-8E04-62D5BDDEDE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="45">
   <si>
     <t>Контракт</t>
   </si>
@@ -195,6 +195,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">смещение заказа с 30,06,25 на 07,07,25 + сделать дозаказ 01,07,25 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>добавить Шувалову в рассылку, при отправке на завод</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">смещение заказа с 30,06,25 на 06,07,25 + сделать дозаказ 01,07,25 / </t>
     </r>
     <r>
       <rPr>
@@ -394,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -518,6 +542,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,11 +833,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N112" sqref="N112"/>
+      <selection pane="bottomLeft" activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,7 +2343,7 @@
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A114" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A125" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -3384,10 +3414,10 @@
         <v>599</v>
       </c>
       <c r="F103" s="21">
-        <v>45845</v>
+        <v>45844</v>
       </c>
       <c r="G103" s="21">
-        <v>45845</v>
+        <v>45844</v>
       </c>
       <c r="H103" s="19" t="s">
         <v>43</v>
@@ -3565,15 +3595,17 @@
         <f>IFERROR(IF(D103,D103+7,""),"")</f>
         <v>45839</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5">
+        <v>239</v>
+      </c>
       <c r="F110" s="21">
-        <v>45845</v>
+        <v>45844</v>
       </c>
       <c r="G110" s="21">
-        <v>45845</v>
+        <v>45844</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3592,7 +3624,9 @@
         <f t="shared" si="110"/>
         <v>45839</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5">
+        <v>2505</v>
+      </c>
       <c r="F111" s="8">
         <f t="shared" ref="F111:G111" si="111">IFERROR(IF(F99,F99+14,""),"")</f>
         <v>45846</v>
@@ -3646,7 +3680,9 @@
         <f t="shared" si="114"/>
         <v>45839</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5">
+        <v>212</v>
+      </c>
       <c r="F113" s="8" t="str">
         <f t="shared" ref="F113:G113" si="115">IFERROR(IF(F101,F101+14,""),"")</f>
         <v/>
@@ -3668,7 +3704,7 @@
         <v>20</v>
       </c>
       <c r="C114" s="8">
-        <f t="shared" ref="C114:D114" si="116">IFERROR(IF(C107,C107+7,""),"")</f>
+        <f t="shared" ref="C114:D115" si="116">IFERROR(IF(C107,C107+7,""),"")</f>
         <v>45841</v>
       </c>
       <c r="D114" s="8">
@@ -3677,7 +3713,7 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="8" t="str">
-        <f t="shared" ref="F114:G114" si="117">IFERROR(IF(F102,F102+14,""),"")</f>
+        <f t="shared" ref="F114:G115" si="117">IFERROR(IF(F102,F102+14,""),"")</f>
         <v/>
       </c>
       <c r="G114" s="8" t="str">
@@ -3687,14 +3723,604 @@
       <c r="H114" s="15"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="28"/>
+      <c r="A115" s="2">
+        <f t="shared" si="52"/>
+        <v>91</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="8">
+        <f t="shared" si="116"/>
+        <v>45841</v>
+      </c>
+      <c r="D115" s="8">
+        <v>45842</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="8">
+        <v>45852</v>
+      </c>
+      <c r="G115" s="8">
+        <v>45852</v>
+      </c>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="26"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="28"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <f t="shared" si="52"/>
+        <v>92</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="8">
+        <v>45845</v>
+      </c>
+      <c r="D117" s="8">
+        <v>45846</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <f t="shared" si="52"/>
+        <v>93</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="8">
+        <f t="shared" ref="C118:C120" si="118">IFERROR(IF(C106,C106+14,""),"")</f>
+        <v>45845</v>
+      </c>
+      <c r="D118" s="8">
+        <f t="shared" ref="D117:D120" si="119">IFERROR(IF(D106,D106+14,""),"")</f>
+        <v>45846</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="8">
+        <v>45853</v>
+      </c>
+      <c r="G118" s="8">
+        <v>45853</v>
+      </c>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <f t="shared" si="52"/>
+        <v>94</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="8">
+        <f t="shared" si="118"/>
+        <v>45848</v>
+      </c>
+      <c r="D119" s="8">
+        <f t="shared" si="119"/>
+        <v>45849</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="8">
+        <v>45854</v>
+      </c>
+      <c r="G119" s="8">
+        <v>45855</v>
+      </c>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <f t="shared" si="52"/>
+        <v>95</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="8">
+        <v>45848</v>
+      </c>
+      <c r="D120" s="8">
+        <v>45849</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="26"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="28"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <f t="shared" si="52"/>
+        <v>96</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="43">
+        <f>IFERROR(IF(C110,C110+14,""),"")</f>
+        <v>45852</v>
+      </c>
+      <c r="D122" s="43">
+        <f t="shared" ref="D122:D127" si="120">IFERROR(IF(D110,D110+14,""),"")</f>
+        <v>45853</v>
+      </c>
+      <c r="E122" s="44"/>
+      <c r="F122" s="43">
+        <v>45859</v>
+      </c>
+      <c r="G122" s="43">
+        <v>45859</v>
+      </c>
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <f t="shared" si="52"/>
+        <v>97</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="43">
+        <f t="shared" ref="C123:D123" si="121">IFERROR(IF(C111,C111+14,""),"")</f>
+        <v>45852</v>
+      </c>
+      <c r="D123" s="43">
+        <f t="shared" si="120"/>
+        <v>45853</v>
+      </c>
+      <c r="E123" s="44"/>
+      <c r="F123" s="43">
+        <f t="shared" ref="F123:G123" si="122">IFERROR(IF(F111,F111+14,""),"")</f>
+        <v>45860</v>
+      </c>
+      <c r="G123" s="43">
+        <f t="shared" si="122"/>
+        <v>45860</v>
+      </c>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <f t="shared" si="52"/>
+        <v>98</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="43">
+        <f t="shared" ref="C124:D124" si="123">IFERROR(IF(C112,C112+14,""),"")</f>
+        <v>45855</v>
+      </c>
+      <c r="D124" s="43">
+        <f t="shared" si="120"/>
+        <v>45856</v>
+      </c>
+      <c r="E124" s="44"/>
+      <c r="F124" s="43">
+        <f t="shared" ref="F124:G124" si="124">IFERROR(IF(F112,F112+14,""),"")</f>
+        <v>45861</v>
+      </c>
+      <c r="G124" s="43">
+        <f t="shared" si="124"/>
+        <v>45862</v>
+      </c>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <f t="shared" si="52"/>
+        <v>99</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="43">
+        <f t="shared" ref="C125:D125" si="125">IFERROR(IF(C113,C113+14,""),"")</f>
+        <v>45852</v>
+      </c>
+      <c r="D125" s="43">
+        <f t="shared" si="120"/>
+        <v>45853</v>
+      </c>
+      <c r="E125" s="44"/>
+      <c r="F125" s="43" t="str">
+        <f t="shared" ref="F125:G125" si="126">IFERROR(IF(F113,F113+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G125" s="43" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <f t="shared" ref="A126:A127" si="127">MAX(A114:A125)+1</f>
+        <v>100</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="43">
+        <f t="shared" ref="C126:D126" si="128">IFERROR(IF(C114,C114+14,""),"")</f>
+        <v>45855</v>
+      </c>
+      <c r="D126" s="43">
+        <f t="shared" si="120"/>
+        <v>45856</v>
+      </c>
+      <c r="E126" s="44"/>
+      <c r="F126" s="43" t="str">
+        <f t="shared" ref="F126:G126" si="129">IFERROR(IF(F114,F114+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G126" s="43" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <f t="shared" si="127"/>
+        <v>101</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="43">
+        <f t="shared" ref="C127:D127" si="130">IFERROR(IF(C115,C115+14,""),"")</f>
+        <v>45855</v>
+      </c>
+      <c r="D127" s="43">
+        <f t="shared" si="120"/>
+        <v>45856</v>
+      </c>
+      <c r="E127" s="44"/>
+      <c r="F127" s="43">
+        <f t="shared" ref="F127:G127" si="131">IFERROR(IF(F115,F115+14,""),"")</f>
+        <v>45866</v>
+      </c>
+      <c r="G127" s="43">
+        <f t="shared" si="131"/>
+        <v>45866</v>
+      </c>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="26"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <f t="shared" ref="A129:A132" si="132">MAX(A117:A128)+1</f>
+        <v>102</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="43">
+        <f>IFERROR(IF(C117,C117+14,""),"")</f>
+        <v>45859</v>
+      </c>
+      <c r="D129" s="43">
+        <f t="shared" ref="D129:D132" si="133">IFERROR(IF(D117,D117+14,""),"")</f>
+        <v>45860</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="43" t="str">
+        <f t="shared" ref="F129:G129" si="134">IFERROR(IF(F117,F117+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G129" s="43" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <f t="shared" si="132"/>
+        <v>103</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="43">
+        <f t="shared" ref="C130:D130" si="135">IFERROR(IF(C118,C118+14,""),"")</f>
+        <v>45859</v>
+      </c>
+      <c r="D130" s="43">
+        <f t="shared" si="133"/>
+        <v>45860</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="43">
+        <f t="shared" ref="F130:G130" si="136">IFERROR(IF(F118,F118+14,""),"")</f>
+        <v>45867</v>
+      </c>
+      <c r="G130" s="43">
+        <f t="shared" si="136"/>
+        <v>45867</v>
+      </c>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <f t="shared" si="132"/>
+        <v>104</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="43">
+        <f t="shared" ref="C131:D131" si="137">IFERROR(IF(C119,C119+14,""),"")</f>
+        <v>45862</v>
+      </c>
+      <c r="D131" s="43">
+        <f t="shared" si="133"/>
+        <v>45863</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="43">
+        <f t="shared" ref="F131:G131" si="138">IFERROR(IF(F119,F119+14,""),"")</f>
+        <v>45868</v>
+      </c>
+      <c r="G131" s="43">
+        <f t="shared" si="138"/>
+        <v>45869</v>
+      </c>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <f t="shared" si="132"/>
+        <v>105</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="43">
+        <f t="shared" ref="C132:D132" si="139">IFERROR(IF(C120,C120+14,""),"")</f>
+        <v>45862</v>
+      </c>
+      <c r="D132" s="43">
+        <f t="shared" si="133"/>
+        <v>45863</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="43" t="str">
+        <f t="shared" ref="F132:G132" si="140">IFERROR(IF(F120,F120+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G132" s="43" t="str">
+        <f t="shared" si="140"/>
+        <v/>
+      </c>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="26"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="28"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <f t="shared" ref="A134:A139" si="141">MAX(A122:A133)+1</f>
+        <v>106</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="43">
+        <f>IFERROR(IF(C122,C122+14,""),"")</f>
+        <v>45866</v>
+      </c>
+      <c r="D134" s="43">
+        <f t="shared" ref="D134:D139" si="142">IFERROR(IF(D122,D122+14,""),"")</f>
+        <v>45867</v>
+      </c>
+      <c r="E134" s="44"/>
+      <c r="F134" s="43">
+        <f t="shared" ref="F134:G134" si="143">IFERROR(IF(F122,F122+14,""),"")</f>
+        <v>45873</v>
+      </c>
+      <c r="G134" s="43">
+        <f t="shared" si="143"/>
+        <v>45873</v>
+      </c>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <f t="shared" si="141"/>
+        <v>107</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="43">
+        <f t="shared" ref="C135:D135" si="144">IFERROR(IF(C123,C123+14,""),"")</f>
+        <v>45866</v>
+      </c>
+      <c r="D135" s="43">
+        <f t="shared" si="142"/>
+        <v>45867</v>
+      </c>
+      <c r="E135" s="44"/>
+      <c r="F135" s="43">
+        <f t="shared" ref="F135:G135" si="145">IFERROR(IF(F123,F123+14,""),"")</f>
+        <v>45874</v>
+      </c>
+      <c r="G135" s="43">
+        <f t="shared" si="145"/>
+        <v>45874</v>
+      </c>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <f t="shared" si="141"/>
+        <v>108</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="43">
+        <f t="shared" ref="C136:D136" si="146">IFERROR(IF(C124,C124+14,""),"")</f>
+        <v>45869</v>
+      </c>
+      <c r="D136" s="43">
+        <f t="shared" si="142"/>
+        <v>45870</v>
+      </c>
+      <c r="E136" s="44"/>
+      <c r="F136" s="43">
+        <f t="shared" ref="F136:G136" si="147">IFERROR(IF(F124,F124+14,""),"")</f>
+        <v>45875</v>
+      </c>
+      <c r="G136" s="43">
+        <f t="shared" si="147"/>
+        <v>45876</v>
+      </c>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <f t="shared" si="141"/>
+        <v>109</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="43">
+        <f t="shared" ref="C137:D137" si="148">IFERROR(IF(C125,C125+14,""),"")</f>
+        <v>45866</v>
+      </c>
+      <c r="D137" s="43">
+        <f t="shared" si="142"/>
+        <v>45867</v>
+      </c>
+      <c r="E137" s="44"/>
+      <c r="F137" s="43" t="str">
+        <f t="shared" ref="F137:G137" si="149">IFERROR(IF(F125,F125+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G137" s="43" t="str">
+        <f t="shared" si="149"/>
+        <v/>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <f t="shared" si="141"/>
+        <v>110</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="43">
+        <f t="shared" ref="C138:D138" si="150">IFERROR(IF(C126,C126+14,""),"")</f>
+        <v>45869</v>
+      </c>
+      <c r="D138" s="43">
+        <f t="shared" si="142"/>
+        <v>45870</v>
+      </c>
+      <c r="E138" s="44"/>
+      <c r="F138" s="43" t="str">
+        <f t="shared" ref="F138:G138" si="151">IFERROR(IF(F126,F126+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G138" s="43" t="str">
+        <f t="shared" si="151"/>
+        <v/>
+      </c>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <f t="shared" si="141"/>
+        <v>111</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="43">
+        <f t="shared" ref="C139:D139" si="152">IFERROR(IF(C127,C127+14,""),"")</f>
+        <v>45869</v>
+      </c>
+      <c r="D139" s="43">
+        <f t="shared" si="142"/>
+        <v>45870</v>
+      </c>
+      <c r="E139" s="44"/>
+      <c r="F139" s="43">
+        <f t="shared" ref="F139:G139" si="153">IFERROR(IF(F127,F127+14,""),"")</f>
+        <v>45880</v>
+      </c>
+      <c r="G139" s="43">
+        <f t="shared" si="153"/>
+        <v>45880</v>
+      </c>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="26"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H101" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -3707,13 +4333,17 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A85:H85"/>
     <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A1:H1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0688CF1-F00D-420E-8E04-62D5BDDEDE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6495353-F96E-446C-BF93-C37F08B2EB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$108</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="45">
   <si>
     <t>Контракт</t>
   </si>
@@ -493,6 +493,12 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,12 +548,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,8 +836,8 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K105" sqref="K105"/>
+      <pane ySplit="8" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,19 +854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -887,12 +887,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -909,10 +909,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -929,10 +929,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -943,14 +943,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -967,10 +967,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1128,16 +1128,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1281,16 +1281,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="40"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1433,16 +1433,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="40"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1643,16 +1643,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="40"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1837,16 +1837,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2048,16 +2048,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="40"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2172,16 +2172,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="40"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2330,16 +2330,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2454,16 +2454,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2638,16 +2638,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2766,16 +2766,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2950,16 +2950,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3077,16 +3077,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3260,18 +3260,18 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="30"/>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <f t="shared" si="52"/>
         <v>76</v>
@@ -3300,7 +3300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <f t="shared" si="52"/>
         <v>77</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <f t="shared" si="52"/>
         <v>78</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <f t="shared" si="52"/>
         <v>79</v>
@@ -3384,15 +3384,17 @@
       </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="28"/>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3570,14 +3572,14 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="28"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3713,7 +3715,7 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="8" t="str">
-        <f t="shared" ref="F114:G115" si="117">IFERROR(IF(F102,F102+14,""),"")</f>
+        <f t="shared" ref="F114:G114" si="117">IFERROR(IF(F102,F102+14,""),"")</f>
         <v/>
       </c>
       <c r="G114" s="8" t="str">
@@ -3747,14 +3749,14 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="28"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3786,11 +3788,11 @@
         <v>17</v>
       </c>
       <c r="C118" s="8">
-        <f t="shared" ref="C118:C120" si="118">IFERROR(IF(C106,C106+14,""),"")</f>
+        <f t="shared" ref="C118:C119" si="118">IFERROR(IF(C106,C106+14,""),"")</f>
         <v>45845</v>
       </c>
       <c r="D118" s="8">
-        <f t="shared" ref="D117:D120" si="119">IFERROR(IF(D106,D106+14,""),"")</f>
+        <f t="shared" ref="D118:D119" si="119">IFERROR(IF(D106,D106+14,""),"")</f>
         <v>45846</v>
       </c>
       <c r="E118" s="5"/>
@@ -3847,14 +3849,14 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="28"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -3864,19 +3866,19 @@
       <c r="B122" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="43">
+      <c r="C122" s="26">
         <f>IFERROR(IF(C110,C110+14,""),"")</f>
         <v>45852</v>
       </c>
-      <c r="D122" s="43">
+      <c r="D122" s="26">
         <f t="shared" ref="D122:D127" si="120">IFERROR(IF(D110,D110+14,""),"")</f>
         <v>45853</v>
       </c>
-      <c r="E122" s="44"/>
-      <c r="F122" s="43">
+      <c r="E122" s="27"/>
+      <c r="F122" s="26">
         <v>45859</v>
       </c>
-      <c r="G122" s="43">
+      <c r="G122" s="26">
         <v>45859</v>
       </c>
       <c r="H122" s="19"/>
@@ -3889,20 +3891,20 @@
       <c r="B123" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="43">
-        <f t="shared" ref="C123:D123" si="121">IFERROR(IF(C111,C111+14,""),"")</f>
+      <c r="C123" s="26">
+        <f t="shared" ref="C123" si="121">IFERROR(IF(C111,C111+14,""),"")</f>
         <v>45852</v>
       </c>
-      <c r="D123" s="43">
+      <c r="D123" s="26">
         <f t="shared" si="120"/>
         <v>45853</v>
       </c>
-      <c r="E123" s="44"/>
-      <c r="F123" s="43">
+      <c r="E123" s="27"/>
+      <c r="F123" s="26">
         <f t="shared" ref="F123:G123" si="122">IFERROR(IF(F111,F111+14,""),"")</f>
         <v>45860</v>
       </c>
-      <c r="G123" s="43">
+      <c r="G123" s="26">
         <f t="shared" si="122"/>
         <v>45860</v>
       </c>
@@ -3916,20 +3918,20 @@
       <c r="B124" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="43">
-        <f t="shared" ref="C124:D124" si="123">IFERROR(IF(C112,C112+14,""),"")</f>
+      <c r="C124" s="26">
+        <f t="shared" ref="C124" si="123">IFERROR(IF(C112,C112+14,""),"")</f>
         <v>45855</v>
       </c>
-      <c r="D124" s="43">
+      <c r="D124" s="26">
         <f t="shared" si="120"/>
         <v>45856</v>
       </c>
-      <c r="E124" s="44"/>
-      <c r="F124" s="43">
+      <c r="E124" s="27"/>
+      <c r="F124" s="26">
         <f t="shared" ref="F124:G124" si="124">IFERROR(IF(F112,F112+14,""),"")</f>
         <v>45861</v>
       </c>
-      <c r="G124" s="43">
+      <c r="G124" s="26">
         <f t="shared" si="124"/>
         <v>45862</v>
       </c>
@@ -3943,20 +3945,20 @@
       <c r="B125" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="43">
-        <f t="shared" ref="C125:D125" si="125">IFERROR(IF(C113,C113+14,""),"")</f>
+      <c r="C125" s="26">
+        <f t="shared" ref="C125" si="125">IFERROR(IF(C113,C113+14,""),"")</f>
         <v>45852</v>
       </c>
-      <c r="D125" s="43">
+      <c r="D125" s="26">
         <f t="shared" si="120"/>
         <v>45853</v>
       </c>
-      <c r="E125" s="44"/>
-      <c r="F125" s="43" t="str">
+      <c r="E125" s="27"/>
+      <c r="F125" s="26" t="str">
         <f t="shared" ref="F125:G125" si="126">IFERROR(IF(F113,F113+14,""),"")</f>
         <v/>
       </c>
-      <c r="G125" s="43" t="str">
+      <c r="G125" s="26" t="str">
         <f t="shared" si="126"/>
         <v/>
       </c>
@@ -3972,20 +3974,20 @@
       <c r="B126" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="43">
-        <f t="shared" ref="C126:D126" si="128">IFERROR(IF(C114,C114+14,""),"")</f>
+      <c r="C126" s="26">
+        <f t="shared" ref="C126" si="128">IFERROR(IF(C114,C114+14,""),"")</f>
         <v>45855</v>
       </c>
-      <c r="D126" s="43">
+      <c r="D126" s="26">
         <f t="shared" si="120"/>
         <v>45856</v>
       </c>
-      <c r="E126" s="44"/>
-      <c r="F126" s="43" t="str">
+      <c r="E126" s="27"/>
+      <c r="F126" s="26" t="str">
         <f t="shared" ref="F126:G126" si="129">IFERROR(IF(F114,F114+14,""),"")</f>
         <v/>
       </c>
-      <c r="G126" s="43" t="str">
+      <c r="G126" s="26" t="str">
         <f t="shared" si="129"/>
         <v/>
       </c>
@@ -3999,34 +4001,34 @@
       <c r="B127" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C127" s="43">
-        <f t="shared" ref="C127:D127" si="130">IFERROR(IF(C115,C115+14,""),"")</f>
+      <c r="C127" s="26">
+        <f t="shared" ref="C127" si="130">IFERROR(IF(C115,C115+14,""),"")</f>
         <v>45855</v>
       </c>
-      <c r="D127" s="43">
+      <c r="D127" s="26">
         <f t="shared" si="120"/>
         <v>45856</v>
       </c>
-      <c r="E127" s="44"/>
-      <c r="F127" s="43">
+      <c r="E127" s="27"/>
+      <c r="F127" s="26">
         <f t="shared" ref="F127:G127" si="131">IFERROR(IF(F115,F115+14,""),"")</f>
         <v>45866</v>
       </c>
-      <c r="G127" s="43">
+      <c r="G127" s="26">
         <f t="shared" si="131"/>
         <v>45866</v>
       </c>
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="28"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4036,20 +4038,20 @@
       <c r="B129" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="43">
+      <c r="C129" s="26">
         <f>IFERROR(IF(C117,C117+14,""),"")</f>
         <v>45859</v>
       </c>
-      <c r="D129" s="43">
+      <c r="D129" s="26">
         <f t="shared" ref="D129:D132" si="133">IFERROR(IF(D117,D117+14,""),"")</f>
         <v>45860</v>
       </c>
       <c r="E129" s="5"/>
-      <c r="F129" s="43" t="str">
+      <c r="F129" s="26" t="str">
         <f t="shared" ref="F129:G129" si="134">IFERROR(IF(F117,F117+14,""),"")</f>
         <v/>
       </c>
-      <c r="G129" s="43" t="str">
+      <c r="G129" s="26" t="str">
         <f t="shared" si="134"/>
         <v/>
       </c>
@@ -4065,20 +4067,20 @@
       <c r="B130" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="43">
-        <f t="shared" ref="C130:D130" si="135">IFERROR(IF(C118,C118+14,""),"")</f>
+      <c r="C130" s="26">
+        <f t="shared" ref="C130" si="135">IFERROR(IF(C118,C118+14,""),"")</f>
         <v>45859</v>
       </c>
-      <c r="D130" s="43">
+      <c r="D130" s="26">
         <f t="shared" si="133"/>
         <v>45860</v>
       </c>
       <c r="E130" s="5"/>
-      <c r="F130" s="43">
+      <c r="F130" s="26">
         <f t="shared" ref="F130:G130" si="136">IFERROR(IF(F118,F118+14,""),"")</f>
         <v>45867</v>
       </c>
-      <c r="G130" s="43">
+      <c r="G130" s="26">
         <f t="shared" si="136"/>
         <v>45867</v>
       </c>
@@ -4092,20 +4094,20 @@
       <c r="B131" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="43">
-        <f t="shared" ref="C131:D131" si="137">IFERROR(IF(C119,C119+14,""),"")</f>
+      <c r="C131" s="26">
+        <f t="shared" ref="C131" si="137">IFERROR(IF(C119,C119+14,""),"")</f>
         <v>45862</v>
       </c>
-      <c r="D131" s="43">
+      <c r="D131" s="26">
         <f t="shared" si="133"/>
         <v>45863</v>
       </c>
       <c r="E131" s="5"/>
-      <c r="F131" s="43">
+      <c r="F131" s="26">
         <f t="shared" ref="F131:G131" si="138">IFERROR(IF(F119,F119+14,""),"")</f>
         <v>45868</v>
       </c>
-      <c r="G131" s="43">
+      <c r="G131" s="26">
         <f t="shared" si="138"/>
         <v>45869</v>
       </c>
@@ -4119,34 +4121,34 @@
       <c r="B132" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="43">
-        <f t="shared" ref="C132:D132" si="139">IFERROR(IF(C120,C120+14,""),"")</f>
+      <c r="C132" s="26">
+        <f t="shared" ref="C132" si="139">IFERROR(IF(C120,C120+14,""),"")</f>
         <v>45862</v>
       </c>
-      <c r="D132" s="43">
+      <c r="D132" s="26">
         <f t="shared" si="133"/>
         <v>45863</v>
       </c>
       <c r="E132" s="5"/>
-      <c r="F132" s="43" t="str">
+      <c r="F132" s="26" t="str">
         <f t="shared" ref="F132:G132" si="140">IFERROR(IF(F120,F120+14,""),"")</f>
         <v/>
       </c>
-      <c r="G132" s="43" t="str">
+      <c r="G132" s="26" t="str">
         <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="28"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4156,20 +4158,20 @@
       <c r="B134" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="43">
+      <c r="C134" s="26">
         <f>IFERROR(IF(C122,C122+14,""),"")</f>
         <v>45866</v>
       </c>
-      <c r="D134" s="43">
+      <c r="D134" s="26">
         <f t="shared" ref="D134:D139" si="142">IFERROR(IF(D122,D122+14,""),"")</f>
         <v>45867</v>
       </c>
-      <c r="E134" s="44"/>
-      <c r="F134" s="43">
+      <c r="E134" s="27"/>
+      <c r="F134" s="26">
         <f t="shared" ref="F134:G134" si="143">IFERROR(IF(F122,F122+14,""),"")</f>
         <v>45873</v>
       </c>
-      <c r="G134" s="43">
+      <c r="G134" s="26">
         <f t="shared" si="143"/>
         <v>45873</v>
       </c>
@@ -4183,20 +4185,20 @@
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C135" s="43">
-        <f t="shared" ref="C135:D135" si="144">IFERROR(IF(C123,C123+14,""),"")</f>
+      <c r="C135" s="26">
+        <f t="shared" ref="C135" si="144">IFERROR(IF(C123,C123+14,""),"")</f>
         <v>45866</v>
       </c>
-      <c r="D135" s="43">
+      <c r="D135" s="26">
         <f t="shared" si="142"/>
         <v>45867</v>
       </c>
-      <c r="E135" s="44"/>
-      <c r="F135" s="43">
+      <c r="E135" s="27"/>
+      <c r="F135" s="26">
         <f t="shared" ref="F135:G135" si="145">IFERROR(IF(F123,F123+14,""),"")</f>
         <v>45874</v>
       </c>
-      <c r="G135" s="43">
+      <c r="G135" s="26">
         <f t="shared" si="145"/>
         <v>45874</v>
       </c>
@@ -4210,20 +4212,20 @@
       <c r="B136" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="43">
-        <f t="shared" ref="C136:D136" si="146">IFERROR(IF(C124,C124+14,""),"")</f>
+      <c r="C136" s="26">
+        <f t="shared" ref="C136" si="146">IFERROR(IF(C124,C124+14,""),"")</f>
         <v>45869</v>
       </c>
-      <c r="D136" s="43">
+      <c r="D136" s="26">
         <f t="shared" si="142"/>
         <v>45870</v>
       </c>
-      <c r="E136" s="44"/>
-      <c r="F136" s="43">
+      <c r="E136" s="27"/>
+      <c r="F136" s="26">
         <f t="shared" ref="F136:G136" si="147">IFERROR(IF(F124,F124+14,""),"")</f>
         <v>45875</v>
       </c>
-      <c r="G136" s="43">
+      <c r="G136" s="26">
         <f t="shared" si="147"/>
         <v>45876</v>
       </c>
@@ -4237,20 +4239,20 @@
       <c r="B137" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="43">
-        <f t="shared" ref="C137:D137" si="148">IFERROR(IF(C125,C125+14,""),"")</f>
+      <c r="C137" s="26">
+        <f t="shared" ref="C137" si="148">IFERROR(IF(C125,C125+14,""),"")</f>
         <v>45866</v>
       </c>
-      <c r="D137" s="43">
+      <c r="D137" s="26">
         <f t="shared" si="142"/>
         <v>45867</v>
       </c>
-      <c r="E137" s="44"/>
-      <c r="F137" s="43" t="str">
+      <c r="E137" s="27"/>
+      <c r="F137" s="26" t="str">
         <f t="shared" ref="F137:G137" si="149">IFERROR(IF(F125,F125+14,""),"")</f>
         <v/>
       </c>
-      <c r="G137" s="43" t="str">
+      <c r="G137" s="26" t="str">
         <f t="shared" si="149"/>
         <v/>
       </c>
@@ -4266,20 +4268,20 @@
       <c r="B138" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="43">
-        <f t="shared" ref="C138:D138" si="150">IFERROR(IF(C126,C126+14,""),"")</f>
+      <c r="C138" s="26">
+        <f t="shared" ref="C138" si="150">IFERROR(IF(C126,C126+14,""),"")</f>
         <v>45869</v>
       </c>
-      <c r="D138" s="43">
+      <c r="D138" s="26">
         <f t="shared" si="142"/>
         <v>45870</v>
       </c>
-      <c r="E138" s="44"/>
-      <c r="F138" s="43" t="str">
+      <c r="E138" s="27"/>
+      <c r="F138" s="26" t="str">
         <f t="shared" ref="F138:G138" si="151">IFERROR(IF(F126,F126+14,""),"")</f>
         <v/>
       </c>
-      <c r="G138" s="43" t="str">
+      <c r="G138" s="26" t="str">
         <f t="shared" si="151"/>
         <v/>
       </c>
@@ -4293,64 +4295,49 @@
       <c r="B139" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="43">
-        <f t="shared" ref="C139:D139" si="152">IFERROR(IF(C127,C127+14,""),"")</f>
+      <c r="C139" s="26">
+        <f t="shared" ref="C139" si="152">IFERROR(IF(C127,C127+14,""),"")</f>
         <v>45869</v>
       </c>
-      <c r="D139" s="43">
+      <c r="D139" s="26">
         <f t="shared" si="142"/>
         <v>45870</v>
       </c>
-      <c r="E139" s="44"/>
-      <c r="F139" s="43">
+      <c r="E139" s="27"/>
+      <c r="F139" s="26">
         <f t="shared" ref="F139:G139" si="153">IFERROR(IF(F127,F127+14,""),"")</f>
         <v>45880</v>
       </c>
-      <c r="G139" s="43">
+      <c r="G139" s="26">
         <f t="shared" si="153"/>
         <v>45880</v>
       </c>
       <c r="H139" s="15"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="28"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H101" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H108" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="76"/>
-        <filter val="77"/>
-        <filter val="78"/>
-        <filter val="79"/>
+        <filter val="80"/>
+        <filter val="81"/>
+        <filter val="82"/>
+        <filter val="83"/>
+        <filter val="84"/>
+        <filter val="85"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4359,8 +4346,25 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6495353-F96E-446C-BF93-C37F08B2EB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95855953-013A-4EAF-B260-7A6F54E7ABB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
   <si>
     <t>Контракт</t>
   </si>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -493,18 +493,24 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,18 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,11 +827,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N111" sqref="N111"/>
+      <pane ySplit="8" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,19 +848,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -887,12 +881,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -909,10 +903,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -929,10 +923,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -943,14 +937,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -967,10 +961,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -987,7 +981,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1128,16 +1122,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1281,16 +1275,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="42"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1433,16 +1427,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="42"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1643,16 +1637,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="42"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1837,16 +1831,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="42"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2048,16 +2042,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="42"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="29"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2172,16 +2166,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="42"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2330,20 +2324,20 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="32"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <f t="shared" ref="A62:A125" si="52">MAX(A50:A61)+1</f>
+        <f t="shared" ref="A62:A120" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2454,16 +2448,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="32"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2638,16 +2632,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="32"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2766,16 +2760,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2950,16 +2944,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3077,16 +3071,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3260,16 +3254,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3385,16 +3379,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="30"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="32"/>
     </row>
     <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3572,14 +3566,14 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="32"/>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3655,7 +3649,9 @@
         <f t="shared" si="112"/>
         <v>45842</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5">
+        <v>9750</v>
+      </c>
       <c r="F112" s="8">
         <f t="shared" ref="F112:G112" si="113">IFERROR(IF(F100,F100+14,""),"")</f>
         <v>45847</v>
@@ -3736,8 +3732,8 @@
         <f t="shared" si="116"/>
         <v>45841</v>
       </c>
-      <c r="D115" s="8">
-        <v>45842</v>
+      <c r="D115" s="21">
+        <v>45845</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="8">
@@ -3749,14 +3745,14 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="28"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="30"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="32"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3849,480 +3845,14 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <f t="shared" si="52"/>
-        <v>96</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="26">
-        <f>IFERROR(IF(C110,C110+14,""),"")</f>
-        <v>45852</v>
-      </c>
-      <c r="D122" s="26">
-        <f t="shared" ref="D122:D127" si="120">IFERROR(IF(D110,D110+14,""),"")</f>
-        <v>45853</v>
-      </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="26">
-        <v>45859</v>
-      </c>
-      <c r="G122" s="26">
-        <v>45859</v>
-      </c>
-      <c r="H122" s="19"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <f t="shared" si="52"/>
-        <v>97</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="26">
-        <f t="shared" ref="C123" si="121">IFERROR(IF(C111,C111+14,""),"")</f>
-        <v>45852</v>
-      </c>
-      <c r="D123" s="26">
-        <f t="shared" si="120"/>
-        <v>45853</v>
-      </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="26">
-        <f t="shared" ref="F123:G123" si="122">IFERROR(IF(F111,F111+14,""),"")</f>
-        <v>45860</v>
-      </c>
-      <c r="G123" s="26">
-        <f t="shared" si="122"/>
-        <v>45860</v>
-      </c>
-      <c r="H123" s="15"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <f t="shared" si="52"/>
-        <v>98</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="26">
-        <f t="shared" ref="C124" si="123">IFERROR(IF(C112,C112+14,""),"")</f>
-        <v>45855</v>
-      </c>
-      <c r="D124" s="26">
-        <f t="shared" si="120"/>
-        <v>45856</v>
-      </c>
-      <c r="E124" s="27"/>
-      <c r="F124" s="26">
-        <f t="shared" ref="F124:G124" si="124">IFERROR(IF(F112,F112+14,""),"")</f>
-        <v>45861</v>
-      </c>
-      <c r="G124" s="26">
-        <f t="shared" si="124"/>
-        <v>45862</v>
-      </c>
-      <c r="H124" s="15"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <f t="shared" si="52"/>
-        <v>99</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="26">
-        <f t="shared" ref="C125" si="125">IFERROR(IF(C113,C113+14,""),"")</f>
-        <v>45852</v>
-      </c>
-      <c r="D125" s="26">
-        <f t="shared" si="120"/>
-        <v>45853</v>
-      </c>
-      <c r="E125" s="27"/>
-      <c r="F125" s="26" t="str">
-        <f t="shared" ref="F125:G125" si="126">IFERROR(IF(F113,F113+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G125" s="26" t="str">
-        <f t="shared" si="126"/>
-        <v/>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <f t="shared" ref="A126:A127" si="127">MAX(A114:A125)+1</f>
-        <v>100</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="26">
-        <f t="shared" ref="C126" si="128">IFERROR(IF(C114,C114+14,""),"")</f>
-        <v>45855</v>
-      </c>
-      <c r="D126" s="26">
-        <f t="shared" si="120"/>
-        <v>45856</v>
-      </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="26" t="str">
-        <f t="shared" ref="F126:G126" si="129">IFERROR(IF(F114,F114+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G126" s="26" t="str">
-        <f t="shared" si="129"/>
-        <v/>
-      </c>
-      <c r="H126" s="15"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <f t="shared" si="127"/>
-        <v>101</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C127" s="26">
-        <f t="shared" ref="C127" si="130">IFERROR(IF(C115,C115+14,""),"")</f>
-        <v>45855</v>
-      </c>
-      <c r="D127" s="26">
-        <f t="shared" si="120"/>
-        <v>45856</v>
-      </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="26">
-        <f t="shared" ref="F127:G127" si="131">IFERROR(IF(F115,F115+14,""),"")</f>
-        <v>45866</v>
-      </c>
-      <c r="G127" s="26">
-        <f t="shared" si="131"/>
-        <v>45866</v>
-      </c>
-      <c r="H127" s="15"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="28"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="30"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <f t="shared" ref="A129:A132" si="132">MAX(A117:A128)+1</f>
-        <v>102</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="26">
-        <f>IFERROR(IF(C117,C117+14,""),"")</f>
-        <v>45859</v>
-      </c>
-      <c r="D129" s="26">
-        <f t="shared" ref="D129:D132" si="133">IFERROR(IF(D117,D117+14,""),"")</f>
-        <v>45860</v>
-      </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="26" t="str">
-        <f t="shared" ref="F129:G129" si="134">IFERROR(IF(F117,F117+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G129" s="26" t="str">
-        <f t="shared" si="134"/>
-        <v/>
-      </c>
-      <c r="H129" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <f t="shared" si="132"/>
-        <v>103</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="26">
-        <f t="shared" ref="C130" si="135">IFERROR(IF(C118,C118+14,""),"")</f>
-        <v>45859</v>
-      </c>
-      <c r="D130" s="26">
-        <f t="shared" si="133"/>
-        <v>45860</v>
-      </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="26">
-        <f t="shared" ref="F130:G130" si="136">IFERROR(IF(F118,F118+14,""),"")</f>
-        <v>45867</v>
-      </c>
-      <c r="G130" s="26">
-        <f t="shared" si="136"/>
-        <v>45867</v>
-      </c>
-      <c r="H130" s="15"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <f t="shared" si="132"/>
-        <v>104</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="26">
-        <f t="shared" ref="C131" si="137">IFERROR(IF(C119,C119+14,""),"")</f>
-        <v>45862</v>
-      </c>
-      <c r="D131" s="26">
-        <f t="shared" si="133"/>
-        <v>45863</v>
-      </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="26">
-        <f t="shared" ref="F131:G131" si="138">IFERROR(IF(F119,F119+14,""),"")</f>
-        <v>45868</v>
-      </c>
-      <c r="G131" s="26">
-        <f t="shared" si="138"/>
-        <v>45869</v>
-      </c>
-      <c r="H131" s="15"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <f t="shared" si="132"/>
-        <v>105</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="26">
-        <f t="shared" ref="C132" si="139">IFERROR(IF(C120,C120+14,""),"")</f>
-        <v>45862</v>
-      </c>
-      <c r="D132" s="26">
-        <f t="shared" si="133"/>
-        <v>45863</v>
-      </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="26" t="str">
-        <f t="shared" ref="F132:G132" si="140">IFERROR(IF(F120,F120+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G132" s="26" t="str">
-        <f t="shared" si="140"/>
-        <v/>
-      </c>
-      <c r="H132" s="15"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="30"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <f t="shared" ref="A134:A139" si="141">MAX(A122:A133)+1</f>
-        <v>106</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="26">
-        <f>IFERROR(IF(C122,C122+14,""),"")</f>
-        <v>45866</v>
-      </c>
-      <c r="D134" s="26">
-        <f t="shared" ref="D134:D139" si="142">IFERROR(IF(D122,D122+14,""),"")</f>
-        <v>45867</v>
-      </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="26">
-        <f t="shared" ref="F134:G134" si="143">IFERROR(IF(F122,F122+14,""),"")</f>
-        <v>45873</v>
-      </c>
-      <c r="G134" s="26">
-        <f t="shared" si="143"/>
-        <v>45873</v>
-      </c>
-      <c r="H134" s="19"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <f t="shared" si="141"/>
-        <v>107</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="26">
-        <f t="shared" ref="C135" si="144">IFERROR(IF(C123,C123+14,""),"")</f>
-        <v>45866</v>
-      </c>
-      <c r="D135" s="26">
-        <f t="shared" si="142"/>
-        <v>45867</v>
-      </c>
-      <c r="E135" s="27"/>
-      <c r="F135" s="26">
-        <f t="shared" ref="F135:G135" si="145">IFERROR(IF(F123,F123+14,""),"")</f>
-        <v>45874</v>
-      </c>
-      <c r="G135" s="26">
-        <f t="shared" si="145"/>
-        <v>45874</v>
-      </c>
-      <c r="H135" s="15"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <f t="shared" si="141"/>
-        <v>108</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="26">
-        <f t="shared" ref="C136" si="146">IFERROR(IF(C124,C124+14,""),"")</f>
-        <v>45869</v>
-      </c>
-      <c r="D136" s="26">
-        <f t="shared" si="142"/>
-        <v>45870</v>
-      </c>
-      <c r="E136" s="27"/>
-      <c r="F136" s="26">
-        <f t="shared" ref="F136:G136" si="147">IFERROR(IF(F124,F124+14,""),"")</f>
-        <v>45875</v>
-      </c>
-      <c r="G136" s="26">
-        <f t="shared" si="147"/>
-        <v>45876</v>
-      </c>
-      <c r="H136" s="15"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <f t="shared" si="141"/>
-        <v>109</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="26">
-        <f t="shared" ref="C137" si="148">IFERROR(IF(C125,C125+14,""),"")</f>
-        <v>45866</v>
-      </c>
-      <c r="D137" s="26">
-        <f t="shared" si="142"/>
-        <v>45867</v>
-      </c>
-      <c r="E137" s="27"/>
-      <c r="F137" s="26" t="str">
-        <f t="shared" ref="F137:G137" si="149">IFERROR(IF(F125,F125+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G137" s="26" t="str">
-        <f t="shared" si="149"/>
-        <v/>
-      </c>
-      <c r="H137" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <f t="shared" si="141"/>
-        <v>110</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="26">
-        <f t="shared" ref="C138" si="150">IFERROR(IF(C126,C126+14,""),"")</f>
-        <v>45869</v>
-      </c>
-      <c r="D138" s="26">
-        <f t="shared" si="142"/>
-        <v>45870</v>
-      </c>
-      <c r="E138" s="27"/>
-      <c r="F138" s="26" t="str">
-        <f t="shared" ref="F138:G138" si="151">IFERROR(IF(F126,F126+14,""),"")</f>
-        <v/>
-      </c>
-      <c r="G138" s="26" t="str">
-        <f t="shared" si="151"/>
-        <v/>
-      </c>
-      <c r="H138" s="15"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <f t="shared" si="141"/>
-        <v>111</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" s="26">
-        <f t="shared" ref="C139" si="152">IFERROR(IF(C127,C127+14,""),"")</f>
-        <v>45869</v>
-      </c>
-      <c r="D139" s="26">
-        <f t="shared" si="142"/>
-        <v>45870</v>
-      </c>
-      <c r="E139" s="27"/>
-      <c r="F139" s="26">
-        <f t="shared" ref="F139:G139" si="153">IFERROR(IF(F127,F127+14,""),"")</f>
-        <v>45880</v>
-      </c>
-      <c r="G139" s="26">
-        <f t="shared" si="153"/>
-        <v>45880</v>
-      </c>
-      <c r="H139" s="15"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="28"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="30"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H108" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4337,7 +3867,21 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="25">
+  <mergeCells count="22">
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4346,23 +3890,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95855953-013A-4EAF-B260-7A6F54E7ABB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04AF07-DCC4-4D1D-9842-C2C85D725434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$115</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="45">
   <si>
     <t>Контракт</t>
   </si>
@@ -241,12 +241,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -427,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -436,7 +450,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -445,16 +459,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,13 +483,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,13 +498,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,44 +525,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,11 +847,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
+      <pane ySplit="8" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +957,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1122,15 +1142,15 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1275,16 +1295,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1427,16 +1447,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1637,16 +1657,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1831,16 +1851,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2042,16 +2062,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2166,16 +2186,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2324,15 +2344,15 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
       <c r="H61" s="32"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2448,15 +2468,15 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
       <c r="H66" s="32"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2632,15 +2652,15 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
       <c r="H73" s="32"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2760,15 +2780,15 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
       <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2944,15 +2964,15 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
       <c r="H85" s="32"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3071,15 +3091,15 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
       <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3254,15 +3274,15 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
       <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3379,18 +3399,18 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
       <c r="H102" s="32"/>
     </row>
-    <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <f t="shared" si="52"/>
         <v>80</v>
@@ -3419,7 +3439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f t="shared" si="52"/>
         <v>81</v>
@@ -3450,7 +3470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <f t="shared" si="52"/>
         <v>82</v>
@@ -3481,7 +3501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <f t="shared" si="52"/>
         <v>83</v>
@@ -3511,7 +3531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <f t="shared" si="52"/>
         <v>84</v>
@@ -3538,7 +3558,7 @@
       </c>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <f t="shared" si="52"/>
         <v>85</v>
@@ -3565,14 +3585,16 @@
       </c>
       <c r="H108" s="24"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
       <c r="H109" s="32"/>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -3745,13 +3767,13 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
       <c r="H116" s="32"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3845,43 +3867,494 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
       <c r="H121" s="32"/>
     </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <f t="shared" ref="A122:A127" si="120">MAX(A110:A121)+1</f>
+        <v>96</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="8">
+        <f>IFERROR(IF(C110,C110+14,""),"")</f>
+        <v>45852</v>
+      </c>
+      <c r="D122" s="8">
+        <f t="shared" ref="D122:D126" si="121">IFERROR(IF(D110,D110+14,""),"")</f>
+        <v>45853</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="8">
+        <v>45859</v>
+      </c>
+      <c r="G122" s="8">
+        <v>45859</v>
+      </c>
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <f t="shared" si="120"/>
+        <v>97</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="8">
+        <f t="shared" ref="C123:C126" si="122">IFERROR(IF(C111,C111+14,""),"")</f>
+        <v>45852</v>
+      </c>
+      <c r="D123" s="8">
+        <f t="shared" si="121"/>
+        <v>45853</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="8">
+        <f t="shared" ref="F123:G127" si="123">IFERROR(IF(F111,F111+14,""),"")</f>
+        <v>45860</v>
+      </c>
+      <c r="G123" s="8">
+        <f t="shared" si="123"/>
+        <v>45860</v>
+      </c>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <f t="shared" si="120"/>
+        <v>98</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="8">
+        <f t="shared" si="122"/>
+        <v>45855</v>
+      </c>
+      <c r="D124" s="8">
+        <f t="shared" si="121"/>
+        <v>45856</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="8">
+        <f t="shared" si="123"/>
+        <v>45861</v>
+      </c>
+      <c r="G124" s="8">
+        <f t="shared" si="123"/>
+        <v>45862</v>
+      </c>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <f t="shared" si="120"/>
+        <v>99</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="8">
+        <f t="shared" si="122"/>
+        <v>45852</v>
+      </c>
+      <c r="D125" s="8">
+        <f t="shared" si="121"/>
+        <v>45853</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="8" t="str">
+        <f t="shared" si="123"/>
+        <v/>
+      </c>
+      <c r="G125" s="8" t="str">
+        <f t="shared" si="123"/>
+        <v/>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <f t="shared" si="120"/>
+        <v>100</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="8">
+        <f t="shared" si="122"/>
+        <v>45855</v>
+      </c>
+      <c r="D126" s="8">
+        <f t="shared" si="121"/>
+        <v>45856</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="8" t="str">
+        <f t="shared" si="123"/>
+        <v/>
+      </c>
+      <c r="G126" s="8" t="str">
+        <f t="shared" si="123"/>
+        <v/>
+      </c>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <f t="shared" si="120"/>
+        <v>101</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="8">
+        <f>IFERROR(IF(C115,C115+14,""),"")</f>
+        <v>45855</v>
+      </c>
+      <c r="D127" s="27">
+        <v>45856</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="8">
+        <f t="shared" si="123"/>
+        <v>45866</v>
+      </c>
+      <c r="G127" s="8">
+        <f t="shared" si="123"/>
+        <v>45866</v>
+      </c>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="28"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="32"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <f t="shared" ref="A129:A132" si="124">MAX(A117:A128)+1</f>
+        <v>102</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="8">
+        <f>IFERROR(IF(C117,C117+14,""),"")</f>
+        <v>45859</v>
+      </c>
+      <c r="D129" s="8">
+        <f t="shared" ref="D129:D132" si="125">IFERROR(IF(D117,D117+14,""),"")</f>
+        <v>45860</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="8" t="str">
+        <f t="shared" ref="F129:G132" si="126">IFERROR(IF(F117,F117+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G129" s="8" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <f t="shared" si="124"/>
+        <v>103</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="8">
+        <f t="shared" ref="C130:C132" si="127">IFERROR(IF(C118,C118+14,""),"")</f>
+        <v>45859</v>
+      </c>
+      <c r="D130" s="8">
+        <f t="shared" si="125"/>
+        <v>45860</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="8">
+        <f t="shared" si="126"/>
+        <v>45867</v>
+      </c>
+      <c r="G130" s="8">
+        <f t="shared" si="126"/>
+        <v>45867</v>
+      </c>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <f t="shared" si="124"/>
+        <v>104</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="8">
+        <f t="shared" si="127"/>
+        <v>45862</v>
+      </c>
+      <c r="D131" s="8">
+        <f t="shared" si="125"/>
+        <v>45863</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="8">
+        <f t="shared" si="126"/>
+        <v>45868</v>
+      </c>
+      <c r="G131" s="8">
+        <f t="shared" si="126"/>
+        <v>45869</v>
+      </c>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <f t="shared" si="124"/>
+        <v>105</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="8">
+        <f t="shared" si="127"/>
+        <v>45862</v>
+      </c>
+      <c r="D132" s="8">
+        <f t="shared" si="125"/>
+        <v>45863</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="8" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="G132" s="8" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="28"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="32"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <f t="shared" ref="A134:A139" si="128">MAX(A122:A133)+1</f>
+        <v>106</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="8">
+        <f>IFERROR(IF(C122,C122+14,""),"")</f>
+        <v>45866</v>
+      </c>
+      <c r="D134" s="8">
+        <f t="shared" ref="D134:D138" si="129">IFERROR(IF(D122,D122+14,""),"")</f>
+        <v>45867</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="8">
+        <f t="shared" ref="F134:G139" si="130">IFERROR(IF(F122,F122+14,""),"")</f>
+        <v>45873</v>
+      </c>
+      <c r="G134" s="8">
+        <f t="shared" si="130"/>
+        <v>45873</v>
+      </c>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <f t="shared" si="128"/>
+        <v>107</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="8">
+        <f t="shared" ref="C135:C139" si="131">IFERROR(IF(C123,C123+14,""),"")</f>
+        <v>45866</v>
+      </c>
+      <c r="D135" s="8">
+        <f t="shared" si="129"/>
+        <v>45867</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="8">
+        <f t="shared" si="130"/>
+        <v>45874</v>
+      </c>
+      <c r="G135" s="8">
+        <f t="shared" si="130"/>
+        <v>45874</v>
+      </c>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <f t="shared" si="128"/>
+        <v>108</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="8">
+        <f t="shared" si="131"/>
+        <v>45869</v>
+      </c>
+      <c r="D136" s="8">
+        <f t="shared" si="129"/>
+        <v>45870</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="8">
+        <f t="shared" si="130"/>
+        <v>45875</v>
+      </c>
+      <c r="G136" s="8">
+        <f t="shared" si="130"/>
+        <v>45876</v>
+      </c>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <f t="shared" si="128"/>
+        <v>109</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="8">
+        <f t="shared" si="131"/>
+        <v>45866</v>
+      </c>
+      <c r="D137" s="8">
+        <f t="shared" si="129"/>
+        <v>45867</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="8" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="G137" s="8" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <f t="shared" si="128"/>
+        <v>110</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="8">
+        <f t="shared" si="131"/>
+        <v>45869</v>
+      </c>
+      <c r="D138" s="8">
+        <f t="shared" si="129"/>
+        <v>45870</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="8" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="G138" s="8" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <f t="shared" si="128"/>
+        <v>111</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="8">
+        <f t="shared" si="131"/>
+        <v>45869</v>
+      </c>
+      <c r="D139" s="8">
+        <f>IFERROR(IF(D127,D127+14,""),"")</f>
+        <v>45870</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="8">
+        <f t="shared" si="130"/>
+        <v>45880</v>
+      </c>
+      <c r="G139" s="8">
+        <f t="shared" si="130"/>
+        <v>45880</v>
+      </c>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="28"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="32"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H108" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H115" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="80"/>
-        <filter val="81"/>
-        <filter val="82"/>
-        <filter val="83"/>
-        <filter val="84"/>
-        <filter val="85"/>
+        <filter val="86"/>
+        <filter val="87"/>
+        <filter val="88"/>
+        <filter val="89"/>
+        <filter val="90"/>
+        <filter val="91"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="22">
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
+  <mergeCells count="25">
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -3889,7 +4362,24 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04AF07-DCC4-4D1D-9842-C2C85D725434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912EECD9-C4A1-4E4E-A141-482EBAAA43F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,12 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,6 +550,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,8 +850,8 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M113" sqref="M113"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +901,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -961,10 +961,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="44"/>
-      <c r="H5" s="41"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1151,7 +1151,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,10 +1301,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,10 +1453,10 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,10 +1663,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="31"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,10 +1857,10 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="31"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,10 +2068,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="31"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,10 +2192,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="31"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2353,7 +2353,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="32"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2477,7 +2477,7 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2661,7 +2661,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="32"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2789,7 +2789,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="32"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2973,7 +2973,7 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="32"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3100,7 +3100,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="32"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3283,7 +3283,7 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="32"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3408,7 +3408,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="32"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3595,7 +3595,7 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="32"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3757,7 +3757,9 @@
       <c r="D115" s="21">
         <v>45845</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5">
+        <v>1714</v>
+      </c>
       <c r="F115" s="8">
         <v>45852</v>
       </c>
@@ -3774,7 +3776,7 @@
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="32"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3790,7 +3792,9 @@
       <c r="D117" s="8">
         <v>45846</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5">
+        <v>185</v>
+      </c>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="20" t="s">
@@ -3813,7 +3817,9 @@
         <f t="shared" ref="D118:D119" si="119">IFERROR(IF(D106,D106+14,""),"")</f>
         <v>45846</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5">
+        <v>3265</v>
+      </c>
       <c r="F118" s="8">
         <v>45853</v>
       </c>
@@ -3874,7 +3880,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="32"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4045,7 +4051,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="32"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4165,7 +4171,7 @@
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="32"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4339,7 +4345,7 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="32"/>
+      <c r="H140" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H115" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4362,12 +4368,12 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A128:H128"/>
     <mergeCell ref="A133:H133"/>
     <mergeCell ref="A140:H140"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912EECD9-C4A1-4E4E-A141-482EBAAA43F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939E5C70-0289-4458-B44D-67BFC8E4F0DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,6 +519,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,18 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J121" sqref="J121"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +901,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1151,7 +1151,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,10 +1301,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="42"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,10 +1453,10 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,10 +1663,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="42"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,10 +1857,10 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="42"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,10 +2068,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="42"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,10 +2192,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="42"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2353,7 +2353,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2477,7 +2477,7 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2661,7 +2661,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2789,7 +2789,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2973,7 +2973,7 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3100,7 +3100,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3283,7 +3283,7 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3408,7 +3408,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="30"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3595,7 +3595,7 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
+      <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3776,7 +3776,7 @@
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="30"/>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3844,7 +3844,9 @@
         <f t="shared" si="119"/>
         <v>45849</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="5">
+        <v>9500</v>
+      </c>
       <c r="F119" s="8">
         <v>45854</v>
       </c>
@@ -3880,7 +3882,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4051,7 +4053,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="30"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4171,7 +4173,7 @@
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="30"/>
+      <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4345,7 +4347,7 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="30"/>
+      <c r="H140" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H115" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4361,6 +4363,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4369,23 +4388,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939E5C70-0289-4458-B44D-67BFC8E4F0DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20A956-8178-4A28-BF61-EE94E9883800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,18 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +551,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +850,8 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+      <pane ySplit="8" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +901,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1151,7 +1151,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,10 +1301,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,10 +1453,10 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,10 +1663,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="31"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,10 +1857,10 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="31"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,10 +2068,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="31"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,10 +2192,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="31"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2353,7 +2353,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="34"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2477,7 +2477,7 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="34"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2661,7 +2661,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="34"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2789,7 +2789,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="34"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2973,7 +2973,7 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="34"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3100,7 +3100,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="34"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3283,7 +3283,7 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="34"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3408,7 +3408,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="34"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3595,7 +3595,7 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="34"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3776,7 +3776,7 @@
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="34"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3882,7 +3882,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="34"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -3900,7 +3900,9 @@
         <f t="shared" ref="D122:D126" si="121">IFERROR(IF(D110,D110+14,""),"")</f>
         <v>45853</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5">
+        <v>1560</v>
+      </c>
       <c r="F122" s="8">
         <v>45859</v>
       </c>
@@ -3925,7 +3927,9 @@
         <f t="shared" si="121"/>
         <v>45853</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5">
+        <v>2300</v>
+      </c>
       <c r="F123" s="8">
         <f t="shared" ref="F123:G127" si="123">IFERROR(IF(F111,F111+14,""),"")</f>
         <v>45860</v>
@@ -4053,7 +4057,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="34"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4173,7 +4177,7 @@
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="34"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4347,7 +4351,7 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="34"/>
+      <c r="H140" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H115" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4363,23 +4367,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4388,6 +4375,23 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20A956-8178-4A28-BF61-EE94E9883800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B1A5F-328D-4EC8-BE0C-F8330FDD9648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,6 +519,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,18 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +901,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1151,7 +1151,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,10 +1301,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="42"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,10 +1453,10 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,10 +1663,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="42"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,10 +1857,10 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="42"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,10 +2068,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="42"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,10 +2192,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="42"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2353,7 +2353,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2477,7 +2477,7 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2661,7 +2661,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2789,7 +2789,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2973,7 +2973,7 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3100,7 +3100,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3283,7 +3283,7 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3408,7 +3408,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="30"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3595,7 +3595,7 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
+      <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3776,7 +3776,7 @@
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="30"/>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3882,7 +3882,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -3983,7 +3983,9 @@
         <f t="shared" si="121"/>
         <v>45853</v>
       </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5">
+        <v>241</v>
+      </c>
       <c r="F125" s="8" t="str">
         <f t="shared" si="123"/>
         <v/>
@@ -4057,7 +4059,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="30"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4177,7 +4179,7 @@
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="30"/>
+      <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4351,7 +4353,7 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="30"/>
+      <c r="H140" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H115" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4367,6 +4369,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4375,23 +4394,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B1A5F-328D-4EC8-BE0C-F8330FDD9648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6E2E5-D66A-40CB-93AB-F3418A617885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,7 +851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,7 +3956,9 @@
         <f t="shared" si="121"/>
         <v>45856</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="5">
+        <v>9000</v>
+      </c>
       <c r="F124" s="8">
         <f t="shared" si="123"/>
         <v>45861</v>
@@ -4040,7 +4042,9 @@
       <c r="D127" s="27">
         <v>45856</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="5">
+        <v>770</v>
+      </c>
       <c r="F127" s="8">
         <f t="shared" si="123"/>
         <v>45866</v>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6E2E5-D66A-40CB-93AB-F3418A617885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B8AE1-55B2-4C90-B434-07818F5BABD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$120</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
   <si>
     <t>Контракт</t>
   </si>
@@ -519,18 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +551,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +850,8 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +901,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1151,7 +1151,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,10 +1301,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,10 +1453,10 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,10 +1663,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="31"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,10 +1857,10 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="31"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,10 +2068,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="31"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,10 +2192,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="31"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2353,7 +2353,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="34"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2477,7 +2477,7 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="34"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2661,7 +2661,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="34"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2789,7 +2789,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="34"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2973,7 +2973,7 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="34"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3100,7 +3100,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="34"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3283,7 +3283,7 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="34"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3408,7 +3408,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="34"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3595,9 +3595,9 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="34"/>
-    </row>
-    <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="H109" s="30"/>
+    </row>
+    <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <f t="shared" si="52"/>
         <v>86</v>
@@ -3626,7 +3626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <f t="shared" si="52"/>
         <v>87</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <f t="shared" si="52"/>
         <v>88</v>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <f t="shared" si="52"/>
         <v>89</v>
@@ -3715,7 +3715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <f t="shared" si="52"/>
         <v>90</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <f t="shared" si="52"/>
         <v>91</v>
@@ -3768,15 +3768,17 @@
       </c>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="28"/>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
       <c r="D116" s="29"/>
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="34"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3882,7 +3884,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="34"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4043,7 +4045,7 @@
         <v>45856</v>
       </c>
       <c r="E127" s="5">
-        <v>770</v>
+        <v>1044</v>
       </c>
       <c r="F127" s="8">
         <f t="shared" si="123"/>
@@ -4063,7 +4065,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="34"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4183,7 +4185,7 @@
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="34"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4357,39 +4359,20 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="34"/>
+      <c r="H140" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H115" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H120" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="86"/>
-        <filter val="87"/>
-        <filter val="88"/>
-        <filter val="89"/>
-        <filter val="90"/>
-        <filter val="91"/>
+        <filter val="92"/>
+        <filter val="93"/>
+        <filter val="94"/>
+        <filter val="95"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4398,6 +4381,23 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B8AE1-55B2-4C90-B434-07818F5BABD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B62A03B-E0A9-4CC6-8FF0-F9A7DB85A931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,7 +851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
+      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,7 +4112,9 @@
         <f t="shared" si="125"/>
         <v>45860</v>
       </c>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5">
+        <v>2880</v>
+      </c>
       <c r="F130" s="8">
         <f t="shared" si="126"/>
         <v>45867</v>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B62A03B-E0A9-4CC6-8FF0-F9A7DB85A931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD9CC2-D79E-4E54-96C0-9A9F7E9294B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,6 +519,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,18 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,19 +868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +901,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1151,7 +1151,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,10 +1301,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="42"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,10 +1453,10 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,10 +1663,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="42"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,10 +1857,10 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="42"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,10 +2068,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="42"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,10 +2192,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="42"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2353,7 +2353,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2477,7 +2477,7 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2661,7 +2661,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2789,7 +2789,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2973,7 +2973,7 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3100,7 +3100,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3283,7 +3283,7 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3408,7 +3408,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="30"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3595,7 +3595,7 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
+      <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3778,7 +3778,7 @@
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="30"/>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3884,7 +3884,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4065,7 +4065,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="30"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4083,7 +4083,9 @@
         <f t="shared" ref="D129:D132" si="125">IFERROR(IF(D117,D117+14,""),"")</f>
         <v>45860</v>
       </c>
-      <c r="E129" s="5"/>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
       <c r="F129" s="8" t="str">
         <f t="shared" ref="F129:G132" si="126">IFERROR(IF(F117,F117+14,""),"")</f>
         <v/>
@@ -4141,7 +4143,9 @@
         <f t="shared" si="125"/>
         <v>45863</v>
       </c>
-      <c r="E131" s="5"/>
+      <c r="E131" s="5">
+        <v>9080</v>
+      </c>
       <c r="F131" s="8">
         <f t="shared" si="126"/>
         <v>45868</v>
@@ -4187,7 +4191,7 @@
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="30"/>
+      <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4361,7 +4365,7 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="30"/>
+      <c r="H140" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H120" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4375,6 +4379,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4383,23 +4404,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD9CC2-D79E-4E54-96C0-9A9F7E9294B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF9B6AF-F842-4E27-9EC3-72D71C081D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,18 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +551,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +850,8 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
+      <pane ySplit="8" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +901,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +943,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +981,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1151,7 +1151,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,10 +1301,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,10 +1453,10 @@
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,10 +1663,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="31"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,10 +1857,10 @@
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="31"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,10 +2068,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="31"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,10 +2192,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="31"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2353,7 +2353,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="34"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2477,7 +2477,7 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="34"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2661,7 +2661,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="34"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2789,7 +2789,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="34"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2973,7 +2973,7 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="34"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3100,7 +3100,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="34"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3283,7 +3283,7 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="34"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3408,7 +3408,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="34"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3595,7 +3595,7 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="34"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3778,7 +3778,7 @@
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="34"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3884,7 +3884,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="34"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4065,7 +4065,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="34"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4191,7 +4191,7 @@
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="34"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4209,7 +4209,9 @@
         <f t="shared" ref="D134:D138" si="129">IFERROR(IF(D122,D122+14,""),"")</f>
         <v>45867</v>
       </c>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5">
+        <v>1967</v>
+      </c>
       <c r="F134" s="8">
         <f t="shared" ref="F134:G139" si="130">IFERROR(IF(F122,F122+14,""),"")</f>
         <v>45873</v>
@@ -4236,7 +4238,9 @@
         <f t="shared" si="129"/>
         <v>45867</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5">
+        <v>3000</v>
+      </c>
       <c r="F135" s="8">
         <f t="shared" si="130"/>
         <v>45874</v>
@@ -4290,7 +4294,9 @@
         <f t="shared" si="129"/>
         <v>45867</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5">
+        <v>263</v>
+      </c>
       <c r="F137" s="8" t="str">
         <f t="shared" si="130"/>
         <v/>
@@ -4365,7 +4371,7 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="34"/>
+      <c r="H140" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H120" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4379,23 +4385,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4404,6 +4393,23 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF9B6AF-F842-4E27-9EC3-72D71C081D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89E036-BBB6-4798-8F91-D995909569D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$127</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="46">
   <si>
     <t>Контракт</t>
   </si>
@@ -232,6 +232,9 @@
       </rPr>
       <t>добавить Шувалову в рассылку, при отправке на завод</t>
     </r>
+  </si>
+  <si>
+    <t>04,08,25 будет корректировка</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -512,6 +515,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,11 +853,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +874,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -901,12 +907,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -923,10 +929,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -943,10 +949,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -957,14 +963,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -981,10 +987,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1007,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1142,16 +1148,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1295,16 +1301,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="42"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1447,16 +1453,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="42"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1657,16 +1663,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="42"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1851,16 +1857,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="42"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2062,16 +2068,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="42"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2186,16 +2192,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="42"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2344,16 +2350,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2468,16 +2474,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2652,16 +2658,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2780,16 +2786,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2964,16 +2970,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3091,16 +3097,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="31"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3274,16 +3280,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="31"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3399,16 +3405,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="31"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3586,16 +3592,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3769,18 +3775,18 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="30"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="31"/>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <f t="shared" si="52"/>
         <v>92</v>
@@ -3803,7 +3809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <f t="shared" si="52"/>
         <v>93</v>
@@ -3830,7 +3836,7 @@
       </c>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <f t="shared" si="52"/>
         <v>94</v>
@@ -3857,7 +3863,7 @@
       </c>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <f t="shared" si="52"/>
         <v>95</v>
@@ -3876,15 +3882,17 @@
       <c r="G120" s="8"/>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="31"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4058,14 +4066,14 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="28"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="30"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="31"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4184,14 +4192,14 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="30"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="31"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4267,7 +4275,9 @@
         <f t="shared" si="129"/>
         <v>45870</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5">
+        <v>8400</v>
+      </c>
       <c r="F136" s="8">
         <f t="shared" si="130"/>
         <v>45875</v>
@@ -4336,7 +4346,7 @@
       </c>
       <c r="H138" s="15"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <f t="shared" si="128"/>
         <v>111</v>
@@ -4352,7 +4362,9 @@
         <f>IFERROR(IF(D127,D127+14,""),"")</f>
         <v>45870</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5">
+        <v>2601</v>
+      </c>
       <c r="F139" s="8">
         <f t="shared" si="130"/>
         <v>45880</v>
@@ -4361,30 +4373,154 @@
         <f t="shared" si="130"/>
         <v>45880</v>
       </c>
-      <c r="H139" s="15"/>
+      <c r="H139" s="28" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="28"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="30"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="31"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <f t="shared" ref="A141:A144" si="132">MAX(A129:A140)+1</f>
+        <v>112</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="8">
+        <f>IFERROR(IF(C129,C129+14,""),"")</f>
+        <v>45873</v>
+      </c>
+      <c r="D141" s="8">
+        <f t="shared" ref="D141:D144" si="133">IFERROR(IF(D129,D129+14,""),"")</f>
+        <v>45874</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="8" t="str">
+        <f t="shared" ref="F141:G141" si="134">IFERROR(IF(F129,F129+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G141" s="8" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="H141" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <f t="shared" si="132"/>
+        <v>113</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="8">
+        <f t="shared" ref="C142:C144" si="135">IFERROR(IF(C130,C130+14,""),"")</f>
+        <v>45873</v>
+      </c>
+      <c r="D142" s="8">
+        <f t="shared" si="133"/>
+        <v>45874</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="8">
+        <f t="shared" ref="F142:G142" si="136">IFERROR(IF(F130,F130+14,""),"")</f>
+        <v>45881</v>
+      </c>
+      <c r="G142" s="8">
+        <f t="shared" si="136"/>
+        <v>45881</v>
+      </c>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <f t="shared" si="132"/>
+        <v>114</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="8">
+        <f t="shared" si="135"/>
+        <v>45876</v>
+      </c>
+      <c r="D143" s="8">
+        <f t="shared" si="133"/>
+        <v>45877</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="8">
+        <f t="shared" ref="F143:G143" si="137">IFERROR(IF(F131,F131+14,""),"")</f>
+        <v>45882</v>
+      </c>
+      <c r="G143" s="8">
+        <f t="shared" si="137"/>
+        <v>45883</v>
+      </c>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <f t="shared" si="132"/>
+        <v>115</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="8">
+        <f t="shared" si="135"/>
+        <v>45876</v>
+      </c>
+      <c r="D144" s="8">
+        <f t="shared" si="133"/>
+        <v>45877</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="8" t="str">
+        <f t="shared" ref="F144:G144" si="138">IFERROR(IF(F132,F132+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G144" s="8" t="str">
+        <f t="shared" si="138"/>
+        <v/>
+      </c>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="29"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H120" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H127" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="92"/>
-        <filter val="93"/>
-        <filter val="94"/>
-        <filter val="95"/>
+        <filter val="100"/>
+        <filter val="101"/>
+        <filter val="96"/>
+        <filter val="97"/>
+        <filter val="98"/>
+        <filter val="99"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4398,11 +4534,7 @@
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
@@ -4410,6 +4542,11 @@
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89E036-BBB6-4798-8F91-D995909569D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F27FE1-C68A-4D28-97A8-E13E8CC08BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
     </r>
   </si>
   <si>
-    <t>04,08,25 будет корректировка</t>
+    <t>04,08,25 была корректировка</t>
   </si>
 </sst>
 </file>
@@ -244,12 +244,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -453,7 +461,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -462,16 +470,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,13 +494,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,23 +509,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,50 +530,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,7 +865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+      <selection pane="bottomLeft" activeCell="P136" sqref="P136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,19 +882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -907,12 +915,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -929,10 +937,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -949,10 +957,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -963,14 +971,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -987,10 +995,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1007,7 +1015,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1148,16 +1156,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1301,16 +1309,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1453,16 +1461,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="43"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1663,16 +1671,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="43"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1857,16 +1865,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="43"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2068,16 +2076,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2192,16 +2200,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="43"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2350,16 +2358,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2474,16 +2482,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2658,16 +2666,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2786,16 +2794,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2970,16 +2978,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3097,16 +3105,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="31"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3280,16 +3288,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3405,16 +3413,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="31"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3592,16 +3600,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="31"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3775,16 +3783,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="31"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3883,16 +3891,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="31"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4066,14 +4074,14 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="31"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4192,14 +4200,14 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="31"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4373,19 +4381,19 @@
         <f t="shared" si="130"/>
         <v>45880</v>
       </c>
-      <c r="H139" s="28" t="s">
+      <c r="H139" s="45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="31"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4432,7 +4440,9 @@
         <f t="shared" si="133"/>
         <v>45874</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5">
+        <v>2704</v>
+      </c>
       <c r="F142" s="8">
         <f t="shared" ref="F142:G142" si="136">IFERROR(IF(F130,F130+14,""),"")</f>
         <v>45881</v>
@@ -4498,14 +4508,14 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="31"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H127" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4521,19 +4531,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
@@ -4547,6 +4544,19 @@
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F27FE1-C68A-4D28-97A8-E13E8CC08BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59532D0-1A5B-4497-95CB-0821F9A60D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,6 +524,9 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,9 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,8 +864,8 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P136" sqref="P136"/>
+      <pane ySplit="8" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,19 +882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -915,12 +915,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -937,10 +937,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -957,10 +957,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -971,14 +971,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -995,10 +995,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1156,16 +1156,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1309,16 +1309,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1461,16 +1461,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1671,16 +1671,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1865,16 +1865,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="31"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2076,16 +2076,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="31"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2200,16 +2200,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="31"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2358,16 +2358,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="34"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2482,16 +2482,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="34"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2666,16 +2666,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="34"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2794,16 +2794,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="34"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2978,16 +2978,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="34"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3105,16 +3105,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="34"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="35"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3288,16 +3288,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="34"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3413,16 +3413,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="34"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3600,16 +3600,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="34"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="35"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3783,16 +3783,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="34"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="35"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3891,16 +3891,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="34"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="35"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4074,14 +4074,14 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="28"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="34"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4200,14 +4200,14 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="34"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="35"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4381,19 +4381,19 @@
         <f t="shared" si="130"/>
         <v>45880</v>
       </c>
-      <c r="H139" s="45" t="s">
+      <c r="H139" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="28"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="34"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="35"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4411,7 +4411,9 @@
         <f t="shared" ref="D141:D144" si="133">IFERROR(IF(D129,D129+14,""),"")</f>
         <v>45874</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5">
+        <v>195</v>
+      </c>
       <c r="F141" s="8" t="str">
         <f t="shared" ref="F141:G141" si="134">IFERROR(IF(F129,F129+14,""),"")</f>
         <v/>
@@ -4469,7 +4471,9 @@
         <f t="shared" si="133"/>
         <v>45877</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="5">
+        <v>5700</v>
+      </c>
       <c r="F143" s="8">
         <f t="shared" ref="F143:G143" si="137">IFERROR(IF(F131,F131+14,""),"")</f>
         <v>45882</v>
@@ -4508,14 +4512,14 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="34"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H127" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59532D0-1A5B-4497-95CB-0821F9A60D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A02A1-E446-4EC3-AFBA-49C658A93A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$132</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="46">
   <si>
     <t>Контракт</t>
   </si>
@@ -533,18 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,6 +565,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,11 +861,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
+      <pane ySplit="8" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,19 +882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -915,12 +915,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -937,10 +937,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -957,10 +957,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -971,14 +971,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -995,10 +995,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1165,7 +1165,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1315,10 +1315,10 @@
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="32"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1467,10 +1467,10 @@
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
-      <c r="H26" s="32"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1677,10 +1677,10 @@
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1871,10 +1871,10 @@
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="42"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
-      <c r="H41" s="32"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2082,10 +2082,10 @@
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="42"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="32"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2206,10 +2206,10 @@
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="32"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2367,7 +2367,7 @@
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
-      <c r="H61" s="35"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2491,7 +2491,7 @@
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
-      <c r="H66" s="35"/>
+      <c r="H66" s="31"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2675,7 +2675,7 @@
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
-      <c r="H73" s="35"/>
+      <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2803,7 +2803,7 @@
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
-      <c r="H78" s="35"/>
+      <c r="H78" s="31"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2987,7 +2987,7 @@
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
-      <c r="H85" s="35"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3114,7 +3114,7 @@
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="35"/>
+      <c r="H90" s="31"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3297,7 +3297,7 @@
       <c r="E97" s="30"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
-      <c r="H97" s="35"/>
+      <c r="H97" s="31"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3422,7 +3422,7 @@
       <c r="E102" s="30"/>
       <c r="F102" s="30"/>
       <c r="G102" s="30"/>
-      <c r="H102" s="35"/>
+      <c r="H102" s="31"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3609,7 +3609,7 @@
       <c r="E109" s="30"/>
       <c r="F109" s="30"/>
       <c r="G109" s="30"/>
-      <c r="H109" s="35"/>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3792,7 +3792,7 @@
       <c r="E116" s="30"/>
       <c r="F116" s="30"/>
       <c r="G116" s="30"/>
-      <c r="H116" s="35"/>
+      <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3900,9 +3900,9 @@
       <c r="E121" s="30"/>
       <c r="F121" s="30"/>
       <c r="G121" s="30"/>
-      <c r="H121" s="35"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="31"/>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <f t="shared" ref="A122:A127" si="120">MAX(A110:A121)+1</f>
         <v>96</v>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="H122" s="19"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <f t="shared" si="120"/>
         <v>97</v>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="H123" s="15"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <f t="shared" si="120"/>
         <v>98</v>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="H124" s="15"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <f t="shared" si="120"/>
         <v>99</v>
@@ -4018,7 +4018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <f t="shared" si="120"/>
         <v>100</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="H126" s="15"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <f t="shared" si="120"/>
         <v>101</v>
@@ -4073,15 +4073,17 @@
       </c>
       <c r="H127" s="15"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="B128" s="30"/>
       <c r="C128" s="30"/>
       <c r="D128" s="30"/>
       <c r="E128" s="30"/>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
-      <c r="H128" s="35"/>
+      <c r="H128" s="31"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4207,7 +4209,7 @@
       <c r="E133" s="30"/>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
-      <c r="H133" s="35"/>
+      <c r="H133" s="31"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4393,7 +4395,7 @@
       <c r="E140" s="30"/>
       <c r="F140" s="30"/>
       <c r="G140" s="30"/>
-      <c r="H140" s="35"/>
+      <c r="H140" s="31"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4519,22 +4521,208 @@
       <c r="E145" s="30"/>
       <c r="F145" s="30"/>
       <c r="G145" s="30"/>
-      <c r="H145" s="35"/>
+      <c r="H145" s="31"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <f t="shared" ref="A146:A151" si="139">MAX(A134:A145)+1</f>
+        <v>116</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="8">
+        <f>IFERROR(IF(C134,C134+14,""),"")</f>
+        <v>45880</v>
+      </c>
+      <c r="D146" s="8">
+        <f t="shared" ref="D146:D150" si="140">IFERROR(IF(D134,D134+14,""),"")</f>
+        <v>45881</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="8">
+        <f t="shared" ref="F146:G146" si="141">IFERROR(IF(F134,F134+14,""),"")</f>
+        <v>45887</v>
+      </c>
+      <c r="G146" s="8">
+        <f t="shared" si="141"/>
+        <v>45887</v>
+      </c>
+      <c r="H146" s="19"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <f t="shared" si="139"/>
+        <v>117</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="8">
+        <f t="shared" ref="C147:C151" si="142">IFERROR(IF(C135,C135+14,""),"")</f>
+        <v>45880</v>
+      </c>
+      <c r="D147" s="8">
+        <f t="shared" si="140"/>
+        <v>45881</v>
+      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="8">
+        <f t="shared" ref="F147:G147" si="143">IFERROR(IF(F135,F135+14,""),"")</f>
+        <v>45888</v>
+      </c>
+      <c r="G147" s="8">
+        <f t="shared" si="143"/>
+        <v>45888</v>
+      </c>
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <f t="shared" si="139"/>
+        <v>118</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="8">
+        <f t="shared" si="142"/>
+        <v>45883</v>
+      </c>
+      <c r="D148" s="8">
+        <f t="shared" si="140"/>
+        <v>45884</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="8">
+        <f t="shared" ref="F148:G148" si="144">IFERROR(IF(F136,F136+14,""),"")</f>
+        <v>45889</v>
+      </c>
+      <c r="G148" s="8">
+        <f t="shared" si="144"/>
+        <v>45890</v>
+      </c>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <f t="shared" si="139"/>
+        <v>119</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="8">
+        <f t="shared" si="142"/>
+        <v>45880</v>
+      </c>
+      <c r="D149" s="8">
+        <f t="shared" si="140"/>
+        <v>45881</v>
+      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="8" t="str">
+        <f t="shared" ref="F149:G149" si="145">IFERROR(IF(F137,F137+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G149" s="8" t="str">
+        <f t="shared" si="145"/>
+        <v/>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <f t="shared" si="139"/>
+        <v>120</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="8">
+        <f t="shared" si="142"/>
+        <v>45883</v>
+      </c>
+      <c r="D150" s="8">
+        <f t="shared" si="140"/>
+        <v>45884</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="8" t="str">
+        <f t="shared" ref="F150:G150" si="146">IFERROR(IF(F138,F138+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G150" s="8" t="str">
+        <f t="shared" si="146"/>
+        <v/>
+      </c>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <f t="shared" si="139"/>
+        <v>121</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="8">
+        <f t="shared" si="142"/>
+        <v>45883</v>
+      </c>
+      <c r="D151" s="8">
+        <f>IFERROR(IF(D139,D139+14,""),"")</f>
+        <v>45884</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="8">
+        <f t="shared" ref="F151:G151" si="147">IFERROR(IF(F139,F139+14,""),"")</f>
+        <v>45894</v>
+      </c>
+      <c r="G151" s="8">
+        <f t="shared" si="147"/>
+        <v>45894</v>
+      </c>
+      <c r="H151" s="28"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="29"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H127" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H132" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="100"/>
-        <filter val="101"/>
-        <filter val="96"/>
-        <filter val="97"/>
-        <filter val="98"/>
-        <filter val="99"/>
+        <filter val="102"/>
+        <filter val="103"/>
+        <filter val="104"/>
+        <filter val="105"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
@@ -4548,19 +4736,6 @@
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A02A1-E446-4EC3-AFBA-49C658A93A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DD200-3F43-435E-BCB2-74EBA70EEAEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,7 +865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,7 +4539,9 @@
         <f t="shared" ref="D146:D150" si="140">IFERROR(IF(D134,D134+14,""),"")</f>
         <v>45881</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5">
+        <v>1608</v>
+      </c>
       <c r="F146" s="8">
         <f t="shared" ref="F146:G146" si="141">IFERROR(IF(F134,F134+14,""),"")</f>
         <v>45887</v>
@@ -4566,7 +4568,9 @@
         <f t="shared" si="140"/>
         <v>45881</v>
       </c>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5">
+        <v>3676</v>
+      </c>
       <c r="F147" s="8">
         <f t="shared" ref="F147:G147" si="143">IFERROR(IF(F135,F135+14,""),"")</f>
         <v>45888</v>
@@ -4718,11 +4722,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
@@ -4730,6 +4729,11 @@
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A85:H85"/>
     <mergeCell ref="A128:H128"/>
     <mergeCell ref="A133:H133"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DD200-3F43-435E-BCB2-74EBA70EEAEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA79897-8B54-4D9A-B057-4FE66C6BA970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
   <si>
     <t>Контракт</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>04,08,25 была корректировка</t>
+  </si>
+  <si>
+    <t>18,08,25 будет корректировка</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -524,9 +527,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +534,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,17 +578,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,7 +871,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
+      <selection pane="bottomLeft" activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,19 +888,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -915,12 +921,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -937,10 +943,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -957,10 +963,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -971,14 +977,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -995,10 +1001,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1021,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1156,16 +1162,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1309,16 +1315,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1461,16 +1467,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="43"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1671,16 +1677,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="43"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1865,16 +1871,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="43"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2076,16 +2082,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2200,16 +2206,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="43"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2358,16 +2364,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2482,16 +2488,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2666,16 +2672,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2794,16 +2800,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2978,16 +2984,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3105,16 +3111,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="31"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3288,16 +3294,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3413,16 +3419,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="31"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3600,16 +3606,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="31"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3783,16 +3789,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="31"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3891,16 +3897,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="31"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4074,16 +4080,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="31"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4202,14 +4208,14 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="31"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4383,19 +4389,19 @@
         <f t="shared" si="130"/>
         <v>45880</v>
       </c>
-      <c r="H139" s="28" t="s">
+      <c r="H139" s="45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="31"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4514,14 +4520,14 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="31"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="30"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4597,7 +4603,9 @@
         <f t="shared" si="140"/>
         <v>45884</v>
       </c>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5">
+        <v>5900</v>
+      </c>
       <c r="F148" s="8">
         <f t="shared" ref="F148:G148" si="144">IFERROR(IF(F136,F136+14,""),"")</f>
         <v>45889</v>
@@ -4664,7 +4672,7 @@
       </c>
       <c r="H150" s="15"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <f t="shared" si="139"/>
         <v>121</v>
@@ -4680,7 +4688,9 @@
         <f>IFERROR(IF(D139,D139+14,""),"")</f>
         <v>45884</v>
       </c>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5">
+        <v>2384</v>
+      </c>
       <c r="F151" s="8">
         <f t="shared" ref="F151:G151" si="147">IFERROR(IF(F139,F139+14,""),"")</f>
         <v>45894</v>
@@ -4689,17 +4699,19 @@
         <f t="shared" si="147"/>
         <v>45894</v>
       </c>
-      <c r="H151" s="28"/>
+      <c r="H151" s="46" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="31"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H132" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4713,6 +4725,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="27">
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A152:H152"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
@@ -4729,17 +4752,6 @@
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA79897-8B54-4D9A-B057-4FE66C6BA970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470BD5C-4B16-4138-BA49-5C91DAD674CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,7 +237,7 @@
     <t>04,08,25 была корректировка</t>
   </si>
   <si>
-    <t>18,08,25 будет корректировка</t>
+    <t>18,08,25 была корректировка</t>
   </si>
 </sst>
 </file>
@@ -247,12 +247,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -464,7 +472,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -473,16 +481,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -497,13 +505,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,20 +520,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,52 +547,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -871,7 +879,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J156" sqref="J156"/>
+      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,19 +896,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -921,12 +929,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -943,10 +951,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -963,10 +971,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -977,14 +985,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1001,10 +1009,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1029,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1162,16 +1170,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1315,16 +1323,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1467,16 +1475,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1677,16 +1685,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="32"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1871,16 +1879,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="32"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2082,16 +2090,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="32"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2206,16 +2214,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="32"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2364,16 +2372,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2488,16 +2496,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2672,16 +2680,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2800,16 +2808,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2984,16 +2992,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3111,16 +3119,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="31"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3294,16 +3302,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="31"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3419,16 +3427,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="31"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3606,16 +3614,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3789,16 +3797,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3897,16 +3905,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="31"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4080,16 +4088,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="30"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="31"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4208,14 +4216,14 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="30"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="31"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4389,19 +4397,19 @@
         <f t="shared" si="130"/>
         <v>45880</v>
       </c>
-      <c r="H139" s="45" t="s">
+      <c r="H139" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="28"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="30"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="31"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4520,14 +4528,14 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="30"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="31"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4689,7 +4697,7 @@
         <v>45884</v>
       </c>
       <c r="E151" s="5">
-        <v>2384</v>
+        <v>2794</v>
       </c>
       <c r="F151" s="8">
         <f t="shared" ref="F151:G151" si="147">IFERROR(IF(F139,F139+14,""),"")</f>
@@ -4704,14 +4712,14 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="30"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H132" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4725,17 +4733,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A152:H152"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
@@ -4752,6 +4749,17 @@
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470BD5C-4B16-4138-BA49-5C91DAD674CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57832189-F1E2-4CFD-8B38-8D12040A5A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$139</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="48">
   <si>
     <t>Контракт</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>18,08,25 была корректировка</t>
+  </si>
+  <si>
+    <t>расчет не делаем</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,6 +541,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,7 +595,16 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -875,11 +890,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
+      <pane ySplit="8" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L149" sqref="L149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,19 +911,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -929,12 +944,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -951,10 +966,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -971,10 +986,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -985,14 +1000,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1009,10 +1024,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1029,7 +1044,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1170,16 +1185,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1323,16 +1338,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1475,16 +1490,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="43"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1685,16 +1700,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="43"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1879,16 +1894,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="43"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2090,16 +2105,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="44"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2214,16 +2229,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="43"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2372,16 +2387,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2496,16 +2511,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="32"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2680,16 +2695,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="32"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2808,16 +2823,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2992,16 +3007,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3119,16 +3134,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3302,16 +3317,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3427,16 +3442,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="31"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="32"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3614,16 +3629,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="32"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3797,16 +3812,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="31"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="32"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3905,16 +3920,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="31"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4088,18 +4103,18 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="31"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="32"/>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <f t="shared" ref="A129:A132" si="124">MAX(A117:A128)+1</f>
         <v>102</v>
@@ -4130,7 +4145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <f t="shared" si="124"/>
         <v>103</v>
@@ -4159,7 +4174,7 @@
       </c>
       <c r="H130" s="15"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <f t="shared" si="124"/>
         <v>104</v>
@@ -4188,7 +4203,7 @@
       </c>
       <c r="H131" s="15"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <f t="shared" si="124"/>
         <v>105</v>
@@ -4215,15 +4230,17 @@
       </c>
       <c r="H132" s="15"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="31"/>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4402,14 +4419,14 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="31"/>
+      <c r="A140" s="30"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="32"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4528,14 +4545,14 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="31"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="32"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4654,31 +4671,33 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="47">
         <f t="shared" si="139"/>
         <v>120</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="27">
         <f t="shared" si="142"/>
         <v>45883</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D150" s="27">
         <f t="shared" si="140"/>
         <v>45884</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="8" t="str">
+      <c r="E150" s="49"/>
+      <c r="F150" s="27" t="str">
         <f t="shared" ref="F150:G150" si="146">IFERROR(IF(F138,F138+14,""),"")</f>
         <v/>
       </c>
-      <c r="G150" s="8" t="str">
+      <c r="G150" s="27" t="str">
         <f t="shared" si="146"/>
         <v/>
       </c>
-      <c r="H150" s="15"/>
+      <c r="H150" s="50" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -4707,33 +4726,136 @@
         <f t="shared" si="147"/>
         <v>45894</v>
       </c>
-      <c r="H151" s="46" t="s">
+      <c r="H151" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="31"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="32"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <f t="shared" ref="A153:A155" si="148">MAX(A141:A152)+1</f>
+        <v>122</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="8">
+        <f>IFERROR(IF(C141,C141+14,""),"")</f>
+        <v>45887</v>
+      </c>
+      <c r="D153" s="8">
+        <f t="shared" ref="D153:D155" si="149">IFERROR(IF(D141,D141+14,""),"")</f>
+        <v>45888</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="8" t="str">
+        <f t="shared" ref="F153:G153" si="150">IFERROR(IF(F141,F141+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G153" s="8" t="str">
+        <f t="shared" si="150"/>
+        <v/>
+      </c>
+      <c r="H153" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <f t="shared" si="148"/>
+        <v>123</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="8">
+        <f t="shared" ref="C154:C155" si="151">IFERROR(IF(C142,C142+14,""),"")</f>
+        <v>45887</v>
+      </c>
+      <c r="D154" s="8">
+        <f t="shared" si="149"/>
+        <v>45888</v>
+      </c>
+      <c r="E154" s="5">
+        <v>3656</v>
+      </c>
+      <c r="F154" s="8">
+        <f t="shared" ref="F154:G154" si="152">IFERROR(IF(F142,F142+14,""),"")</f>
+        <v>45895</v>
+      </c>
+      <c r="G154" s="8">
+        <f t="shared" si="152"/>
+        <v>45895</v>
+      </c>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <f t="shared" si="148"/>
+        <v>124</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="8">
+        <f t="shared" si="151"/>
+        <v>45890</v>
+      </c>
+      <c r="D155" s="8">
+        <f t="shared" si="149"/>
+        <v>45891</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="8">
+        <f t="shared" ref="F155:G155" si="153">IFERROR(IF(F143,F143+14,""),"")</f>
+        <v>45896</v>
+      </c>
+      <c r="G155" s="8">
+        <f t="shared" si="153"/>
+        <v>45897</v>
+      </c>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="30"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H132" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H139" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="102"/>
-        <filter val="103"/>
-        <filter val="104"/>
-        <filter val="105"/>
+        <filter val="106"/>
+        <filter val="107"/>
+        <filter val="108"/>
+        <filter val="109"/>
+        <filter val="110"/>
+        <filter val="111"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="27">
-    <mergeCell ref="A152:H152"/>
+  <mergeCells count="28">
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -4742,24 +4864,19 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
     <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A73:H73"/>
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57832189-F1E2-4CFD-8B38-8D12040A5A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F85A2-0DF7-4966-ADAB-6EB3BA58E2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,6 +544,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,18 +606,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,8 +893,8 @@
   <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L149" sqref="L149"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,19 +911,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -944,12 +944,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -966,10 +966,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1000,14 +1000,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="41"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1024,10 +1024,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1185,16 +1185,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1338,16 +1338,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1490,16 +1490,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="44"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1700,16 +1700,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="44"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1894,16 +1894,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="44"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2105,16 +2105,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="44"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2229,16 +2229,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="44"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="48"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2387,16 +2387,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="32"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="36"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2511,16 +2511,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="32"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2695,16 +2695,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="32"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2823,16 +2823,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="32"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3007,16 +3007,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="32"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="36"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3134,16 +3134,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="32"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3317,16 +3317,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="32"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="36"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3442,16 +3442,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="32"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="36"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3629,16 +3629,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="32"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="36"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3812,16 +3812,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="32"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="36"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3920,16 +3920,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="32"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="36"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4103,16 +4103,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="32"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="36"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4231,16 +4231,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="32"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="36"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4419,14 +4419,14 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="30"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="32"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="36"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4545,14 +4545,14 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="30"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="32"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="36"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4671,11 +4671,11 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="47">
+      <c r="A150" s="30">
         <f t="shared" si="139"/>
         <v>120</v>
       </c>
-      <c r="B150" s="48" t="s">
+      <c r="B150" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C150" s="27">
@@ -4686,7 +4686,7 @@
         <f t="shared" si="140"/>
         <v>45884</v>
       </c>
-      <c r="E150" s="49"/>
+      <c r="E150" s="32"/>
       <c r="F150" s="27" t="str">
         <f t="shared" ref="F150:G150" si="146">IFERROR(IF(F138,F138+14,""),"")</f>
         <v/>
@@ -4695,7 +4695,7 @@
         <f t="shared" si="146"/>
         <v/>
       </c>
-      <c r="H150" s="50" t="s">
+      <c r="H150" s="33" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4731,14 +4731,14 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="30"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
-      <c r="H152" s="32"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="36"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4826,14 +4826,14 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="30"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="32"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H139" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -4849,6 +4849,18 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="28">
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A1:H1"/>
@@ -4865,18 +4877,6 @@
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F85A2-0DF7-4966-ADAB-6EB3BA58E2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D74AF11-EC95-4213-9333-361720D3C1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$144</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="48">
   <si>
     <t>Контракт</t>
   </si>
@@ -890,11 +890,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L137" sqref="L137"/>
+      <selection pane="bottomLeft" activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,7 +4242,7 @@
       <c r="G133" s="35"/>
       <c r="H133" s="36"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <f t="shared" ref="A134:A139" si="128">MAX(A122:A133)+1</f>
         <v>106</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H134" s="19"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <f t="shared" si="128"/>
         <v>107</v>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H135" s="15"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <f t="shared" si="128"/>
         <v>108</v>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H136" s="15"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <f t="shared" si="128"/>
         <v>109</v>
@@ -4360,7 +4360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <f t="shared" si="128"/>
         <v>110</v>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="H138" s="15"/>
     </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <f t="shared" si="128"/>
         <v>111</v>
@@ -4418,8 +4418,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="B140" s="35"/>
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
@@ -4814,7 +4816,9 @@
         <f t="shared" si="149"/>
         <v>45891</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5">
+        <v>8700</v>
+      </c>
       <c r="F155" s="8">
         <f t="shared" ref="F155:G155" si="153">IFERROR(IF(F143,F143+14,""),"")</f>
         <v>45896</v>
@@ -4835,32 +4839,166 @@
       <c r="G156" s="35"/>
       <c r="H156" s="36"/>
     </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <f t="shared" ref="A157:A160" si="154">MAX(A145:A156)+1</f>
+        <v>125</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="8">
+        <f>IFERROR(IF(C146,C146+14,""),"")</f>
+        <v>45894</v>
+      </c>
+      <c r="D157" s="8">
+        <f>IFERROR(IF(D146,D146+14,""),"")</f>
+        <v>45895</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="8">
+        <f t="shared" ref="F157:G157" si="155">IFERROR(IF(F146,F146+14,""),"")</f>
+        <v>45901</v>
+      </c>
+      <c r="G157" s="8">
+        <f t="shared" si="155"/>
+        <v>45901</v>
+      </c>
+      <c r="H157" s="19"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <f t="shared" si="154"/>
+        <v>126</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="8">
+        <f>IFERROR(IF(C147,C147+14,""),"")</f>
+        <v>45894</v>
+      </c>
+      <c r="D158" s="8">
+        <f t="shared" ref="C158:D161" si="156">IFERROR(IF(D147,D147+14,""),"")</f>
+        <v>45895</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="8">
+        <f t="shared" ref="F158:G158" si="157">IFERROR(IF(F147,F147+14,""),"")</f>
+        <v>45902</v>
+      </c>
+      <c r="G158" s="8">
+        <f t="shared" si="157"/>
+        <v>45902</v>
+      </c>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <f t="shared" si="154"/>
+        <v>127</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="8">
+        <f>IFERROR(IF(C148,C148+14,""),"")</f>
+        <v>45897</v>
+      </c>
+      <c r="D159" s="8">
+        <f t="shared" si="156"/>
+        <v>45898</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="8">
+        <f t="shared" ref="F159:G159" si="158">IFERROR(IF(F148,F148+14,""),"")</f>
+        <v>45903</v>
+      </c>
+      <c r="G159" s="8">
+        <f t="shared" si="158"/>
+        <v>45904</v>
+      </c>
+      <c r="H159" s="15"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <f t="shared" si="154"/>
+        <v>128</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="8">
+        <f>IFERROR(IF(C149,C149+14,""),"")</f>
+        <v>45894</v>
+      </c>
+      <c r="D160" s="8">
+        <f t="shared" si="156"/>
+        <v>45895</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="8" t="str">
+        <f t="shared" ref="F160:G160" si="159">IFERROR(IF(F150,F150+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G160" s="8" t="str">
+        <f t="shared" si="159"/>
+        <v/>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <f>MAX(A150:A160)+1</f>
+        <v>129</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="8">
+        <f>IFERROR(IF(C151,C151+14,""),"")</f>
+        <v>45897</v>
+      </c>
+      <c r="D161" s="8">
+        <f>IFERROR(IF(D151,D151+14,""),"")</f>
+        <v>45898</v>
+      </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="8">
+        <f t="shared" ref="F161:G161" si="160">IFERROR(IF(F151,F151+14,""),"")</f>
+        <v>45908</v>
+      </c>
+      <c r="G161" s="8">
+        <f t="shared" si="160"/>
+        <v>45908</v>
+      </c>
+      <c r="H161" s="28"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="34"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="36"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H139" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H144" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="106"/>
-        <filter val="107"/>
-        <filter val="108"/>
-        <filter val="109"/>
-        <filter val="110"/>
-        <filter val="111"/>
+        <filter val="112"/>
+        <filter val="113"/>
+        <filter val="114"/>
+        <filter val="115"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="28">
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
+  <mergeCells count="29">
+    <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A1:H1"/>
@@ -4877,6 +5015,18 @@
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D74AF11-EC95-4213-9333-361720D3C1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C83F5C9-F66B-4027-B07D-4B7E0CA8D92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,7 +894,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K161" sqref="K161"/>
+      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,7 +4855,9 @@
         <f>IFERROR(IF(D146,D146+14,""),"")</f>
         <v>45895</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5">
+        <v>2221</v>
+      </c>
       <c r="F157" s="8">
         <f t="shared" ref="F157:G157" si="155">IFERROR(IF(F146,F146+14,""),"")</f>
         <v>45901</v>
@@ -4879,10 +4881,12 @@
         <v>45894</v>
       </c>
       <c r="D158" s="8">
-        <f t="shared" ref="C158:D161" si="156">IFERROR(IF(D147,D147+14,""),"")</f>
+        <f t="shared" ref="D158:D160" si="156">IFERROR(IF(D147,D147+14,""),"")</f>
         <v>45895</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="5">
+        <v>2566</v>
+      </c>
       <c r="F158" s="8">
         <f t="shared" ref="F158:G158" si="157">IFERROR(IF(F147,F147+14,""),"")</f>
         <v>45902</v>
@@ -4998,6 +5002,19 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="29">
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
@@ -5014,19 +5031,6 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C83F5C9-F66B-4027-B07D-4B7E0CA8D92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD28E1-C7A3-4758-BC7A-B858FF5DD79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$151</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="49">
   <si>
     <t>Контракт</t>
   </si>
@@ -242,6 +242,9 @@
   <si>
     <t>расчет не делаем</t>
   </si>
+  <si>
+    <t>01,09,25 была корректировка</t>
+  </si>
 </sst>
 </file>
 
@@ -250,12 +253,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -475,7 +486,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -484,16 +495,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -508,13 +519,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,25 +534,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,50 +573,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,11 +904,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+      <selection pane="bottomLeft" activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,19 +925,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -944,12 +958,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -966,10 +980,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -986,10 +1000,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1004,10 +1018,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="45"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1024,10 +1038,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="45"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1044,7 +1058,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1194,7 +1208,7 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1344,7 +1358,7 @@
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="48"/>
@@ -1496,7 +1510,7 @@
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="48"/>
@@ -1706,7 +1720,7 @@
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="48"/>
@@ -1900,7 +1914,7 @@
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="48"/>
@@ -2111,7 +2125,7 @@
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="48"/>
@@ -2235,7 +2249,7 @@
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="48"/>
@@ -2396,7 +2410,7 @@
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
+      <c r="H61" s="37"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2520,7 +2534,7 @@
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2704,7 +2718,7 @@
       <c r="E73" s="35"/>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
+      <c r="H73" s="37"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2832,7 +2846,7 @@
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
+      <c r="H78" s="37"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3016,7 +3030,7 @@
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
-      <c r="H85" s="36"/>
+      <c r="H85" s="37"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3143,7 +3157,7 @@
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
+      <c r="H90" s="37"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3326,7 +3340,7 @@
       <c r="E97" s="35"/>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
+      <c r="H97" s="37"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3451,7 +3465,7 @@
       <c r="E102" s="35"/>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
-      <c r="H102" s="36"/>
+      <c r="H102" s="37"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3638,7 +3652,7 @@
       <c r="E109" s="35"/>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
-      <c r="H109" s="36"/>
+      <c r="H109" s="37"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3821,7 +3835,7 @@
       <c r="E116" s="35"/>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
-      <c r="H116" s="36"/>
+      <c r="H116" s="37"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3929,7 +3943,7 @@
       <c r="E121" s="35"/>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
-      <c r="H121" s="36"/>
+      <c r="H121" s="37"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4112,7 +4126,7 @@
       <c r="E128" s="35"/>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
-      <c r="H128" s="36"/>
+      <c r="H128" s="37"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4240,7 +4254,7 @@
       <c r="E133" s="35"/>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
-      <c r="H133" s="36"/>
+      <c r="H133" s="37"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4428,9 +4442,9 @@
       <c r="E140" s="35"/>
       <c r="F140" s="35"/>
       <c r="G140" s="35"/>
-      <c r="H140" s="36"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="37"/>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <f t="shared" ref="A141:A144" si="132">MAX(A129:A140)+1</f>
         <v>112</v>
@@ -4461,7 +4475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <f t="shared" si="132"/>
         <v>113</v>
@@ -4490,7 +4504,7 @@
       </c>
       <c r="H142" s="15"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <f t="shared" si="132"/>
         <v>114</v>
@@ -4519,7 +4533,7 @@
       </c>
       <c r="H143" s="15"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <f t="shared" si="132"/>
         <v>115</v>
@@ -4546,15 +4560,17 @@
       </c>
       <c r="H144" s="15"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
       <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
+      <c r="E145" s="36"/>
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
-      <c r="H145" s="36"/>
+      <c r="H145" s="37"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4737,10 +4753,10 @@
       <c r="B152" s="35"/>
       <c r="C152" s="35"/>
       <c r="D152" s="35"/>
-      <c r="E152" s="35"/>
+      <c r="E152" s="36"/>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
-      <c r="H152" s="36"/>
+      <c r="H152" s="37"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4834,10 +4850,10 @@
       <c r="B156" s="35"/>
       <c r="C156" s="35"/>
       <c r="D156" s="35"/>
-      <c r="E156" s="35"/>
+      <c r="E156" s="36"/>
       <c r="F156" s="35"/>
       <c r="G156" s="35"/>
-      <c r="H156" s="36"/>
+      <c r="H156" s="37"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -4913,7 +4929,9 @@
         <f t="shared" si="156"/>
         <v>45898</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5">
+        <v>4000</v>
+      </c>
       <c r="F159" s="8">
         <f t="shared" ref="F159:G159" si="158">IFERROR(IF(F148,F148+14,""),"")</f>
         <v>45903</v>
@@ -4953,7 +4971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <f>MAX(A150:A160)+1</f>
         <v>129</v>
@@ -4969,7 +4987,9 @@
         <f>IFERROR(IF(D151,D151+14,""),"")</f>
         <v>45898</v>
       </c>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5">
+        <v>3242</v>
+      </c>
       <c r="F161" s="8">
         <f t="shared" ref="F161:G161" si="160">IFERROR(IF(F151,F151+14,""),"")</f>
         <v>45908</v>
@@ -4978,30 +4998,131 @@
         <f t="shared" si="160"/>
         <v>45908</v>
       </c>
-      <c r="H161" s="28"/>
+      <c r="H161" s="51" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="34"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
       <c r="D162" s="35"/>
-      <c r="E162" s="35"/>
+      <c r="E162" s="36"/>
       <c r="F162" s="35"/>
       <c r="G162" s="35"/>
-      <c r="H162" s="36"/>
+      <c r="H162" s="37"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <f t="shared" ref="A163:A165" si="161">MAX(A151:A162)+1</f>
+        <v>130</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="8">
+        <f>IFERROR(IF(C153,C153+14,""),"")</f>
+        <v>45901</v>
+      </c>
+      <c r="D163" s="8">
+        <f t="shared" ref="D163:G163" si="162">IFERROR(IF(D153,D153+14,""),"")</f>
+        <v>45902</v>
+      </c>
+      <c r="E163" s="5" t="str">
+        <f t="shared" si="162"/>
+        <v/>
+      </c>
+      <c r="F163" s="8" t="str">
+        <f t="shared" si="162"/>
+        <v/>
+      </c>
+      <c r="G163" s="8" t="str">
+        <f t="shared" si="162"/>
+        <v/>
+      </c>
+      <c r="H163" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <f t="shared" si="161"/>
+        <v>131</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="8">
+        <f t="shared" ref="C164:G164" si="163">IFERROR(IF(C154,C154+14,""),"")</f>
+        <v>45901</v>
+      </c>
+      <c r="D164" s="8">
+        <f t="shared" si="163"/>
+        <v>45902</v>
+      </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="8">
+        <f t="shared" si="163"/>
+        <v>45909</v>
+      </c>
+      <c r="G164" s="8">
+        <f t="shared" si="163"/>
+        <v>45909</v>
+      </c>
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <f t="shared" si="161"/>
+        <v>132</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="8">
+        <f t="shared" ref="C165:G165" si="164">IFERROR(IF(C155,C155+14,""),"")</f>
+        <v>45904</v>
+      </c>
+      <c r="D165" s="8">
+        <f t="shared" si="164"/>
+        <v>45905</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="8">
+        <f t="shared" si="164"/>
+        <v>45910</v>
+      </c>
+      <c r="G165" s="8">
+        <f t="shared" si="164"/>
+        <v>45911</v>
+      </c>
+      <c r="H165" s="15"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="34"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H144" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H151" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="112"/>
-        <filter val="113"/>
-        <filter val="114"/>
-        <filter val="115"/>
+        <filter val="116"/>
+        <filter val="117"/>
+        <filter val="118"/>
+        <filter val="119"/>
+        <filter val="120"/>
+        <filter val="121"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A85:H85"/>
@@ -5015,6 +5136,7 @@
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
@@ -5030,7 +5152,6 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD28E1-C7A3-4758-BC7A-B858FF5DD79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A187737-7DD7-4958-B03F-4F4892A78F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="50">
   <si>
     <t>Контракт</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>01,09,25 была корректировка</t>
+  </si>
+  <si>
+    <t>02,09,25 сделан дозаказ на 900кг</t>
   </si>
 </sst>
 </file>
@@ -567,6 +570,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,6 +581,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,17 +618,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,7 +911,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H171" sqref="H171"/>
+      <selection pane="bottomLeft" activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,19 +928,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -958,12 +961,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -980,10 +983,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1000,10 +1003,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1014,14 +1017,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1038,10 +1041,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1061,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1199,16 +1202,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1352,16 +1355,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1504,16 +1507,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="48"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1714,16 +1717,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="48"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1908,16 +1911,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="48"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2119,16 +2122,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="48"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2243,16 +2246,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="48"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2401,16 +2404,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="37"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2525,16 +2528,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="37"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2709,16 +2712,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="37"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2837,16 +2840,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="37"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3021,16 +3024,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="37"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3148,16 +3151,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="37"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3331,16 +3334,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="37"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3456,16 +3459,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="37"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3643,16 +3646,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="37"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3826,16 +3829,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="37"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3934,16 +3937,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="37"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4117,16 +4120,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="37"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4245,16 +4248,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="35"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="37"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4433,16 +4436,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="34" t="s">
+      <c r="A140" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="35"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="37"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4561,16 +4564,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="37"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4749,14 +4752,14 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="37"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4846,14 +4849,14 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="37"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -4913,7 +4916,7 @@
       </c>
       <c r="H158" s="15"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <f t="shared" si="154"/>
         <v>127</v>
@@ -4930,7 +4933,8 @@
         <v>45898</v>
       </c>
       <c r="E159" s="5">
-        <v>4000</v>
+        <f>4000+900</f>
+        <v>4900</v>
       </c>
       <c r="F159" s="8">
         <f t="shared" ref="F159:G159" si="158">IFERROR(IF(F148,F148+14,""),"")</f>
@@ -4940,7 +4944,9 @@
         <f t="shared" si="158"/>
         <v>45904</v>
       </c>
-      <c r="H159" s="15"/>
+      <c r="H159" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -4998,19 +5004,19 @@
         <f t="shared" si="160"/>
         <v>45908</v>
       </c>
-      <c r="H161" s="51" t="s">
+      <c r="H161" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="34"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
-      <c r="E162" s="36"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="37"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="36"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="39"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5060,7 +5066,9 @@
         <f t="shared" si="163"/>
         <v>45902</v>
       </c>
-      <c r="E164" s="5"/>
+      <c r="E164" s="5">
+        <v>1966</v>
+      </c>
       <c r="F164" s="8">
         <f t="shared" si="163"/>
         <v>45909</v>
@@ -5099,14 +5107,14 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="37"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H151" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5122,20 +5130,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
@@ -5152,6 +5146,20 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A187737-7DD7-4958-B03F-4F4892A78F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E184D-64BF-498C-A3EC-EDDFA0B44D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="51">
   <si>
     <t>Контракт</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>02,09,25 сделан дозаказ на 900кг</t>
+  </si>
+  <si>
+    <t>03,09,25 сделан дозаказ на 571кг</t>
   </si>
 </sst>
 </file>
@@ -583,9 +586,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,6 +616,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,7 +914,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G169" sqref="G169"/>
+      <selection pane="bottomLeft" activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,19 +931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -961,12 +964,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -983,10 +986,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1003,10 +1006,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1021,10 +1024,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="48"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1041,10 +1044,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1211,7 +1214,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1364,7 +1367,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1516,7 +1519,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1726,7 +1729,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1920,7 +1923,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2131,7 +2134,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="38"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2255,7 +2258,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2413,7 +2416,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2537,7 +2540,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2721,7 +2724,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2849,7 +2852,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3033,7 +3036,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="39"/>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3160,7 +3163,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="39"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3343,7 +3346,7 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
-      <c r="H97" s="39"/>
+      <c r="H97" s="38"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3468,7 +3471,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
-      <c r="H102" s="39"/>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3655,7 +3658,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
-      <c r="H109" s="39"/>
+      <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3838,7 +3841,7 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
-      <c r="H116" s="39"/>
+      <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3946,7 +3949,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4129,7 +4132,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="39"/>
+      <c r="H128" s="38"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4257,7 +4260,7 @@
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
-      <c r="H133" s="39"/>
+      <c r="H133" s="38"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4445,7 +4448,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
-      <c r="H140" s="39"/>
+      <c r="H140" s="38"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4573,7 +4576,7 @@
       <c r="E145" s="37"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
-      <c r="H145" s="39"/>
+      <c r="H145" s="38"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4759,7 +4762,7 @@
       <c r="E152" s="37"/>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
-      <c r="H152" s="39"/>
+      <c r="H152" s="38"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4856,7 +4859,7 @@
       <c r="E156" s="37"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="39"/>
+      <c r="H156" s="38"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5016,7 +5019,7 @@
       <c r="E162" s="37"/>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
-      <c r="H162" s="39"/>
+      <c r="H162" s="38"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5050,7 +5053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <f t="shared" si="161"/>
         <v>131</v>
@@ -5067,7 +5070,8 @@
         <v>45902</v>
       </c>
       <c r="E164" s="5">
-        <v>1966</v>
+        <f>1966+571</f>
+        <v>2537</v>
       </c>
       <c r="F164" s="8">
         <f t="shared" si="163"/>
@@ -5077,7 +5081,9 @@
         <f t="shared" si="163"/>
         <v>45909</v>
       </c>
-      <c r="H164" s="15"/>
+      <c r="H164" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
@@ -5114,7 +5120,7 @@
       <c r="E166" s="37"/>
       <c r="F166" s="36"/>
       <c r="G166" s="36"/>
-      <c r="H166" s="39"/>
+      <c r="H166" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H151" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5130,6 +5136,20 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="30">
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
@@ -5146,20 +5166,6 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E184D-64BF-498C-A3EC-EDDFA0B44D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58925537-54BF-4E33-A3C2-D6D9BE598F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,6 +586,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,9 +619,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,8 +913,8 @@
   <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J166" sqref="J166"/>
+      <pane ySplit="8" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,19 +931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -964,12 +964,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1006,10 +1006,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1044,10 +1044,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1214,7 +1214,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1367,7 +1367,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1519,7 +1519,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1729,7 +1729,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1923,7 +1923,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2134,7 +2134,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2258,7 +2258,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2416,7 +2416,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="38"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2540,7 +2540,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="38"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2724,7 +2724,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="38"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2852,7 +2852,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
-      <c r="H78" s="38"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3036,7 +3036,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="38"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3163,7 +3163,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="38"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3346,7 +3346,7 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
-      <c r="H97" s="38"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3471,7 +3471,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
-      <c r="H102" s="38"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3658,7 +3658,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
-      <c r="H109" s="38"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3841,7 +3841,7 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
-      <c r="H116" s="38"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3949,7 +3949,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="38"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4132,7 +4132,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="38"/>
+      <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4260,7 +4260,7 @@
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
-      <c r="H133" s="38"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4448,7 +4448,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
-      <c r="H140" s="38"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4576,7 +4576,7 @@
       <c r="E145" s="37"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
-      <c r="H145" s="38"/>
+      <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4762,7 +4762,7 @@
       <c r="E152" s="37"/>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
-      <c r="H152" s="38"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4859,7 +4859,7 @@
       <c r="E156" s="37"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="38"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5019,7 +5019,7 @@
       <c r="E162" s="37"/>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
-      <c r="H162" s="38"/>
+      <c r="H162" s="39"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5037,9 +5037,8 @@
         <f t="shared" ref="D163:G163" si="162">IFERROR(IF(D153,D153+14,""),"")</f>
         <v>45902</v>
       </c>
-      <c r="E163" s="5" t="str">
-        <f t="shared" si="162"/>
-        <v/>
+      <c r="E163" s="5">
+        <v>321</v>
       </c>
       <c r="F163" s="8" t="str">
         <f t="shared" si="162"/>
@@ -5101,7 +5100,9 @@
         <f t="shared" si="164"/>
         <v>45905</v>
       </c>
-      <c r="E165" s="5"/>
+      <c r="E165" s="5">
+        <v>5330</v>
+      </c>
       <c r="F165" s="8">
         <f t="shared" si="164"/>
         <v>45910</v>
@@ -5120,7 +5121,7 @@
       <c r="E166" s="37"/>
       <c r="F166" s="36"/>
       <c r="G166" s="36"/>
-      <c r="H166" s="38"/>
+      <c r="H166" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H151" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5136,20 +5137,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
@@ -5166,6 +5153,20 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58925537-54BF-4E33-A3C2-D6D9BE598F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3757B5-44B9-4EE1-BA37-9CC525D20A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$155</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="51">
   <si>
     <t>Контракт</t>
   </si>
@@ -586,9 +586,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,6 +616,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,11 +910,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,19 +931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -964,12 +964,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1006,10 +1006,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="48"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1044,10 +1044,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1214,7 +1214,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1367,7 +1367,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1519,7 +1519,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1729,7 +1729,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1923,7 +1923,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2134,7 +2134,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="38"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2258,7 +2258,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2416,7 +2416,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2540,7 +2540,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2724,7 +2724,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2852,7 +2852,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3036,7 +3036,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="39"/>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3163,7 +3163,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="39"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3346,7 +3346,7 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
-      <c r="H97" s="39"/>
+      <c r="H97" s="38"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3471,7 +3471,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
-      <c r="H102" s="39"/>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3658,7 +3658,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
-      <c r="H109" s="39"/>
+      <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3841,7 +3841,7 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
-      <c r="H116" s="39"/>
+      <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3949,7 +3949,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4132,7 +4132,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="39"/>
+      <c r="H128" s="38"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4260,7 +4260,7 @@
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
-      <c r="H133" s="39"/>
+      <c r="H133" s="38"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4448,7 +4448,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
-      <c r="H140" s="39"/>
+      <c r="H140" s="38"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4576,9 +4576,9 @@
       <c r="E145" s="37"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
-      <c r="H145" s="39"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="38"/>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <f t="shared" ref="A146:A151" si="139">MAX(A134:A145)+1</f>
         <v>116</v>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H146" s="19"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <f t="shared" si="139"/>
         <v>117</v>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H147" s="15"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <f t="shared" si="139"/>
         <v>118</v>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="H148" s="15"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <f t="shared" si="139"/>
         <v>119</v>
@@ -4694,7 +4694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <f t="shared" si="139"/>
         <v>120</v>
@@ -4723,7 +4723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <f t="shared" si="139"/>
         <v>121</v>
@@ -4754,15 +4754,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
       <c r="D152" s="36"/>
       <c r="E152" s="37"/>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
-      <c r="H152" s="39"/>
+      <c r="H152" s="38"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4859,7 +4861,7 @@
       <c r="E156" s="37"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="39"/>
+      <c r="H156" s="38"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5019,7 +5021,7 @@
       <c r="E162" s="37"/>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
-      <c r="H162" s="39"/>
+      <c r="H162" s="38"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5121,22 +5123,181 @@
       <c r="E166" s="37"/>
       <c r="F166" s="36"/>
       <c r="G166" s="36"/>
-      <c r="H166" s="39"/>
+      <c r="H166" s="38"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <f t="shared" ref="A167:A170" si="165">MAX(A155:A166)+1</f>
+        <v>133</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="8">
+        <f>IFERROR(IF(C157,C157+14,""),"")</f>
+        <v>45908</v>
+      </c>
+      <c r="D167" s="8">
+        <f t="shared" ref="D167:D171" si="166">IFERROR(IF(D157,D157+14,""),"")</f>
+        <v>45909</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="8">
+        <f t="shared" ref="F167:G167" si="167">IFERROR(IF(F157,F157+14,""),"")</f>
+        <v>45915</v>
+      </c>
+      <c r="G167" s="8">
+        <f t="shared" si="167"/>
+        <v>45915</v>
+      </c>
+      <c r="H167" s="19"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <f t="shared" si="165"/>
+        <v>134</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="8">
+        <f t="shared" ref="C168:D168" si="168">IFERROR(IF(C158,C158+14,""),"")</f>
+        <v>45908</v>
+      </c>
+      <c r="D168" s="8">
+        <f t="shared" si="166"/>
+        <v>45909</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="8">
+        <f t="shared" ref="F168:G168" si="169">IFERROR(IF(F158,F158+14,""),"")</f>
+        <v>45916</v>
+      </c>
+      <c r="G168" s="8">
+        <f t="shared" si="169"/>
+        <v>45916</v>
+      </c>
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <f t="shared" si="165"/>
+        <v>135</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="8">
+        <f t="shared" ref="C169:D169" si="170">IFERROR(IF(C159,C159+14,""),"")</f>
+        <v>45911</v>
+      </c>
+      <c r="D169" s="8">
+        <f t="shared" si="166"/>
+        <v>45912</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="8">
+        <f t="shared" ref="F169:G169" si="171">IFERROR(IF(F159,F159+14,""),"")</f>
+        <v>45917</v>
+      </c>
+      <c r="G169" s="8">
+        <f t="shared" si="171"/>
+        <v>45918</v>
+      </c>
+      <c r="H169" s="15"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <f t="shared" si="165"/>
+        <v>136</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="8">
+        <f t="shared" ref="C170:D170" si="172">IFERROR(IF(C160,C160+14,""),"")</f>
+        <v>45908</v>
+      </c>
+      <c r="D170" s="8">
+        <f t="shared" si="166"/>
+        <v>45909</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="8" t="str">
+        <f t="shared" ref="F170:G170" si="173">IFERROR(IF(F160,F160+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G170" s="8" t="str">
+        <f t="shared" si="173"/>
+        <v/>
+      </c>
+      <c r="H170" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <f>MAX(A160:A170)+1</f>
+        <v>137</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="8">
+        <f t="shared" ref="C171:D171" si="174">IFERROR(IF(C161,C161+14,""),"")</f>
+        <v>45911</v>
+      </c>
+      <c r="D171" s="8">
+        <f t="shared" si="166"/>
+        <v>45912</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="8">
+        <f t="shared" ref="F171:G171" si="175">IFERROR(IF(F161,F161+14,""),"")</f>
+        <v>45922</v>
+      </c>
+      <c r="G171" s="8">
+        <f t="shared" si="175"/>
+        <v>45922</v>
+      </c>
+      <c r="H171" s="34"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="35"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H151" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H155" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="116"/>
-        <filter val="117"/>
-        <filter val="118"/>
-        <filter val="119"/>
-        <filter val="120"/>
-        <filter val="121"/>
+        <filter val="122"/>
+        <filter val="123"/>
+        <filter val="124"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
@@ -5153,20 +5314,6 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3757B5-44B9-4EE1-BA37-9CC525D20A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F69F86-0288-4C23-82F5-4A8E91D08D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,6 +588,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,9 +619,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +914,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+      <selection pane="bottomLeft" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,19 +931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -964,12 +964,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1006,10 +1006,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1044,10 +1044,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1367,7 +1367,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1519,7 +1519,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1729,7 +1729,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1923,7 +1923,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2134,7 +2134,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2258,7 +2258,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -5141,7 +5141,9 @@
         <f t="shared" ref="D167:D171" si="166">IFERROR(IF(D157,D157+14,""),"")</f>
         <v>45909</v>
       </c>
-      <c r="E167" s="5"/>
+      <c r="E167" s="5">
+        <v>3057</v>
+      </c>
       <c r="F167" s="8">
         <f t="shared" ref="F167:G167" si="167">IFERROR(IF(F157,F157+14,""),"")</f>
         <v>45915</v>
@@ -5161,7 +5163,7 @@
         <v>17</v>
       </c>
       <c r="C168" s="8">
-        <f t="shared" ref="C168:D168" si="168">IFERROR(IF(C158,C158+14,""),"")</f>
+        <f t="shared" ref="C168" si="168">IFERROR(IF(C158,C158+14,""),"")</f>
         <v>45908</v>
       </c>
       <c r="D168" s="8">
@@ -5188,7 +5190,7 @@
         <v>18</v>
       </c>
       <c r="C169" s="8">
-        <f t="shared" ref="C169:D169" si="170">IFERROR(IF(C159,C159+14,""),"")</f>
+        <f t="shared" ref="C169" si="170">IFERROR(IF(C159,C159+14,""),"")</f>
         <v>45911</v>
       </c>
       <c r="D169" s="8">
@@ -5215,7 +5217,7 @@
         <v>19</v>
       </c>
       <c r="C170" s="8">
-        <f t="shared" ref="C170:D170" si="172">IFERROR(IF(C160,C160+14,""),"")</f>
+        <f t="shared" ref="C170" si="172">IFERROR(IF(C160,C160+14,""),"")</f>
         <v>45908</v>
       </c>
       <c r="D170" s="8">
@@ -5244,7 +5246,7 @@
         <v>26</v>
       </c>
       <c r="C171" s="8">
-        <f t="shared" ref="C171:D171" si="174">IFERROR(IF(C161,C161+14,""),"")</f>
+        <f t="shared" ref="C171" si="174">IFERROR(IF(C161,C161+14,""),"")</f>
         <v>45911</v>
       </c>
       <c r="D171" s="8">
@@ -5283,6 +5285,21 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
@@ -5299,21 +5316,6 @@
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F69F86-0288-4C23-82F5-4A8E91D08D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC572E-CB6D-49C1-B52B-5DC8966464F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,9 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +616,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +914,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I174" sqref="I174"/>
+      <selection pane="bottomLeft" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,19 +931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -964,12 +964,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1006,10 +1006,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="48"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1044,10 +1044,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1367,7 +1367,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1519,7 +1519,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1729,7 +1729,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1923,7 +1923,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2134,7 +2134,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2258,7 +2258,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -5170,7 +5170,9 @@
         <f t="shared" si="166"/>
         <v>45909</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="5">
+        <v>3002</v>
+      </c>
       <c r="F168" s="8">
         <f t="shared" ref="F168:G168" si="169">IFERROR(IF(F158,F158+14,""),"")</f>
         <v>45916</v>
@@ -5285,21 +5287,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
@@ -5316,6 +5303,21 @@
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC572E-CB6D-49C1-B52B-5DC8966464F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A7085-99B2-4E13-BD15-D23B585D7A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,6 +588,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,9 +619,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +914,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I175" sqref="I175"/>
+      <selection pane="bottomLeft" activeCell="M176" sqref="M176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,19 +931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -964,12 +964,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1006,10 +1006,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1044,10 +1044,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1367,7 +1367,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1519,7 +1519,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1729,7 +1729,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1923,7 +1923,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2134,7 +2134,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2258,7 +2258,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -4999,7 +4999,7 @@
         <v>45898</v>
       </c>
       <c r="E161" s="5">
-        <v>3242</v>
+        <v>3212</v>
       </c>
       <c r="F161" s="8">
         <f t="shared" ref="F161:G161" si="160">IFERROR(IF(F151,F151+14,""),"")</f>
@@ -5287,6 +5287,21 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
@@ -5303,21 +5318,6 @@
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A7085-99B2-4E13-BD15-D23B585D7A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36AB03A-68D7-44E2-8856-F60D879D7FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
   <si>
     <t>Контракт</t>
   </si>
@@ -251,6 +251,12 @@
   <si>
     <t>03,09,25 сделан дозаказ на 571кг</t>
   </si>
+  <si>
+    <t>11,09,25 сделан дозаказ на 194кг</t>
+  </si>
+  <si>
+    <t>15,09,25 будет корректировка</t>
+  </si>
 </sst>
 </file>
 
@@ -259,12 +265,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -483,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -492,7 +506,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -501,16 +515,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,13 +539,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,25 +554,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -591,41 +605,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,7 +931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M176" sqref="M176"/>
+      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5154,7 +5171,7 @@
       </c>
       <c r="H167" s="19"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <f t="shared" si="165"/>
         <v>134</v>
@@ -5171,7 +5188,8 @@
         <v>45909</v>
       </c>
       <c r="E168" s="5">
-        <v>3002</v>
+        <f>3002+194</f>
+        <v>3196</v>
       </c>
       <c r="F168" s="8">
         <f t="shared" ref="F168:G168" si="169">IFERROR(IF(F158,F158+14,""),"")</f>
@@ -5181,7 +5199,9 @@
         <f t="shared" si="169"/>
         <v>45916</v>
       </c>
-      <c r="H168" s="15"/>
+      <c r="H168" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
@@ -5199,7 +5219,9 @@
         <f t="shared" si="166"/>
         <v>45912</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="5">
+        <v>7770</v>
+      </c>
       <c r="F169" s="8">
         <f t="shared" ref="F169:G169" si="171">IFERROR(IF(F159,F159+14,""),"")</f>
         <v>45917</v>
@@ -5239,7 +5261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <f>MAX(A160:A170)+1</f>
         <v>137</v>
@@ -5255,7 +5277,9 @@
         <f t="shared" si="166"/>
         <v>45912</v>
       </c>
-      <c r="E171" s="5"/>
+      <c r="E171" s="5">
+        <v>2209</v>
+      </c>
       <c r="F171" s="8">
         <f t="shared" ref="F171:G171" si="175">IFERROR(IF(F161,F161+14,""),"")</f>
         <v>45922</v>
@@ -5264,7 +5288,9 @@
         <f t="shared" si="175"/>
         <v>45922</v>
       </c>
-      <c r="H171" s="34"/>
+      <c r="H171" s="52" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36AB03A-68D7-44E2-8856-F60D879D7FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617F1E1-F743-454E-8900-6A3A4AA2AB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$161</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="53">
   <si>
     <t>Контракт</t>
   </si>
@@ -255,7 +255,7 @@
     <t>11,09,25 сделан дозаказ на 194кг</t>
   </si>
   <si>
-    <t>15,09,25 будет корректировка</t>
+    <t>15,09,25 была корректировка</t>
   </si>
 </sst>
 </file>
@@ -927,11 +927,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
+      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,7 +4783,7 @@
       <c r="G152" s="36"/>
       <c r="H152" s="38"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <f t="shared" ref="A153:A155" si="148">MAX(A141:A152)+1</f>
         <v>122</v>
@@ -4812,7 +4812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <f t="shared" si="148"/>
         <v>123</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H154" s="15"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <f t="shared" si="148"/>
         <v>124</v>
@@ -4870,8 +4870,10 @@
       </c>
       <c r="H155" s="15"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
       <c r="D156" s="36"/>
@@ -5278,7 +5280,7 @@
         <v>45912</v>
       </c>
       <c r="E171" s="5">
-        <v>2209</v>
+        <v>2481</v>
       </c>
       <c r="F171" s="8">
         <f t="shared" ref="F171:G171" si="175">IFERROR(IF(F161,F161+14,""),"")</f>
@@ -5302,17 +5304,113 @@
       <c r="G172" s="36"/>
       <c r="H172" s="38"/>
     </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <f t="shared" ref="A173:A175" si="176">MAX(A161:A172)+1</f>
+        <v>138</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="8">
+        <f>IFERROR(IF(C163,C163+14,""),"")</f>
+        <v>45915</v>
+      </c>
+      <c r="D173" s="8">
+        <f t="shared" ref="D173" si="177">IFERROR(IF(D163,D163+14,""),"")</f>
+        <v>45916</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="8" t="str">
+        <f t="shared" ref="F173:G173" si="178">IFERROR(IF(F163,F163+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G173" s="8" t="str">
+        <f t="shared" si="178"/>
+        <v/>
+      </c>
+      <c r="H173" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <f t="shared" si="176"/>
+        <v>139</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="8">
+        <f t="shared" ref="C174:D174" si="179">IFERROR(IF(C164,C164+14,""),"")</f>
+        <v>45915</v>
+      </c>
+      <c r="D174" s="8">
+        <f t="shared" si="179"/>
+        <v>45916</v>
+      </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="8">
+        <f t="shared" ref="F174:G174" si="180">IFERROR(IF(F164,F164+14,""),"")</f>
+        <v>45923</v>
+      </c>
+      <c r="G174" s="8">
+        <f t="shared" si="180"/>
+        <v>45923</v>
+      </c>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <f t="shared" si="176"/>
+        <v>140</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="8">
+        <f t="shared" ref="C175:D175" si="181">IFERROR(IF(C165,C165+14,""),"")</f>
+        <v>45918</v>
+      </c>
+      <c r="D175" s="8">
+        <f t="shared" si="181"/>
+        <v>45919</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="8">
+        <f t="shared" ref="F175:G175" si="182">IFERROR(IF(F165,F165+14,""),"")</f>
+        <v>45924</v>
+      </c>
+      <c r="G175" s="8">
+        <f t="shared" si="182"/>
+        <v>45925</v>
+      </c>
+      <c r="H175" s="15"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="35"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="38"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H155" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H161" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="122"/>
-        <filter val="123"/>
-        <filter val="124"/>
+        <filter val="125"/>
+        <filter val="126"/>
+        <filter val="127"/>
+        <filter val="128"/>
+        <filter val="129"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
@@ -5328,6 +5426,7 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
@@ -5343,7 +5442,6 @@
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617F1E1-F743-454E-8900-6A3A4AA2AB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D23324-0958-45F6-A81A-535376574BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,6 +590,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,9 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,14 +635,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,7 +931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+      <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,10 +1037,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1222,16 +1222,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1375,16 +1375,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="39"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1527,16 +1527,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="39"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1737,16 +1737,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="39"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1931,16 +1931,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="39"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2142,16 +2142,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="39"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2266,16 +2266,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="39"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2424,16 +2424,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="38"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2548,16 +2548,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="38"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2732,16 +2732,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="38"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2860,16 +2860,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="38"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3044,16 +3044,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="38"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3171,16 +3171,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="38"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3354,16 +3354,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="38"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3479,16 +3479,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="38"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3666,16 +3666,16 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="38"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3849,16 +3849,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="38"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3957,16 +3957,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="38"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4140,16 +4140,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="38"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4268,16 +4268,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="35" t="s">
+      <c r="A133" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="38"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4456,16 +4456,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="35" t="s">
+      <c r="A140" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="38"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4584,16 +4584,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="38"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4772,16 +4772,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="35" t="s">
+      <c r="A152" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="38"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4871,16 +4871,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35" t="s">
+      <c r="A156" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="36"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="38"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="38"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5033,14 +5033,14 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="36"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="38"/>
+      <c r="A162" s="36"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="39"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5135,14 +5135,14 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="37"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="38"/>
+      <c r="A166" s="36"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="39"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5290,19 +5290,19 @@
         <f t="shared" si="175"/>
         <v>45922</v>
       </c>
-      <c r="H171" s="52" t="s">
+      <c r="H171" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="36"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="38"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="38"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5320,7 +5320,9 @@
         <f t="shared" ref="D173" si="177">IFERROR(IF(D163,D163+14,""),"")</f>
         <v>45916</v>
       </c>
-      <c r="E173" s="5"/>
+      <c r="E173" s="5">
+        <v>216</v>
+      </c>
       <c r="F173" s="8" t="str">
         <f t="shared" ref="F173:G173" si="178">IFERROR(IF(F163,F163+14,""),"")</f>
         <v/>
@@ -5349,7 +5351,9 @@
         <f t="shared" si="179"/>
         <v>45916</v>
       </c>
-      <c r="E174" s="5"/>
+      <c r="E174" s="5">
+        <v>2855</v>
+      </c>
       <c r="F174" s="8">
         <f t="shared" ref="F174:G174" si="180">IFERROR(IF(F164,F164+14,""),"")</f>
         <v>45923</v>
@@ -5388,14 +5392,14 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="35"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="36"/>
-      <c r="H176" s="38"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H161" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5410,6 +5414,22 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
@@ -5426,22 +5446,6 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D23324-0958-45F6-A81A-535376574BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F206F77-FE07-4023-9AD3-212DCD526ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,6 +605,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +636,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,7 +931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
+      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,19 +948,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -981,12 +981,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1003,10 +1003,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1023,10 +1023,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1041,10 +1041,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="52"/>
-      <c r="H5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1061,10 +1061,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1384,7 +1384,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1536,7 +1536,7 @@
       <c r="E26" s="38"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="50"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1746,7 +1746,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="50"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1940,7 +1940,7 @@
       <c r="E41" s="38"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="50"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2151,7 +2151,7 @@
       <c r="E49" s="38"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
-      <c r="H49" s="50"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2275,7 +2275,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="50"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -5380,7 +5380,9 @@
         <f t="shared" si="181"/>
         <v>45919</v>
       </c>
-      <c r="E175" s="5"/>
+      <c r="E175" s="5">
+        <v>5700</v>
+      </c>
       <c r="F175" s="8">
         <f t="shared" ref="F175:G175" si="182">IFERROR(IF(F165,F165+14,""),"")</f>
         <v>45924</v>
@@ -5414,6 +5416,22 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A34:H34"/>
@@ -5430,22 +5448,6 @@
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F206F77-FE07-4023-9AD3-212DCD526ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC473BFD-3596-467A-95FC-863BA1A69A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$165</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="54">
   <si>
     <t>Контракт</t>
   </si>
@@ -256,6 +250,9 @@
   </si>
   <si>
     <t>15,09,25 была корректировка</t>
+  </si>
+  <si>
+    <t>22,09,25 дозаказ на сертификацию 10кг</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -551,9 +548,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -569,10 +563,10 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,10 +581,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -604,9 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +627,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,11 +921,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,19 +942,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -981,12 +975,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1003,10 +997,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1023,10 +1017,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1037,14 +1031,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1061,10 +1055,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1075,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1222,16 +1216,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1375,16 +1369,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="40"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1527,16 +1521,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1737,16 +1731,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="40"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1931,16 +1925,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2142,16 +2136,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="40"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2266,16 +2260,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="40"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2424,16 +2418,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="39"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2548,16 +2542,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="39"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2732,16 +2726,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="39"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2860,16 +2854,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="39"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -2984,7 +2978,7 @@
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H82" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3044,16 +3038,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="39"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3171,16 +3165,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="39"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3295,7 +3289,7 @@
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="H94" s="22" t="s">
+      <c r="H94" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3349,21 +3343,21 @@
       <c r="G96" s="8">
         <v>45831</v>
       </c>
-      <c r="H96" s="24" t="s">
+      <c r="H96" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
+      <c r="A97" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="39"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="38"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3479,16 +3473,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="39"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3593,7 +3587,7 @@
         <f t="shared" ref="C106" si="106">IFERROR(IF(C94,C94+14,""),"")</f>
         <v>45831</v>
       </c>
-      <c r="D106" s="25">
+      <c r="D106" s="24">
         <v>45832</v>
       </c>
       <c r="E106" s="5">
@@ -3607,7 +3601,7 @@
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3646,7 +3640,7 @@
       <c r="B108" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="25">
+      <c r="C108" s="24">
         <v>45834</v>
       </c>
       <c r="D108" s="21">
@@ -3663,19 +3657,19 @@
         <f t="shared" si="109"/>
         <v>45845</v>
       </c>
-      <c r="H108" s="24"/>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="39"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3791,7 +3785,7 @@
         <f t="shared" si="115"/>
         <v/>
       </c>
-      <c r="H113" s="22" t="s">
+      <c r="H113" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3849,16 +3843,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36" t="s">
+      <c r="A116" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="39"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3957,16 +3951,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
+      <c r="A121" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="39"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4123,7 +4117,7 @@
         <f>IFERROR(IF(C115,C115+14,""),"")</f>
         <v>45855</v>
       </c>
-      <c r="D127" s="27">
+      <c r="D127" s="26">
         <v>45856</v>
       </c>
       <c r="E127" s="5">
@@ -4140,16 +4134,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36" t="s">
+      <c r="A128" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="39"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="38"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4178,7 +4172,7 @@
         <f t="shared" si="126"/>
         <v/>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4268,16 +4262,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="39"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="38"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4451,21 +4445,21 @@
         <f t="shared" si="130"/>
         <v>45880</v>
       </c>
-      <c r="H139" s="28" t="s">
+      <c r="H139" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="39"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="38"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4494,7 +4488,7 @@
         <f t="shared" si="134"/>
         <v/>
       </c>
-      <c r="H141" s="26" t="s">
+      <c r="H141" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4584,16 +4578,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36" t="s">
+      <c r="A145" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="37"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="38"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="39"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="38"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4712,31 +4706,31 @@
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="30">
+      <c r="A150" s="29">
         <f t="shared" si="139"/>
         <v>120</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="27">
+      <c r="C150" s="26">
         <f t="shared" si="142"/>
         <v>45883</v>
       </c>
-      <c r="D150" s="27">
+      <c r="D150" s="26">
         <f t="shared" si="140"/>
         <v>45884</v>
       </c>
-      <c r="E150" s="32"/>
-      <c r="F150" s="27" t="str">
+      <c r="E150" s="31"/>
+      <c r="F150" s="26" t="str">
         <f t="shared" ref="F150:G150" si="146">IFERROR(IF(F138,F138+14,""),"")</f>
         <v/>
       </c>
-      <c r="G150" s="27" t="str">
+      <c r="G150" s="26" t="str">
         <f t="shared" si="146"/>
         <v/>
       </c>
-      <c r="H150" s="33" t="s">
+      <c r="H150" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4767,21 +4761,21 @@
         <f t="shared" si="147"/>
         <v>45894</v>
       </c>
-      <c r="H151" s="29" t="s">
+      <c r="H151" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36" t="s">
+      <c r="A152" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="39"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="38"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4808,7 +4802,7 @@
         <f t="shared" si="150"/>
         <v/>
       </c>
-      <c r="H153" s="26" t="s">
+      <c r="H153" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4871,18 +4865,18 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36" t="s">
+      <c r="A156" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="37"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="39"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="36"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="38"/>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <f t="shared" ref="A157:A160" si="154">MAX(A145:A156)+1</f>
         <v>125</v>
@@ -4911,7 +4905,7 @@
       </c>
       <c r="H157" s="19"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <f t="shared" si="154"/>
         <v>126</v>
@@ -4940,7 +4934,7 @@
       </c>
       <c r="H158" s="15"/>
     </row>
-    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <f t="shared" si="154"/>
         <v>127</v>
@@ -4972,7 +4966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <f t="shared" si="154"/>
         <v>128</v>
@@ -5001,7 +4995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <f>MAX(A150:A160)+1</f>
         <v>129</v>
@@ -5028,19 +5022,21 @@
         <f t="shared" si="160"/>
         <v>45908</v>
       </c>
-      <c r="H161" s="34" t="s">
+      <c r="H161" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="36"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="38"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="39"/>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="36"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="38"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5069,7 +5065,7 @@
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="H163" s="26" t="s">
+      <c r="H163" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5135,14 +5131,14 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="36"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="38"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="39"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="38"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5290,19 +5286,19 @@
         <f t="shared" si="175"/>
         <v>45922</v>
       </c>
-      <c r="H171" s="35" t="s">
+      <c r="H171" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="38"/>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="39"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="38"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5331,11 +5327,11 @@
         <f t="shared" si="178"/>
         <v/>
       </c>
-      <c r="H173" s="26" t="s">
+      <c r="H173" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <f t="shared" si="176"/>
         <v>139</v>
@@ -5352,7 +5348,8 @@
         <v>45916</v>
       </c>
       <c r="E174" s="5">
-        <v>2855</v>
+        <f>2855+10</f>
+        <v>2865</v>
       </c>
       <c r="F174" s="8">
         <f t="shared" ref="F174:G174" si="180">IFERROR(IF(F164,F164+14,""),"")</f>
@@ -5362,7 +5359,9 @@
         <f t="shared" si="180"/>
         <v>45923</v>
       </c>
-      <c r="H174" s="15"/>
+      <c r="H174" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -5394,28 +5393,190 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
-      <c r="B176" s="37"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="37"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="39"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="38"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <f t="shared" ref="A177:A180" si="183">MAX(A165:A176)+1</f>
+        <v>141</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="8">
+        <f>IFERROR(IF(C167,C167+14,""),"")</f>
+        <v>45922</v>
+      </c>
+      <c r="D177" s="8">
+        <f t="shared" ref="D177:D181" si="184">IFERROR(IF(D167,D167+14,""),"")</f>
+        <v>45923</v>
+      </c>
+      <c r="E177" s="5"/>
+      <c r="F177" s="8">
+        <f t="shared" ref="F177:G177" si="185">IFERROR(IF(F167,F167+14,""),"")</f>
+        <v>45929</v>
+      </c>
+      <c r="G177" s="8">
+        <f t="shared" si="185"/>
+        <v>45929</v>
+      </c>
+      <c r="H177" s="19"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <f t="shared" si="183"/>
+        <v>142</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="8">
+        <f t="shared" ref="C178:C181" si="186">IFERROR(IF(C168,C168+14,""),"")</f>
+        <v>45922</v>
+      </c>
+      <c r="D178" s="8">
+        <f t="shared" si="184"/>
+        <v>45923</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="8">
+        <f t="shared" ref="F178:G178" si="187">IFERROR(IF(F168,F168+14,""),"")</f>
+        <v>45930</v>
+      </c>
+      <c r="G178" s="8">
+        <f t="shared" si="187"/>
+        <v>45930</v>
+      </c>
+      <c r="H178" s="15"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <f t="shared" si="183"/>
+        <v>143</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="8">
+        <f t="shared" si="186"/>
+        <v>45925</v>
+      </c>
+      <c r="D179" s="8">
+        <f t="shared" si="184"/>
+        <v>45926</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="8">
+        <f t="shared" ref="F179:G179" si="188">IFERROR(IF(F169,F169+14,""),"")</f>
+        <v>45931</v>
+      </c>
+      <c r="G179" s="8">
+        <f t="shared" si="188"/>
+        <v>45932</v>
+      </c>
+      <c r="H179" s="15"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <f t="shared" si="183"/>
+        <v>144</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="8">
+        <f t="shared" si="186"/>
+        <v>45922</v>
+      </c>
+      <c r="D180" s="8">
+        <f t="shared" si="184"/>
+        <v>45923</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="8" t="str">
+        <f t="shared" ref="F180:G180" si="189">IFERROR(IF(F170,F170+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G180" s="8" t="str">
+        <f t="shared" si="189"/>
+        <v/>
+      </c>
+      <c r="H180" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <f>MAX(A170:A180)+1</f>
+        <v>145</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" s="8">
+        <f t="shared" si="186"/>
+        <v>45925</v>
+      </c>
+      <c r="D181" s="8">
+        <f t="shared" si="184"/>
+        <v>45926</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="8">
+        <f t="shared" ref="F181:G181" si="190">IFERROR(IF(F171,F171+14,""),"")</f>
+        <v>45936</v>
+      </c>
+      <c r="G181" s="8">
+        <f t="shared" si="190"/>
+        <v>45936</v>
+      </c>
+      <c r="H181" s="34"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="35"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H161" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H165" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="125"/>
-        <filter val="126"/>
-        <filter val="127"/>
-        <filter val="128"/>
-        <filter val="129"/>
+        <filter val="130"/>
+        <filter val="131"/>
+        <filter val="132"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
@@ -5432,22 +5593,6 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC473BFD-3596-467A-95FC-863BA1A69A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BD8C0-2D51-4A52-99C5-BE3623C6D014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$165</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -599,6 +605,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,9 +636,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,19 +948,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -975,12 +981,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -997,10 +1003,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1017,10 +1023,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1035,10 +1041,10 @@
         <v>34</v>
       </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1055,10 +1061,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1081,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1378,7 +1384,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1530,7 +1536,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1740,7 +1746,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1934,7 +1940,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2145,7 +2151,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2269,7 +2275,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -5418,7 +5424,9 @@
         <f t="shared" ref="D177:D181" si="184">IFERROR(IF(D167,D167+14,""),"")</f>
         <v>45923</v>
       </c>
-      <c r="E177" s="5"/>
+      <c r="E177" s="5">
+        <v>614</v>
+      </c>
       <c r="F177" s="8">
         <f t="shared" ref="F177:G177" si="185">IFERROR(IF(F167,F167+14,""),"")</f>
         <v>45929</v>
@@ -5445,7 +5453,9 @@
         <f t="shared" si="184"/>
         <v>45923</v>
       </c>
-      <c r="E178" s="5"/>
+      <c r="E178" s="5">
+        <v>3452</v>
+      </c>
       <c r="F178" s="8">
         <f t="shared" ref="F178:G178" si="187">IFERROR(IF(F168,F168+14,""),"")</f>
         <v>45930</v>
@@ -5499,7 +5509,9 @@
         <f t="shared" si="184"/>
         <v>45923</v>
       </c>
-      <c r="E180" s="5"/>
+      <c r="E180" s="5">
+        <v>170</v>
+      </c>
       <c r="F180" s="8" t="str">
         <f t="shared" ref="F180:G180" si="189">IFERROR(IF(F170,F170+14,""),"")</f>
         <v/>
@@ -5560,6 +5572,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
@@ -5576,23 +5605,6 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BD8C0-2D51-4A52-99C5-BE3623C6D014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B982F5C-302E-4AB4-821A-89CE437393BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="55">
   <si>
     <t>Контракт</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>22,09,25 дозаказ на сертификацию 10кг</t>
+  </si>
+  <si>
+    <t>25,09,25 была корректировка</t>
   </si>
 </sst>
 </file>
@@ -603,10 +606,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,12 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,7 +934,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomLeft" activeCell="J184" sqref="J184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,19 +951,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -981,12 +984,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1003,10 +1006,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1023,10 +1026,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1037,14 +1040,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1061,10 +1064,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1084,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1231,7 +1234,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1384,7 +1387,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1536,7 +1539,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1746,7 +1749,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1940,7 +1943,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2151,7 +2154,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2275,7 +2278,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2433,7 +2436,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="38"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2557,7 +2560,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="38"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2741,7 +2744,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="38"/>
+      <c r="H73" s="41"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2869,7 +2872,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
-      <c r="H78" s="38"/>
+      <c r="H78" s="41"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3053,7 +3056,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="38"/>
+      <c r="H85" s="41"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3180,7 +3183,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="38"/>
+      <c r="H90" s="41"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3363,7 +3366,7 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
-      <c r="H97" s="38"/>
+      <c r="H97" s="41"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3488,7 +3491,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
-      <c r="H102" s="38"/>
+      <c r="H102" s="41"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3675,7 +3678,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
-      <c r="H109" s="38"/>
+      <c r="H109" s="41"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3858,7 +3861,7 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
-      <c r="H116" s="38"/>
+      <c r="H116" s="41"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3966,7 +3969,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="38"/>
+      <c r="H121" s="41"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4149,7 +4152,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="38"/>
+      <c r="H128" s="41"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4277,7 +4280,7 @@
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
-      <c r="H133" s="38"/>
+      <c r="H133" s="41"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4465,7 +4468,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
-      <c r="H140" s="38"/>
+      <c r="H140" s="41"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4593,7 +4596,7 @@
       <c r="E145" s="37"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
-      <c r="H145" s="38"/>
+      <c r="H145" s="41"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4781,7 +4784,7 @@
       <c r="E152" s="37"/>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
-      <c r="H152" s="38"/>
+      <c r="H152" s="41"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4880,7 +4883,7 @@
       <c r="E156" s="37"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="38"/>
+      <c r="H156" s="41"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5042,7 +5045,7 @@
       <c r="E162" s="37"/>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
-      <c r="H162" s="38"/>
+      <c r="H162" s="41"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5144,7 +5147,7 @@
       <c r="E166" s="37"/>
       <c r="F166" s="36"/>
       <c r="G166" s="36"/>
-      <c r="H166" s="38"/>
+      <c r="H166" s="41"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5304,7 +5307,7 @@
       <c r="E172" s="37"/>
       <c r="F172" s="36"/>
       <c r="G172" s="36"/>
-      <c r="H172" s="38"/>
+      <c r="H172" s="41"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5406,9 +5409,9 @@
       <c r="E176" s="37"/>
       <c r="F176" s="36"/>
       <c r="G176" s="36"/>
-      <c r="H176" s="38"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="41"/>
+    </row>
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <f t="shared" ref="A177:A180" si="183">MAX(A165:A176)+1</f>
         <v>141</v>
@@ -5425,7 +5428,7 @@
         <v>45923</v>
       </c>
       <c r="E177" s="5">
-        <v>614</v>
+        <v>885</v>
       </c>
       <c r="F177" s="8">
         <f t="shared" ref="F177:G177" si="185">IFERROR(IF(F167,F167+14,""),"")</f>
@@ -5435,7 +5438,9 @@
         <f t="shared" si="185"/>
         <v>45929</v>
       </c>
-      <c r="H177" s="19"/>
+      <c r="H177" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -5559,7 +5564,7 @@
       <c r="E182" s="37"/>
       <c r="F182" s="36"/>
       <c r="G182" s="36"/>
-      <c r="H182" s="38"/>
+      <c r="H182" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H165" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5572,23 +5577,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
@@ -5605,6 +5593,23 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B982F5C-302E-4AB4-821A-89CE437393BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14053DE3-4B6E-455C-9200-E6E020FEE371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,16 +606,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,6 +640,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,7 +934,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J184" sqref="J184"/>
+      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,19 +951,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -984,12 +984,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1006,10 +1006,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1026,10 +1026,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1040,14 +1040,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1064,10 +1064,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1234,7 +1234,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="41"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1387,7 +1387,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1539,7 +1539,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1749,7 +1749,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1943,7 +1943,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2154,7 +2154,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="38"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2278,7 +2278,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2436,7 +2436,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="41"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2560,7 +2560,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="41"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2744,7 +2744,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="41"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2872,7 +2872,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
-      <c r="H78" s="41"/>
+      <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3056,7 +3056,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="41"/>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3183,7 +3183,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="41"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3366,7 +3366,7 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
-      <c r="H97" s="41"/>
+      <c r="H97" s="38"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3491,7 +3491,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
-      <c r="H102" s="41"/>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3678,7 +3678,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
-      <c r="H109" s="41"/>
+      <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3861,7 +3861,7 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
-      <c r="H116" s="41"/>
+      <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3969,7 +3969,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="41"/>
+      <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4152,7 +4152,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="41"/>
+      <c r="H128" s="38"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4280,7 +4280,7 @@
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
-      <c r="H133" s="41"/>
+      <c r="H133" s="38"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4468,7 +4468,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
-      <c r="H140" s="41"/>
+      <c r="H140" s="38"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4596,7 +4596,7 @@
       <c r="E145" s="37"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
-      <c r="H145" s="41"/>
+      <c r="H145" s="38"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4784,7 +4784,7 @@
       <c r="E152" s="37"/>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
-      <c r="H152" s="41"/>
+      <c r="H152" s="38"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4883,7 +4883,7 @@
       <c r="E156" s="37"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="41"/>
+      <c r="H156" s="38"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5045,7 +5045,7 @@
       <c r="E162" s="37"/>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
-      <c r="H162" s="41"/>
+      <c r="H162" s="38"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5147,7 +5147,7 @@
       <c r="E166" s="37"/>
       <c r="F166" s="36"/>
       <c r="G166" s="36"/>
-      <c r="H166" s="41"/>
+      <c r="H166" s="38"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5307,7 +5307,7 @@
       <c r="E172" s="37"/>
       <c r="F172" s="36"/>
       <c r="G172" s="36"/>
-      <c r="H172" s="41"/>
+      <c r="H172" s="38"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5409,7 +5409,7 @@
       <c r="E176" s="37"/>
       <c r="F176" s="36"/>
       <c r="G176" s="36"/>
-      <c r="H176" s="41"/>
+      <c r="H176" s="38"/>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5487,7 +5487,9 @@
         <f t="shared" si="184"/>
         <v>45926</v>
       </c>
-      <c r="E179" s="5"/>
+      <c r="E179" s="5">
+        <v>7270</v>
+      </c>
       <c r="F179" s="8">
         <f t="shared" ref="F179:G179" si="188">IFERROR(IF(F169,F169+14,""),"")</f>
         <v>45931</v>
@@ -5564,7 +5566,7 @@
       <c r="E182" s="37"/>
       <c r="F182" s="36"/>
       <c r="G182" s="36"/>
-      <c r="H182" s="41"/>
+      <c r="H182" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H165" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5577,6 +5579,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
@@ -5593,23 +5612,6 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14053DE3-4B6E-455C-9200-E6E020FEE371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A8E20-1C4E-43BA-8CDB-D8FF8AE38A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$171</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
   <si>
     <t>Контракт</t>
   </si>
@@ -263,6 +263,9 @@
   <si>
     <t>25,09,25 была корректировка</t>
   </si>
+  <si>
+    <t>29,09,25 корректировка</t>
+  </si>
 </sst>
 </file>
 
@@ -271,12 +274,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -503,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +523,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -521,16 +532,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,37 +556,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,10 +601,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -606,46 +617,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,11 +944,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
+      <selection pane="bottomLeft" activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -984,12 +998,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1006,10 +1020,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1026,10 +1040,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1040,14 +1054,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1064,10 +1078,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1098,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1234,7 +1248,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1387,7 +1401,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1539,7 +1553,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1749,7 +1763,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1943,7 +1957,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2154,7 +2168,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2278,7 +2292,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2436,7 +2450,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="38"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2560,7 +2574,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="38"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2744,7 +2758,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="38"/>
+      <c r="H73" s="41"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2872,7 +2886,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
-      <c r="H78" s="38"/>
+      <c r="H78" s="41"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3056,7 +3070,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="38"/>
+      <c r="H85" s="41"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3183,7 +3197,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="38"/>
+      <c r="H90" s="41"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3366,7 +3380,7 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
-      <c r="H97" s="38"/>
+      <c r="H97" s="41"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3491,7 +3505,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
-      <c r="H102" s="38"/>
+      <c r="H102" s="41"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3678,7 +3692,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
-      <c r="H109" s="38"/>
+      <c r="H109" s="41"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3861,7 +3875,7 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
-      <c r="H116" s="38"/>
+      <c r="H116" s="41"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3969,7 +3983,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="38"/>
+      <c r="H121" s="41"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4152,7 +4166,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="38"/>
+      <c r="H128" s="41"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4280,7 +4294,7 @@
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
-      <c r="H133" s="38"/>
+      <c r="H133" s="41"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4468,7 +4482,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
-      <c r="H140" s="38"/>
+      <c r="H140" s="41"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4596,7 +4610,7 @@
       <c r="E145" s="37"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
-      <c r="H145" s="38"/>
+      <c r="H145" s="41"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4784,7 +4798,7 @@
       <c r="E152" s="37"/>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
-      <c r="H152" s="38"/>
+      <c r="H152" s="41"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4883,7 +4897,7 @@
       <c r="E156" s="37"/>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
-      <c r="H156" s="38"/>
+      <c r="H156" s="41"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5045,9 +5059,9 @@
       <c r="E162" s="37"/>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
-      <c r="H162" s="38"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="41"/>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <f t="shared" ref="A163:A165" si="161">MAX(A151:A162)+1</f>
         <v>130</v>
@@ -5078,7 +5092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <f t="shared" si="161"/>
         <v>131</v>
@@ -5110,7 +5124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <f t="shared" si="161"/>
         <v>132</v>
@@ -5139,15 +5153,17 @@
       </c>
       <c r="H165" s="15"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
       <c r="D166" s="36"/>
       <c r="E166" s="37"/>
       <c r="F166" s="36"/>
       <c r="G166" s="36"/>
-      <c r="H166" s="38"/>
+      <c r="H166" s="41"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5307,7 +5323,7 @@
       <c r="E172" s="37"/>
       <c r="F172" s="36"/>
       <c r="G172" s="36"/>
-      <c r="H172" s="38"/>
+      <c r="H172" s="41"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5409,7 +5425,7 @@
       <c r="E176" s="37"/>
       <c r="F176" s="36"/>
       <c r="G176" s="36"/>
-      <c r="H176" s="38"/>
+      <c r="H176" s="41"/>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5531,7 +5547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <f>MAX(A170:A180)+1</f>
         <v>145</v>
@@ -5547,7 +5563,9 @@
         <f t="shared" si="184"/>
         <v>45926</v>
       </c>
-      <c r="E181" s="5"/>
+      <c r="E181" s="5">
+        <v>1572</v>
+      </c>
       <c r="F181" s="8">
         <f t="shared" ref="F181:G181" si="190">IFERROR(IF(F171,F171+14,""),"")</f>
         <v>45936</v>
@@ -5556,7 +5574,9 @@
         <f t="shared" si="190"/>
         <v>45936</v>
       </c>
-      <c r="H181" s="34"/>
+      <c r="H181" s="52" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
@@ -5566,36 +5586,115 @@
       <c r="E182" s="37"/>
       <c r="F182" s="36"/>
       <c r="G182" s="36"/>
-      <c r="H182" s="38"/>
+      <c r="H182" s="41"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <f t="shared" ref="A183:A185" si="191">MAX(A171:A182)+1</f>
+        <v>146</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="8">
+        <f>IFERROR(IF(C173,C173+14,""),"")</f>
+        <v>45929</v>
+      </c>
+      <c r="D183" s="8">
+        <f t="shared" ref="D183" si="192">IFERROR(IF(D173,D173+14,""),"")</f>
+        <v>45930</v>
+      </c>
+      <c r="E183" s="5"/>
+      <c r="F183" s="8" t="str">
+        <f t="shared" ref="F183:G183" si="193">IFERROR(IF(F173,F173+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G183" s="8" t="str">
+        <f t="shared" si="193"/>
+        <v/>
+      </c>
+      <c r="H183" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <f t="shared" si="191"/>
+        <v>147</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="8">
+        <f t="shared" ref="C184:D184" si="194">IFERROR(IF(C174,C174+14,""),"")</f>
+        <v>45929</v>
+      </c>
+      <c r="D184" s="8">
+        <f t="shared" si="194"/>
+        <v>45930</v>
+      </c>
+      <c r="E184" s="5"/>
+      <c r="F184" s="8">
+        <f t="shared" ref="F184:G184" si="195">IFERROR(IF(F174,F174+14,""),"")</f>
+        <v>45937</v>
+      </c>
+      <c r="G184" s="8">
+        <f t="shared" si="195"/>
+        <v>45937</v>
+      </c>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <f t="shared" si="191"/>
+        <v>148</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="8">
+        <f t="shared" ref="C185:D185" si="196">IFERROR(IF(C175,C175+14,""),"")</f>
+        <v>45932</v>
+      </c>
+      <c r="D185" s="8">
+        <f t="shared" si="196"/>
+        <v>45933</v>
+      </c>
+      <c r="E185" s="5"/>
+      <c r="F185" s="8">
+        <f t="shared" ref="F185:G185" si="197">IFERROR(IF(F175,F175+14,""),"")</f>
+        <v>45938</v>
+      </c>
+      <c r="G185" s="8">
+        <f t="shared" si="197"/>
+        <v>45939</v>
+      </c>
+      <c r="H185" s="15"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="35"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="37"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="36"/>
+      <c r="H186" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H165" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H171" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="130"/>
-        <filter val="131"/>
-        <filter val="132"/>
+        <filter val="133"/>
+        <filter val="134"/>
+        <filter val="135"/>
+        <filter val="136"/>
+        <filter val="137"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="33">
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
+  <mergeCells count="34">
+    <mergeCell ref="A186:H186"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
@@ -5612,6 +5711,23 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A8E20-1C4E-43BA-8CDB-D8FF8AE38A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525A50B-EB82-412A-BD7D-4024D2DBBF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,6 +607,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,16 +620,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,8 +655,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,7 +948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F188" sqref="F188"/>
+      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -998,12 +998,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1020,10 +1020,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1040,10 +1040,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1054,14 +1054,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1239,16 +1239,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1392,16 +1392,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1544,16 +1544,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1754,16 +1754,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1948,16 +1948,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2159,16 +2159,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="38"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2283,16 +2283,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="38"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2441,16 +2441,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="41"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2565,16 +2565,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="41"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2749,16 +2749,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="41"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2877,16 +2877,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="41"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3061,16 +3061,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="41"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3188,16 +3188,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="41"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3371,16 +3371,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="41"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3496,16 +3496,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="41"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3683,16 +3683,16 @@
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="41"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3866,16 +3866,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="41"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3974,16 +3974,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="41"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4157,16 +4157,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="41"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4285,16 +4285,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="35" t="s">
+      <c r="A133" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="41"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4473,16 +4473,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="35" t="s">
+      <c r="A140" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="41"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4601,16 +4601,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="41"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4789,16 +4789,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="35" t="s">
+      <c r="A152" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="41"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4888,16 +4888,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35" t="s">
+      <c r="A156" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="36"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="41"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="38"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5050,16 +5050,16 @@
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="35" t="s">
+      <c r="A162" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="36"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="41"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="39"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5154,16 +5154,16 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="35" t="s">
+      <c r="A166" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="36"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="37"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="41"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="39"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5316,14 +5316,14 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="36"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="41"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="38"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5418,14 +5418,14 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="35"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="36"/>
-      <c r="H176" s="41"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="39"/>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5574,19 +5574,19 @@
         <f t="shared" si="190"/>
         <v>45936</v>
       </c>
-      <c r="H181" s="52" t="s">
+      <c r="H181" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="36"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="36"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="41"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="37"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="39"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5633,7 +5633,9 @@
         <f t="shared" si="194"/>
         <v>45930</v>
       </c>
-      <c r="E184" s="5"/>
+      <c r="E184" s="5">
+        <v>3226</v>
+      </c>
       <c r="F184" s="8">
         <f t="shared" ref="F184:G184" si="195">IFERROR(IF(F174,F174+14,""),"")</f>
         <v>45937</v>
@@ -5672,14 +5674,14 @@
       <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="41"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="37"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="38"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H171" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5694,6 +5696,24 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
@@ -5710,24 +5730,6 @@
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525A50B-EB82-412A-BD7D-4024D2DBBF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98415EE6-BD4C-462C-A906-BE475D630B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,10 +620,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,12 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -998,12 +998,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1020,10 +1020,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1040,10 +1040,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1054,14 +1054,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1248,7 +1248,7 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1401,7 +1401,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="40"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1553,7 +1553,7 @@
       <c r="E26" s="38"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1763,7 +1763,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="40"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1957,7 +1957,7 @@
       <c r="E41" s="38"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="40"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2168,7 +2168,7 @@
       <c r="E49" s="38"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
-      <c r="H49" s="40"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2292,7 +2292,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="40"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2450,7 +2450,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2574,7 +2574,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2758,7 +2758,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="42"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2886,7 +2886,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="42"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3070,7 +3070,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
-      <c r="H85" s="39"/>
+      <c r="H85" s="42"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3197,7 +3197,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
-      <c r="H90" s="39"/>
+      <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3380,7 +3380,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
-      <c r="H97" s="39"/>
+      <c r="H97" s="42"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3505,7 +3505,7 @@
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
-      <c r="H102" s="39"/>
+      <c r="H102" s="42"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3692,7 +3692,7 @@
       <c r="E109" s="37"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
-      <c r="H109" s="39"/>
+      <c r="H109" s="42"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3875,7 +3875,7 @@
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
-      <c r="H116" s="39"/>
+      <c r="H116" s="42"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3983,7 +3983,7 @@
       <c r="E121" s="37"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="42"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4166,7 +4166,7 @@
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
-      <c r="H128" s="39"/>
+      <c r="H128" s="42"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4294,7 +4294,7 @@
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
-      <c r="H133" s="39"/>
+      <c r="H133" s="42"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4482,7 +4482,7 @@
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
-      <c r="H140" s="39"/>
+      <c r="H140" s="42"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4610,7 +4610,7 @@
       <c r="E145" s="38"/>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
-      <c r="H145" s="39"/>
+      <c r="H145" s="42"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4798,7 +4798,7 @@
       <c r="E152" s="38"/>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
-      <c r="H152" s="39"/>
+      <c r="H152" s="42"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4897,7 +4897,7 @@
       <c r="E156" s="38"/>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
-      <c r="H156" s="39"/>
+      <c r="H156" s="42"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5059,7 +5059,7 @@
       <c r="E162" s="38"/>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
-      <c r="H162" s="39"/>
+      <c r="H162" s="42"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5163,7 +5163,7 @@
       <c r="E166" s="38"/>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
-      <c r="H166" s="39"/>
+      <c r="H166" s="42"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5323,7 +5323,7 @@
       <c r="E172" s="38"/>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
-      <c r="H172" s="39"/>
+      <c r="H172" s="42"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5425,7 +5425,7 @@
       <c r="E176" s="38"/>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
-      <c r="H176" s="39"/>
+      <c r="H176" s="42"/>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5586,7 +5586,7 @@
       <c r="E182" s="38"/>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
-      <c r="H182" s="39"/>
+      <c r="H182" s="42"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5604,7 +5604,9 @@
         <f t="shared" ref="D183" si="192">IFERROR(IF(D173,D173+14,""),"")</f>
         <v>45930</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="5">
+        <v>639</v>
+      </c>
       <c r="F183" s="8" t="str">
         <f t="shared" ref="F183:G183" si="193">IFERROR(IF(F173,F173+14,""),"")</f>
         <v/>
@@ -5681,7 +5683,7 @@
       <c r="E186" s="38"/>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
-      <c r="H186" s="39"/>
+      <c r="H186" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H171" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5696,24 +5698,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
@@ -5730,6 +5714,24 @@
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98415EE6-BD4C-462C-A906-BE475D630B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187AC9F-774F-4E8B-81C4-19C6AE288680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$175</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="56">
   <si>
     <t>Контракт</t>
   </si>
@@ -620,16 +620,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,6 +654,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,11 +944,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -998,12 +998,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1020,10 +1020,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1040,10 +1040,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1054,14 +1054,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1248,7 +1248,7 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="42"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1401,7 +1401,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1553,7 +1553,7 @@
       <c r="E26" s="38"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1763,7 +1763,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1957,7 +1957,7 @@
       <c r="E41" s="38"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2168,7 +2168,7 @@
       <c r="E49" s="38"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2292,7 +2292,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2450,7 +2450,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
-      <c r="H61" s="42"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2574,7 +2574,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
-      <c r="H66" s="42"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2758,7 +2758,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
-      <c r="H73" s="42"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2886,7 +2886,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
-      <c r="H78" s="42"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3070,7 +3070,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
-      <c r="H85" s="42"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3197,7 +3197,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
-      <c r="H90" s="42"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3380,7 +3380,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
-      <c r="H97" s="42"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3505,7 +3505,7 @@
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
-      <c r="H102" s="42"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3692,7 +3692,7 @@
       <c r="E109" s="37"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
-      <c r="H109" s="42"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3875,7 +3875,7 @@
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
-      <c r="H116" s="42"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3983,7 +3983,7 @@
       <c r="E121" s="37"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
-      <c r="H121" s="42"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4166,7 +4166,7 @@
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
-      <c r="H128" s="42"/>
+      <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4294,7 +4294,7 @@
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
-      <c r="H133" s="42"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4482,7 +4482,7 @@
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
-      <c r="H140" s="42"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4610,7 +4610,7 @@
       <c r="E145" s="38"/>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
-      <c r="H145" s="42"/>
+      <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4798,7 +4798,7 @@
       <c r="E152" s="38"/>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
-      <c r="H152" s="42"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4897,7 +4897,7 @@
       <c r="E156" s="38"/>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
-      <c r="H156" s="42"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5059,7 +5059,7 @@
       <c r="E162" s="38"/>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
-      <c r="H162" s="42"/>
+      <c r="H162" s="39"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5163,9 +5163,9 @@
       <c r="E166" s="38"/>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
-      <c r="H166" s="42"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="39"/>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <f t="shared" ref="A167:A170" si="165">MAX(A155:A166)+1</f>
         <v>133</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="H167" s="19"/>
     </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <f t="shared" si="165"/>
         <v>134</v>
@@ -5226,7 +5226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <f t="shared" si="165"/>
         <v>135</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="H169" s="15"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <f t="shared" si="165"/>
         <v>136</v>
@@ -5284,7 +5284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <f>MAX(A160:A170)+1</f>
         <v>137</v>
@@ -5315,15 +5315,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="B172" s="37"/>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
       <c r="E172" s="38"/>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
-      <c r="H172" s="42"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5425,7 +5427,7 @@
       <c r="E176" s="38"/>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
-      <c r="H176" s="42"/>
+      <c r="H176" s="39"/>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5586,7 +5588,7 @@
       <c r="E182" s="38"/>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
-      <c r="H182" s="42"/>
+      <c r="H182" s="39"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5664,7 +5666,9 @@
         <f t="shared" si="196"/>
         <v>45933</v>
       </c>
-      <c r="E185" s="5"/>
+      <c r="E185" s="5">
+        <v>8325</v>
+      </c>
       <c r="F185" s="8">
         <f t="shared" ref="F185:G185" si="197">IFERROR(IF(F175,F175+14,""),"")</f>
         <v>45938</v>
@@ -5683,21 +5687,185 @@
       <c r="E186" s="38"/>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
-      <c r="H186" s="42"/>
+      <c r="H186" s="39"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <f t="shared" ref="A187:A190" si="198">MAX(A175:A186)+1</f>
+        <v>149</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="8">
+        <f>IFERROR(IF(C177,C177+14,""),"")</f>
+        <v>45936</v>
+      </c>
+      <c r="D187" s="8">
+        <f t="shared" ref="D187:D191" si="199">IFERROR(IF(D177,D177+14,""),"")</f>
+        <v>45937</v>
+      </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="8">
+        <f t="shared" ref="F187:G187" si="200">IFERROR(IF(F177,F177+14,""),"")</f>
+        <v>45943</v>
+      </c>
+      <c r="G187" s="8">
+        <f t="shared" si="200"/>
+        <v>45943</v>
+      </c>
+      <c r="H187" s="23"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <f t="shared" si="198"/>
+        <v>150</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="8">
+        <f t="shared" ref="C188:C191" si="201">IFERROR(IF(C178,C178+14,""),"")</f>
+        <v>45936</v>
+      </c>
+      <c r="D188" s="8">
+        <f t="shared" si="199"/>
+        <v>45937</v>
+      </c>
+      <c r="E188" s="5"/>
+      <c r="F188" s="8">
+        <f t="shared" ref="F188:G188" si="202">IFERROR(IF(F178,F178+14,""),"")</f>
+        <v>45944</v>
+      </c>
+      <c r="G188" s="8">
+        <f t="shared" si="202"/>
+        <v>45944</v>
+      </c>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <f t="shared" si="198"/>
+        <v>151</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="8">
+        <f t="shared" si="201"/>
+        <v>45939</v>
+      </c>
+      <c r="D189" s="8">
+        <f t="shared" si="199"/>
+        <v>45940</v>
+      </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="8">
+        <f t="shared" ref="F189:G189" si="203">IFERROR(IF(F179,F179+14,""),"")</f>
+        <v>45945</v>
+      </c>
+      <c r="G189" s="8">
+        <f t="shared" si="203"/>
+        <v>45946</v>
+      </c>
+      <c r="H189" s="15"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <f t="shared" si="198"/>
+        <v>152</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="8">
+        <f t="shared" si="201"/>
+        <v>45936</v>
+      </c>
+      <c r="D190" s="8">
+        <f t="shared" si="199"/>
+        <v>45937</v>
+      </c>
+      <c r="E190" s="5"/>
+      <c r="F190" s="8" t="str">
+        <f t="shared" ref="F190:G190" si="204">IFERROR(IF(F180,F180+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G190" s="8" t="str">
+        <f t="shared" si="204"/>
+        <v/>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <f>MAX(A180:A190)+1</f>
+        <v>153</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="8">
+        <f t="shared" si="201"/>
+        <v>45939</v>
+      </c>
+      <c r="D191" s="8">
+        <f t="shared" si="199"/>
+        <v>45940</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="8">
+        <f t="shared" ref="F191:G191" si="205">IFERROR(IF(F181,F181+14,""),"")</f>
+        <v>45950</v>
+      </c>
+      <c r="G191" s="8">
+        <f t="shared" si="205"/>
+        <v>45950</v>
+      </c>
+      <c r="H191" s="35"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="36"/>
+      <c r="B192" s="37"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H171" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H175" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="133"/>
-        <filter val="134"/>
-        <filter val="135"/>
-        <filter val="136"/>
-        <filter val="137"/>
+        <filter val="138"/>
+        <filter val="139"/>
+        <filter val="140"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
@@ -5714,24 +5882,6 @@
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187AC9F-774F-4E8B-81C4-19C6AE288680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF01C98-000A-4BD7-9B33-40CD08AAEDC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,6 +625,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,12 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,7 +948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
+      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -998,12 +998,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1020,10 +1020,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1040,10 +1040,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1054,14 +1054,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -5705,7 +5705,9 @@
         <f t="shared" ref="D187:D191" si="199">IFERROR(IF(D177,D177+14,""),"")</f>
         <v>45937</v>
       </c>
-      <c r="E187" s="5"/>
+      <c r="E187" s="5">
+        <v>702</v>
+      </c>
       <c r="F187" s="8">
         <f t="shared" ref="F187:G187" si="200">IFERROR(IF(F177,F177+14,""),"")</f>
         <v>45943</v>
@@ -5732,7 +5734,9 @@
         <f t="shared" si="199"/>
         <v>45937</v>
       </c>
-      <c r="E188" s="5"/>
+      <c r="E188" s="5">
+        <v>4926</v>
+      </c>
       <c r="F188" s="8">
         <f t="shared" ref="F188:G188" si="202">IFERROR(IF(F178,F178+14,""),"")</f>
         <v>45944</v>
@@ -5847,27 +5851,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A34:H34"/>
@@ -5882,6 +5865,27 @@
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF01C98-000A-4BD7-9B33-40CD08AAEDC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D939EA0C-AAE4-4C9D-B84C-217A56AB1019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,12 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,6 +654,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,7 +948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
+      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -998,12 +998,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1020,10 +1020,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1040,10 +1040,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1054,14 +1054,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -5790,7 +5790,9 @@
         <f t="shared" si="199"/>
         <v>45937</v>
       </c>
-      <c r="E190" s="5"/>
+      <c r="E190" s="5">
+        <v>522</v>
+      </c>
       <c r="F190" s="8" t="str">
         <f t="shared" ref="F190:G190" si="204">IFERROR(IF(F180,F180+14,""),"")</f>
         <v/>
@@ -5851,25 +5853,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
@@ -5886,6 +5869,25 @@
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D939EA0C-AAE4-4C9D-B84C-217A56AB1019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEA1EDC-0706-45A1-87C1-77D608D97C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="57">
   <si>
     <t>Контракт</t>
   </si>
@@ -266,6 +266,9 @@
   <si>
     <t>29,09,25 корректировка</t>
   </si>
+  <si>
+    <t>13,10,25 будет корректировка</t>
+  </si>
 </sst>
 </file>
 
@@ -274,12 +277,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -523,7 +534,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -532,16 +543,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -556,37 +567,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,13 +612,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,41 +636,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,7 +962,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
+      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,19 +979,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -998,12 +1012,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1020,10 +1034,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1040,10 +1054,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1054,14 +1068,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1078,10 +1092,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1112,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -5763,7 +5777,9 @@
         <f t="shared" si="199"/>
         <v>45940</v>
       </c>
-      <c r="E189" s="5"/>
+      <c r="E189" s="5">
+        <v>7490</v>
+      </c>
       <c r="F189" s="8">
         <f t="shared" ref="F189:G189" si="203">IFERROR(IF(F179,F179+14,""),"")</f>
         <v>45945</v>
@@ -5805,7 +5821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <f>MAX(A180:A190)+1</f>
         <v>153</v>
@@ -5821,7 +5837,9 @@
         <f t="shared" si="199"/>
         <v>45940</v>
       </c>
-      <c r="E191" s="5"/>
+      <c r="E191" s="5">
+        <v>1010</v>
+      </c>
       <c r="F191" s="8">
         <f t="shared" ref="F191:G191" si="205">IFERROR(IF(F181,F181+14,""),"")</f>
         <v>45950</v>
@@ -5830,7 +5848,9 @@
         <f t="shared" si="205"/>
         <v>45950</v>
       </c>
-      <c r="H191" s="35"/>
+      <c r="H191" s="53" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="36"/>
@@ -5853,6 +5873,25 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="35">
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
@@ -5869,25 +5908,6 @@
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEA1EDC-0706-45A1-87C1-77D608D97C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C734A5-B15E-44FF-B19E-1C56F9FCF427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$181</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="57">
   <si>
     <t>Контракт</t>
   </si>
@@ -267,7 +267,7 @@
     <t>29,09,25 корректировка</t>
   </si>
   <si>
-    <t>13,10,25 будет корректировка</t>
+    <t>13,10,25 корректировка</t>
   </si>
 </sst>
 </file>
@@ -958,11 +958,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
+      <selection pane="bottomLeft" activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5341,7 +5341,7 @@
       <c r="G172" s="37"/>
       <c r="H172" s="39"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <f t="shared" ref="A173:A175" si="176">MAX(A161:A172)+1</f>
         <v>138</v>
@@ -5372,7 +5372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <f t="shared" si="176"/>
         <v>139</v>
@@ -5404,7 +5404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <f t="shared" si="176"/>
         <v>140</v>
@@ -5433,8 +5433,10 @@
       </c>
       <c r="H175" s="15"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="B176" s="37"/>
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
@@ -5838,7 +5840,7 @@
         <v>45940</v>
       </c>
       <c r="E191" s="5">
-        <v>1010</v>
+        <v>1206</v>
       </c>
       <c r="F191" s="8">
         <f t="shared" ref="F191:G191" si="205">IFERROR(IF(F181,F181+14,""),"")</f>
@@ -5862,17 +5864,122 @@
       <c r="G192" s="37"/>
       <c r="H192" s="39"/>
     </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <f t="shared" ref="A193:A195" si="206">MAX(A181:A192)+1</f>
+        <v>154</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="8">
+        <f>IFERROR(IF(C183,C183+14,""),"")</f>
+        <v>45943</v>
+      </c>
+      <c r="D193" s="8">
+        <f t="shared" ref="D193" si="207">IFERROR(IF(D183,D183+14,""),"")</f>
+        <v>45944</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="8" t="str">
+        <f t="shared" ref="F193:G193" si="208">IFERROR(IF(F183,F183+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G193" s="8" t="str">
+        <f t="shared" si="208"/>
+        <v/>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <f t="shared" si="206"/>
+        <v>155</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="8">
+        <f t="shared" ref="C194:D194" si="209">IFERROR(IF(C184,C184+14,""),"")</f>
+        <v>45943</v>
+      </c>
+      <c r="D194" s="8">
+        <f t="shared" si="209"/>
+        <v>45944</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="8">
+        <f t="shared" ref="F194:G194" si="210">IFERROR(IF(F184,F184+14,""),"")</f>
+        <v>45951</v>
+      </c>
+      <c r="G194" s="8">
+        <f t="shared" si="210"/>
+        <v>45951</v>
+      </c>
+      <c r="H194" s="15"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <f t="shared" si="206"/>
+        <v>156</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="8">
+        <f t="shared" ref="C195:D195" si="211">IFERROR(IF(C185,C185+14,""),"")</f>
+        <v>45946</v>
+      </c>
+      <c r="D195" s="8">
+        <f t="shared" si="211"/>
+        <v>45947</v>
+      </c>
+      <c r="E195" s="5"/>
+      <c r="F195" s="8">
+        <f t="shared" ref="F195:G195" si="212">IFERROR(IF(F185,F185+14,""),"")</f>
+        <v>45952</v>
+      </c>
+      <c r="G195" s="8">
+        <f t="shared" si="212"/>
+        <v>45953</v>
+      </c>
+      <c r="H195" s="15"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="36"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="38"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="39"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H175" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H181" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="138"/>
-        <filter val="139"/>
-        <filter val="140"/>
+        <filter val="141"/>
+        <filter val="142"/>
+        <filter val="143"/>
+        <filter val="144"/>
+        <filter val="145"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A34:H34"/>
@@ -5883,15 +5990,7 @@
     <mergeCell ref="A133:H133"/>
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
@@ -5907,7 +6006,6 @@
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C734A5-B15E-44FF-B19E-1C56F9FCF427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFFFD3-E4DF-4E8B-B76A-D97A03AA11A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,6 +621,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,15 +634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,8 +666,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,7 +962,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F200" sqref="F200"/>
+      <selection pane="bottomLeft" activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,19 +979,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1012,12 +1012,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1034,10 +1034,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1054,10 +1054,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1068,14 +1068,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="51"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1092,10 +1092,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1253,16 +1253,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1406,16 +1406,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="40"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1558,16 +1558,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1768,16 +1768,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1962,16 +1962,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2173,16 +2173,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="40"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2297,16 +2297,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="40"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2455,16 +2455,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="39"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2579,16 +2579,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="39"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2763,16 +2763,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="39"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="40"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2891,16 +2891,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="39"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="40"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3075,16 +3075,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="39"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3202,16 +3202,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="39"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="40"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3385,16 +3385,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
+      <c r="A97" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="39"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="40"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3510,16 +3510,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="39"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="40"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3697,16 +3697,16 @@
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="39"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="40"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3880,16 +3880,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36" t="s">
+      <c r="A116" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="39"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="40"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -3988,16 +3988,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
+      <c r="A121" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="39"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="40"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4171,16 +4171,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36" t="s">
+      <c r="A128" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="39"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="40"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4299,16 +4299,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="39"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="40"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4487,16 +4487,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="39"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="40"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4615,16 +4615,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36" t="s">
+      <c r="A145" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="37"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="38"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="39"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="40"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4803,16 +4803,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36" t="s">
+      <c r="A152" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="39"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="40"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4902,16 +4902,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36" t="s">
+      <c r="A156" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="37"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="39"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="38"/>
+      <c r="D156" s="38"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="40"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5064,16 +5064,16 @@
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="36" t="s">
+      <c r="A162" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="38"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="39"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="38"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="38"/>
+      <c r="H162" s="40"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5168,16 +5168,16 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="36" t="s">
+      <c r="A166" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="37"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="38"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="39"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="38"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
+      <c r="H166" s="40"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5330,16 +5330,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="36" t="s">
+      <c r="A172" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="38"/>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="39"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="38"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="38"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="40"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5434,16 +5434,16 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="36" t="s">
+      <c r="A176" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B176" s="37"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="37"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="39"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="40"/>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5597,14 +5597,14 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="36"/>
-      <c r="B182" s="37"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="38"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="37"/>
-      <c r="H182" s="39"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="38"/>
+      <c r="G182" s="38"/>
+      <c r="H182" s="40"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5696,14 +5696,14 @@
       <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="36"/>
-      <c r="B186" s="37"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="37"/>
-      <c r="E186" s="38"/>
-      <c r="F186" s="37"/>
-      <c r="G186" s="37"/>
-      <c r="H186" s="39"/>
+      <c r="A186" s="37"/>
+      <c r="B186" s="38"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="38"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="38"/>
+      <c r="G186" s="38"/>
+      <c r="H186" s="40"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5850,19 +5850,19 @@
         <f t="shared" si="205"/>
         <v>45950</v>
       </c>
-      <c r="H191" s="53" t="s">
+      <c r="H191" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="36"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37"/>
-      <c r="E192" s="38"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="39"/>
+      <c r="A192" s="37"/>
+      <c r="B192" s="38"/>
+      <c r="C192" s="38"/>
+      <c r="D192" s="38"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="40"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -5909,7 +5909,9 @@
         <f t="shared" si="209"/>
         <v>45944</v>
       </c>
-      <c r="E194" s="5"/>
+      <c r="E194" s="5">
+        <v>2795</v>
+      </c>
       <c r="F194" s="8">
         <f t="shared" ref="F194:G194" si="210">IFERROR(IF(F184,F184+14,""),"")</f>
         <v>45951</v>
@@ -5948,14 +5950,14 @@
       <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="36"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="37"/>
-      <c r="E196" s="38"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="39"/>
+      <c r="A196" s="37"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="38"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="38"/>
+      <c r="G196" s="38"/>
+      <c r="H196" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H181" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -5970,26 +5972,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="36">
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A26:H26"/>
@@ -6006,6 +5988,26 @@
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFFFD3-E4DF-4E8B-B76A-D97A03AA11A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15AFD0-4318-498F-9EC6-04CFC1E34ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="58">
   <si>
     <t>Контракт</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>13,10,25 корректировка</t>
+  </si>
+  <si>
+    <t>16,10,25 дозаказали 470кг</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E195" sqref="E195"/>
+      <selection pane="bottomLeft" activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,7 +5883,9 @@
         <f t="shared" ref="D193" si="207">IFERROR(IF(D183,D183+14,""),"")</f>
         <v>45944</v>
       </c>
-      <c r="E193" s="5"/>
+      <c r="E193" s="5">
+        <v>476</v>
+      </c>
       <c r="F193" s="8" t="str">
         <f t="shared" ref="F193:G193" si="208">IFERROR(IF(F183,F183+14,""),"")</f>
         <v/>
@@ -5893,7 +5898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <f t="shared" si="206"/>
         <v>155</v>
@@ -5910,7 +5915,8 @@
         <v>45944</v>
       </c>
       <c r="E194" s="5">
-        <v>2795</v>
+        <f>2795+470</f>
+        <v>3265</v>
       </c>
       <c r="F194" s="8">
         <f t="shared" ref="F194:G194" si="210">IFERROR(IF(F184,F184+14,""),"")</f>
@@ -5920,7 +5926,9 @@
         <f t="shared" si="210"/>
         <v>45951</v>
       </c>
-      <c r="H194" s="15"/>
+      <c r="H194" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
@@ -5938,7 +5946,9 @@
         <f t="shared" si="211"/>
         <v>45947</v>
       </c>
-      <c r="E195" s="5"/>
+      <c r="E195" s="5">
+        <v>6931</v>
+      </c>
       <c r="F195" s="8">
         <f t="shared" ref="F195:G195" si="212">IFERROR(IF(F185,F185+14,""),"")</f>
         <v>45952</v>
@@ -5972,8 +5982,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="36">
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -5981,13 +5994,22 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
@@ -5996,18 +6018,6 @@
     <mergeCell ref="A133:H133"/>
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15AFD0-4318-498F-9EC6-04CFC1E34ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE04743-7855-413A-BB87-1C0A375D686E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$185</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="58">
   <si>
     <t>Контракт</t>
   </si>
@@ -633,10 +633,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,15 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,11 +961,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K198" sqref="K198"/>
+      <selection pane="bottomLeft" activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,19 +982,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1015,12 +1015,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1037,10 +1037,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1057,10 +1057,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1071,14 +1071,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1095,10 +1095,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1265,7 +1265,7 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="40"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1415,10 +1415,10 @@
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1567,10 +1567,10 @@
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1777,10 +1777,10 @@
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1971,10 +1971,10 @@
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2182,10 +2182,10 @@
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="51"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2306,10 +2306,10 @@
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
-      <c r="H54" s="51"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2467,7 +2467,7 @@
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
-      <c r="H61" s="40"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2591,7 +2591,7 @@
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
-      <c r="H66" s="40"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2775,7 +2775,7 @@
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
-      <c r="H73" s="40"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2903,7 +2903,7 @@
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
-      <c r="H78" s="40"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3087,7 +3087,7 @@
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
-      <c r="H85" s="40"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3214,7 +3214,7 @@
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
-      <c r="H90" s="40"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3397,7 +3397,7 @@
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
-      <c r="H97" s="40"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3522,7 +3522,7 @@
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
-      <c r="H102" s="40"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3709,7 +3709,7 @@
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
-      <c r="H109" s="40"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3892,7 +3892,7 @@
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
-      <c r="H116" s="40"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4000,7 +4000,7 @@
       <c r="E121" s="38"/>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
-      <c r="H121" s="40"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4183,7 +4183,7 @@
       <c r="E128" s="38"/>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
-      <c r="H128" s="40"/>
+      <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4311,7 +4311,7 @@
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
-      <c r="H133" s="40"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4499,7 +4499,7 @@
       <c r="E140" s="38"/>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
-      <c r="H140" s="40"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4624,10 +4624,10 @@
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
-      <c r="E145" s="39"/>
+      <c r="E145" s="40"/>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
-      <c r="H145" s="40"/>
+      <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4812,10 +4812,10 @@
       <c r="B152" s="38"/>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
-      <c r="E152" s="39"/>
+      <c r="E152" s="40"/>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
-      <c r="H152" s="40"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4911,10 +4911,10 @@
       <c r="B156" s="38"/>
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
-      <c r="E156" s="39"/>
+      <c r="E156" s="40"/>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
-      <c r="H156" s="40"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5073,10 +5073,10 @@
       <c r="B162" s="38"/>
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
-      <c r="E162" s="39"/>
+      <c r="E162" s="40"/>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
-      <c r="H162" s="40"/>
+      <c r="H162" s="39"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5177,10 +5177,10 @@
       <c r="B166" s="38"/>
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
-      <c r="E166" s="39"/>
+      <c r="E166" s="40"/>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
-      <c r="H166" s="40"/>
+      <c r="H166" s="39"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5339,10 +5339,10 @@
       <c r="B172" s="38"/>
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
-      <c r="E172" s="39"/>
+      <c r="E172" s="40"/>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
-      <c r="H172" s="40"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5443,12 +5443,12 @@
       <c r="B176" s="38"/>
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
-      <c r="E176" s="39"/>
+      <c r="E176" s="40"/>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
-      <c r="H176" s="40"/>
-    </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H176" s="39"/>
+    </row>
+    <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <f t="shared" ref="A177:A180" si="183">MAX(A165:A176)+1</f>
         <v>141</v>
@@ -5479,7 +5479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <f t="shared" si="183"/>
         <v>142</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="H178" s="15"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <f t="shared" si="183"/>
         <v>143</v>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="H179" s="15"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <f t="shared" si="183"/>
         <v>144</v>
@@ -5568,7 +5568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <f>MAX(A170:A180)+1</f>
         <v>145</v>
@@ -5599,15 +5599,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="37"/>
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="B182" s="38"/>
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
-      <c r="E182" s="39"/>
+      <c r="E182" s="40"/>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
-      <c r="H182" s="40"/>
+      <c r="H182" s="39"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5703,10 +5705,10 @@
       <c r="B186" s="38"/>
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
-      <c r="E186" s="39"/>
+      <c r="E186" s="40"/>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
-      <c r="H186" s="40"/>
+      <c r="H186" s="39"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5862,10 +5864,10 @@
       <c r="B192" s="38"/>
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
-      <c r="E192" s="39"/>
+      <c r="E192" s="40"/>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
-      <c r="H192" s="40"/>
+      <c r="H192" s="39"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -5964,29 +5966,189 @@
       <c r="B196" s="38"/>
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
-      <c r="E196" s="39"/>
+      <c r="E196" s="40"/>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
-      <c r="H196" s="40"/>
+      <c r="H196" s="39"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <f t="shared" ref="A197:A200" si="213">MAX(A185:A196)+1</f>
+        <v>157</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="8">
+        <f>IFERROR(IF(C187,C187+14,""),"")</f>
+        <v>45950</v>
+      </c>
+      <c r="D197" s="8">
+        <f t="shared" ref="D197:D201" si="214">IFERROR(IF(D187,D187+14,""),"")</f>
+        <v>45951</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="8">
+        <f t="shared" ref="F197:G197" si="215">IFERROR(IF(F187,F187+14,""),"")</f>
+        <v>45957</v>
+      </c>
+      <c r="G197" s="8">
+        <f t="shared" si="215"/>
+        <v>45957</v>
+      </c>
+      <c r="H197" s="23"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <f t="shared" si="213"/>
+        <v>158</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="8">
+        <f t="shared" ref="C198:C201" si="216">IFERROR(IF(C188,C188+14,""),"")</f>
+        <v>45950</v>
+      </c>
+      <c r="D198" s="8">
+        <f t="shared" si="214"/>
+        <v>45951</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="8">
+        <f t="shared" ref="F198:G198" si="217">IFERROR(IF(F188,F188+14,""),"")</f>
+        <v>45958</v>
+      </c>
+      <c r="G198" s="8">
+        <f t="shared" si="217"/>
+        <v>45958</v>
+      </c>
+      <c r="H198" s="15"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <f t="shared" si="213"/>
+        <v>159</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="8">
+        <f t="shared" si="216"/>
+        <v>45953</v>
+      </c>
+      <c r="D199" s="8">
+        <f t="shared" si="214"/>
+        <v>45954</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="8">
+        <f t="shared" ref="F199:G199" si="218">IFERROR(IF(F189,F189+14,""),"")</f>
+        <v>45959</v>
+      </c>
+      <c r="G199" s="8">
+        <f t="shared" si="218"/>
+        <v>45960</v>
+      </c>
+      <c r="H199" s="15"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <f t="shared" si="213"/>
+        <v>160</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="8">
+        <f t="shared" si="216"/>
+        <v>45950</v>
+      </c>
+      <c r="D200" s="8">
+        <f t="shared" si="214"/>
+        <v>45951</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="8" t="str">
+        <f t="shared" ref="F200:G200" si="219">IFERROR(IF(F190,F190+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G200" s="8" t="str">
+        <f t="shared" si="219"/>
+        <v/>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <f>MAX(A190:A200)+1</f>
+        <v>161</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" s="8">
+        <f t="shared" si="216"/>
+        <v>45953</v>
+      </c>
+      <c r="D201" s="8">
+        <f t="shared" si="214"/>
+        <v>45954</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="8">
+        <f t="shared" ref="F201:G201" si="220">IFERROR(IF(F191,F191+14,""),"")</f>
+        <v>45964</v>
+      </c>
+      <c r="G201" s="8">
+        <f t="shared" si="220"/>
+        <v>45964</v>
+      </c>
+      <c r="H201" s="36"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="37"/>
+      <c r="B202" s="38"/>
+      <c r="C202" s="38"/>
+      <c r="D202" s="38"/>
+      <c r="E202" s="40"/>
+      <c r="F202" s="38"/>
+      <c r="G202" s="38"/>
+      <c r="H202" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H181" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H185" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="141"/>
-        <filter val="142"/>
-        <filter val="143"/>
-        <filter val="144"/>
-        <filter val="145"/>
+        <filter val="146"/>
+        <filter val="147"/>
+        <filter val="148"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="36">
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
+  <mergeCells count="37">
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -5994,30 +6156,16 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE04743-7855-413A-BB87-1C0A375D686E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40818A8B-5717-47D0-AC64-A0B7A8CC9092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,19 +633,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,6 +668,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +965,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J205" sqref="J205"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,19 +982,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1015,12 +1015,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1037,10 +1037,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1057,10 +1057,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1071,14 +1071,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1095,10 +1095,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1265,7 +1265,7 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1415,10 +1415,10 @@
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="41"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1567,10 +1567,10 @@
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="41"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1777,10 +1777,10 @@
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="41"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1971,10 +1971,10 @@
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="40"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="41"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2182,10 +2182,10 @@
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="41"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2306,10 +2306,10 @@
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="40"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
-      <c r="H54" s="41"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2467,7 +2467,7 @@
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2591,7 +2591,7 @@
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2775,7 +2775,7 @@
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="40"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2903,7 +2903,7 @@
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="40"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3087,7 +3087,7 @@
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
-      <c r="H85" s="39"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3214,7 +3214,7 @@
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
-      <c r="H90" s="39"/>
+      <c r="H90" s="40"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3397,7 +3397,7 @@
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
-      <c r="H97" s="39"/>
+      <c r="H97" s="40"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3522,7 +3522,7 @@
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
-      <c r="H102" s="39"/>
+      <c r="H102" s="40"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3709,7 +3709,7 @@
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
-      <c r="H109" s="39"/>
+      <c r="H109" s="40"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3892,7 +3892,7 @@
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
-      <c r="H116" s="39"/>
+      <c r="H116" s="40"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4000,7 +4000,7 @@
       <c r="E121" s="38"/>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="40"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4183,7 +4183,7 @@
       <c r="E128" s="38"/>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
-      <c r="H128" s="39"/>
+      <c r="H128" s="40"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4311,7 +4311,7 @@
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
-      <c r="H133" s="39"/>
+      <c r="H133" s="40"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4499,7 +4499,7 @@
       <c r="E140" s="38"/>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
-      <c r="H140" s="39"/>
+      <c r="H140" s="40"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4624,10 +4624,10 @@
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
-      <c r="E145" s="40"/>
+      <c r="E145" s="39"/>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
-      <c r="H145" s="39"/>
+      <c r="H145" s="40"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4812,10 +4812,10 @@
       <c r="B152" s="38"/>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
-      <c r="E152" s="40"/>
+      <c r="E152" s="39"/>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
-      <c r="H152" s="39"/>
+      <c r="H152" s="40"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4911,10 +4911,10 @@
       <c r="B156" s="38"/>
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
-      <c r="E156" s="40"/>
+      <c r="E156" s="39"/>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
-      <c r="H156" s="39"/>
+      <c r="H156" s="40"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5073,10 +5073,10 @@
       <c r="B162" s="38"/>
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
-      <c r="E162" s="40"/>
+      <c r="E162" s="39"/>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
-      <c r="H162" s="39"/>
+      <c r="H162" s="40"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5177,10 +5177,10 @@
       <c r="B166" s="38"/>
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
-      <c r="E166" s="40"/>
+      <c r="E166" s="39"/>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
-      <c r="H166" s="39"/>
+      <c r="H166" s="40"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5339,10 +5339,10 @@
       <c r="B172" s="38"/>
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
-      <c r="E172" s="40"/>
+      <c r="E172" s="39"/>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
-      <c r="H172" s="39"/>
+      <c r="H172" s="40"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5443,10 +5443,10 @@
       <c r="B176" s="38"/>
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
-      <c r="E176" s="40"/>
+      <c r="E176" s="39"/>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
-      <c r="H176" s="39"/>
+      <c r="H176" s="40"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5606,10 +5606,10 @@
       <c r="B182" s="38"/>
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
-      <c r="E182" s="40"/>
+      <c r="E182" s="39"/>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
-      <c r="H182" s="39"/>
+      <c r="H182" s="40"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5705,10 +5705,10 @@
       <c r="B186" s="38"/>
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
-      <c r="E186" s="40"/>
+      <c r="E186" s="39"/>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
-      <c r="H186" s="39"/>
+      <c r="H186" s="40"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5864,10 +5864,10 @@
       <c r="B192" s="38"/>
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
-      <c r="E192" s="40"/>
+      <c r="E192" s="39"/>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
-      <c r="H192" s="39"/>
+      <c r="H192" s="40"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -5966,10 +5966,10 @@
       <c r="B196" s="38"/>
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
-      <c r="E196" s="40"/>
+      <c r="E196" s="39"/>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
-      <c r="H196" s="39"/>
+      <c r="H196" s="40"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -5987,7 +5987,9 @@
         <f t="shared" ref="D197:D201" si="214">IFERROR(IF(D187,D187+14,""),"")</f>
         <v>45951</v>
       </c>
-      <c r="E197" s="5"/>
+      <c r="E197" s="5">
+        <v>527</v>
+      </c>
       <c r="F197" s="8">
         <f t="shared" ref="F197:G197" si="215">IFERROR(IF(F187,F187+14,""),"")</f>
         <v>45957</v>
@@ -6014,7 +6016,9 @@
         <f t="shared" si="214"/>
         <v>45951</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="5">
+        <v>2729</v>
+      </c>
       <c r="F198" s="8">
         <f t="shared" ref="F198:G198" si="217">IFERROR(IF(F188,F188+14,""),"")</f>
         <v>45958</v>
@@ -6113,10 +6117,10 @@
       <c r="B202" s="38"/>
       <c r="C202" s="38"/>
       <c r="D202" s="38"/>
-      <c r="E202" s="40"/>
+      <c r="E202" s="39"/>
       <c r="F202" s="38"/>
       <c r="G202" s="38"/>
-      <c r="H202" s="39"/>
+      <c r="H202" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H185" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -6129,6 +6133,27 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="37">
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A202:H202"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
@@ -6137,11 +6162,6 @@
     <mergeCell ref="A133:H133"/>
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A109:H109"/>
@@ -6149,23 +6169,7 @@
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40818A8B-5717-47D0-AC64-A0B7A8CC9092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C607C95A-554B-48ED-95FD-F97D5C650039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$191</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="58">
   <si>
     <t>Контракт</t>
   </si>
@@ -639,6 +639,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,15 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,11 +961,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomLeft" activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,19 +982,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1015,12 +1015,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1037,10 +1037,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1057,10 +1057,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1071,14 +1071,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1095,10 +1095,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1418,7 +1418,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1570,7 +1570,7 @@
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1780,7 +1780,7 @@
       <c r="E34" s="39"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1974,7 +1974,7 @@
       <c r="E41" s="39"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2185,7 +2185,7 @@
       <c r="E49" s="39"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="51"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2309,7 +2309,7 @@
       <c r="E54" s="39"/>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
-      <c r="H54" s="51"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -5611,7 +5611,7 @@
       <c r="G182" s="38"/>
       <c r="H182" s="40"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <f t="shared" ref="A183:A185" si="191">MAX(A171:A182)+1</f>
         <v>146</v>
@@ -5642,7 +5642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <f t="shared" si="191"/>
         <v>147</v>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H184" s="15"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <f t="shared" si="191"/>
         <v>148</v>
@@ -5700,8 +5700,10 @@
       </c>
       <c r="H185" s="15"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="37"/>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="B186" s="38"/>
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
@@ -6122,38 +6124,250 @@
       <c r="G202" s="38"/>
       <c r="H202" s="40"/>
     </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <f t="shared" ref="A203:A205" si="221">MAX(A191:A202)+1</f>
+        <v>162</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="8">
+        <f>IFERROR(IF(C193,C193+14,""),"")</f>
+        <v>45957</v>
+      </c>
+      <c r="D203" s="8">
+        <f t="shared" ref="D203" si="222">IFERROR(IF(D193,D193+14,""),"")</f>
+        <v>45958</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="8" t="str">
+        <f t="shared" ref="F203:G203" si="223">IFERROR(IF(F193,F193+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G203" s="8" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="H203" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <f t="shared" si="221"/>
+        <v>163</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="8">
+        <f t="shared" ref="C204:D204" si="224">IFERROR(IF(C194,C194+14,""),"")</f>
+        <v>45957</v>
+      </c>
+      <c r="D204" s="8">
+        <f t="shared" si="224"/>
+        <v>45958</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="8">
+        <f t="shared" ref="F204:G204" si="225">IFERROR(IF(F194,F194+14,""),"")</f>
+        <v>45965</v>
+      </c>
+      <c r="G204" s="8">
+        <f t="shared" si="225"/>
+        <v>45965</v>
+      </c>
+      <c r="H204" s="15"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <f t="shared" si="221"/>
+        <v>164</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="8">
+        <f t="shared" ref="C205:D205" si="226">IFERROR(IF(C195,C195+14,""),"")</f>
+        <v>45960</v>
+      </c>
+      <c r="D205" s="8">
+        <f t="shared" si="226"/>
+        <v>45961</v>
+      </c>
+      <c r="E205" s="5"/>
+      <c r="F205" s="8">
+        <f t="shared" ref="F205:G205" si="227">IFERROR(IF(F195,F195+14,""),"")</f>
+        <v>45966</v>
+      </c>
+      <c r="G205" s="8">
+        <f t="shared" si="227"/>
+        <v>45967</v>
+      </c>
+      <c r="H205" s="15"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="37"/>
+      <c r="B206" s="38"/>
+      <c r="C206" s="38"/>
+      <c r="D206" s="38"/>
+      <c r="E206" s="39"/>
+      <c r="F206" s="38"/>
+      <c r="G206" s="38"/>
+      <c r="H206" s="40"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <f t="shared" ref="A207:A210" si="228">MAX(A195:A206)+1</f>
+        <v>165</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="8">
+        <f>IFERROR(IF(C197,C197+14,""),"")</f>
+        <v>45964</v>
+      </c>
+      <c r="D207" s="8">
+        <f t="shared" ref="D207:D211" si="229">IFERROR(IF(D197,D197+14,""),"")</f>
+        <v>45965</v>
+      </c>
+      <c r="E207" s="5"/>
+      <c r="F207" s="8">
+        <f t="shared" ref="F207:G207" si="230">IFERROR(IF(F197,F197+14,""),"")</f>
+        <v>45971</v>
+      </c>
+      <c r="G207" s="8">
+        <f t="shared" si="230"/>
+        <v>45971</v>
+      </c>
+      <c r="H207" s="23"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <f t="shared" si="228"/>
+        <v>166</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" s="8">
+        <f t="shared" ref="C208:C211" si="231">IFERROR(IF(C198,C198+14,""),"")</f>
+        <v>45964</v>
+      </c>
+      <c r="D208" s="8">
+        <f t="shared" si="229"/>
+        <v>45965</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="8">
+        <f t="shared" ref="F208:G208" si="232">IFERROR(IF(F198,F198+14,""),"")</f>
+        <v>45972</v>
+      </c>
+      <c r="G208" s="8">
+        <f t="shared" si="232"/>
+        <v>45972</v>
+      </c>
+      <c r="H208" s="15"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <f t="shared" si="228"/>
+        <v>167</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="8">
+        <f t="shared" si="231"/>
+        <v>45967</v>
+      </c>
+      <c r="D209" s="8">
+        <f t="shared" si="229"/>
+        <v>45968</v>
+      </c>
+      <c r="E209" s="5"/>
+      <c r="F209" s="8">
+        <f t="shared" ref="F209:G209" si="233">IFERROR(IF(F199,F199+14,""),"")</f>
+        <v>45973</v>
+      </c>
+      <c r="G209" s="8">
+        <f t="shared" si="233"/>
+        <v>45974</v>
+      </c>
+      <c r="H209" s="15"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <f t="shared" si="228"/>
+        <v>168</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="8">
+        <f t="shared" si="231"/>
+        <v>45964</v>
+      </c>
+      <c r="D210" s="8">
+        <f t="shared" si="229"/>
+        <v>45965</v>
+      </c>
+      <c r="E210" s="5"/>
+      <c r="F210" s="8" t="str">
+        <f t="shared" ref="F210:G210" si="234">IFERROR(IF(F200,F200+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G210" s="8" t="str">
+        <f t="shared" si="234"/>
+        <v/>
+      </c>
+      <c r="H210" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <f>MAX(A200:A210)+1</f>
+        <v>169</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C211" s="8">
+        <f t="shared" si="231"/>
+        <v>45967</v>
+      </c>
+      <c r="D211" s="8">
+        <f t="shared" si="229"/>
+        <v>45968</v>
+      </c>
+      <c r="E211" s="5"/>
+      <c r="F211" s="8">
+        <f t="shared" ref="F211:G211" si="235">IFERROR(IF(F201,F201+14,""),"")</f>
+        <v>45978</v>
+      </c>
+      <c r="G211" s="8">
+        <f t="shared" si="235"/>
+        <v>45978</v>
+      </c>
+      <c r="H211" s="36"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H185" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H191" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="146"/>
-        <filter val="147"/>
-        <filter val="148"/>
+        <filter val="149"/>
+        <filter val="150"/>
+        <filter val="151"/>
+        <filter val="152"/>
+        <filter val="153"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="37">
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
+  <mergeCells count="38">
+    <mergeCell ref="A206:H206"/>
     <mergeCell ref="A202:H202"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
@@ -6170,6 +6384,27 @@
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C607C95A-554B-48ED-95FD-F97D5C650039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DBB246-F824-488A-845D-5750B50F7010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -639,15 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,6 +674,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +976,8 @@
   <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J194" sqref="J194"/>
+      <pane ySplit="8" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M203" sqref="M203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,19 +994,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1015,12 +1027,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1037,10 +1049,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1057,10 +1069,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1071,14 +1083,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1095,10 +1107,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1127,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1418,7 +1430,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="41"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1570,7 +1582,7 @@
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="41"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1780,7 +1792,7 @@
       <c r="E34" s="39"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="41"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1974,7 +1986,7 @@
       <c r="E41" s="39"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="41"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2185,7 +2197,7 @@
       <c r="E49" s="39"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="41"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2309,7 +2321,7 @@
       <c r="E54" s="39"/>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
-      <c r="H54" s="41"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6074,7 +6086,9 @@
         <f t="shared" si="214"/>
         <v>45951</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="5">
+        <v>436</v>
+      </c>
       <c r="F200" s="8" t="str">
         <f t="shared" ref="F200:G200" si="219">IFERROR(IF(F190,F190+14,""),"")</f>
         <v/>
@@ -6099,18 +6113,17 @@
         <f t="shared" si="216"/>
         <v>45953</v>
       </c>
-      <c r="D201" s="8">
-        <f t="shared" si="214"/>
-        <v>45954</v>
-      </c>
-      <c r="E201" s="5"/>
-      <c r="F201" s="8">
-        <f t="shared" ref="F201:G201" si="220">IFERROR(IF(F191,F191+14,""),"")</f>
-        <v>45964</v>
-      </c>
-      <c r="G201" s="8">
-        <f t="shared" si="220"/>
-        <v>45964</v>
+      <c r="D201" s="54">
+        <v>45952</v>
+      </c>
+      <c r="E201" s="55">
+        <v>638</v>
+      </c>
+      <c r="F201" s="54">
+        <v>45956</v>
+      </c>
+      <c r="G201" s="54">
+        <v>45956</v>
       </c>
       <c r="H201" s="36"/>
     </row>
@@ -6126,7 +6139,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <f t="shared" ref="A203:A205" si="221">MAX(A191:A202)+1</f>
+        <f t="shared" ref="A203:A205" si="220">MAX(A191:A202)+1</f>
         <v>162</v>
       </c>
       <c r="B203" s="14" t="s">
@@ -6137,16 +6150,16 @@
         <v>45957</v>
       </c>
       <c r="D203" s="8">
-        <f t="shared" ref="D203" si="222">IFERROR(IF(D193,D193+14,""),"")</f>
+        <f t="shared" ref="D203" si="221">IFERROR(IF(D193,D193+14,""),"")</f>
         <v>45958</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="8" t="str">
-        <f t="shared" ref="F203:G203" si="223">IFERROR(IF(F193,F193+14,""),"")</f>
+        <f t="shared" ref="F203:G203" si="222">IFERROR(IF(F193,F193+14,""),"")</f>
         <v/>
       </c>
       <c r="G203" s="8" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="H203" s="25" t="s">
@@ -6155,54 +6168,54 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>163</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C204" s="8">
-        <f t="shared" ref="C204:D204" si="224">IFERROR(IF(C194,C194+14,""),"")</f>
+        <f t="shared" ref="C204:D204" si="223">IFERROR(IF(C194,C194+14,""),"")</f>
         <v>45957</v>
       </c>
       <c r="D204" s="8">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>45958</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="8">
-        <f t="shared" ref="F204:G204" si="225">IFERROR(IF(F194,F194+14,""),"")</f>
+        <f t="shared" ref="F204:G204" si="224">IFERROR(IF(F194,F194+14,""),"")</f>
         <v>45965</v>
       </c>
       <c r="G204" s="8">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>45965</v>
       </c>
       <c r="H204" s="15"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>164</v>
       </c>
       <c r="B205" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C205" s="8">
-        <f t="shared" ref="C205:D205" si="226">IFERROR(IF(C195,C195+14,""),"")</f>
+        <f t="shared" ref="C205:D205" si="225">IFERROR(IF(C195,C195+14,""),"")</f>
         <v>45960</v>
       </c>
       <c r="D205" s="8">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>45961</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="8">
-        <f t="shared" ref="F205:G205" si="227">IFERROR(IF(F195,F195+14,""),"")</f>
+        <f t="shared" ref="F205:G205" si="226">IFERROR(IF(F195,F195+14,""),"")</f>
         <v>45966</v>
       </c>
       <c r="G205" s="8">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>45967</v>
       </c>
       <c r="H205" s="15"/>
@@ -6219,7 +6232,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <f t="shared" ref="A207:A210" si="228">MAX(A195:A206)+1</f>
+        <f t="shared" ref="A207:A210" si="227">MAX(A195:A206)+1</f>
         <v>165</v>
       </c>
       <c r="B207" s="14" t="s">
@@ -6230,97 +6243,97 @@
         <v>45964</v>
       </c>
       <c r="D207" s="8">
-        <f t="shared" ref="D207:D211" si="229">IFERROR(IF(D197,D197+14,""),"")</f>
+        <f t="shared" ref="D207:D211" si="228">IFERROR(IF(D197,D197+14,""),"")</f>
         <v>45965</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="8">
-        <f t="shared" ref="F207:G207" si="230">IFERROR(IF(F197,F197+14,""),"")</f>
+        <f t="shared" ref="F207:G207" si="229">IFERROR(IF(F197,F197+14,""),"")</f>
         <v>45971</v>
       </c>
       <c r="G207" s="8">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>45971</v>
       </c>
       <c r="H207" s="23"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>166</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="8">
-        <f t="shared" ref="C208:C211" si="231">IFERROR(IF(C198,C198+14,""),"")</f>
+        <f t="shared" ref="C208:C211" si="230">IFERROR(IF(C198,C198+14,""),"")</f>
         <v>45964</v>
       </c>
       <c r="D208" s="8">
-        <f t="shared" si="229"/>
+        <f t="shared" si="228"/>
         <v>45965</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="8">
-        <f t="shared" ref="F208:G208" si="232">IFERROR(IF(F198,F198+14,""),"")</f>
+        <f t="shared" ref="F208:G208" si="231">IFERROR(IF(F198,F198+14,""),"")</f>
         <v>45972</v>
       </c>
       <c r="G208" s="8">
-        <f t="shared" si="232"/>
+        <f t="shared" si="231"/>
         <v>45972</v>
       </c>
       <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>167</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C209" s="8">
-        <f t="shared" si="231"/>
+        <f t="shared" si="230"/>
         <v>45967</v>
       </c>
       <c r="D209" s="8">
-        <f t="shared" si="229"/>
+        <f t="shared" si="228"/>
         <v>45968</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="8">
-        <f t="shared" ref="F209:G209" si="233">IFERROR(IF(F199,F199+14,""),"")</f>
+        <f t="shared" ref="F209:G209" si="232">IFERROR(IF(F199,F199+14,""),"")</f>
         <v>45973</v>
       </c>
       <c r="G209" s="8">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>45974</v>
       </c>
       <c r="H209" s="15"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>168</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C210" s="8">
-        <f t="shared" si="231"/>
+        <f t="shared" si="230"/>
         <v>45964</v>
       </c>
       <c r="D210" s="8">
-        <f t="shared" si="229"/>
+        <f t="shared" si="228"/>
         <v>45965</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="8" t="str">
-        <f t="shared" ref="F210:G210" si="234">IFERROR(IF(F200,F200+14,""),"")</f>
+        <f t="shared" ref="F210:G210" si="233">IFERROR(IF(F200,F200+14,""),"")</f>
         <v/>
       </c>
       <c r="G210" s="8" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v/>
       </c>
       <c r="H210" s="15" t="s">
@@ -6336,20 +6349,17 @@
         <v>26</v>
       </c>
       <c r="C211" s="8">
-        <f t="shared" si="231"/>
+        <f t="shared" si="230"/>
         <v>45967</v>
       </c>
-      <c r="D211" s="8">
-        <f t="shared" si="229"/>
+      <c r="D211" s="26">
         <v>45968</v>
       </c>
       <c r="E211" s="5"/>
-      <c r="F211" s="8">
-        <f t="shared" ref="F211:G211" si="235">IFERROR(IF(F201,F201+14,""),"")</f>
+      <c r="F211" s="26">
         <v>45978</v>
       </c>
-      <c r="G211" s="8">
-        <f t="shared" si="235"/>
+      <c r="G211" s="26">
         <v>45978</v>
       </c>
       <c r="H211" s="36"/>
@@ -6367,6 +6377,28 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="38">
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A206:H206"/>
     <mergeCell ref="A202:H202"/>
     <mergeCell ref="A73:H73"/>
@@ -6383,28 +6415,6 @@
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DBB246-F824-488A-845D-5750B50F7010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EF2A7-884A-4AEF-8F9A-CBE77E063781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="59">
   <si>
     <t>Контракт</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>16,10,25 дозаказали 470кг</t>
+  </si>
+  <si>
+    <t>23,10,25 дозаказали 510кг</t>
   </si>
 </sst>
 </file>
@@ -633,6 +636,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,6 +652,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,21 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,7 +980,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M203" sqref="M203"/>
+      <selection pane="bottomLeft" activeCell="M192" sqref="M192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,19 +997,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1027,12 +1030,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1049,10 +1052,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1069,10 +1072,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1083,14 +1086,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1107,10 +1110,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1130,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1268,16 +1271,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1421,16 +1424,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1573,16 +1576,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="51"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1783,16 +1786,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="51"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1977,16 +1980,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="51"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2188,16 +2191,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="51"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2312,16 +2315,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="51"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2470,16 +2473,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2594,16 +2597,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2778,16 +2781,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="42"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2906,16 +2909,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="42"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3090,16 +3093,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="42"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3217,16 +3220,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="40"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3400,16 +3403,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
+      <c r="A97" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="42"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3525,16 +3528,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="40"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="42"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3712,16 +3715,16 @@
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="42"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3895,16 +3898,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="42"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4003,16 +4006,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="38"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="40"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="42"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4186,16 +4189,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="37" t="s">
+      <c r="A128" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="40"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="42"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4314,16 +4317,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="s">
+      <c r="A133" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="38"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="40"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="42"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4502,16 +4505,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="37" t="s">
+      <c r="A140" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="40"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="42"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4630,16 +4633,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="37" t="s">
+      <c r="A145" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="38"/>
-      <c r="C145" s="38"/>
-      <c r="D145" s="38"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="38"/>
-      <c r="H145" s="40"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="40"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="42"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4818,16 +4821,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="38"/>
-      <c r="C152" s="38"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="40"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="42"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4917,16 +4920,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="37" t="s">
+      <c r="A156" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="38"/>
-      <c r="C156" s="38"/>
-      <c r="D156" s="38"/>
-      <c r="E156" s="39"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="40"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="42"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5079,16 +5082,16 @@
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="37" t="s">
+      <c r="A162" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B162" s="38"/>
-      <c r="C162" s="38"/>
-      <c r="D162" s="38"/>
-      <c r="E162" s="39"/>
-      <c r="F162" s="38"/>
-      <c r="G162" s="38"/>
-      <c r="H162" s="40"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="41"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="42"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5183,16 +5186,16 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37" t="s">
+      <c r="A166" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="38"/>
-      <c r="C166" s="38"/>
-      <c r="D166" s="38"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38"/>
-      <c r="H166" s="40"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="40"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="42"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5345,16 +5348,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="37" t="s">
+      <c r="A172" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B172" s="38"/>
-      <c r="C172" s="38"/>
-      <c r="D172" s="38"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="38"/>
-      <c r="H172" s="40"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="40"/>
+      <c r="G172" s="40"/>
+      <c r="H172" s="42"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5449,16 +5452,16 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B176" s="38"/>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="39"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="40"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="42"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5612,16 +5615,16 @@
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="37" t="s">
+      <c r="A182" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B182" s="38"/>
-      <c r="C182" s="38"/>
-      <c r="D182" s="38"/>
-      <c r="E182" s="39"/>
-      <c r="F182" s="38"/>
-      <c r="G182" s="38"/>
-      <c r="H182" s="40"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="40"/>
+      <c r="G182" s="40"/>
+      <c r="H182" s="42"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5713,16 +5716,16 @@
       <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="37" t="s">
+      <c r="A186" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B186" s="38"/>
-      <c r="C186" s="38"/>
-      <c r="D186" s="38"/>
-      <c r="E186" s="39"/>
-      <c r="F186" s="38"/>
-      <c r="G186" s="38"/>
-      <c r="H186" s="40"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="41"/>
+      <c r="F186" s="40"/>
+      <c r="G186" s="40"/>
+      <c r="H186" s="42"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5874,14 +5877,14 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="37"/>
-      <c r="B192" s="38"/>
-      <c r="C192" s="38"/>
-      <c r="D192" s="38"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="38"/>
-      <c r="G192" s="38"/>
-      <c r="H192" s="40"/>
+      <c r="A192" s="39"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="40"/>
+      <c r="H192" s="42"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -5976,16 +5979,16 @@
       <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="37"/>
-      <c r="B196" s="38"/>
-      <c r="C196" s="38"/>
-      <c r="D196" s="38"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="38"/>
-      <c r="G196" s="38"/>
-      <c r="H196" s="40"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="39"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="41"/>
+      <c r="F196" s="40"/>
+      <c r="G196" s="40"/>
+      <c r="H196" s="42"/>
+    </row>
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <f t="shared" ref="A197:A200" si="213">MAX(A185:A196)+1</f>
         <v>157</v>
@@ -5998,11 +6001,12 @@
         <v>45950</v>
       </c>
       <c r="D197" s="8">
-        <f t="shared" ref="D197:D201" si="214">IFERROR(IF(D187,D187+14,""),"")</f>
+        <f t="shared" ref="D197:D200" si="214">IFERROR(IF(D187,D187+14,""),"")</f>
         <v>45951</v>
       </c>
       <c r="E197" s="5">
-        <v>527</v>
+        <f>527+510</f>
+        <v>1037</v>
       </c>
       <c r="F197" s="8">
         <f t="shared" ref="F197:G197" si="215">IFERROR(IF(F187,F187+14,""),"")</f>
@@ -6012,7 +6016,9 @@
         <f t="shared" si="215"/>
         <v>45957</v>
       </c>
-      <c r="H197" s="23"/>
+      <c r="H197" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
@@ -6059,7 +6065,9 @@
         <f t="shared" si="214"/>
         <v>45954</v>
       </c>
-      <c r="E199" s="5"/>
+      <c r="E199" s="5">
+        <v>5535</v>
+      </c>
       <c r="F199" s="8">
         <f t="shared" ref="F199:G199" si="218">IFERROR(IF(F189,F189+14,""),"")</f>
         <v>45959</v>
@@ -6113,29 +6121,29 @@
         <f t="shared" si="216"/>
         <v>45953</v>
       </c>
-      <c r="D201" s="54">
+      <c r="D201" s="37">
         <v>45952</v>
       </c>
-      <c r="E201" s="55">
+      <c r="E201" s="38">
         <v>638</v>
       </c>
-      <c r="F201" s="54">
+      <c r="F201" s="37">
         <v>45956</v>
       </c>
-      <c r="G201" s="54">
+      <c r="G201" s="37">
         <v>45956</v>
       </c>
       <c r="H201" s="36"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="37"/>
-      <c r="B202" s="38"/>
-      <c r="C202" s="38"/>
-      <c r="D202" s="38"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="38"/>
-      <c r="G202" s="38"/>
-      <c r="H202" s="40"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="41"/>
+      <c r="F202" s="40"/>
+      <c r="G202" s="40"/>
+      <c r="H202" s="42"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6221,14 +6229,14 @@
       <c r="H205" s="15"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="37"/>
-      <c r="B206" s="38"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="38"/>
-      <c r="E206" s="39"/>
-      <c r="F206" s="38"/>
-      <c r="G206" s="38"/>
-      <c r="H206" s="40"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="41"/>
+      <c r="F206" s="40"/>
+      <c r="G206" s="40"/>
+      <c r="H206" s="42"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
@@ -6243,7 +6251,7 @@
         <v>45964</v>
       </c>
       <c r="D207" s="8">
-        <f t="shared" ref="D207:D211" si="228">IFERROR(IF(D197,D197+14,""),"")</f>
+        <f t="shared" ref="D207:D210" si="228">IFERROR(IF(D197,D197+14,""),"")</f>
         <v>45965</v>
       </c>
       <c r="E207" s="5"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EF2A7-884A-4AEF-8F9A-CBE77E063781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A534ACB-C5D1-4024-BB8F-9BB438A538AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="60">
   <si>
     <t>Контракт</t>
   </si>
@@ -273,7 +273,10 @@
     <t>16,10,25 дозаказали 470кг</t>
   </si>
   <si>
-    <t>23,10,25 дозаказали 510кг</t>
+    <t>27,10,25 отмена прошлых заказов (отпрален новый)</t>
+  </si>
+  <si>
+    <t>27,10,25 отправлен исправленный заказ</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M192" sqref="M192"/>
+      <selection pane="bottomLeft" activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,7 +5991,7 @@
       <c r="G196" s="40"/>
       <c r="H196" s="42"/>
     </row>
-    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <f t="shared" ref="A197:A200" si="213">MAX(A185:A196)+1</f>
         <v>157</v>
@@ -6005,8 +6008,7 @@
         <v>45951</v>
       </c>
       <c r="E197" s="5">
-        <f>527+510</f>
-        <v>1037</v>
+        <v>404</v>
       </c>
       <c r="F197" s="8">
         <f t="shared" ref="F197:G197" si="215">IFERROR(IF(F187,F187+14,""),"")</f>
@@ -6049,7 +6051,7 @@
       </c>
       <c r="H198" s="15"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <f t="shared" si="213"/>
         <v>159</v>
@@ -6066,7 +6068,7 @@
         <v>45954</v>
       </c>
       <c r="E199" s="5">
-        <v>5535</v>
+        <v>6595</v>
       </c>
       <c r="F199" s="8">
         <f t="shared" ref="F199:G199" si="218">IFERROR(IF(F189,F189+14,""),"")</f>
@@ -6076,7 +6078,9 @@
         <f t="shared" si="218"/>
         <v>45960</v>
       </c>
-      <c r="H199" s="15"/>
+      <c r="H199" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2">

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A534ACB-C5D1-4024-BB8F-9BB438A538AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F6B2D8-46A6-4E2A-A885-8C5B51CD42E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="61">
   <si>
     <t>Контракт</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>27,10,25 отправлен исправленный заказ</t>
+  </si>
+  <si>
+    <t>30,10,25 будет корректировка</t>
   </si>
 </sst>
 </file>
@@ -657,15 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,6 +689,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,8 +985,8 @@
   <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J209" sqref="J209"/>
+      <pane ySplit="8" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,19 +1003,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1033,12 +1036,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1055,10 +1058,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1075,10 +1078,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1089,14 +1092,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1113,10 +1116,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1136,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1436,7 +1439,7 @@
       <c r="E20" s="41"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1588,7 +1591,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="43"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1798,7 +1801,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
-      <c r="H34" s="43"/>
+      <c r="H34" s="53"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1992,7 +1995,7 @@
       <c r="E41" s="41"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="43"/>
+      <c r="H41" s="53"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2203,7 +2206,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
-      <c r="H49" s="43"/>
+      <c r="H49" s="53"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2327,7 +2330,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
-      <c r="H54" s="43"/>
+      <c r="H54" s="53"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6178,7 +6181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <f t="shared" si="220"/>
         <v>163</v>
@@ -6194,7 +6197,9 @@
         <f t="shared" si="223"/>
         <v>45958</v>
       </c>
-      <c r="E204" s="5"/>
+      <c r="E204" s="5">
+        <v>957</v>
+      </c>
       <c r="F204" s="8">
         <f t="shared" ref="F204:G204" si="224">IFERROR(IF(F194,F194+14,""),"")</f>
         <v>45965</v>
@@ -6203,7 +6208,9 @@
         <f t="shared" si="224"/>
         <v>45965</v>
       </c>
-      <c r="H204" s="15"/>
+      <c r="H204" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
@@ -6389,28 +6396,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A206:H206"/>
     <mergeCell ref="A202:H202"/>
     <mergeCell ref="A73:H73"/>
@@ -6427,6 +6412,28 @@
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F6B2D8-46A6-4E2A-A885-8C5B51CD42E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49A5DBB-8253-40B2-8FF0-9D6AE23A26A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <t>27,10,25 отправлен исправленный заказ</t>
   </si>
   <si>
-    <t>30,10,25 будет корректировка</t>
+    <t>30,10,25 корректировка заказа</t>
   </si>
 </sst>
 </file>
@@ -660,6 +660,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,15 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,7 +986,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J210" sqref="J210"/>
+      <selection pane="bottomLeft" activeCell="K205" sqref="K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,19 +1003,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1036,12 +1036,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1058,10 +1058,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1078,10 +1078,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1092,14 +1092,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="51"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1116,10 +1116,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1439,7 +1439,7 @@
       <c r="E20" s="41"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="53"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1591,7 +1591,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="53"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1801,7 +1801,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
-      <c r="H34" s="53"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1995,7 +1995,7 @@
       <c r="E41" s="41"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2206,7 +2206,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
-      <c r="H49" s="53"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2330,7 +2330,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
-      <c r="H54" s="53"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6168,7 +6168,9 @@
         <f t="shared" ref="D203" si="221">IFERROR(IF(D193,D193+14,""),"")</f>
         <v>45958</v>
       </c>
-      <c r="E203" s="5"/>
+      <c r="E203" s="5">
+        <v>696</v>
+      </c>
       <c r="F203" s="8" t="str">
         <f t="shared" ref="F203:G203" si="222">IFERROR(IF(F193,F193+14,""),"")</f>
         <v/>
@@ -6198,7 +6200,7 @@
         <v>45958</v>
       </c>
       <c r="E204" s="5">
-        <v>957</v>
+        <v>2343</v>
       </c>
       <c r="F204" s="8">
         <f t="shared" ref="F204:G204" si="224">IFERROR(IF(F194,F194+14,""),"")</f>
@@ -6396,6 +6398,28 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="38">
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A206:H206"/>
     <mergeCell ref="A202:H202"/>
     <mergeCell ref="A73:H73"/>
@@ -6412,28 +6436,6 @@
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
     <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49A5DBB-8253-40B2-8FF0-9D6AE23A26A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E759954-2ED4-4F40-BD3D-AD0C6AFCA3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$201</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="61">
   <si>
     <t>Контракт</t>
   </si>
@@ -395,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -646,6 +652,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -982,11 +1003,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K205" sqref="K205"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J218" sqref="J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,19 +1024,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1036,12 +1057,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1058,10 +1079,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1078,10 +1099,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1092,14 +1113,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="54"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1116,10 +1137,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1136,7 +1157,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1277,16 +1298,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1430,16 +1451,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1582,16 +1603,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="43"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1792,16 +1813,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="43"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1986,16 +2007,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="43"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2197,16 +2218,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2321,16 +2342,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="43"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="48"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2479,16 +2500,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2603,16 +2624,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="42"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2787,16 +2808,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="42"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2915,16 +2936,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="42"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3099,16 +3120,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="42"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3226,16 +3247,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="42"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3409,16 +3430,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="42"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3534,16 +3555,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="42"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3721,16 +3742,16 @@
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
+      <c r="A109" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="42"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3904,16 +3925,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="42"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4012,16 +4033,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
+      <c r="A121" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="40"/>
-      <c r="F121" s="40"/>
-      <c r="G121" s="40"/>
-      <c r="H121" s="42"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4195,16 +4216,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="40"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="40"/>
-      <c r="E128" s="40"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40"/>
-      <c r="H128" s="42"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4323,16 +4344,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="39" t="s">
+      <c r="A133" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="40"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="40"/>
-      <c r="G133" s="40"/>
-      <c r="H133" s="42"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4511,16 +4532,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="39" t="s">
+      <c r="A140" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="40"/>
-      <c r="F140" s="40"/>
-      <c r="G140" s="40"/>
-      <c r="H140" s="42"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4639,16 +4660,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="39" t="s">
+      <c r="A145" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="41"/>
-      <c r="F145" s="40"/>
-      <c r="G145" s="40"/>
-      <c r="H145" s="42"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4827,16 +4848,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="39" t="s">
+      <c r="A152" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="40"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="40"/>
-      <c r="E152" s="41"/>
-      <c r="F152" s="40"/>
-      <c r="G152" s="40"/>
-      <c r="H152" s="42"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4926,16 +4947,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="39" t="s">
+      <c r="A156" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="40"/>
-      <c r="G156" s="40"/>
-      <c r="H156" s="42"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="45"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="47"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5088,16 +5109,16 @@
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="39" t="s">
+      <c r="A162" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B162" s="40"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="40"/>
-      <c r="G162" s="40"/>
-      <c r="H162" s="42"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5192,16 +5213,16 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="39" t="s">
+      <c r="A166" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="40"/>
-      <c r="G166" s="40"/>
-      <c r="H166" s="42"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="45"/>
+      <c r="E166" s="46"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="47"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5354,16 +5375,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="39" t="s">
+      <c r="A172" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B172" s="40"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="41"/>
-      <c r="F172" s="40"/>
-      <c r="G172" s="40"/>
-      <c r="H172" s="42"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="47"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5458,16 +5479,16 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="39" t="s">
+      <c r="A176" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="41"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="42"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="45"/>
+      <c r="D176" s="45"/>
+      <c r="E176" s="46"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="47"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5621,16 +5642,16 @@
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="39" t="s">
+      <c r="A182" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B182" s="40"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="41"/>
-      <c r="F182" s="40"/>
-      <c r="G182" s="40"/>
-      <c r="H182" s="42"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="45"/>
+      <c r="H182" s="47"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5722,18 +5743,18 @@
       <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="39" t="s">
+      <c r="A186" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B186" s="40"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="41"/>
-      <c r="F186" s="40"/>
-      <c r="G186" s="40"/>
-      <c r="H186" s="42"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="45"/>
+      <c r="E186" s="46"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="45"/>
+      <c r="H186" s="47"/>
+    </row>
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <f t="shared" ref="A187:A190" si="198">MAX(A175:A186)+1</f>
         <v>149</v>
@@ -5762,7 +5783,7 @@
       </c>
       <c r="H187" s="23"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <f t="shared" si="198"/>
         <v>150</v>
@@ -5791,7 +5812,7 @@
       </c>
       <c r="H188" s="15"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <f t="shared" si="198"/>
         <v>151</v>
@@ -5820,7 +5841,7 @@
       </c>
       <c r="H189" s="15"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <f t="shared" si="198"/>
         <v>152</v>
@@ -5851,7 +5872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <f>MAX(A180:A190)+1</f>
         <v>153</v>
@@ -5882,17 +5903,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
-      <c r="B192" s="40"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="40"/>
-      <c r="E192" s="41"/>
-      <c r="F192" s="40"/>
-      <c r="G192" s="40"/>
-      <c r="H192" s="42"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="46"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="45"/>
+      <c r="H192" s="47"/>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <f t="shared" ref="A193:A195" si="206">MAX(A181:A192)+1</f>
         <v>154</v>
@@ -5923,7 +5946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <f t="shared" si="206"/>
         <v>155</v>
@@ -5955,7 +5978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <f t="shared" si="206"/>
         <v>156</v>
@@ -5984,15 +6007,17 @@
       </c>
       <c r="H195" s="15"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
-      <c r="B196" s="40"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="41"/>
-      <c r="F196" s="40"/>
-      <c r="G196" s="40"/>
-      <c r="H196" s="42"/>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="46"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="45"/>
+      <c r="H196" s="47"/>
     </row>
     <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6143,18 +6168,18 @@
       <c r="H201" s="36"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="40"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="40"/>
-      <c r="E202" s="41"/>
-      <c r="F202" s="40"/>
-      <c r="G202" s="40"/>
-      <c r="H202" s="42"/>
+      <c r="A202" s="44"/>
+      <c r="B202" s="45"/>
+      <c r="C202" s="45"/>
+      <c r="D202" s="45"/>
+      <c r="E202" s="46"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="45"/>
+      <c r="H202" s="47"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <f t="shared" ref="A203:A205" si="220">MAX(A191:A202)+1</f>
+        <f t="shared" ref="A203:A206" si="220">MAX(A191:A202)+1</f>
         <v>162</v>
       </c>
       <c r="B203" s="14" t="s">
@@ -6230,7 +6255,9 @@
         <f t="shared" si="225"/>
         <v>45961</v>
       </c>
-      <c r="E205" s="5"/>
+      <c r="E205" s="5">
+        <v>6895</v>
+      </c>
       <c r="F205" s="8">
         <f t="shared" ref="F205:G205" si="226">IFERROR(IF(F195,F195+14,""),"")</f>
         <v>45966</v>
@@ -6242,119 +6269,117 @@
       <c r="H205" s="15"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="41"/>
-      <c r="F206" s="40"/>
-      <c r="G206" s="40"/>
-      <c r="H206" s="42"/>
+      <c r="A206" s="2">
+        <f t="shared" si="220"/>
+        <v>165</v>
+      </c>
+      <c r="B206" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" s="40">
+        <v>45960</v>
+      </c>
+      <c r="D206" s="40">
+        <v>45961</v>
+      </c>
+      <c r="E206" s="41">
+        <v>533</v>
+      </c>
+      <c r="F206" s="40">
+        <v>45971</v>
+      </c>
+      <c r="G206" s="40">
+        <v>45971</v>
+      </c>
+      <c r="H206" s="15"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <f t="shared" ref="A207:A210" si="227">MAX(A195:A206)+1</f>
-        <v>165</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C207" s="8">
-        <f>IFERROR(IF(C197,C197+14,""),"")</f>
-        <v>45964</v>
-      </c>
-      <c r="D207" s="8">
-        <f t="shared" ref="D207:D210" si="228">IFERROR(IF(D197,D197+14,""),"")</f>
-        <v>45965</v>
-      </c>
-      <c r="E207" s="5"/>
-      <c r="F207" s="8">
-        <f t="shared" ref="F207:G207" si="229">IFERROR(IF(F197,F197+14,""),"")</f>
-        <v>45971</v>
-      </c>
-      <c r="G207" s="8">
-        <f t="shared" si="229"/>
-        <v>45971</v>
-      </c>
-      <c r="H207" s="23"/>
+      <c r="A207" s="44"/>
+      <c r="B207" s="45"/>
+      <c r="C207" s="45"/>
+      <c r="D207" s="45"/>
+      <c r="E207" s="46"/>
+      <c r="F207" s="45"/>
+      <c r="G207" s="45"/>
+      <c r="H207" s="47"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <f t="shared" si="227"/>
+        <f>MAX(A196:A207)+1</f>
         <v>166</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="8">
-        <f t="shared" ref="C208:C211" si="230">IFERROR(IF(C198,C198+14,""),"")</f>
+        <f t="shared" ref="C208:D210" si="227">IFERROR(IF(C198,C198+14,""),"")</f>
         <v>45964</v>
       </c>
       <c r="D208" s="8">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>45965</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="8">
-        <f t="shared" ref="F208:G208" si="231">IFERROR(IF(F198,F198+14,""),"")</f>
+        <f t="shared" ref="F208:G208" si="228">IFERROR(IF(F198,F198+14,""),"")</f>
         <v>45972</v>
       </c>
       <c r="G208" s="8">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>45972</v>
       </c>
       <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <f t="shared" si="227"/>
+        <f>MAX(A197:A208)+1</f>
         <v>167</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C209" s="8">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>45967</v>
       </c>
       <c r="D209" s="8">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>45968</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="8">
-        <f t="shared" ref="F209:G209" si="232">IFERROR(IF(F199,F199+14,""),"")</f>
+        <f t="shared" ref="F209:G209" si="229">IFERROR(IF(F199,F199+14,""),"")</f>
         <v>45973</v>
       </c>
       <c r="G209" s="8">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>45974</v>
       </c>
       <c r="H209" s="15"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <f t="shared" si="227"/>
+        <f>MAX(A198:A209)+1</f>
         <v>168</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C210" s="8">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>45964</v>
       </c>
       <c r="D210" s="8">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>45965</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="8" t="str">
-        <f t="shared" ref="F210:G210" si="233">IFERROR(IF(F200,F200+14,""),"")</f>
+        <f t="shared" ref="F210:G210" si="230">IFERROR(IF(F200,F200+14,""),"")</f>
         <v/>
       </c>
       <c r="G210" s="8" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v/>
       </c>
       <c r="H210" s="15" t="s">
@@ -6362,42 +6387,153 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <f>MAX(A200:A210)+1</f>
+      <c r="A211" s="44"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="45"/>
+      <c r="D211" s="45"/>
+      <c r="E211" s="46"/>
+      <c r="F211" s="45"/>
+      <c r="G211" s="45"/>
+      <c r="H211" s="47"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <f t="shared" ref="A212:A215" si="231">MAX(A200:A211)+1</f>
         <v>169</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B212" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="40">
+        <v>45971</v>
+      </c>
+      <c r="D212" s="40">
+        <v>45972</v>
+      </c>
+      <c r="E212" s="41"/>
+      <c r="F212" s="40">
+        <v>45978</v>
+      </c>
+      <c r="G212" s="40">
+        <v>45978</v>
+      </c>
+      <c r="H212" s="23"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <f t="shared" si="231"/>
+        <v>170</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213" s="8">
+        <v>45971</v>
+      </c>
+      <c r="D213" s="8">
+        <v>45972</v>
+      </c>
+      <c r="E213" s="5"/>
+      <c r="F213" s="8">
+        <v>45979</v>
+      </c>
+      <c r="G213" s="8">
+        <v>45979</v>
+      </c>
+      <c r="H213" s="15"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <f t="shared" si="231"/>
+        <v>171</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="8">
+        <v>45974</v>
+      </c>
+      <c r="D214" s="8">
+        <v>45975</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="8">
+        <v>45980</v>
+      </c>
+      <c r="G214" s="8">
+        <v>45981</v>
+      </c>
+      <c r="H214" s="15"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <f t="shared" si="231"/>
+        <v>172</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="8">
+        <v>45971</v>
+      </c>
+      <c r="D215" s="8">
+        <v>45972</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <f>MAX(A205:A215)+1</f>
+        <v>173</v>
+      </c>
+      <c r="B216" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C211" s="8">
-        <f t="shared" si="230"/>
-        <v>45967</v>
-      </c>
-      <c r="D211" s="26">
-        <v>45968</v>
-      </c>
-      <c r="E211" s="5"/>
-      <c r="F211" s="26">
-        <v>45978</v>
-      </c>
-      <c r="G211" s="26">
-        <v>45978</v>
-      </c>
-      <c r="H211" s="36"/>
+      <c r="C216" s="8">
+        <v>45974</v>
+      </c>
+      <c r="D216" s="8">
+        <v>45975</v>
+      </c>
+      <c r="E216" s="43"/>
+      <c r="F216" s="42">
+        <v>45985</v>
+      </c>
+      <c r="G216" s="42">
+        <v>45985</v>
+      </c>
+      <c r="H216" s="36"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="44"/>
+      <c r="B217" s="45"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="46"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="45"/>
+      <c r="H217" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H191" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H201" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="149"/>
-        <filter val="150"/>
-        <filter val="151"/>
-        <filter val="152"/>
-        <filter val="153"/>
+        <filter val="157"/>
+        <filter val="158"/>
+        <filter val="159"/>
+        <filter val="160"/>
+        <filter val="161"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="38">
+  <mergeCells count="40">
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
@@ -6407,6 +6543,11 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A186:H186"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="H2:H7"/>
@@ -6420,8 +6561,9 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A206:H206"/>
-    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A85:H85"/>
@@ -6429,13 +6571,7 @@
     <mergeCell ref="A133:H133"/>
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E759954-2ED4-4F40-BD3D-AD0C6AFCA3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878E85C-8AF4-442F-9A73-D38D7CEF7845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="62">
   <si>
     <t>Контракт</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>30,10,25 корректировка заказа</t>
+  </si>
+  <si>
+    <t>заказ отправили 05,11,25</t>
   </si>
 </sst>
 </file>
@@ -681,15 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,6 +713,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,7 +1010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J218" sqref="J218"/>
+      <selection pane="bottomLeft" activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,19 +1027,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1057,12 +1060,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1079,10 +1082,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1099,10 +1102,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1113,14 +1116,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1137,10 +1140,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1160,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1460,7 +1463,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="48"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1612,7 +1615,7 @@
       <c r="E26" s="46"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1822,7 +1825,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2016,7 +2019,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="48"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2227,7 +2230,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="48"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2351,7 +2354,7 @@
       <c r="E54" s="46"/>
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="48"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6303,7 +6306,7 @@
       <c r="G207" s="45"/>
       <c r="H207" s="47"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <f>MAX(A196:A207)+1</f>
         <v>166</v>
@@ -6319,7 +6322,9 @@
         <f t="shared" si="227"/>
         <v>45965</v>
       </c>
-      <c r="E208" s="5"/>
+      <c r="E208" s="5">
+        <v>2664</v>
+      </c>
       <c r="F208" s="8">
         <f t="shared" ref="F208:G208" si="228">IFERROR(IF(F198,F198+14,""),"")</f>
         <v>45972</v>
@@ -6328,7 +6333,9 @@
         <f t="shared" si="228"/>
         <v>45972</v>
       </c>
-      <c r="H208" s="15"/>
+      <c r="H208" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
@@ -6532,6 +6539,30 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="40">
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A211:H211"/>
     <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
@@ -6548,30 +6579,6 @@
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878E85C-8AF4-442F-9A73-D38D7CEF7845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9A34D-8612-40B7-8714-833644C82172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,6 +684,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,15 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H218" sqref="H218"/>
+      <selection pane="bottomLeft" activeCell="M219" sqref="M219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,19 +1027,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1060,12 +1060,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1082,10 +1082,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1102,10 +1102,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1116,14 +1116,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1140,10 +1140,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1463,7 +1463,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="58"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1615,7 +1615,7 @@
       <c r="E26" s="46"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="58"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1825,7 +1825,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="58"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2019,7 +2019,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="58"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2230,7 +2230,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="58"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2354,7 +2354,7 @@
       <c r="E54" s="46"/>
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="58"/>
+      <c r="H54" s="48"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6353,7 +6353,9 @@
         <f t="shared" si="227"/>
         <v>45968</v>
       </c>
-      <c r="E209" s="5"/>
+      <c r="E209" s="5">
+        <v>8095</v>
+      </c>
       <c r="F209" s="8">
         <f t="shared" ref="F209:G209" si="229">IFERROR(IF(F199,F199+14,""),"")</f>
         <v>45973</v>
@@ -6380,7 +6382,9 @@
         <f t="shared" si="227"/>
         <v>45965</v>
       </c>
-      <c r="E210" s="5"/>
+      <c r="E210" s="5">
+        <v>1181</v>
+      </c>
       <c r="F210" s="8" t="str">
         <f t="shared" ref="F210:G210" si="230">IFERROR(IF(F200,F200+14,""),"")</f>
         <v/>
@@ -6539,30 +6543,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A211:H211"/>
     <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
@@ -6579,6 +6559,30 @@
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9A34D-8612-40B7-8714-833644C82172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB430D-CEDC-4A78-BDBB-FC1504962F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="63">
   <si>
     <t>Контракт</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>заказ отправили 05,11,25</t>
+  </si>
+  <si>
+    <t>13,11,25 возможна корректировка</t>
   </si>
 </sst>
 </file>
@@ -684,15 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,6 +716,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,8 +1012,8 @@
   <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M219" sqref="M219"/>
+      <pane ySplit="8" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,19 +1030,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1060,12 +1063,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1082,10 +1085,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1102,10 +1105,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1116,14 +1119,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1140,10 +1143,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1463,7 +1466,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="48"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1615,7 +1618,7 @@
       <c r="E26" s="46"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1825,7 +1828,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2019,7 +2022,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="48"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2230,7 +2233,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="48"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2354,7 +2357,7 @@
       <c r="E54" s="46"/>
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="48"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6421,7 +6424,9 @@
       <c r="D212" s="40">
         <v>45972</v>
       </c>
-      <c r="E212" s="41"/>
+      <c r="E212" s="41">
+        <v>1033</v>
+      </c>
       <c r="F212" s="40">
         <v>45978</v>
       </c>
@@ -6430,7 +6435,7 @@
       </c>
       <c r="H212" s="23"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <f t="shared" si="231"/>
         <v>170</v>
@@ -6444,14 +6449,18 @@
       <c r="D213" s="8">
         <v>45972</v>
       </c>
-      <c r="E213" s="5"/>
+      <c r="E213" s="5">
+        <v>2824</v>
+      </c>
       <c r="F213" s="8">
         <v>45979</v>
       </c>
       <c r="G213" s="8">
         <v>45979</v>
       </c>
-      <c r="H213" s="15"/>
+      <c r="H213" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
@@ -6543,6 +6552,30 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="40">
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A211:H211"/>
     <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
@@ -6559,30 +6592,6 @@
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB430D-CEDC-4A78-BDBB-FC1504962F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8BDF8-1106-4185-A7B8-E8C536AE3C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <t>заказ отправили 05,11,25</t>
   </si>
   <si>
-    <t>13,11,25 возможна корректировка</t>
+    <t>13,11,25 корректировка заказа</t>
   </si>
 </sst>
 </file>
@@ -687,6 +687,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,15 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J213" sqref="J213"/>
+      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,19 +1030,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1063,12 +1063,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1085,10 +1085,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1105,10 +1105,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1119,14 +1119,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1143,10 +1143,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1466,7 +1466,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="58"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1618,7 +1618,7 @@
       <c r="E26" s="46"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="58"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1828,7 +1828,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="58"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2022,7 +2022,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="58"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2233,7 +2233,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="58"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2357,7 +2357,7 @@
       <c r="E54" s="46"/>
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="58"/>
+      <c r="H54" s="48"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6450,7 +6450,7 @@
         <v>45972</v>
       </c>
       <c r="E213" s="5">
-        <v>2824</v>
+        <v>2911</v>
       </c>
       <c r="F213" s="8">
         <v>45979</v>
@@ -6552,30 +6552,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A211:H211"/>
     <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
@@ -6592,6 +6568,30 @@
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8BDF8-1106-4185-A7B8-E8C536AE3C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28762FCC-31B1-406E-B45B-2786A9C90583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$206</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
   <si>
     <t>Контракт</t>
   </si>
@@ -687,15 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,6 +716,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,11 +1009,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,19 +1030,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1063,12 +1063,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1085,10 +1085,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1105,10 +1105,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1119,14 +1119,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1143,10 +1143,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1466,7 +1466,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="48"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1618,7 +1618,7 @@
       <c r="E26" s="46"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1828,7 +1828,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2022,7 +2022,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="48"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2233,7 +2233,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="48"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2357,7 +2357,7 @@
       <c r="E54" s="46"/>
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="48"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6025,7 +6025,7 @@
       <c r="G196" s="45"/>
       <c r="H196" s="47"/>
     </row>
-    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <f t="shared" ref="A197:A200" si="213">MAX(A185:A196)+1</f>
         <v>157</v>
@@ -6056,7 +6056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <f t="shared" si="213"/>
         <v>158</v>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H198" s="15"/>
     </row>
-    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <f t="shared" si="213"/>
         <v>159</v>
@@ -6116,7 +6116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <f t="shared" si="213"/>
         <v>160</v>
@@ -6147,7 +6147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <f>MAX(A190:A200)+1</f>
         <v>161</v>
@@ -6173,8 +6173,10 @@
       </c>
       <c r="H201" s="36"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="44"/>
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="B202" s="45"/>
       <c r="C202" s="45"/>
       <c r="D202" s="45"/>
@@ -6476,7 +6478,9 @@
       <c r="D214" s="8">
         <v>45975</v>
       </c>
-      <c r="E214" s="5"/>
+      <c r="E214" s="5">
+        <v>4772</v>
+      </c>
       <c r="F214" s="8">
         <v>45980</v>
       </c>
@@ -6499,7 +6503,9 @@
       <c r="D215" s="8">
         <v>45972</v>
       </c>
-      <c r="E215" s="5"/>
+      <c r="E215" s="5">
+        <v>422</v>
+      </c>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
       <c r="H215" s="15" t="s">
@@ -6520,7 +6526,9 @@
       <c r="D216" s="8">
         <v>45975</v>
       </c>
-      <c r="E216" s="43"/>
+      <c r="E216" s="43">
+        <v>987</v>
+      </c>
       <c r="F216" s="42">
         <v>45985</v>
       </c>
@@ -6539,19 +6547,136 @@
       <c r="G217" s="45"/>
       <c r="H217" s="47"/>
     </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <f>MAX(A206:A217)+1</f>
+        <v>174</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C218" s="8">
+        <f t="shared" ref="C218:D218" si="232">IFERROR(IF(C208,C208+14,""),"")</f>
+        <v>45978</v>
+      </c>
+      <c r="D218" s="8">
+        <f t="shared" si="232"/>
+        <v>45979</v>
+      </c>
+      <c r="E218" s="5"/>
+      <c r="F218" s="8">
+        <f t="shared" ref="F218:G218" si="233">IFERROR(IF(F208,F208+14,""),"")</f>
+        <v>45986</v>
+      </c>
+      <c r="G218" s="8">
+        <f t="shared" si="233"/>
+        <v>45986</v>
+      </c>
+      <c r="H218" s="15"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <f>MAX(A207:A218)+1</f>
+        <v>175</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C219" s="8">
+        <f t="shared" ref="C219:D219" si="234">IFERROR(IF(C209,C209+14,""),"")</f>
+        <v>45981</v>
+      </c>
+      <c r="D219" s="8">
+        <f t="shared" si="234"/>
+        <v>45982</v>
+      </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="8">
+        <f t="shared" ref="F219:G219" si="235">IFERROR(IF(F209,F209+14,""),"")</f>
+        <v>45987</v>
+      </c>
+      <c r="G219" s="8">
+        <f t="shared" si="235"/>
+        <v>45988</v>
+      </c>
+      <c r="H219" s="15"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <f>MAX(A208:A219)+1</f>
+        <v>176</v>
+      </c>
+      <c r="B220" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="8">
+        <f t="shared" ref="C220:D220" si="236">IFERROR(IF(C210,C210+14,""),"")</f>
+        <v>45978</v>
+      </c>
+      <c r="D220" s="8">
+        <f t="shared" si="236"/>
+        <v>45979</v>
+      </c>
+      <c r="E220" s="5"/>
+      <c r="F220" s="8" t="str">
+        <f t="shared" ref="F220:G220" si="237">IFERROR(IF(F210,F210+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G220" s="8" t="str">
+        <f t="shared" si="237"/>
+        <v/>
+      </c>
+      <c r="H220" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="44"/>
+      <c r="B221" s="45"/>
+      <c r="C221" s="45"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="46"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="45"/>
+      <c r="H221" s="47"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H201" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H206" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="157"/>
-        <filter val="158"/>
-        <filter val="159"/>
-        <filter val="160"/>
-        <filter val="161"/>
+        <filter val="162"/>
+        <filter val="163"/>
+        <filter val="164"/>
+        <filter val="165"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A211:H211"/>
     <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
@@ -6568,30 +6693,6 @@
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
     <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28762FCC-31B1-406E-B45B-2786A9C90583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B0D932-B578-4AB0-9322-1CC0BEF5BB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,6 +687,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,15 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
+      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,19 +1030,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1063,12 +1063,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1085,10 +1085,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1105,10 +1105,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1119,14 +1119,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1143,10 +1143,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1466,7 +1466,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="58"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1618,7 +1618,7 @@
       <c r="E26" s="46"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="58"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1828,7 +1828,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="58"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2022,7 +2022,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="58"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2233,7 +2233,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="58"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2357,7 +2357,7 @@
       <c r="E54" s="46"/>
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="58"/>
+      <c r="H54" s="48"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6563,7 +6563,9 @@
         <f t="shared" si="232"/>
         <v>45979</v>
       </c>
-      <c r="E218" s="5"/>
+      <c r="E218" s="5">
+        <v>3270</v>
+      </c>
       <c r="F218" s="8">
         <f t="shared" ref="F218:G218" si="233">IFERROR(IF(F208,F208+14,""),"")</f>
         <v>45986</v>
@@ -6652,6 +6654,31 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="41">
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A221:H221"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
@@ -6664,35 +6691,10 @@
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A152:H152"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A211:H211"/>
     <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A186:H186"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B0D932-B578-4AB0-9322-1CC0BEF5BB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2FED36-8FFC-4846-86E9-968E19553327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,15 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,6 +716,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
+      <selection pane="bottomLeft" activeCell="L223" sqref="L223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,19 +1030,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1063,12 +1063,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1085,10 +1085,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1105,10 +1105,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1119,14 +1119,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1143,10 +1143,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1466,7 +1466,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="48"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1618,7 +1618,7 @@
       <c r="E26" s="46"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1828,7 +1828,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2022,7 +2022,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
-      <c r="H41" s="48"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2233,7 +2233,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="48"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2357,7 +2357,7 @@
       <c r="E54" s="46"/>
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="48"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -6592,7 +6592,9 @@
         <f t="shared" si="234"/>
         <v>45982</v>
       </c>
-      <c r="E219" s="5"/>
+      <c r="E219" s="5">
+        <v>6957</v>
+      </c>
       <c r="F219" s="8">
         <f t="shared" ref="F219:G219" si="235">IFERROR(IF(F209,F209+14,""),"")</f>
         <v>45987</v>
@@ -6654,31 +6656,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="41">
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A221:H221"/>
     <mergeCell ref="A182:H182"/>
     <mergeCell ref="A176:H176"/>
@@ -6695,6 +6672,31 @@
     <mergeCell ref="A217:H217"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A186:H186"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2FED36-8FFC-4846-86E9-968E19553327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFE05D-340A-4FD2-888E-B9FA52034984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$210</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
   <si>
     <t>Контракт</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>13,11,25 корректировка заказа</t>
+  </si>
+  <si>
+    <t>отгрузка на месте; 24,11,25 был дозаказ</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -674,6 +677,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,11 +1015,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L223" sqref="L223"/>
+      <selection pane="bottomLeft" activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,19 +1036,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1063,12 +1069,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1085,10 +1091,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1105,10 +1111,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1119,14 +1125,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1143,10 +1149,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1169,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1304,16 +1310,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1457,16 +1463,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="58"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1609,16 +1615,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="58"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1819,16 +1825,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="58"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2013,16 +2019,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="58"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2224,16 +2230,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="58"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2348,16 +2354,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="58"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2506,16 +2512,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="47"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2630,16 +2636,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="47"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2814,16 +2820,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="47"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2942,16 +2948,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="47"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3126,16 +3132,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="47"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3253,16 +3259,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="47"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3436,16 +3442,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="47"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3561,16 +3567,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="47"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3748,16 +3754,16 @@
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44" t="s">
+      <c r="A109" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="47"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3931,16 +3937,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44" t="s">
+      <c r="A116" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="47"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="48"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4039,16 +4045,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="44" t="s">
+      <c r="A121" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="47"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4222,16 +4228,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="44" t="s">
+      <c r="A128" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="45"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="47"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="48"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4350,16 +4356,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="44" t="s">
+      <c r="A133" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="45"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="47"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="48"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4538,16 +4544,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="44" t="s">
+      <c r="A140" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="47"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="48"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4666,16 +4672,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="44" t="s">
+      <c r="A145" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="47"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="48"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4854,16 +4860,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="44" t="s">
+      <c r="A152" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="45"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="47"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="48"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4953,16 +4959,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="44" t="s">
+      <c r="A156" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="45"/>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="46"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="45"/>
-      <c r="H156" s="47"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="46"/>
+      <c r="H156" s="48"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5115,16 +5121,16 @@
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="44" t="s">
+      <c r="A162" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B162" s="45"/>
-      <c r="C162" s="45"/>
-      <c r="D162" s="45"/>
-      <c r="E162" s="46"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="47"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="48"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5219,16 +5225,16 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="44" t="s">
+      <c r="A166" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="45"/>
-      <c r="C166" s="45"/>
-      <c r="D166" s="45"/>
-      <c r="E166" s="46"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="45"/>
-      <c r="H166" s="47"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="46"/>
+      <c r="G166" s="46"/>
+      <c r="H166" s="48"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5381,16 +5387,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44" t="s">
+      <c r="A172" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B172" s="45"/>
-      <c r="C172" s="45"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="45"/>
-      <c r="H172" s="47"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="48"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5485,16 +5491,16 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="44" t="s">
+      <c r="A176" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B176" s="45"/>
-      <c r="C176" s="45"/>
-      <c r="D176" s="45"/>
-      <c r="E176" s="46"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="45"/>
-      <c r="H176" s="47"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5648,16 +5654,16 @@
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="44" t="s">
+      <c r="A182" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B182" s="45"/>
-      <c r="C182" s="45"/>
-      <c r="D182" s="45"/>
-      <c r="E182" s="46"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="45"/>
-      <c r="H182" s="47"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="48"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5749,16 +5755,16 @@
       <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="44" t="s">
+      <c r="A186" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B186" s="45"/>
-      <c r="C186" s="45"/>
-      <c r="D186" s="45"/>
-      <c r="E186" s="46"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="45"/>
-      <c r="H186" s="47"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="46"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="48"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5910,16 +5916,16 @@
       </c>
     </row>
     <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="44" t="s">
+      <c r="A192" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B192" s="45"/>
-      <c r="C192" s="45"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="46"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="45"/>
-      <c r="H192" s="47"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="47"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="48"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6014,16 +6020,16 @@
       <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="44" t="s">
+      <c r="A196" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B196" s="45"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="45"/>
-      <c r="E196" s="46"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="45"/>
-      <c r="H196" s="47"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="48"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6174,18 +6180,18 @@
       <c r="H201" s="36"/>
     </row>
     <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="44" t="s">
+      <c r="A202" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B202" s="45"/>
-      <c r="C202" s="45"/>
-      <c r="D202" s="45"/>
-      <c r="E202" s="46"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="45"/>
-      <c r="H202" s="47"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="47"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="48"/>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <f t="shared" ref="A203:A206" si="220">MAX(A191:A202)+1</f>
         <v>162</v>
@@ -6216,7 +6222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <f t="shared" si="220"/>
         <v>163</v>
@@ -6247,7 +6253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <f t="shared" si="220"/>
         <v>164</v>
@@ -6276,7 +6282,7 @@
       </c>
       <c r="H205" s="15"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <f t="shared" si="220"/>
         <v>165</v>
@@ -6301,15 +6307,17 @@
       </c>
       <c r="H206" s="15"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="44"/>
-      <c r="B207" s="45"/>
-      <c r="C207" s="45"/>
-      <c r="D207" s="45"/>
-      <c r="E207" s="46"/>
-      <c r="F207" s="45"/>
-      <c r="G207" s="45"/>
-      <c r="H207" s="47"/>
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B207" s="46"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="46"/>
+      <c r="E207" s="47"/>
+      <c r="F207" s="46"/>
+      <c r="G207" s="46"/>
+      <c r="H207" s="48"/>
     </row>
     <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6403,14 +6411,14 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="44"/>
-      <c r="B211" s="45"/>
-      <c r="C211" s="45"/>
-      <c r="D211" s="45"/>
-      <c r="E211" s="46"/>
-      <c r="F211" s="45"/>
-      <c r="G211" s="45"/>
-      <c r="H211" s="47"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="46"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6538,14 +6546,14 @@
       <c r="H216" s="36"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="44"/>
-      <c r="B217" s="45"/>
-      <c r="C217" s="45"/>
-      <c r="D217" s="45"/>
-      <c r="E217" s="46"/>
-      <c r="F217" s="45"/>
-      <c r="G217" s="45"/>
-      <c r="H217" s="47"/>
+      <c r="A217" s="45"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="46"/>
+      <c r="E217" s="47"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="46"/>
+      <c r="H217" s="48"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6605,7 +6613,7 @@
       </c>
       <c r="H219" s="15"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <f>MAX(A208:A219)+1</f>
         <v>176</v>
@@ -6621,7 +6629,9 @@
         <f t="shared" si="236"/>
         <v>45979</v>
       </c>
-      <c r="E220" s="5"/>
+      <c r="E220" s="5">
+        <v>1627</v>
+      </c>
       <c r="F220" s="8" t="str">
         <f t="shared" ref="F220:G220" si="237">IFERROR(IF(F210,F210+14,""),"")</f>
         <v/>
@@ -6631,35 +6641,171 @@
         <v/>
       </c>
       <c r="H220" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="45"/>
+      <c r="B221" s="46"/>
+      <c r="C221" s="46"/>
+      <c r="D221" s="46"/>
+      <c r="E221" s="47"/>
+      <c r="F221" s="46"/>
+      <c r="G221" s="46"/>
+      <c r="H221" s="48"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <f t="shared" ref="A222:A225" si="238">MAX(A210:A221)+1</f>
+        <v>177</v>
+      </c>
+      <c r="B222" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="42">
+        <f>IFERROR(IF(C212,C212+14,""),"")</f>
+        <v>45985</v>
+      </c>
+      <c r="D222" s="42">
+        <f t="shared" ref="D222:D226" si="239">IFERROR(IF(D212,D212+14,""),"")</f>
+        <v>45986</v>
+      </c>
+      <c r="E222" s="43"/>
+      <c r="F222" s="42">
+        <f t="shared" ref="F222:G222" si="240">IFERROR(IF(F212,F212+14,""),"")</f>
+        <v>45992</v>
+      </c>
+      <c r="G222" s="42">
+        <f t="shared" si="240"/>
+        <v>45992</v>
+      </c>
+      <c r="H222" s="23"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <f t="shared" si="238"/>
+        <v>178</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C223" s="42">
+        <f t="shared" ref="C223" si="241">IFERROR(IF(C213,C213+14,""),"")</f>
+        <v>45985</v>
+      </c>
+      <c r="D223" s="42">
+        <f t="shared" si="239"/>
+        <v>45986</v>
+      </c>
+      <c r="E223" s="5"/>
+      <c r="F223" s="42">
+        <f t="shared" ref="F223:G223" si="242">IFERROR(IF(F213,F213+14,""),"")</f>
+        <v>45993</v>
+      </c>
+      <c r="G223" s="42">
+        <f t="shared" si="242"/>
+        <v>45993</v>
+      </c>
+      <c r="H223" s="15"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <f t="shared" si="238"/>
+        <v>179</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="42">
+        <f t="shared" ref="C224" si="243">IFERROR(IF(C214,C214+14,""),"")</f>
+        <v>45988</v>
+      </c>
+      <c r="D224" s="42">
+        <f t="shared" si="239"/>
+        <v>45989</v>
+      </c>
+      <c r="E224" s="5"/>
+      <c r="F224" s="42">
+        <f t="shared" ref="F224:G224" si="244">IFERROR(IF(F214,F214+14,""),"")</f>
+        <v>45994</v>
+      </c>
+      <c r="G224" s="42">
+        <f t="shared" si="244"/>
+        <v>45995</v>
+      </c>
+      <c r="H224" s="15"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <f t="shared" si="238"/>
+        <v>180</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="42">
+        <f t="shared" ref="C225" si="245">IFERROR(IF(C215,C215+14,""),"")</f>
+        <v>45985</v>
+      </c>
+      <c r="D225" s="42">
+        <f t="shared" si="239"/>
+        <v>45986</v>
+      </c>
+      <c r="E225" s="5"/>
+      <c r="F225" s="42"/>
+      <c r="G225" s="42"/>
+      <c r="H225" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="44"/>
-      <c r="B221" s="45"/>
-      <c r="C221" s="45"/>
-      <c r="D221" s="45"/>
-      <c r="E221" s="46"/>
-      <c r="F221" s="45"/>
-      <c r="G221" s="45"/>
-      <c r="H221" s="47"/>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <f>MAX(A215:A225)+1</f>
+        <v>181</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C226" s="42">
+        <f t="shared" ref="C226" si="246">IFERROR(IF(C216,C216+14,""),"")</f>
+        <v>45988</v>
+      </c>
+      <c r="D226" s="42">
+        <f t="shared" si="239"/>
+        <v>45989</v>
+      </c>
+      <c r="E226" s="43"/>
+      <c r="F226" s="42">
+        <f t="shared" ref="F226:G226" si="247">IFERROR(IF(F216,F216+14,""),"")</f>
+        <v>45999</v>
+      </c>
+      <c r="G226" s="42">
+        <f t="shared" si="247"/>
+        <v>45999</v>
+      </c>
+      <c r="H226" s="36"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="45"/>
+      <c r="B227" s="46"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="47"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="46"/>
+      <c r="H227" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H206" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H210" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="162"/>
-        <filter val="163"/>
-        <filter val="164"/>
-        <filter val="165"/>
+        <filter val="166"/>
+        <filter val="167"/>
+        <filter val="168"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="41">
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
+  <mergeCells count="42">
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A85:H85"/>
@@ -6668,10 +6814,6 @@
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A152:H152"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -6685,6 +6827,7 @@
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A186:H186"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A145:H145"/>
@@ -6692,11 +6835,19 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A227:H227"/>
     <mergeCell ref="A207:H207"/>
     <mergeCell ref="A202:H202"/>
     <mergeCell ref="A196:H196"/>
     <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFE05D-340A-4FD2-888E-B9FA52034984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965573D1-848F-4BDD-A5E2-3F9A0EA8B7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="65">
   <si>
     <t>Контракт</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>отгрузка на месте; 24,11,25 был дозаказ</t>
+  </si>
+  <si>
+    <t>27,11,25 корректировка заказа</t>
   </si>
 </sst>
 </file>
@@ -687,10 +690,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,15 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +1022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F229" sqref="F229"/>
+      <selection pane="bottomLeft" activeCell="L228" sqref="L228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,19 +1039,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1069,12 +1072,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1091,10 +1094,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1111,10 +1114,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1125,14 +1128,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1149,10 +1152,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1172,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1319,7 +1322,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1469,10 +1472,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1621,10 +1624,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1831,10 +1834,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2025,10 +2028,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2236,10 +2239,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2360,10 +2363,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2521,7 +2524,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2645,7 +2648,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2829,7 +2832,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2957,7 +2960,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="48"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3141,7 +3144,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="48"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3268,7 +3271,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="48"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3451,7 +3454,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="48"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3576,7 +3579,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="48"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3763,7 +3766,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="48"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3946,7 +3949,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="48"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4054,7 +4057,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="48"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4237,7 +4240,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="48"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4365,7 +4368,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="48"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4553,7 +4556,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="48"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4678,10 +4681,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="47"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="48"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4866,10 +4869,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="47"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="48"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4965,10 +4968,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="47"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="48"/>
+      <c r="H156" s="47"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5127,10 +5130,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="47"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="48"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5231,10 +5234,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="47"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="48"/>
+      <c r="H166" s="47"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5393,10 +5396,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="47"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="47"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5497,10 +5500,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="47"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="48"/>
+      <c r="H176" s="47"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5660,10 +5663,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="47"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="48"/>
+      <c r="H182" s="47"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5761,10 +5764,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="47"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="48"/>
+      <c r="H186" s="47"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5922,10 +5925,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="47"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="48"/>
+      <c r="H192" s="47"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6026,10 +6029,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="47"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="48"/>
+      <c r="H196" s="47"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6186,10 +6189,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="47"/>
+      <c r="E202" s="48"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="48"/>
+      <c r="H202" s="47"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6314,10 +6317,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="47"/>
+      <c r="E207" s="48"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="48"/>
+      <c r="H207" s="47"/>
     </row>
     <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6415,10 +6418,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="47"/>
+      <c r="E211" s="48"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="48"/>
+      <c r="H211" s="47"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6550,10 +6553,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="47"/>
+      <c r="E217" s="48"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="48"/>
+      <c r="H217" s="47"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6649,10 +6652,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="47"/>
+      <c r="E221" s="48"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="48"/>
+      <c r="H221" s="47"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6670,7 +6673,9 @@
         <f t="shared" ref="D222:D226" si="239">IFERROR(IF(D212,D212+14,""),"")</f>
         <v>45986</v>
       </c>
-      <c r="E222" s="43"/>
+      <c r="E222" s="43">
+        <v>1614</v>
+      </c>
       <c r="F222" s="42">
         <f t="shared" ref="F222:G222" si="240">IFERROR(IF(F212,F212+14,""),"")</f>
         <v>45992</v>
@@ -6681,7 +6686,7 @@
       </c>
       <c r="H222" s="23"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <f t="shared" si="238"/>
         <v>178</v>
@@ -6697,7 +6702,9 @@
         <f t="shared" si="239"/>
         <v>45986</v>
       </c>
-      <c r="E223" s="5"/>
+      <c r="E223" s="5">
+        <v>4562</v>
+      </c>
       <c r="F223" s="42">
         <f t="shared" ref="F223:G223" si="242">IFERROR(IF(F213,F213+14,""),"")</f>
         <v>45993</v>
@@ -6706,7 +6713,9 @@
         <f t="shared" si="242"/>
         <v>45993</v>
       </c>
-      <c r="H223" s="15"/>
+      <c r="H223" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
@@ -6790,10 +6799,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="47"/>
+      <c r="E227" s="48"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="48"/>
+      <c r="H227" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H210" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -6806,27 +6815,14 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
@@ -6840,14 +6836,27 @@
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965573D1-848F-4BDD-A5E2-3F9A0EA8B7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CE33B-2143-4163-8604-AD7878A23B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,19 +690,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +725,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L228" sqref="L228"/>
+      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,19 +1039,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1072,12 +1072,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1094,10 +1094,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1114,10 +1114,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1128,14 +1128,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="61"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1322,7 +1322,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1472,10 +1472,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1624,10 +1624,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1834,10 +1834,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2028,10 +2028,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="48"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2239,10 +2239,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="48"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2363,10 +2363,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2524,7 +2524,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2648,7 +2648,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2832,7 +2832,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2960,7 +2960,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3144,7 +3144,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3271,7 +3271,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="47"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3454,7 +3454,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="47"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3579,7 +3579,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="47"/>
+      <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3766,7 +3766,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="47"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3949,7 +3949,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="47"/>
+      <c r="H116" s="48"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4057,7 +4057,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="47"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4240,7 +4240,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="47"/>
+      <c r="H128" s="48"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4368,7 +4368,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="47"/>
+      <c r="H133" s="48"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4556,7 +4556,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="47"/>
+      <c r="H140" s="48"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4681,10 +4681,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="48"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="47"/>
+      <c r="H145" s="48"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4869,10 +4869,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="47"/>
+      <c r="H152" s="48"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4968,10 +4968,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="48"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="47"/>
+      <c r="H156" s="48"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5130,10 +5130,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="48"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="47"/>
+      <c r="H162" s="48"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5234,10 +5234,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="48"/>
+      <c r="E166" s="47"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="47"/>
+      <c r="H166" s="48"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5396,10 +5396,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="48"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="47"/>
+      <c r="H172" s="48"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5500,10 +5500,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="48"/>
+      <c r="E176" s="47"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="47"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5663,10 +5663,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="48"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="47"/>
+      <c r="H182" s="48"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5764,10 +5764,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="48"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="47"/>
+      <c r="H186" s="48"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5925,10 +5925,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="48"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="47"/>
+      <c r="H192" s="48"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6029,10 +6029,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="48"/>
+      <c r="E196" s="47"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="47"/>
+      <c r="H196" s="48"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6189,10 +6189,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="48"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="47"/>
+      <c r="H202" s="48"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6317,10 +6317,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="48"/>
+      <c r="E207" s="47"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="47"/>
+      <c r="H207" s="48"/>
     </row>
     <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6418,10 +6418,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="48"/>
+      <c r="E211" s="47"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="47"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6553,10 +6553,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="48"/>
+      <c r="E217" s="47"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="47"/>
+      <c r="H217" s="48"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6652,10 +6652,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="48"/>
+      <c r="E221" s="47"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="47"/>
+      <c r="H221" s="48"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6733,7 +6733,9 @@
         <f t="shared" si="239"/>
         <v>45989</v>
       </c>
-      <c r="E224" s="5"/>
+      <c r="E224" s="5">
+        <v>6290</v>
+      </c>
       <c r="F224" s="42">
         <f t="shared" ref="F224:G224" si="244">IFERROR(IF(F214,F214+14,""),"")</f>
         <v>45994</v>
@@ -6783,7 +6785,9 @@
         <f t="shared" si="239"/>
         <v>45989</v>
       </c>
-      <c r="E226" s="43"/>
+      <c r="E226" s="43">
+        <v>2026</v>
+      </c>
       <c r="F226" s="42">
         <f t="shared" ref="F226:G226" si="247">IFERROR(IF(F216,F216+14,""),"")</f>
         <v>45999</v>
@@ -6799,10 +6803,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="48"/>
+      <c r="E227" s="47"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="47"/>
+      <c r="H227" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H210" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -6815,14 +6819,27 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
@@ -6836,27 +6853,14 @@
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CE33B-2143-4163-8604-AD7878A23B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC11A36-4997-47F8-8860-651712754AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$216</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="65">
   <si>
     <t>Контракт</t>
   </si>
@@ -690,10 +690,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,15 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,11 +1018,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231:H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,19 +1039,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1072,12 +1072,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1094,10 +1094,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1114,10 +1114,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1128,14 +1128,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1322,7 +1322,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1472,10 +1472,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1624,10 +1624,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1834,10 +1834,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2028,10 +2028,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2239,10 +2239,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2363,10 +2363,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2524,7 +2524,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2648,7 +2648,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2832,7 +2832,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2960,7 +2960,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="48"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3144,7 +3144,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="48"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3271,7 +3271,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="48"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3454,7 +3454,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="48"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3579,7 +3579,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="48"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3766,7 +3766,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="48"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3949,7 +3949,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="48"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4057,7 +4057,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="48"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4240,7 +4240,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="48"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4368,7 +4368,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="48"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4556,7 +4556,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="48"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4681,10 +4681,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="47"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="48"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4869,10 +4869,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="47"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="48"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4968,10 +4968,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="47"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="48"/>
+      <c r="H156" s="47"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5130,10 +5130,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="47"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="48"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5234,10 +5234,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="47"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="48"/>
+      <c r="H166" s="47"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5396,10 +5396,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="47"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="47"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5500,10 +5500,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="47"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="48"/>
+      <c r="H176" s="47"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5663,10 +5663,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="47"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="48"/>
+      <c r="H182" s="47"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5764,10 +5764,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="47"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="48"/>
+      <c r="H186" s="47"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5925,10 +5925,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="47"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="48"/>
+      <c r="H192" s="47"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6029,10 +6029,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="47"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="48"/>
+      <c r="H196" s="47"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6189,10 +6189,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="47"/>
+      <c r="E202" s="48"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="48"/>
+      <c r="H202" s="47"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6317,12 +6317,12 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="47"/>
+      <c r="E207" s="48"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="48"/>
-    </row>
-    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H207" s="47"/>
+    </row>
+    <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <f>MAX(A196:A207)+1</f>
         <v>166</v>
@@ -6353,7 +6353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <f>MAX(A197:A208)+1</f>
         <v>167</v>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="H209" s="15"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <f>MAX(A198:A209)+1</f>
         <v>168</v>
@@ -6413,15 +6413,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="45"/>
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="47"/>
+      <c r="E211" s="48"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="48"/>
+      <c r="H211" s="47"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6553,10 +6555,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="47"/>
+      <c r="E217" s="48"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="48"/>
+      <c r="H217" s="47"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6652,10 +6654,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="47"/>
+      <c r="E221" s="48"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="48"/>
+      <c r="H221" s="47"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6803,43 +6805,126 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="47"/>
+      <c r="E227" s="48"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="48"/>
+      <c r="H227" s="47"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <f>MAX(A216:A227)+1</f>
+        <v>182</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C228" s="8">
+        <f>IFERROR(IF(C218,C218+14,""),"")</f>
+        <v>45992</v>
+      </c>
+      <c r="D228" s="8">
+        <f t="shared" ref="C228:D228" si="248">IFERROR(IF(D218,D218+14,""),"")</f>
+        <v>45993</v>
+      </c>
+      <c r="E228" s="5"/>
+      <c r="F228" s="8">
+        <f t="shared" ref="F228:G228" si="249">IFERROR(IF(F218,F218+14,""),"")</f>
+        <v>46000</v>
+      </c>
+      <c r="G228" s="8">
+        <f t="shared" si="249"/>
+        <v>46000</v>
+      </c>
+      <c r="H228" s="15"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <f>MAX(A217:A228)+1</f>
+        <v>183</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" s="8">
+        <f t="shared" ref="C229:D229" si="250">IFERROR(IF(C219,C219+14,""),"")</f>
+        <v>45995</v>
+      </c>
+      <c r="D229" s="8">
+        <f t="shared" si="250"/>
+        <v>45996</v>
+      </c>
+      <c r="E229" s="5"/>
+      <c r="F229" s="8">
+        <f t="shared" ref="F229:G229" si="251">IFERROR(IF(F219,F219+14,""),"")</f>
+        <v>46001</v>
+      </c>
+      <c r="G229" s="8">
+        <f t="shared" si="251"/>
+        <v>46002</v>
+      </c>
+      <c r="H229" s="15"/>
+    </row>
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <f>MAX(A218:A229)+1</f>
+        <v>184</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="8">
+        <f t="shared" ref="C230:D230" si="252">IFERROR(IF(C220,C220+14,""),"")</f>
+        <v>45992</v>
+      </c>
+      <c r="D230" s="8">
+        <f t="shared" si="252"/>
+        <v>45993</v>
+      </c>
+      <c r="E230" s="5"/>
+      <c r="F230" s="8" t="str">
+        <f t="shared" ref="F230:G230" si="253">IFERROR(IF(F220,F220+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G230" s="8" t="str">
+        <f t="shared" si="253"/>
+        <v/>
+      </c>
+      <c r="H230" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="45"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="46"/>
+      <c r="D231" s="46"/>
+      <c r="E231" s="48"/>
+      <c r="F231" s="46"/>
+      <c r="G231" s="46"/>
+      <c r="H231" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H210" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H216" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="166"/>
-        <filter val="167"/>
-        <filter val="168"/>
+        <filter val="169"/>
+        <filter val="170"/>
+        <filter val="171"/>
+        <filter val="172"/>
+        <filter val="173"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="42">
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
+  <mergeCells count="43">
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
     <mergeCell ref="A186:H186"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
@@ -6853,14 +6938,27 @@
     <mergeCell ref="A172:H172"/>
     <mergeCell ref="A166:H166"/>
     <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC11A36-4997-47F8-8860-651712754AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC45CBC-EE9D-4449-AFD6-0EFCC0B64E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="66">
   <si>
     <t>Контракт</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>27,11,25 корректировка заказа</t>
+  </si>
+  <si>
+    <t>04,12,25 будет корректировка</t>
   </si>
 </sst>
 </file>
@@ -690,19 +693,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +728,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1025,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231:H231"/>
+      <selection pane="bottomLeft" activeCell="L222" sqref="L222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,19 +1042,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1072,12 +1075,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1094,10 +1097,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1114,10 +1117,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1128,14 +1131,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1152,10 +1155,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1175,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="61"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1322,7 +1325,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1472,10 +1475,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1624,10 +1627,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1834,10 +1837,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2028,10 +2031,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="48"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2239,10 +2242,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="48"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2363,10 +2366,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2524,7 +2527,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2648,7 +2651,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2832,7 +2835,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2960,7 +2963,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3144,7 +3147,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3271,7 +3274,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="47"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3454,7 +3457,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="47"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3579,7 +3582,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="47"/>
+      <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3766,7 +3769,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="47"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3949,7 +3952,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="47"/>
+      <c r="H116" s="48"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4057,7 +4060,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="47"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4240,7 +4243,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="47"/>
+      <c r="H128" s="48"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4368,7 +4371,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="47"/>
+      <c r="H133" s="48"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4556,7 +4559,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="47"/>
+      <c r="H140" s="48"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4681,10 +4684,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="48"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="47"/>
+      <c r="H145" s="48"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4869,10 +4872,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="47"/>
+      <c r="H152" s="48"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4968,10 +4971,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="48"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="47"/>
+      <c r="H156" s="48"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5130,10 +5133,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="48"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="47"/>
+      <c r="H162" s="48"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5234,10 +5237,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="48"/>
+      <c r="E166" s="47"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="47"/>
+      <c r="H166" s="48"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5396,10 +5399,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="48"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="47"/>
+      <c r="H172" s="48"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5500,10 +5503,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="48"/>
+      <c r="E176" s="47"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="47"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5663,10 +5666,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="48"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="47"/>
+      <c r="H182" s="48"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5764,10 +5767,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="48"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="47"/>
+      <c r="H186" s="48"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5925,10 +5928,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="48"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="47"/>
+      <c r="H192" s="48"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6029,10 +6032,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="48"/>
+      <c r="E196" s="47"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="47"/>
+      <c r="H196" s="48"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6189,10 +6192,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="48"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="47"/>
+      <c r="H202" s="48"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6317,10 +6320,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="48"/>
+      <c r="E207" s="47"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="47"/>
+      <c r="H207" s="48"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6420,10 +6423,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="48"/>
+      <c r="E211" s="47"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="47"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6555,10 +6558,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="48"/>
+      <c r="E217" s="47"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="47"/>
+      <c r="H217" s="48"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6654,10 +6657,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="48"/>
+      <c r="E221" s="47"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="47"/>
+      <c r="H221" s="48"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6805,12 +6808,12 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="48"/>
+      <c r="E227" s="47"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="47"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H227" s="48"/>
+    </row>
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <f>MAX(A216:A227)+1</f>
         <v>182</v>
@@ -6823,10 +6826,12 @@
         <v>45992</v>
       </c>
       <c r="D228" s="8">
-        <f t="shared" ref="C228:D228" si="248">IFERROR(IF(D218,D218+14,""),"")</f>
+        <f t="shared" ref="D228" si="248">IFERROR(IF(D218,D218+14,""),"")</f>
         <v>45993</v>
       </c>
-      <c r="E228" s="5"/>
+      <c r="E228" s="5">
+        <v>1960</v>
+      </c>
       <c r="F228" s="8">
         <f t="shared" ref="F228:G228" si="249">IFERROR(IF(F218,F218+14,""),"")</f>
         <v>46000</v>
@@ -6835,7 +6840,9 @@
         <f t="shared" si="249"/>
         <v>46000</v>
       </c>
-      <c r="H228" s="15"/>
+      <c r="H228" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
@@ -6898,10 +6905,10 @@
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
-      <c r="E231" s="48"/>
+      <c r="E231" s="47"/>
       <c r="F231" s="46"/>
       <c r="G231" s="46"/>
-      <c r="H231" s="47"/>
+      <c r="H231" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H216" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -6916,33 +6923,14 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="43">
-    <mergeCell ref="A231:H231"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="F5:G5"/>
@@ -6951,14 +6939,33 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC45CBC-EE9D-4449-AFD6-0EFCC0B64E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8EF1A0-A4BF-4E0A-835A-CEDD70BB56FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     <t>27,11,25 корректировка заказа</t>
   </si>
   <si>
-    <t>04,12,25 будет корректировка</t>
+    <t>04,12,25 корректировка заказа</t>
   </si>
 </sst>
 </file>
@@ -693,10 +693,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,15 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1025,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L222" sqref="L222"/>
+      <selection pane="bottomLeft" activeCell="J225" sqref="J225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,19 +1042,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1075,12 +1075,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1097,10 +1097,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1117,10 +1117,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1131,14 +1131,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1155,10 +1155,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1325,7 +1325,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1475,10 +1475,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1627,10 +1627,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1837,10 +1837,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2031,10 +2031,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2242,10 +2242,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2366,10 +2366,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2527,7 +2527,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2651,7 +2651,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2835,7 +2835,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2963,7 +2963,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="48"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3147,7 +3147,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="48"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3274,7 +3274,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="48"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3457,7 +3457,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="48"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3582,7 +3582,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="48"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3769,7 +3769,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="48"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3952,7 +3952,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="48"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4060,7 +4060,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="48"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4243,7 +4243,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="48"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4371,7 +4371,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="48"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4559,7 +4559,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="48"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4684,10 +4684,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="47"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="48"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4872,10 +4872,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="47"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="48"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4971,10 +4971,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="47"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="48"/>
+      <c r="H156" s="47"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5133,10 +5133,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="47"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="48"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5237,10 +5237,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="47"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="48"/>
+      <c r="H166" s="47"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5399,10 +5399,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="47"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="47"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5503,10 +5503,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="47"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="48"/>
+      <c r="H176" s="47"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5666,10 +5666,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="47"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="48"/>
+      <c r="H182" s="47"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5767,10 +5767,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="47"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="48"/>
+      <c r="H186" s="47"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5928,10 +5928,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="47"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="48"/>
+      <c r="H192" s="47"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6032,10 +6032,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="47"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="48"/>
+      <c r="H196" s="47"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6192,10 +6192,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="47"/>
+      <c r="E202" s="48"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="48"/>
+      <c r="H202" s="47"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6320,10 +6320,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="47"/>
+      <c r="E207" s="48"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="48"/>
+      <c r="H207" s="47"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6423,10 +6423,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="47"/>
+      <c r="E211" s="48"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="48"/>
+      <c r="H211" s="47"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6558,10 +6558,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="47"/>
+      <c r="E217" s="48"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="48"/>
+      <c r="H217" s="47"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6657,10 +6657,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="47"/>
+      <c r="E221" s="48"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="48"/>
+      <c r="H221" s="47"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6808,10 +6808,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="47"/>
+      <c r="E227" s="48"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="48"/>
+      <c r="H227" s="47"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6830,7 +6830,7 @@
         <v>45993</v>
       </c>
       <c r="E228" s="5">
-        <v>1960</v>
+        <v>4874</v>
       </c>
       <c r="F228" s="8">
         <f t="shared" ref="F228:G228" si="249">IFERROR(IF(F218,F218+14,""),"")</f>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="H229" s="15"/>
     </row>
-    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <f>MAX(A218:A229)+1</f>
         <v>184</v>
@@ -6897,7 +6897,7 @@
         <v/>
       </c>
       <c r="H230" s="15" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -6905,10 +6905,10 @@
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
-      <c r="E231" s="47"/>
+      <c r="E231" s="48"/>
       <c r="F231" s="46"/>
       <c r="G231" s="46"/>
-      <c r="H231" s="48"/>
+      <c r="H231" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H216" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -6923,6 +6923,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="43">
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A85:H85"/>
@@ -6931,24 +6959,6 @@
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A152:H152"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A145:H145"/>
@@ -6956,16 +6966,6 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A231:H231"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8EF1A0-A4BF-4E0A-835A-CEDD70BB56FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051B7FA-1108-4C92-BEF1-B1BEEBB19B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,19 +693,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,6 +728,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1025,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J225" sqref="J225"/>
+      <selection pane="bottomLeft" activeCell="K231" sqref="K231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,19 +1042,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1075,12 +1075,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1097,10 +1097,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1117,10 +1117,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1131,14 +1131,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1155,10 +1155,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="61"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1325,7 +1325,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1475,10 +1475,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1627,10 +1627,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1837,10 +1837,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2031,10 +2031,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="48"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2242,10 +2242,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="48"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2366,10 +2366,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2527,7 +2527,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2651,7 +2651,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2835,7 +2835,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2963,7 +2963,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3147,7 +3147,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3274,7 +3274,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="47"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3457,7 +3457,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="47"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3582,7 +3582,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="47"/>
+      <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3769,7 +3769,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="47"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3952,7 +3952,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="47"/>
+      <c r="H116" s="48"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4060,7 +4060,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="47"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4243,7 +4243,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="47"/>
+      <c r="H128" s="48"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4371,7 +4371,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="47"/>
+      <c r="H133" s="48"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4559,7 +4559,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="47"/>
+      <c r="H140" s="48"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4684,10 +4684,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="48"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="47"/>
+      <c r="H145" s="48"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4872,10 +4872,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="47"/>
+      <c r="H152" s="48"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4971,10 +4971,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="48"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="47"/>
+      <c r="H156" s="48"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5133,10 +5133,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="48"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="47"/>
+      <c r="H162" s="48"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5237,10 +5237,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="48"/>
+      <c r="E166" s="47"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="47"/>
+      <c r="H166" s="48"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5399,10 +5399,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="48"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="47"/>
+      <c r="H172" s="48"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5503,10 +5503,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="48"/>
+      <c r="E176" s="47"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="47"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5666,10 +5666,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="48"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="47"/>
+      <c r="H182" s="48"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5767,10 +5767,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="48"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="47"/>
+      <c r="H186" s="48"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5928,10 +5928,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="48"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="47"/>
+      <c r="H192" s="48"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6032,10 +6032,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="48"/>
+      <c r="E196" s="47"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="47"/>
+      <c r="H196" s="48"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6192,10 +6192,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="48"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="47"/>
+      <c r="H202" s="48"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6320,10 +6320,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="48"/>
+      <c r="E207" s="47"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="47"/>
+      <c r="H207" s="48"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6423,10 +6423,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="48"/>
+      <c r="E211" s="47"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="47"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6558,10 +6558,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="48"/>
+      <c r="E217" s="47"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="47"/>
+      <c r="H217" s="48"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6657,10 +6657,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="48"/>
+      <c r="E221" s="47"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="47"/>
+      <c r="H221" s="48"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6808,10 +6808,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="48"/>
+      <c r="E227" s="47"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="47"/>
+      <c r="H227" s="48"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6860,7 +6860,9 @@
         <f t="shared" si="250"/>
         <v>45996</v>
       </c>
-      <c r="E229" s="5"/>
+      <c r="E229" s="5">
+        <v>4992</v>
+      </c>
       <c r="F229" s="8">
         <f t="shared" ref="F229:G229" si="251">IFERROR(IF(F219,F219+14,""),"")</f>
         <v>46001</v>
@@ -6905,10 +6907,10 @@
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
-      <c r="E231" s="48"/>
+      <c r="E231" s="47"/>
       <c r="F231" s="46"/>
       <c r="G231" s="46"/>
-      <c r="H231" s="47"/>
+      <c r="H231" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H216" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -6923,34 +6925,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="43">
-    <mergeCell ref="A231:H231"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A85:H85"/>
@@ -6966,6 +6940,34 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051B7FA-1108-4C92-BEF1-B1BEEBB19B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48AB29A-07DB-4CC1-9312-EEBC2AE31B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$220</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="66">
   <si>
     <t>Контракт</t>
   </si>
@@ -693,10 +693,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,15 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,11 +1021,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K231" sqref="K231"/>
+      <selection pane="bottomLeft" activeCell="L224" sqref="L224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,19 +1042,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1075,12 +1075,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1097,10 +1097,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1117,10 +1117,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1131,14 +1131,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1155,10 +1155,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1325,7 +1325,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1475,10 +1475,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1627,10 +1627,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1837,10 +1837,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2031,10 +2031,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2242,10 +2242,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2366,10 +2366,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2527,7 +2527,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2651,7 +2651,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2835,7 +2835,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2963,7 +2963,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="48"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3147,7 +3147,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="48"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3274,7 +3274,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="48"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3457,7 +3457,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="48"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3582,7 +3582,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="48"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3769,7 +3769,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="48"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3952,7 +3952,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="48"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4060,7 +4060,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="48"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4243,7 +4243,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="48"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4371,7 +4371,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="48"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4559,7 +4559,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="48"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4684,10 +4684,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="47"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="48"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4872,10 +4872,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="47"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="48"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4971,10 +4971,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="47"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="48"/>
+      <c r="H156" s="47"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5133,10 +5133,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="47"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="48"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5237,10 +5237,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="47"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="48"/>
+      <c r="H166" s="47"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5399,10 +5399,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="47"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="47"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5503,10 +5503,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="47"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="48"/>
+      <c r="H176" s="47"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5666,10 +5666,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="47"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="48"/>
+      <c r="H182" s="47"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5767,10 +5767,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="47"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="48"/>
+      <c r="H186" s="47"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5928,10 +5928,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="47"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="48"/>
+      <c r="H192" s="47"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6032,10 +6032,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="47"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="48"/>
+      <c r="H196" s="47"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6192,10 +6192,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="47"/>
+      <c r="E202" s="48"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="48"/>
+      <c r="H202" s="47"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6320,10 +6320,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="47"/>
+      <c r="E207" s="48"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="48"/>
+      <c r="H207" s="47"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6423,12 +6423,12 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="47"/>
+      <c r="E211" s="48"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="48"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H211" s="47"/>
+    </row>
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <f t="shared" ref="A212:A215" si="231">MAX(A200:A211)+1</f>
         <v>169</v>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="H212" s="23"/>
     </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <f t="shared" si="231"/>
         <v>170</v>
@@ -6480,7 +6480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <f t="shared" si="231"/>
         <v>171</v>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="H214" s="15"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <f t="shared" si="231"/>
         <v>172</v>
@@ -6528,7 +6528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <f>MAX(A205:A215)+1</f>
         <v>173</v>
@@ -6553,15 +6553,17 @@
       </c>
       <c r="H216" s="36"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="45"/>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="47"/>
+      <c r="E217" s="48"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="48"/>
+      <c r="H217" s="47"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6657,10 +6659,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="47"/>
+      <c r="E221" s="48"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="48"/>
+      <c r="H221" s="47"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6808,10 +6810,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="47"/>
+      <c r="E227" s="48"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="48"/>
+      <c r="H227" s="47"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6889,7 +6891,9 @@
         <f t="shared" si="252"/>
         <v>45993</v>
       </c>
-      <c r="E230" s="5"/>
+      <c r="E230" s="5">
+        <v>820</v>
+      </c>
       <c r="F230" s="8" t="str">
         <f t="shared" ref="F230:G230" si="253">IFERROR(IF(F220,F220+14,""),"")</f>
         <v/>
@@ -6907,24 +6911,192 @@
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
-      <c r="E231" s="47"/>
+      <c r="E231" s="48"/>
       <c r="F231" s="46"/>
       <c r="G231" s="46"/>
-      <c r="H231" s="48"/>
+      <c r="H231" s="47"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <f t="shared" ref="A232:A235" si="254">MAX(A220:A231)+1</f>
+        <v>185</v>
+      </c>
+      <c r="B232" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" s="42">
+        <f>IFERROR(IF(C222,C222+14,""),"")</f>
+        <v>45999</v>
+      </c>
+      <c r="D232" s="42">
+        <f t="shared" ref="D232:D236" si="255">IFERROR(IF(D222,D222+14,""),"")</f>
+        <v>46000</v>
+      </c>
+      <c r="E232" s="43"/>
+      <c r="F232" s="42">
+        <f t="shared" ref="F232:G232" si="256">IFERROR(IF(F222,F222+14,""),"")</f>
+        <v>46006</v>
+      </c>
+      <c r="G232" s="42">
+        <f t="shared" si="256"/>
+        <v>46006</v>
+      </c>
+      <c r="H232" s="23"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <f t="shared" si="254"/>
+        <v>186</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C233" s="42">
+        <f t="shared" ref="C233:C236" si="257">IFERROR(IF(C223,C223+14,""),"")</f>
+        <v>45999</v>
+      </c>
+      <c r="D233" s="42">
+        <f t="shared" si="255"/>
+        <v>46000</v>
+      </c>
+      <c r="E233" s="5"/>
+      <c r="F233" s="42">
+        <f t="shared" ref="F233:G233" si="258">IFERROR(IF(F223,F223+14,""),"")</f>
+        <v>46007</v>
+      </c>
+      <c r="G233" s="42">
+        <f t="shared" si="258"/>
+        <v>46007</v>
+      </c>
+      <c r="H233" s="15"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <f t="shared" si="254"/>
+        <v>187</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" s="42">
+        <f t="shared" si="257"/>
+        <v>46002</v>
+      </c>
+      <c r="D234" s="42">
+        <f t="shared" si="255"/>
+        <v>46003</v>
+      </c>
+      <c r="E234" s="5"/>
+      <c r="F234" s="42">
+        <f t="shared" ref="F234:G234" si="259">IFERROR(IF(F224,F224+14,""),"")</f>
+        <v>46008</v>
+      </c>
+      <c r="G234" s="42">
+        <f t="shared" si="259"/>
+        <v>46009</v>
+      </c>
+      <c r="H234" s="15"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <f t="shared" si="254"/>
+        <v>188</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="42">
+        <f t="shared" si="257"/>
+        <v>45999</v>
+      </c>
+      <c r="D235" s="42">
+        <f t="shared" si="255"/>
+        <v>46000</v>
+      </c>
+      <c r="E235" s="5"/>
+      <c r="F235" s="42"/>
+      <c r="G235" s="42"/>
+      <c r="H235" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <f>MAX(A225:A235)+1</f>
+        <v>189</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236" s="42">
+        <f t="shared" si="257"/>
+        <v>46002</v>
+      </c>
+      <c r="D236" s="42">
+        <f t="shared" si="255"/>
+        <v>46003</v>
+      </c>
+      <c r="E236" s="43"/>
+      <c r="F236" s="42">
+        <f t="shared" ref="F236:G236" si="260">IFERROR(IF(F226,F226+14,""),"")</f>
+        <v>46013</v>
+      </c>
+      <c r="G236" s="42">
+        <f t="shared" si="260"/>
+        <v>46013</v>
+      </c>
+      <c r="H236" s="36"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="45"/>
+      <c r="B237" s="46"/>
+      <c r="C237" s="46"/>
+      <c r="D237" s="46"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="46"/>
+      <c r="G237" s="46"/>
+      <c r="H237" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H216" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H220" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="169"/>
-        <filter val="170"/>
-        <filter val="171"/>
-        <filter val="172"/>
-        <filter val="173"/>
+        <filter val="174"/>
+        <filter val="175"/>
+        <filter val="176"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="A237:H237"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A85:H85"/>
@@ -6940,34 +7112,6 @@
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A231:H231"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48AB29A-07DB-4CC1-9312-EEBC2AE31B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FE7ED3-9D32-40D1-B595-A910E02D2CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="68">
   <si>
     <t>Контракт</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>04,12,25 корректировка заказа</t>
+  </si>
+  <si>
+    <t>11,12,25 будет корректировка</t>
+  </si>
+  <si>
+    <t>заказ сбросим 11,12,25</t>
   </si>
 </sst>
 </file>
@@ -693,19 +699,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,6 +734,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L224" sqref="L224"/>
+      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,19 +1048,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1075,12 +1081,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1097,10 +1103,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1117,10 +1123,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1131,14 +1137,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1155,10 +1161,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1181,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="61"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1325,7 +1331,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1475,10 +1481,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1627,10 +1633,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1837,10 +1843,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2031,10 +2037,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="48"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2242,10 +2248,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="48"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2366,10 +2372,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2527,7 +2533,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2651,7 +2657,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2835,7 +2841,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2963,7 +2969,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3147,7 +3153,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3274,7 +3280,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="47"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3457,7 +3463,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="47"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3582,7 +3588,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="47"/>
+      <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3769,7 +3775,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="47"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3952,7 +3958,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="47"/>
+      <c r="H116" s="48"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4060,7 +4066,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="47"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4243,7 +4249,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="47"/>
+      <c r="H128" s="48"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4371,7 +4377,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="47"/>
+      <c r="H133" s="48"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4559,7 +4565,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="47"/>
+      <c r="H140" s="48"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4684,10 +4690,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="48"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="47"/>
+      <c r="H145" s="48"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4872,10 +4878,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="47"/>
+      <c r="H152" s="48"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4971,10 +4977,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="48"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="47"/>
+      <c r="H156" s="48"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5133,10 +5139,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="48"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="47"/>
+      <c r="H162" s="48"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5237,10 +5243,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="48"/>
+      <c r="E166" s="47"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="47"/>
+      <c r="H166" s="48"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5399,10 +5405,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="48"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="47"/>
+      <c r="H172" s="48"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5503,10 +5509,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="48"/>
+      <c r="E176" s="47"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="47"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5666,10 +5672,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="48"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="47"/>
+      <c r="H182" s="48"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5767,10 +5773,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="48"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="47"/>
+      <c r="H186" s="48"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5928,10 +5934,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="48"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="47"/>
+      <c r="H192" s="48"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6032,10 +6038,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="48"/>
+      <c r="E196" s="47"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="47"/>
+      <c r="H196" s="48"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6192,10 +6198,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="48"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="47"/>
+      <c r="H202" s="48"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6320,10 +6326,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="48"/>
+      <c r="E207" s="47"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="47"/>
+      <c r="H207" s="48"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6423,10 +6429,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="48"/>
+      <c r="E211" s="47"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="47"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6560,10 +6566,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="48"/>
+      <c r="E217" s="47"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="47"/>
+      <c r="H217" s="48"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6659,10 +6665,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="48"/>
+      <c r="E221" s="47"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="47"/>
+      <c r="H221" s="48"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6810,10 +6816,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="48"/>
+      <c r="E227" s="47"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="47"/>
+      <c r="H227" s="48"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6911,12 +6917,12 @@
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
-      <c r="E231" s="48"/>
+      <c r="E231" s="47"/>
       <c r="F231" s="46"/>
       <c r="G231" s="46"/>
-      <c r="H231" s="47"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H231" s="48"/>
+    </row>
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <f t="shared" ref="A232:A235" si="254">MAX(A220:A231)+1</f>
         <v>185</v>
@@ -6932,7 +6938,9 @@
         <f t="shared" ref="D232:D236" si="255">IFERROR(IF(D222,D222+14,""),"")</f>
         <v>46000</v>
       </c>
-      <c r="E232" s="43"/>
+      <c r="E232" s="43">
+        <v>2421</v>
+      </c>
       <c r="F232" s="42">
         <f t="shared" ref="F232:G232" si="256">IFERROR(IF(F222,F222+14,""),"")</f>
         <v>46006</v>
@@ -6941,9 +6949,11 @@
         <f t="shared" si="256"/>
         <v>46006</v>
       </c>
-      <c r="H232" s="23"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H232" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <f t="shared" si="254"/>
         <v>186</v>
@@ -6955,9 +6965,8 @@
         <f t="shared" ref="C233:C236" si="257">IFERROR(IF(C223,C223+14,""),"")</f>
         <v>45999</v>
       </c>
-      <c r="D233" s="42">
-        <f t="shared" si="255"/>
-        <v>46000</v>
+      <c r="D233" s="40">
+        <v>46002</v>
       </c>
       <c r="E233" s="5"/>
       <c r="F233" s="42">
@@ -6968,7 +6977,9 @@
         <f t="shared" si="258"/>
         <v>46007</v>
       </c>
-      <c r="H233" s="15"/>
+      <c r="H233" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
@@ -7052,10 +7063,10 @@
       <c r="B237" s="46"/>
       <c r="C237" s="46"/>
       <c r="D237" s="46"/>
-      <c r="E237" s="48"/>
+      <c r="E237" s="47"/>
       <c r="F237" s="46"/>
       <c r="G237" s="46"/>
-      <c r="H237" s="47"/>
+      <c r="H237" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H220" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -7068,21 +7079,19 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
-    <mergeCell ref="A237:H237"/>
-    <mergeCell ref="A231:H231"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
     <mergeCell ref="A162:H162"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
@@ -7099,19 +7108,21 @@
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A237:H237"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FE7ED3-9D32-40D1-B595-A910E02D2CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9218BE3-1DFA-41E3-8059-DAFBC6960FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
     <t>11,12,25 будет корректировка</t>
   </si>
   <si>
-    <t>заказ сбросим 11,12,25</t>
+    <t>заказ отправили 11,12,25</t>
   </si>
 </sst>
 </file>
@@ -699,10 +699,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
+      <selection pane="bottomLeft" activeCell="J236" sqref="J236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1481,7 +1481,7 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="59"/>
@@ -1633,7 +1633,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="59"/>
@@ -1843,7 +1843,7 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
       <c r="H34" s="59"/>
@@ -2037,7 +2037,7 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
       <c r="H41" s="59"/>
@@ -2248,7 +2248,7 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
       <c r="H49" s="59"/>
@@ -2372,7 +2372,7 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
       <c r="H54" s="59"/>
@@ -2533,7 +2533,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2657,7 +2657,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2841,7 +2841,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="47"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2969,7 +2969,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="48"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3153,7 +3153,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="48"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3280,7 +3280,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="48"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3463,7 +3463,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="48"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3588,7 +3588,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="48"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3775,7 +3775,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="48"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3958,7 +3958,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="48"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4066,7 +4066,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="48"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4249,7 +4249,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="48"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4377,7 +4377,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="48"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4565,7 +4565,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="48"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4690,10 +4690,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="47"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="48"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4878,10 +4878,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="47"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="48"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4977,10 +4977,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="47"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="48"/>
+      <c r="H156" s="47"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5139,10 +5139,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="47"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="48"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5243,10 +5243,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="47"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="48"/>
+      <c r="H166" s="47"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5405,10 +5405,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="47"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="47"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5509,10 +5509,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="47"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="48"/>
+      <c r="H176" s="47"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5672,10 +5672,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="47"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="48"/>
+      <c r="H182" s="47"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5773,10 +5773,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="47"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="48"/>
+      <c r="H186" s="47"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5934,10 +5934,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="47"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="48"/>
+      <c r="H192" s="47"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6038,10 +6038,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="47"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="48"/>
+      <c r="H196" s="47"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6198,10 +6198,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="47"/>
+      <c r="E202" s="48"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="48"/>
+      <c r="H202" s="47"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6326,10 +6326,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="47"/>
+      <c r="E207" s="48"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="48"/>
+      <c r="H207" s="47"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6429,10 +6429,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="47"/>
+      <c r="E211" s="48"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="48"/>
+      <c r="H211" s="47"/>
     </row>
     <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6566,10 +6566,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="47"/>
+      <c r="E217" s="48"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="48"/>
+      <c r="H217" s="47"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6665,10 +6665,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="47"/>
+      <c r="E221" s="48"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="48"/>
+      <c r="H221" s="47"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6816,10 +6816,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="47"/>
+      <c r="E227" s="48"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="48"/>
+      <c r="H227" s="47"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6917,10 +6917,10 @@
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
-      <c r="E231" s="47"/>
+      <c r="E231" s="48"/>
       <c r="F231" s="46"/>
       <c r="G231" s="46"/>
-      <c r="H231" s="48"/>
+      <c r="H231" s="47"/>
     </row>
     <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -6968,7 +6968,9 @@
       <c r="D233" s="40">
         <v>46002</v>
       </c>
-      <c r="E233" s="5"/>
+      <c r="E233" s="5">
+        <v>3333</v>
+      </c>
       <c r="F233" s="42">
         <f t="shared" ref="F233:G233" si="258">IFERROR(IF(F223,F223+14,""),"")</f>
         <v>46007</v>
@@ -7063,10 +7065,10 @@
       <c r="B237" s="46"/>
       <c r="C237" s="46"/>
       <c r="D237" s="46"/>
-      <c r="E237" s="47"/>
+      <c r="E237" s="48"/>
       <c r="F237" s="46"/>
       <c r="G237" s="46"/>
-      <c r="H237" s="48"/>
+      <c r="H237" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H220" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -7079,17 +7081,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A237:H237"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
     <mergeCell ref="A152:H152"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A162:H162"/>
@@ -7106,23 +7114,17 @@
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A237:H237"/>
-    <mergeCell ref="A231:H231"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9218BE3-1DFA-41E3-8059-DAFBC6960FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8C7FFA-C19A-4E9F-8262-6E883850C2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$226</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="70">
   <si>
     <t>Контракт</t>
   </si>
@@ -302,6 +302,12 @@
   <si>
     <t>заказ отправили 11,12,25</t>
   </si>
+  <si>
+    <t>не заказывали</t>
+  </si>
+  <si>
+    <t>отгрузка на месте / заказ отправили без расчета</t>
+  </si>
 </sst>
 </file>
 
@@ -310,12 +316,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -579,7 +599,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -588,16 +608,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,37 +632,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,6 +677,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -664,9 +687,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +713,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,43 +728,46 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,11 +1053,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J236" sqref="J236"/>
+      <selection pane="bottomLeft" activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,19 +1074,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1081,12 +1107,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1103,10 +1129,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1123,10 +1149,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1137,14 +1163,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1161,10 +1187,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +1207,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1322,16 +1348,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1475,16 +1501,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="59"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1627,16 +1653,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="59"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1837,16 +1863,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="59"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2031,16 +2057,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="59"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2242,16 +2268,16 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="59"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="60"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2366,16 +2392,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="59"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2524,16 +2550,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2648,16 +2674,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2832,16 +2858,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2960,16 +2986,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3144,16 +3170,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="46"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3271,16 +3297,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3454,16 +3480,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="46"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3579,16 +3605,16 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="45" t="s">
+      <c r="A102" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="46"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="47"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3766,16 +3792,16 @@
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="47"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3949,16 +3975,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="45" t="s">
+      <c r="A116" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="46"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="46"/>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="47"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="48"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4057,16 +4083,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="47"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4240,16 +4266,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="45" t="s">
+      <c r="A128" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="46"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="47"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="48"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4368,16 +4394,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="45" t="s">
+      <c r="A133" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="46"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="47"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="48"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4556,16 +4582,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="45" t="s">
+      <c r="A140" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="47"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="47"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="48"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4684,16 +4710,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="45" t="s">
+      <c r="A145" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="47"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="47"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="48"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4872,16 +4898,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="45" t="s">
+      <c r="A152" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="46"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="47"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="48"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4971,16 +4997,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="45" t="s">
+      <c r="A156" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
-      <c r="D156" s="46"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="46"/>
-      <c r="G156" s="46"/>
-      <c r="H156" s="47"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="48"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5133,16 +5159,16 @@
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="45" t="s">
+      <c r="A162" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B162" s="46"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="46"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="46"/>
-      <c r="H162" s="47"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="48"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5237,16 +5263,16 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="45" t="s">
+      <c r="A166" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="46"/>
-      <c r="C166" s="46"/>
-      <c r="D166" s="46"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="46"/>
-      <c r="H166" s="47"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="47"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="49"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="47"/>
+      <c r="H166" s="48"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5399,16 +5425,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="45" t="s">
+      <c r="A172" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B172" s="46"/>
-      <c r="C172" s="46"/>
-      <c r="D172" s="46"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="47"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="47"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="48"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5503,16 +5529,16 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="45" t="s">
+      <c r="A176" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B176" s="46"/>
-      <c r="C176" s="46"/>
-      <c r="D176" s="46"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="46"/>
-      <c r="G176" s="46"/>
-      <c r="H176" s="47"/>
+      <c r="B176" s="47"/>
+      <c r="C176" s="47"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="49"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="47"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5666,16 +5692,16 @@
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="45" t="s">
+      <c r="A182" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B182" s="46"/>
-      <c r="C182" s="46"/>
-      <c r="D182" s="46"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="46"/>
-      <c r="G182" s="46"/>
-      <c r="H182" s="47"/>
+      <c r="B182" s="47"/>
+      <c r="C182" s="47"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="48"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5767,16 +5793,16 @@
       <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="45" t="s">
+      <c r="A186" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B186" s="46"/>
-      <c r="C186" s="46"/>
-      <c r="D186" s="46"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="46"/>
-      <c r="G186" s="46"/>
-      <c r="H186" s="47"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="47"/>
+      <c r="H186" s="48"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5928,16 +5954,16 @@
       </c>
     </row>
     <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="45" t="s">
+      <c r="A192" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B192" s="46"/>
-      <c r="C192" s="46"/>
-      <c r="D192" s="46"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="46"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="47"/>
+      <c r="B192" s="47"/>
+      <c r="C192" s="47"/>
+      <c r="D192" s="47"/>
+      <c r="E192" s="49"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="48"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6032,16 +6058,16 @@
       <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="45" t="s">
+      <c r="A196" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B196" s="46"/>
-      <c r="C196" s="46"/>
-      <c r="D196" s="46"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="46"/>
-      <c r="G196" s="46"/>
-      <c r="H196" s="47"/>
+      <c r="B196" s="47"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="49"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="47"/>
+      <c r="H196" s="48"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6192,16 +6218,16 @@
       <c r="H201" s="36"/>
     </row>
     <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="45" t="s">
+      <c r="A202" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B202" s="46"/>
-      <c r="C202" s="46"/>
-      <c r="D202" s="46"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="46"/>
-      <c r="G202" s="46"/>
-      <c r="H202" s="47"/>
+      <c r="B202" s="47"/>
+      <c r="C202" s="47"/>
+      <c r="D202" s="47"/>
+      <c r="E202" s="49"/>
+      <c r="F202" s="47"/>
+      <c r="G202" s="47"/>
+      <c r="H202" s="48"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6320,16 +6346,16 @@
       <c r="H206" s="15"/>
     </row>
     <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="45" t="s">
+      <c r="A207" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B207" s="46"/>
-      <c r="C207" s="46"/>
-      <c r="D207" s="46"/>
-      <c r="E207" s="48"/>
-      <c r="F207" s="46"/>
-      <c r="G207" s="46"/>
-      <c r="H207" s="47"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="47"/>
+      <c r="D207" s="47"/>
+      <c r="E207" s="49"/>
+      <c r="F207" s="47"/>
+      <c r="G207" s="47"/>
+      <c r="H207" s="48"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6423,16 +6449,16 @@
       </c>
     </row>
     <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="45" t="s">
+      <c r="A211" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B211" s="46"/>
-      <c r="C211" s="46"/>
-      <c r="D211" s="46"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="46"/>
-      <c r="G211" s="46"/>
-      <c r="H211" s="47"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="47"/>
+      <c r="D211" s="47"/>
+      <c r="E211" s="49"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="47"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6560,18 +6586,18 @@
       <c r="H216" s="36"/>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="45" t="s">
+      <c r="A217" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B217" s="46"/>
-      <c r="C217" s="46"/>
-      <c r="D217" s="46"/>
-      <c r="E217" s="48"/>
-      <c r="F217" s="46"/>
-      <c r="G217" s="46"/>
-      <c r="H217" s="47"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="47"/>
+      <c r="C217" s="47"/>
+      <c r="D217" s="47"/>
+      <c r="E217" s="49"/>
+      <c r="F217" s="47"/>
+      <c r="G217" s="47"/>
+      <c r="H217" s="48"/>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <f>MAX(A206:A217)+1</f>
         <v>174</v>
@@ -6600,7 +6626,7 @@
       </c>
       <c r="H218" s="15"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <f>MAX(A207:A218)+1</f>
         <v>175</v>
@@ -6629,7 +6655,7 @@
       </c>
       <c r="H219" s="15"/>
     </row>
-    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <f>MAX(A208:A219)+1</f>
         <v>176</v>
@@ -6660,15 +6686,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="45"/>
-      <c r="B221" s="46"/>
-      <c r="C221" s="46"/>
-      <c r="D221" s="46"/>
-      <c r="E221" s="48"/>
-      <c r="F221" s="46"/>
-      <c r="G221" s="46"/>
-      <c r="H221" s="47"/>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B221" s="47"/>
+      <c r="C221" s="47"/>
+      <c r="D221" s="47"/>
+      <c r="E221" s="49"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="48"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6812,14 +6840,14 @@
       <c r="H226" s="36"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="45"/>
-      <c r="B227" s="46"/>
-      <c r="C227" s="46"/>
-      <c r="D227" s="46"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="46"/>
-      <c r="G227" s="46"/>
-      <c r="H227" s="47"/>
+      <c r="A227" s="46"/>
+      <c r="B227" s="47"/>
+      <c r="C227" s="47"/>
+      <c r="D227" s="47"/>
+      <c r="E227" s="49"/>
+      <c r="F227" s="47"/>
+      <c r="G227" s="47"/>
+      <c r="H227" s="48"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6913,14 +6941,14 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="45"/>
-      <c r="B231" s="46"/>
-      <c r="C231" s="46"/>
-      <c r="D231" s="46"/>
-      <c r="E231" s="48"/>
-      <c r="F231" s="46"/>
-      <c r="G231" s="46"/>
-      <c r="H231" s="47"/>
+      <c r="A231" s="46"/>
+      <c r="B231" s="47"/>
+      <c r="C231" s="47"/>
+      <c r="D231" s="47"/>
+      <c r="E231" s="49"/>
+      <c r="F231" s="47"/>
+      <c r="G231" s="47"/>
+      <c r="H231" s="48"/>
     </row>
     <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -6999,7 +7027,9 @@
         <f t="shared" si="255"/>
         <v>46003</v>
       </c>
-      <c r="E234" s="5"/>
+      <c r="E234" s="5">
+        <v>11027</v>
+      </c>
       <c r="F234" s="42">
         <f t="shared" ref="F234:G234" si="259">IFERROR(IF(F224,F224+14,""),"")</f>
         <v>46008</v>
@@ -7058,39 +7088,156 @@
         <f t="shared" si="260"/>
         <v>46013</v>
       </c>
-      <c r="H236" s="36"/>
+      <c r="H236" s="45" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="45"/>
-      <c r="B237" s="46"/>
-      <c r="C237" s="46"/>
-      <c r="D237" s="46"/>
-      <c r="E237" s="48"/>
-      <c r="F237" s="46"/>
-      <c r="G237" s="46"/>
-      <c r="H237" s="47"/>
+      <c r="A237" s="46"/>
+      <c r="B237" s="47"/>
+      <c r="C237" s="47"/>
+      <c r="D237" s="47"/>
+      <c r="E237" s="47"/>
+      <c r="F237" s="47"/>
+      <c r="G237" s="47"/>
+      <c r="H237" s="48"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <f>MAX(A226:A237)+1</f>
+        <v>190</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" s="8">
+        <f>IFERROR(IF(C228,C228+14,""),"")</f>
+        <v>46006</v>
+      </c>
+      <c r="D238" s="8">
+        <f t="shared" ref="D238" si="261">IFERROR(IF(D228,D228+14,""),"")</f>
+        <v>46007</v>
+      </c>
+      <c r="E238" s="5"/>
+      <c r="F238" s="8">
+        <f t="shared" ref="F238:G238" si="262">IFERROR(IF(F228,F228+14,""),"")</f>
+        <v>46014</v>
+      </c>
+      <c r="G238" s="8">
+        <f t="shared" si="262"/>
+        <v>46014</v>
+      </c>
+      <c r="H238" s="15"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <f>MAX(A227:A238)+1</f>
+        <v>191</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239" s="8">
+        <f t="shared" ref="C239:D239" si="263">IFERROR(IF(C229,C229+14,""),"")</f>
+        <v>46009</v>
+      </c>
+      <c r="D239" s="8">
+        <f t="shared" si="263"/>
+        <v>46010</v>
+      </c>
+      <c r="E239" s="5"/>
+      <c r="F239" s="8">
+        <f t="shared" ref="F239:G239" si="264">IFERROR(IF(F229,F229+14,""),"")</f>
+        <v>46015</v>
+      </c>
+      <c r="G239" s="8">
+        <f t="shared" si="264"/>
+        <v>46016</v>
+      </c>
+      <c r="H239" s="15"/>
+    </row>
+    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <f>MAX(A228:A239)+1</f>
+        <v>192</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="8">
+        <f t="shared" ref="C240:D240" si="265">IFERROR(IF(C230,C230+14,""),"")</f>
+        <v>46006</v>
+      </c>
+      <c r="D240" s="63">
+        <v>46006</v>
+      </c>
+      <c r="E240" s="5">
+        <v>1306</v>
+      </c>
+      <c r="F240" s="8" t="str">
+        <f t="shared" ref="F240:G240" si="266">IFERROR(IF(F230,F230+14,""),"")</f>
+        <v/>
+      </c>
+      <c r="G240" s="8" t="str">
+        <f t="shared" si="266"/>
+        <v/>
+      </c>
+      <c r="H240" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="46"/>
+      <c r="B241" s="47"/>
+      <c r="C241" s="47"/>
+      <c r="D241" s="47"/>
+      <c r="E241" s="49"/>
+      <c r="F241" s="47"/>
+      <c r="G241" s="47"/>
+      <c r="H241" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H220" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
+  <autoFilter ref="A8:H226" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
     <filterColumn colId="0">
       <filters>
-        <filter val="174"/>
-        <filter val="175"/>
-        <filter val="176"/>
+        <filter val="177"/>
+        <filter val="178"/>
+        <filter val="179"/>
+        <filter val="180"/>
+        <filter val="181"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="A241:H241"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
     <mergeCell ref="A237:H237"/>
     <mergeCell ref="A231:H231"/>
     <mergeCell ref="A227:H227"/>
     <mergeCell ref="A207:H207"/>
     <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A186:H186"/>
@@ -7101,30 +7248,12 @@
     <mergeCell ref="A152:H152"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8C7FFA-C19A-4E9F-8262-6E883850C2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E04CF7C-1137-4976-B2CB-1AB94300B8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="70">
   <si>
     <t>Контракт</t>
   </si>
@@ -306,7 +306,7 @@
     <t>не заказывали</t>
   </si>
   <si>
-    <t>отгрузка на месте / заказ отправили без расчета</t>
+    <t>отгрузка на месте / заказ отправили без расчета / корректировка 16,12,25</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,12 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,10 +716,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,18 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,7 +1048,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K240" sqref="K240"/>
+      <selection pane="bottomLeft" activeCell="M237" sqref="M237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,24 +1060,24 @@
     <col min="5" max="5" width="8" style="6" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1107,12 +1098,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="60" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1129,10 +1120,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1149,10 +1140,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1163,14 +1154,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="58"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1187,10 +1178,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1198,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1357,7 +1348,7 @@
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1507,10 +1498,10 @@
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
-      <c r="E20" s="49"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="60"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1659,10 +1650,10 @@
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="60"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1869,10 +1860,10 @@
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
-      <c r="E34" s="49"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
-      <c r="H34" s="60"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2063,10 +2054,10 @@
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
-      <c r="E41" s="49"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="H41" s="60"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2274,10 +2265,10 @@
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
-      <c r="E49" s="49"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
-      <c r="H49" s="60"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2398,10 +2389,10 @@
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
-      <c r="E54" s="49"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
-      <c r="H54" s="60"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2559,7 +2550,7 @@
       <c r="E61" s="47"/>
       <c r="F61" s="47"/>
       <c r="G61" s="47"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="49"/>
     </row>
     <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2683,7 +2674,7 @@
       <c r="E66" s="47"/>
       <c r="F66" s="47"/>
       <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2867,7 +2858,7 @@
       <c r="E73" s="47"/>
       <c r="F73" s="47"/>
       <c r="G73" s="47"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="49"/>
     </row>
     <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2995,7 +2986,7 @@
       <c r="E78" s="47"/>
       <c r="F78" s="47"/>
       <c r="G78" s="47"/>
-      <c r="H78" s="48"/>
+      <c r="H78" s="49"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3179,7 +3170,7 @@
       <c r="E85" s="47"/>
       <c r="F85" s="47"/>
       <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="H85" s="49"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3306,7 +3297,7 @@
       <c r="E90" s="47"/>
       <c r="F90" s="47"/>
       <c r="G90" s="47"/>
-      <c r="H90" s="48"/>
+      <c r="H90" s="49"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3489,7 +3480,7 @@
       <c r="E97" s="47"/>
       <c r="F97" s="47"/>
       <c r="G97" s="47"/>
-      <c r="H97" s="48"/>
+      <c r="H97" s="49"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3614,7 +3605,7 @@
       <c r="E102" s="47"/>
       <c r="F102" s="47"/>
       <c r="G102" s="47"/>
-      <c r="H102" s="48"/>
+      <c r="H102" s="49"/>
     </row>
     <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3801,7 +3792,7 @@
       <c r="E109" s="47"/>
       <c r="F109" s="47"/>
       <c r="G109" s="47"/>
-      <c r="H109" s="48"/>
+      <c r="H109" s="49"/>
     </row>
     <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3984,7 +3975,7 @@
       <c r="E116" s="47"/>
       <c r="F116" s="47"/>
       <c r="G116" s="47"/>
-      <c r="H116" s="48"/>
+      <c r="H116" s="49"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4092,7 +4083,7 @@
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47"/>
-      <c r="H121" s="48"/>
+      <c r="H121" s="49"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4275,7 +4266,7 @@
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47"/>
-      <c r="H128" s="48"/>
+      <c r="H128" s="49"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4403,7 +4394,7 @@
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47"/>
-      <c r="H133" s="48"/>
+      <c r="H133" s="49"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4591,7 +4582,7 @@
       <c r="E140" s="47"/>
       <c r="F140" s="47"/>
       <c r="G140" s="47"/>
-      <c r="H140" s="48"/>
+      <c r="H140" s="49"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4716,10 +4707,10 @@
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
       <c r="D145" s="47"/>
-      <c r="E145" s="49"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="47"/>
       <c r="G145" s="47"/>
-      <c r="H145" s="48"/>
+      <c r="H145" s="49"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4904,10 +4895,10 @@
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
       <c r="D152" s="47"/>
-      <c r="E152" s="49"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="47"/>
       <c r="G152" s="47"/>
-      <c r="H152" s="48"/>
+      <c r="H152" s="49"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -5003,10 +4994,10 @@
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
       <c r="D156" s="47"/>
-      <c r="E156" s="49"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="47"/>
       <c r="G156" s="47"/>
-      <c r="H156" s="48"/>
+      <c r="H156" s="49"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5165,10 +5156,10 @@
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
       <c r="D162" s="47"/>
-      <c r="E162" s="49"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="47"/>
       <c r="G162" s="47"/>
-      <c r="H162" s="48"/>
+      <c r="H162" s="49"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5269,10 +5260,10 @@
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
       <c r="D166" s="47"/>
-      <c r="E166" s="49"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="47"/>
       <c r="G166" s="47"/>
-      <c r="H166" s="48"/>
+      <c r="H166" s="49"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5431,10 +5422,10 @@
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
       <c r="D172" s="47"/>
-      <c r="E172" s="49"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="47"/>
       <c r="G172" s="47"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="49"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5535,10 +5526,10 @@
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
       <c r="D176" s="47"/>
-      <c r="E176" s="49"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="47"/>
       <c r="G176" s="47"/>
-      <c r="H176" s="48"/>
+      <c r="H176" s="49"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5698,10 +5689,10 @@
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
       <c r="D182" s="47"/>
-      <c r="E182" s="49"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="47"/>
       <c r="G182" s="47"/>
-      <c r="H182" s="48"/>
+      <c r="H182" s="49"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5799,10 +5790,10 @@
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
       <c r="D186" s="47"/>
-      <c r="E186" s="49"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="47"/>
       <c r="G186" s="47"/>
-      <c r="H186" s="48"/>
+      <c r="H186" s="49"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5960,10 +5951,10 @@
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
       <c r="D192" s="47"/>
-      <c r="E192" s="49"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="47"/>
       <c r="G192" s="47"/>
-      <c r="H192" s="48"/>
+      <c r="H192" s="49"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6064,10 +6055,10 @@
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
       <c r="D196" s="47"/>
-      <c r="E196" s="49"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="47"/>
       <c r="G196" s="47"/>
-      <c r="H196" s="48"/>
+      <c r="H196" s="49"/>
     </row>
     <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6224,10 +6215,10 @@
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
       <c r="D202" s="47"/>
-      <c r="E202" s="49"/>
+      <c r="E202" s="48"/>
       <c r="F202" s="47"/>
       <c r="G202" s="47"/>
-      <c r="H202" s="48"/>
+      <c r="H202" s="49"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6352,10 +6343,10 @@
       <c r="B207" s="47"/>
       <c r="C207" s="47"/>
       <c r="D207" s="47"/>
-      <c r="E207" s="49"/>
+      <c r="E207" s="48"/>
       <c r="F207" s="47"/>
       <c r="G207" s="47"/>
-      <c r="H207" s="48"/>
+      <c r="H207" s="49"/>
     </row>
     <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6455,10 +6446,10 @@
       <c r="B211" s="47"/>
       <c r="C211" s="47"/>
       <c r="D211" s="47"/>
-      <c r="E211" s="49"/>
+      <c r="E211" s="48"/>
       <c r="F211" s="47"/>
       <c r="G211" s="47"/>
-      <c r="H211" s="48"/>
+      <c r="H211" s="49"/>
     </row>
     <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6592,10 +6583,10 @@
       <c r="B217" s="47"/>
       <c r="C217" s="47"/>
       <c r="D217" s="47"/>
-      <c r="E217" s="49"/>
+      <c r="E217" s="48"/>
       <c r="F217" s="47"/>
       <c r="G217" s="47"/>
-      <c r="H217" s="48"/>
+      <c r="H217" s="49"/>
     </row>
     <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6693,10 +6684,10 @@
       <c r="B221" s="47"/>
       <c r="C221" s="47"/>
       <c r="D221" s="47"/>
-      <c r="E221" s="49"/>
+      <c r="E221" s="48"/>
       <c r="F221" s="47"/>
       <c r="G221" s="47"/>
-      <c r="H221" s="48"/>
+      <c r="H221" s="49"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6844,10 +6835,10 @@
       <c r="B227" s="47"/>
       <c r="C227" s="47"/>
       <c r="D227" s="47"/>
-      <c r="E227" s="49"/>
+      <c r="E227" s="48"/>
       <c r="F227" s="47"/>
       <c r="G227" s="47"/>
-      <c r="H227" s="48"/>
+      <c r="H227" s="49"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6945,10 +6936,10 @@
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
       <c r="D231" s="47"/>
-      <c r="E231" s="49"/>
+      <c r="E231" s="48"/>
       <c r="F231" s="47"/>
       <c r="G231" s="47"/>
-      <c r="H231" s="48"/>
+      <c r="H231" s="49"/>
     </row>
     <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -7100,7 +7091,7 @@
       <c r="E237" s="47"/>
       <c r="F237" s="47"/>
       <c r="G237" s="47"/>
-      <c r="H237" s="48"/>
+      <c r="H237" s="49"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
@@ -7127,7 +7118,9 @@
         <f t="shared" si="262"/>
         <v>46014</v>
       </c>
-      <c r="H238" s="15"/>
+      <c r="H238" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
@@ -7138,7 +7131,7 @@
         <v>18</v>
       </c>
       <c r="C239" s="8">
-        <f t="shared" ref="C239:D239" si="263">IFERROR(IF(C229,C229+14,""),"")</f>
+        <f t="shared" ref="C239:D240" si="263">IFERROR(IF(C229,C229+14,""),"")</f>
         <v>46009</v>
       </c>
       <c r="D239" s="8">
@@ -7154,7 +7147,9 @@
         <f t="shared" si="264"/>
         <v>46016</v>
       </c>
-      <c r="H239" s="15"/>
+      <c r="H239" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
@@ -7165,14 +7160,15 @@
         <v>19</v>
       </c>
       <c r="C240" s="8">
-        <f t="shared" ref="C240:D240" si="265">IFERROR(IF(C230,C230+14,""),"")</f>
+        <f t="shared" ref="C240" si="265">IFERROR(IF(C230,C230+14,""),"")</f>
         <v>46006</v>
       </c>
-      <c r="D240" s="63">
-        <v>46006</v>
+      <c r="D240" s="8">
+        <f t="shared" si="263"/>
+        <v>46007</v>
       </c>
       <c r="E240" s="5">
-        <v>1306</v>
+        <v>175</v>
       </c>
       <c r="F240" s="8" t="str">
         <f t="shared" ref="F240:G240" si="266">IFERROR(IF(F230,F230+14,""),"")</f>
@@ -7191,10 +7187,10 @@
       <c r="B241" s="47"/>
       <c r="C241" s="47"/>
       <c r="D241" s="47"/>
-      <c r="E241" s="49"/>
+      <c r="E241" s="48"/>
       <c r="F241" s="47"/>
       <c r="G241" s="47"/>
-      <c r="H241" s="48"/>
+      <c r="H241" s="49"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H226" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -7209,6 +7205,35 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="45">
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A172:H172"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="A241:H241"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="A85:H85"/>
@@ -7225,35 +7250,6 @@
     <mergeCell ref="A227:H227"/>
     <mergeCell ref="A207:H207"/>
     <mergeCell ref="A202:H202"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A162:H162"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A102:H102"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E04CF7C-1137-4976-B2CB-1AB94300B8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE63891-7158-41CB-B3FA-5841B67103B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,10 +303,10 @@
     <t>заказ отправили 11,12,25</t>
   </si>
   <si>
-    <t>не заказывали</t>
+    <t>отгрузка на месте / заказ отправили без расчета / корректировка 16,12,25</t>
   </si>
   <si>
-    <t>отгрузка на месте / заказ отправили без расчета / корректировка 16,12,25</t>
+    <t>сделан заказ на 25,12,25 ориентировочно</t>
   </si>
 </sst>
 </file>
@@ -316,20 +316,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -584,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -593,7 +585,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -602,16 +594,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,37 +618,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +663,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -681,6 +670,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,59 +699,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,8 +1036,8 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M237" sqref="M237"/>
+      <pane ySplit="8" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K244" sqref="K244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,19 +1054,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1098,12 +1087,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1120,10 +1109,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1140,10 +1129,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1154,14 +1143,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1178,10 +1167,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="61"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1187,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1339,16 +1328,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1492,16 +1481,16 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="50"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1644,16 +1633,16 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="48"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="50"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1854,16 +1843,16 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="50"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2048,16 +2037,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="48"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="50"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2148,7 +2137,7 @@
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" ref="A45:A48" si="42">MAX(A33:A44)+1</f>
         <v>32</v>
@@ -2259,18 +2248,18 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="48"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="50"/>
-    </row>
-    <row r="50" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f>MAX(A37:A49)+1</f>
         <v>36</v>
@@ -2383,16 +2372,16 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="50"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2471,7 +2460,7 @@
       </c>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f t="shared" si="51"/>
         <v>43</v>
@@ -2541,18 +2530,18 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="49"/>
-    </row>
-    <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+    </row>
+    <row r="62" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <f t="shared" ref="A62:A120" si="52">MAX(A50:A61)+1</f>
         <v>46</v>
@@ -2665,16 +2654,16 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="49"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2763,7 +2752,7 @@
       </c>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="52"/>
         <v>53</v>
@@ -2849,18 +2838,18 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="49"/>
-    </row>
-    <row r="74" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="47"/>
+    </row>
+    <row r="74" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="52"/>
         <v>56</v>
@@ -2977,16 +2966,16 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="49"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3075,7 +3064,7 @@
       </c>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <f t="shared" si="52"/>
         <v>63</v>
@@ -3161,16 +3150,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="49"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="47"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3288,16 +3277,16 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="49"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="47"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3443,7 +3432,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="52"/>
         <v>75</v>
@@ -3471,16 +3460,16 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="49"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3596,18 +3585,18 @@
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="49"/>
-    </row>
-    <row r="103" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="47"/>
+    </row>
+    <row r="103" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <f t="shared" si="52"/>
         <v>80</v>
@@ -3783,18 +3772,18 @@
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="49"/>
-    </row>
-    <row r="110" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="47"/>
+    </row>
+    <row r="110" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <f t="shared" si="52"/>
         <v>86</v>
@@ -3966,16 +3955,16 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="49"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4074,16 +4063,16 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="46" t="s">
+      <c r="A121" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="47"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="49"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4257,16 +4246,16 @@
       <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="46" t="s">
+      <c r="A128" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B128" s="47"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="49"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4385,16 +4374,16 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="46" t="s">
+      <c r="A133" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="49"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="47"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4573,16 +4562,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
-      <c r="D140" s="47"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="47"/>
-      <c r="G140" s="47"/>
-      <c r="H140" s="49"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="47"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4701,16 +4690,16 @@
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="46" t="s">
+      <c r="A145" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="47"/>
-      <c r="C145" s="47"/>
-      <c r="D145" s="47"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="48"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="49"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4889,16 +4878,16 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="46" t="s">
+      <c r="A152" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="47"/>
-      <c r="C152" s="47"/>
-      <c r="D152" s="47"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
       <c r="E152" s="48"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="49"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="47"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4988,16 +4977,16 @@
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="46" t="s">
+      <c r="A156" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="47"/>
-      <c r="C156" s="47"/>
-      <c r="D156" s="47"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
       <c r="E156" s="48"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="49"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="46"/>
+      <c r="H156" s="47"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5150,16 +5139,16 @@
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B162" s="47"/>
-      <c r="C162" s="47"/>
-      <c r="D162" s="47"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46"/>
       <c r="E162" s="48"/>
-      <c r="F162" s="47"/>
-      <c r="G162" s="47"/>
-      <c r="H162" s="49"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5254,16 +5243,16 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="46" t="s">
+      <c r="A166" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="47"/>
-      <c r="C166" s="47"/>
-      <c r="D166" s="47"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="46"/>
       <c r="E166" s="48"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="49"/>
+      <c r="F166" s="46"/>
+      <c r="G166" s="46"/>
+      <c r="H166" s="47"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5416,16 +5405,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="46" t="s">
+      <c r="A172" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B172" s="47"/>
-      <c r="C172" s="47"/>
-      <c r="D172" s="47"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
       <c r="E172" s="48"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="49"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="47"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5520,16 +5509,16 @@
       <c r="H175" s="15"/>
     </row>
     <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="46" t="s">
+      <c r="A176" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B176" s="47"/>
-      <c r="C176" s="47"/>
-      <c r="D176" s="47"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46"/>
       <c r="E176" s="48"/>
-      <c r="F176" s="47"/>
-      <c r="G176" s="47"/>
-      <c r="H176" s="49"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="47"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5651,7 +5640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <f>MAX(A170:A180)+1</f>
         <v>145</v>
@@ -5683,16 +5672,16 @@
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="46" t="s">
+      <c r="A182" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B182" s="47"/>
-      <c r="C182" s="47"/>
-      <c r="D182" s="47"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
       <c r="E182" s="48"/>
-      <c r="F182" s="47"/>
-      <c r="G182" s="47"/>
-      <c r="H182" s="49"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="47"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5784,16 +5773,16 @@
       <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B186" s="47"/>
-      <c r="C186" s="47"/>
-      <c r="D186" s="47"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="46"/>
       <c r="E186" s="48"/>
-      <c r="F186" s="47"/>
-      <c r="G186" s="47"/>
-      <c r="H186" s="49"/>
+      <c r="F186" s="46"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="47"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5913,7 +5902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <f>MAX(A180:A190)+1</f>
         <v>153</v>
@@ -5945,16 +5934,16 @@
       </c>
     </row>
     <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B192" s="47"/>
-      <c r="C192" s="47"/>
-      <c r="D192" s="47"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46"/>
       <c r="E192" s="48"/>
-      <c r="F192" s="47"/>
-      <c r="G192" s="47"/>
-      <c r="H192" s="49"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="47"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -5987,7 +5976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <f t="shared" si="206"/>
         <v>155</v>
@@ -6049,18 +6038,18 @@
       <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="46" t="s">
+      <c r="A196" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B196" s="47"/>
-      <c r="C196" s="47"/>
-      <c r="D196" s="47"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="46"/>
       <c r="E196" s="48"/>
-      <c r="F196" s="47"/>
-      <c r="G196" s="47"/>
-      <c r="H196" s="49"/>
-    </row>
-    <row r="197" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="46"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="47"/>
+    </row>
+    <row r="197" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <f t="shared" ref="A197:A200" si="213">MAX(A185:A196)+1</f>
         <v>157</v>
@@ -6209,16 +6198,16 @@
       <c r="H201" s="36"/>
     </row>
     <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="46" t="s">
+      <c r="A202" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B202" s="47"/>
-      <c r="C202" s="47"/>
-      <c r="D202" s="47"/>
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="46"/>
       <c r="E202" s="48"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="47"/>
-      <c r="H202" s="49"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="47"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6337,18 +6326,18 @@
       <c r="H206" s="15"/>
     </row>
     <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="46" t="s">
+      <c r="A207" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B207" s="47"/>
-      <c r="C207" s="47"/>
-      <c r="D207" s="47"/>
+      <c r="B207" s="46"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="46"/>
       <c r="E207" s="48"/>
-      <c r="F207" s="47"/>
-      <c r="G207" s="47"/>
-      <c r="H207" s="49"/>
-    </row>
-    <row r="208" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F207" s="46"/>
+      <c r="G207" s="46"/>
+      <c r="H207" s="47"/>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <f>MAX(A196:A207)+1</f>
         <v>166</v>
@@ -6440,16 +6429,16 @@
       </c>
     </row>
     <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="46" t="s">
+      <c r="A211" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B211" s="47"/>
-      <c r="C211" s="47"/>
-      <c r="D211" s="47"/>
+      <c r="B211" s="46"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46"/>
       <c r="E211" s="48"/>
-      <c r="F211" s="47"/>
-      <c r="G211" s="47"/>
-      <c r="H211" s="49"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="47"/>
     </row>
     <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6577,16 +6566,16 @@
       <c r="H216" s="36"/>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="46" t="s">
+      <c r="A217" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B217" s="47"/>
-      <c r="C217" s="47"/>
-      <c r="D217" s="47"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="46"/>
       <c r="E217" s="48"/>
-      <c r="F217" s="47"/>
-      <c r="G217" s="47"/>
-      <c r="H217" s="49"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="46"/>
+      <c r="H217" s="47"/>
     </row>
     <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6678,16 +6667,16 @@
       </c>
     </row>
     <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="46" t="s">
+      <c r="A221" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B221" s="47"/>
-      <c r="C221" s="47"/>
-      <c r="D221" s="47"/>
+      <c r="B221" s="46"/>
+      <c r="C221" s="46"/>
+      <c r="D221" s="46"/>
       <c r="E221" s="48"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="47"/>
-      <c r="H221" s="49"/>
+      <c r="F221" s="46"/>
+      <c r="G221" s="46"/>
+      <c r="H221" s="47"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6831,14 +6820,14 @@
       <c r="H226" s="36"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="46"/>
-      <c r="B227" s="47"/>
-      <c r="C227" s="47"/>
-      <c r="D227" s="47"/>
+      <c r="A227" s="45"/>
+      <c r="B227" s="46"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="46"/>
       <c r="E227" s="48"/>
-      <c r="F227" s="47"/>
-      <c r="G227" s="47"/>
-      <c r="H227" s="49"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="46"/>
+      <c r="H227" s="47"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6932,14 +6921,14 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="46"/>
-      <c r="B231" s="47"/>
-      <c r="C231" s="47"/>
-      <c r="D231" s="47"/>
+      <c r="A231" s="45"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="46"/>
+      <c r="D231" s="46"/>
       <c r="E231" s="48"/>
-      <c r="F231" s="47"/>
-      <c r="G231" s="47"/>
-      <c r="H231" s="49"/>
+      <c r="F231" s="46"/>
+      <c r="G231" s="46"/>
+      <c r="H231" s="47"/>
     </row>
     <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -6972,7 +6961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <f t="shared" si="254"/>
         <v>186</v>
@@ -7054,7 +7043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <f>MAX(A225:A235)+1</f>
         <v>189</v>
@@ -7066,32 +7055,31 @@
         <f t="shared" si="257"/>
         <v>46002</v>
       </c>
-      <c r="D236" s="42">
-        <f t="shared" si="255"/>
-        <v>46003</v>
-      </c>
-      <c r="E236" s="43"/>
+      <c r="D236" s="40">
+        <v>46008</v>
+      </c>
+      <c r="E236" s="43">
+        <v>1287</v>
+      </c>
       <c r="F236" s="42">
-        <f t="shared" ref="F236:G236" si="260">IFERROR(IF(F226,F226+14,""),"")</f>
-        <v>46013</v>
+        <v>46016</v>
       </c>
       <c r="G236" s="42">
-        <f t="shared" si="260"/>
-        <v>46013</v>
-      </c>
-      <c r="H236" s="45" t="s">
-        <v>68</v>
+        <v>46016</v>
+      </c>
+      <c r="H236" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="46"/>
-      <c r="B237" s="47"/>
-      <c r="C237" s="47"/>
-      <c r="D237" s="47"/>
-      <c r="E237" s="47"/>
-      <c r="F237" s="47"/>
-      <c r="G237" s="47"/>
-      <c r="H237" s="49"/>
+      <c r="A237" s="45"/>
+      <c r="B237" s="46"/>
+      <c r="C237" s="46"/>
+      <c r="D237" s="46"/>
+      <c r="E237" s="46"/>
+      <c r="F237" s="46"/>
+      <c r="G237" s="46"/>
+      <c r="H237" s="47"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
@@ -7106,16 +7094,16 @@
         <v>46006</v>
       </c>
       <c r="D238" s="8">
-        <f t="shared" ref="D238" si="261">IFERROR(IF(D228,D228+14,""),"")</f>
+        <f t="shared" ref="D238" si="260">IFERROR(IF(D228,D228+14,""),"")</f>
         <v>46007</v>
       </c>
       <c r="E238" s="5"/>
       <c r="F238" s="8">
-        <f t="shared" ref="F238:G238" si="262">IFERROR(IF(F228,F228+14,""),"")</f>
+        <f t="shared" ref="F238:G238" si="261">IFERROR(IF(F228,F228+14,""),"")</f>
         <v>46014</v>
       </c>
       <c r="G238" s="8">
-        <f t="shared" si="262"/>
+        <f t="shared" si="261"/>
         <v>46014</v>
       </c>
       <c r="H238" s="15" t="s">
@@ -7131,20 +7119,20 @@
         <v>18</v>
       </c>
       <c r="C239" s="8">
-        <f t="shared" ref="C239:D240" si="263">IFERROR(IF(C229,C229+14,""),"")</f>
+        <f t="shared" ref="C239:D240" si="262">IFERROR(IF(C229,C229+14,""),"")</f>
         <v>46009</v>
       </c>
       <c r="D239" s="8">
-        <f t="shared" si="263"/>
+        <f t="shared" si="262"/>
         <v>46010</v>
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="8">
-        <f t="shared" ref="F239:G239" si="264">IFERROR(IF(F229,F229+14,""),"")</f>
+        <f t="shared" ref="F239:G239" si="263">IFERROR(IF(F229,F229+14,""),"")</f>
         <v>46015</v>
       </c>
       <c r="G239" s="8">
-        <f t="shared" si="264"/>
+        <f t="shared" si="263"/>
         <v>46016</v>
       </c>
       <c r="H239" s="15" t="s">
@@ -7160,37 +7148,37 @@
         <v>19</v>
       </c>
       <c r="C240" s="8">
-        <f t="shared" ref="C240" si="265">IFERROR(IF(C230,C230+14,""),"")</f>
+        <f t="shared" ref="C240" si="264">IFERROR(IF(C230,C230+14,""),"")</f>
         <v>46006</v>
       </c>
       <c r="D240" s="8">
-        <f t="shared" si="263"/>
+        <f t="shared" si="262"/>
         <v>46007</v>
       </c>
       <c r="E240" s="5">
         <v>175</v>
       </c>
       <c r="F240" s="8" t="str">
-        <f t="shared" ref="F240:G240" si="266">IFERROR(IF(F230,F230+14,""),"")</f>
+        <f t="shared" ref="F240:G240" si="265">IFERROR(IF(F230,F230+14,""),"")</f>
         <v/>
       </c>
       <c r="G240" s="8" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="265"/>
         <v/>
       </c>
       <c r="H240" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="46"/>
-      <c r="B241" s="47"/>
-      <c r="C241" s="47"/>
-      <c r="D241" s="47"/>
+      <c r="A241" s="45"/>
+      <c r="B241" s="46"/>
+      <c r="C241" s="46"/>
+      <c r="D241" s="46"/>
       <c r="E241" s="48"/>
-      <c r="F241" s="47"/>
-      <c r="G241" s="47"/>
-      <c r="H241" s="49"/>
+      <c r="F241" s="46"/>
+      <c r="G241" s="46"/>
+      <c r="H241" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H226" xr:uid="{9D5F3532-A341-428E-AFDB-DF9AAA83E1F5}">
@@ -7205,6 +7193,35 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="45">
+    <mergeCell ref="A241:H241"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A237:H237"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A156:H156"/>
     <mergeCell ref="A186:H186"/>
@@ -7221,35 +7238,6 @@
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A121:H121"/>
     <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A241:H241"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A237:H237"/>
-    <mergeCell ref="A231:H231"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A202:H202"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE63891-7158-41CB-B3FA-5841B67103B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F93EEA-8958-42D9-BE5C-7FD20F2A0F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$8:$H$226</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -297,9 +297,6 @@
     <t>04,12,25 корректировка заказа</t>
   </si>
   <si>
-    <t>11,12,25 будет корректировка</t>
-  </si>
-  <si>
     <t>заказ отправили 11,12,25</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>сделан заказ на 25,12,25 ориентировочно</t>
+  </si>
+  <si>
+    <t>11,12,25 будет корректировка + новинки</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K244" sqref="K244"/>
+      <pane ySplit="8" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J243" sqref="J243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6943,11 +6943,12 @@
         <v>45999</v>
       </c>
       <c r="D232" s="42">
-        <f t="shared" ref="D232:D236" si="255">IFERROR(IF(D222,D222+14,""),"")</f>
+        <f t="shared" ref="D232:D235" si="255">IFERROR(IF(D222,D222+14,""),"")</f>
         <v>46000</v>
       </c>
       <c r="E232" s="43">
-        <v>2421</v>
+        <f>2421+144</f>
+        <v>2565</v>
       </c>
       <c r="F232" s="42">
         <f t="shared" ref="F232:G232" si="256">IFERROR(IF(F222,F222+14,""),"")</f>
@@ -6958,7 +6959,7 @@
         <v>46006</v>
       </c>
       <c r="H232" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -6988,7 +6989,7 @@
         <v>46007</v>
       </c>
       <c r="H233" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7061,14 +7062,14 @@
       <c r="E236" s="43">
         <v>1287</v>
       </c>
-      <c r="F236" s="42">
+      <c r="F236" s="40">
         <v>46016</v>
       </c>
-      <c r="G236" s="42">
+      <c r="G236" s="40">
         <v>46016</v>
       </c>
       <c r="H236" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7167,7 +7168,7 @@
         <v/>
       </c>
       <c r="H240" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7240,6 +7241,6 @@
     <mergeCell ref="A102:H102"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/графики/график Ташкент.xlsx
+++ b/графики/график Ташкент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F93EEA-8958-42D9-BE5C-7FD20F2A0F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48FD682-342A-46CA-ABD5-D75092D30F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="71">
   <si>
     <t>Контракт</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>11,12,25 будет корректировка + новинки</t>
+  </si>
+  <si>
+    <t>сделан заказ на 26,12,25 ориентировочно</t>
   </si>
 </sst>
 </file>
@@ -705,10 +708,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,15 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,8 +1039,8 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J243" sqref="J243"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J240" sqref="J240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,19 +1057,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1087,12 +1090,12 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1109,10 +1112,10 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1129,10 +1132,10 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1143,14 +1146,14 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1167,10 +1170,10 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1187,7 +1190,7 @@
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1337,7 +1340,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1487,10 +1490,10 @@
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1639,10 +1642,10 @@
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1849,10 +1852,10 @@
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2043,10 +2046,10 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="48"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2254,10 +2257,10 @@
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="48"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2378,10 +2381,10 @@
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2539,7 +2542,7 @@
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2663,7 +2666,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2847,7 +2850,7 @@
       <c r="E73" s="46"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2975,7 +2978,7 @@
       <c r="E78" s="46"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3159,7 +3162,7 @@
       <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
-      <c r="H85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3286,7 +3289,7 @@
       <c r="E90" s="46"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="47"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -3469,7 +3472,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="47"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -3594,7 +3597,7 @@
       <c r="E102" s="46"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="47"/>
+      <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3781,7 +3784,7 @@
       <c r="E109" s="46"/>
       <c r="F109" s="46"/>
       <c r="G109" s="46"/>
-      <c r="H109" s="47"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -3964,7 +3967,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
-      <c r="H116" s="47"/>
+      <c r="H116" s="48"/>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -4072,7 +4075,7 @@
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
-      <c r="H121" s="47"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -4255,7 +4258,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="47"/>
+      <c r="H128" s="48"/>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -4383,7 +4386,7 @@
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
       <c r="G133" s="46"/>
-      <c r="H133" s="47"/>
+      <c r="H133" s="48"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -4571,7 +4574,7 @@
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
-      <c r="H140" s="47"/>
+      <c r="H140" s="48"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4696,10 +4699,10 @@
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
-      <c r="E145" s="48"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="46"/>
       <c r="G145" s="46"/>
-      <c r="H145" s="47"/>
+      <c r="H145" s="48"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -4884,10 +4887,10 @@
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
-      <c r="H152" s="47"/>
+      <c r="H152" s="48"/>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -4983,10 +4986,10 @@
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
-      <c r="E156" s="48"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="46"/>
       <c r="G156" s="46"/>
-      <c r="H156" s="47"/>
+      <c r="H156" s="48"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -5145,10 +5148,10 @@
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
-      <c r="E162" s="48"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="46"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="47"/>
+      <c r="H162" s="48"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -5249,10 +5252,10 @@
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
-      <c r="E166" s="48"/>
+      <c r="E166" s="47"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
-      <c r="H166" s="47"/>
+      <c r="H166" s="48"/>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -5411,10 +5414,10 @@
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
-      <c r="E172" s="48"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="46"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="47"/>
+      <c r="H172" s="48"/>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -5515,10 +5518,10 @@
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
-      <c r="E176" s="48"/>
+      <c r="E176" s="47"/>
       <c r="F176" s="46"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="47"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -5678,10 +5681,10 @@
       <c r="B182" s="46"/>
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
-      <c r="E182" s="48"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="47"/>
+      <c r="H182" s="48"/>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -5779,10 +5782,10 @@
       <c r="B186" s="46"/>
       <c r="C186" s="46"/>
       <c r="D186" s="46"/>
-      <c r="E186" s="48"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
-      <c r="H186" s="47"/>
+      <c r="H186" s="48"/>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -5940,10 +5943,10 @@
       <c r="B192" s="46"/>
       <c r="C192" s="46"/>
       <c r="D192" s="46"/>
-      <c r="E192" s="48"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="46"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="47"/>
+      <c r="H192" s="48"/>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -6044,10 +6047,10 @@
       <c r="B196" s="46"/>
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
-      <c r="E196" s="48"/>
+      <c r="E196" s="47"/>
       <c r="F196" s="46"/>
       <c r="G196" s="46"/>
-      <c r="H196" s="47"/>
+      <c r="H196" s="48"/>
     </row>
     <row r="197" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -6204,10 +6207,10 @@
       <c r="B202" s="46"/>
       <c r="C202" s="46"/>
       <c r="D202" s="46"/>
-      <c r="E202" s="48"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="46"/>
       <c r="G202" s="46"/>
-      <c r="H202" s="47"/>
+      <c r="H202" s="48"/>
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -6332,10 +6335,10 @@
       <c r="B207" s="46"/>
       <c r="C207" s="46"/>
       <c r="D207" s="46"/>
-      <c r="E207" s="48"/>
+      <c r="E207" s="47"/>
       <c r="F207" s="46"/>
       <c r="G207" s="46"/>
-      <c r="H207" s="47"/>
+      <c r="H207" s="48"/>
     </row>
     <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -6435,10 +6438,10 @@
       <c r="B211" s="46"/>
       <c r="C211" s="46"/>
       <c r="D211" s="46"/>
-      <c r="E211" s="48"/>
+      <c r="E211" s="47"/>
       <c r="F211" s="46"/>
       <c r="G211" s="46"/>
-      <c r="H211" s="47"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -6572,10 +6575,10 @@
       <c r="B217" s="46"/>
       <c r="C217" s="46"/>
       <c r="D217" s="46"/>
-      <c r="E217" s="48"/>
+      <c r="E217" s="47"/>
       <c r="F217" s="46"/>
       <c r="G217" s="46"/>
-      <c r="H217" s="47"/>
+      <c r="H217" s="48"/>
     </row>
     <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -6673,10 +6676,10 @@
       <c r="B221" s="46"/>
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="48"/>
+      <c r="E221" s="47"/>
       <c r="F221" s="46"/>
       <c r="G221" s="46"/>
-      <c r="H221" s="47"/>
+      <c r="H221" s="48"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -6824,10 +6827,10 @@
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
       <c r="D227" s="46"/>
-      <c r="E227" s="48"/>
+      <c r="E227" s="47"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
-      <c r="H227" s="47"/>
+      <c r="H227" s="48"/>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -6925,10 +6928,10 @@
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
       <c r="D231" s="46"/>
-      <c r="E231" s="48"/>
+      <c r="E231" s="47"/>
       <c r="F231" s="46"/>
       <c r="G231" s="46"/>
-      <c r="H231" s="47"/>
+      <c r="H231" s="48"/>
     </row>
     <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -7080,9 +7083,9 @@
 